--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C4D9349-54CC-4184-AB2E-63BFDAB84712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0192C75B-5756-41AF-B350-2BD8F53B61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
-    <sheet name="投手" sheetId="2" r:id="rId2"/>
-    <sheet name="元データ" sheetId="3" r:id="rId3"/>
+    <sheet name="打撃 総合" sheetId="4" r:id="rId2"/>
+    <sheet name="投手" sheetId="2" r:id="rId3"/>
+    <sheet name="元データ" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>打者</t>
   </si>
@@ -584,9 +585,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="193" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +691,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -768,12 +791,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,18 +842,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -849,7 +863,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -858,37 +872,59 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="184" formatCode="&quot;捕&quot;"/>
+      <numFmt numFmtId="177" formatCode="&quot;捕&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="185" formatCode="&quot;一&quot;"/>
+      <numFmt numFmtId="178" formatCode="&quot;一&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;二&quot;"/>
+      <numFmt numFmtId="179" formatCode="&quot;二&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="187" formatCode="&quot;三&quot;"/>
+      <numFmt numFmtId="180" formatCode="&quot;三&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="188" formatCode="&quot;遊&quot;"/>
+      <numFmt numFmtId="181" formatCode="&quot;遊&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="189" formatCode="&quot;左&quot;"/>
+      <numFmt numFmtId="182" formatCode="&quot;左&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="190" formatCode="&quot;中&quot;"/>
+      <numFmt numFmtId="183" formatCode="&quot;中&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="191" formatCode="&quot;右&quot;"/>
+      <numFmt numFmtId="184" formatCode="&quot;右&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="183" formatCode="&quot;投&quot;"/>
+      <numFmt numFmtId="185" formatCode="&quot;投&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,7 +1259,786 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="str">
+        <f>'打撃 総合'!A1</f>
+        <v>打者</v>
+      </c>
+      <c r="B1" s="26" t="str">
+        <f>'打撃 総合'!B1</f>
+        <v>出場</v>
+      </c>
+      <c r="C1" s="26" t="str">
+        <f>'打撃 総合'!C1</f>
+        <v>打席</v>
+      </c>
+      <c r="D1" s="26" t="str">
+        <f>'打撃 総合'!D1</f>
+        <v>打数</v>
+      </c>
+      <c r="E1" s="26" t="str">
+        <f>'打撃 総合'!E1</f>
+        <v>安打</v>
+      </c>
+      <c r="F1" s="26" t="str">
+        <f>'打撃 総合'!F1</f>
+        <v>四球</v>
+      </c>
+      <c r="G1" s="26" t="str">
+        <f>'打撃 総合'!I1</f>
+        <v>打点</v>
+      </c>
+      <c r="H1" s="26" t="str">
+        <f>'打撃 総合'!L1</f>
+        <v>本塁打</v>
+      </c>
+      <c r="I1" s="26" t="str">
+        <f>'打撃 総合'!M1</f>
+        <v>三振</v>
+      </c>
+      <c r="J1" s="26" t="str">
+        <f>'打撃 総合'!N1</f>
+        <v>打率</v>
+      </c>
+      <c r="K1" s="26" t="str">
+        <f>'打撃 総合'!O1</f>
+        <v>出塁率</v>
+      </c>
+      <c r="L1" s="26" t="str">
+        <f>'打撃 総合'!Q1</f>
+        <v>OPS</v>
+      </c>
+      <c r="M1" s="26" t="str">
+        <f>'打撃 総合'!R1</f>
+        <v>失策</v>
+      </c>
+      <c r="N1" s="29" t="str">
+        <f>'打撃 総合'!U1</f>
+        <v>守備率</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="str">
+        <f>'打撃 総合'!A2</f>
+        <v>安部滉</v>
+      </c>
+      <c r="B2" s="26">
+        <f>'打撃 総合'!B2</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="26">
+        <f>'打撃 総合'!C2</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="26">
+        <f>'打撃 総合'!D2</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="26">
+        <f>'打撃 総合'!E2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
+        <f>'打撃 総合'!F2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <f>'打撃 総合'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <f>'打撃 総合'!L2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <f>'打撃 総合'!M2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="28">
+        <f>'打撃 総合'!N2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="28">
+        <f>'打撃 総合'!O2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="28">
+        <f>'打撃 総合'!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="26">
+        <f>'打撃 総合'!R2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="29">
+        <f>'打撃 総合'!U2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="str">
+        <f>'打撃 総合'!A3</f>
+        <v>中井</v>
+      </c>
+      <c r="B3" s="26">
+        <f>'打撃 総合'!B3</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="26">
+        <f>'打撃 総合'!C3</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="26">
+        <f>'打撃 総合'!D3</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="26">
+        <f>'打撃 総合'!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <f>'打撃 総合'!F3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
+        <f>'打撃 総合'!I3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <f>'打撃 総合'!L3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <f>'打撃 総合'!M3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="28">
+        <f>'打撃 総合'!N3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="28">
+        <f>'打撃 総合'!O3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L3" s="28">
+        <f>'打撃 総合'!Q3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M3" s="26">
+        <f>'打撃 総合'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="29">
+        <f>'打撃 総合'!U3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="str">
+        <f>'打撃 総合'!A4</f>
+        <v>野場</v>
+      </c>
+      <c r="B4" s="26">
+        <f>'打撃 総合'!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="26">
+        <f>'打撃 総合'!C4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="26">
+        <f>'打撃 総合'!D4</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="26">
+        <f>'打撃 総合'!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <f>'打撃 総合'!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <f>'打撃 総合'!I4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <f>'打撃 総合'!L4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
+        <f>'打撃 総合'!M4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="28">
+        <f>'打撃 総合'!N4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="28">
+        <f>'打撃 総合'!O4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="28">
+        <f>'打撃 総合'!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="26">
+        <f>'打撃 総合'!R4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="29" t="e">
+        <f>'打撃 総合'!U4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="str">
+        <f>'打撃 総合'!A5</f>
+        <v>池澤</v>
+      </c>
+      <c r="B5" s="26">
+        <f>'打撃 総合'!B5</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="26">
+        <f>'打撃 総合'!C5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="26">
+        <f>'打撃 総合'!D5</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="26">
+        <f>'打撃 総合'!E5</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="26">
+        <f>'打撃 総合'!F5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="26">
+        <f>'打撃 総合'!I5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <f>'打撃 総合'!L5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <f>'打撃 総合'!M5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
+        <f>'打撃 総合'!N5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="28">
+        <f>'打撃 総合'!O5</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="28">
+        <f>'打撃 総合'!Q5</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="26">
+        <f>'打撃 総合'!R5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="29" t="e">
+        <f>'打撃 総合'!U5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="str">
+        <f>'打撃 総合'!A6</f>
+        <v>安部剛</v>
+      </c>
+      <c r="B6" s="26">
+        <f>'打撃 総合'!B6</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="26">
+        <f>'打撃 総合'!C6</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="26">
+        <f>'打撃 総合'!D6</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="26">
+        <f>'打撃 総合'!E6</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="26">
+        <f>'打撃 総合'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <f>'打撃 総合'!I6</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
+        <f>'打撃 総合'!L6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <f>'打撃 総合'!M6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <f>'打撃 総合'!N6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K6" s="28">
+        <f>'打撃 総合'!O6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L6" s="28">
+        <f>'打撃 総合'!Q6</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="M6" s="26">
+        <f>'打撃 総合'!R6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="29">
+        <f>'打撃 総合'!U6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="26" t="str">
+        <f>'打撃 総合'!A7</f>
+        <v>大鐘</v>
+      </c>
+      <c r="B7" s="26">
+        <f>'打撃 総合'!B7</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="26">
+        <f>'打撃 総合'!C7</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="26">
+        <f>'打撃 総合'!D7</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="26">
+        <f>'打撃 総合'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <f>'打撃 総合'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <f>'打撃 総合'!I7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <f>'打撃 総合'!L7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <f>'打撃 総合'!M7</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="28">
+        <f>'打撃 総合'!N7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <f>'打撃 総合'!O7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <f>'打撃 総合'!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <f>'打撃 総合'!R7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="29">
+        <f>'打撃 総合'!U7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="26" t="str">
+        <f>'打撃 総合'!A8</f>
+        <v>北久保</v>
+      </c>
+      <c r="B8" s="26">
+        <f>'打撃 総合'!B8</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="26">
+        <f>'打撃 総合'!C8</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="26">
+        <f>'打撃 総合'!D8</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="26">
+        <f>'打撃 総合'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <f>'打撃 総合'!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <f>'打撃 総合'!I8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <f>'打撃 総合'!L8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <f>'打撃 総合'!M8</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="28">
+        <f>'打撃 総合'!N8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="28">
+        <f>'打撃 総合'!O8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="28">
+        <f>'打撃 総合'!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="26">
+        <f>'打撃 総合'!R8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <f>'打撃 総合'!U8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="str">
+        <f>'打撃 総合'!A9</f>
+        <v>萩原</v>
+      </c>
+      <c r="B9" s="26">
+        <f>'打撃 総合'!B9</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
+        <f>'打撃 総合'!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <f>'打撃 総合'!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <f>'打撃 総合'!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <f>'打撃 総合'!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <f>'打撃 総合'!I9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <f>'打撃 総合'!L9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <f>'打撃 総合'!M9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="28" t="e">
+        <f>'打撃 総合'!N9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="28" t="e">
+        <f>'打撃 総合'!O9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="28" t="e">
+        <f>'打撃 総合'!Q9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="26">
+        <f>'打撃 総合'!R9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29">
+        <f>'打撃 総合'!U9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="str">
+        <f>'打撃 総合'!A10</f>
+        <v>岩本</v>
+      </c>
+      <c r="B10" s="26">
+        <f>'打撃 総合'!B10</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="26">
+        <f>'打撃 総合'!C10</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="26">
+        <f>'打撃 総合'!D10</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="26">
+        <f>'打撃 総合'!E10</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <f>'打撃 総合'!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <f>'打撃 総合'!I10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <f>'打撃 総合'!L10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <f>'打撃 総合'!M10</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="28">
+        <f>'打撃 総合'!N10</f>
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="28">
+        <f>'打撃 総合'!O10</f>
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="28">
+        <f>'打撃 総合'!Q10</f>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="26">
+        <f>'打撃 総合'!R10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="29">
+        <f>'打撃 総合'!U10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="26" t="str">
+        <f>'打撃 総合'!A11</f>
+        <v>上小城</v>
+      </c>
+      <c r="B11" s="26">
+        <f>'打撃 総合'!B11</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="26">
+        <f>'打撃 総合'!C11</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="26">
+        <f>'打撃 総合'!D11</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="26">
+        <f>'打撃 総合'!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <f>'打撃 総合'!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="26">
+        <f>'打撃 総合'!I11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <f>'打撃 総合'!L11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
+        <f>'打撃 総合'!M11</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="28">
+        <f>'打撃 総合'!N11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <f>'打撃 総合'!O11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="28">
+        <f>'打撃 総合'!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <f>'打撃 総合'!R11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="29">
+        <f>'打撃 総合'!U11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="str">
+        <f>'打撃 総合'!A12</f>
+        <v>反町</v>
+      </c>
+      <c r="B12" s="26">
+        <f>'打撃 総合'!B12</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="26">
+        <f>'打撃 総合'!C12</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="26">
+        <f>'打撃 総合'!D12</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="26">
+        <f>'打撃 総合'!E12</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="26">
+        <f>'打撃 総合'!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <f>'打撃 総合'!I12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <f>'打撃 総合'!L12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <f>'打撃 総合'!M12</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="28">
+        <f>'打撃 総合'!N12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K12" s="28">
+        <f>'打撃 総合'!O12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L12" s="28">
+        <f>'打撃 総合'!Q12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M12" s="26">
+        <f>'打撃 総合'!R12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="29">
+        <f>'打撃 総合'!U12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="26">
+        <f>'打撃 総合'!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="26">
+        <f>'打撃 総合'!C13</f>
+        <v>27</v>
+      </c>
+      <c r="D13" s="26">
+        <f>'打撃 総合'!D13</f>
+        <v>27</v>
+      </c>
+      <c r="E13" s="26">
+        <f>'打撃 総合'!E13</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="26">
+        <f>'打撃 総合'!F13</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="26">
+        <f>'打撃 総合'!I13</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <f>'打撃 総合'!L13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <f>'打撃 総合'!M13</f>
+        <v>11</v>
+      </c>
+      <c r="J13" s="28">
+        <f>'打撃 総合'!N13</f>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="K13" s="28">
+        <f>'打撃 総合'!O13</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L13" s="28">
+        <f>'打撃 総合'!Q13</f>
+        <v>0.46360153256704983</v>
+      </c>
+      <c r="M13" s="26">
+        <f>'打撃 総合'!R13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="29">
+        <f>'打撃 総合'!U13</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338593D3-E6D0-43B9-8C2C-B55EBBA3FF01}">
+  <dimension ref="A1:AH13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1246,107 +2061,107 @@
     <col min="33" max="34" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
+    <row r="1" spans="1:34" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1402,7 +2217,7 @@
         <f>SUMIF(元データ!F:F,A2,元データ!Y:Y)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="21">
         <f>E2/D2</f>
         <v>0</v>
       </c>
@@ -1539,7 +2354,7 @@
         <f>SUMIF(元データ!F:F,A3,元データ!Y:Y)</f>
         <v>1</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="21">
         <f t="shared" ref="N3:N12" si="0">E3/D3</f>
         <v>0</v>
       </c>
@@ -1568,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U12" si="4">(S3+T3)/(R3+S3+T3)</f>
+        <f t="shared" ref="U3:U13" si="4">(S3+T3)/(R3+S3+T3)</f>
         <v>1</v>
       </c>
       <c r="V3">
@@ -1596,7 +2411,7 @@
         <v>17</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB12" si="7">AA3/C3</f>
+        <f t="shared" ref="AB3:AB13" si="7">AA3/C3</f>
         <v>8.5</v>
       </c>
       <c r="AC3">
@@ -1676,7 +2491,7 @@
         <f>SUMIF(元データ!F:F,A4,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1813,7 +2628,7 @@
         <f>SUMIF(元データ!F:F,A5,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1950,7 +2765,7 @@
         <f>SUMIF(元データ!F:F,A6,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2087,7 +2902,7 @@
         <f>SUMIF(元データ!F:F,A7,元データ!Y:Y)</f>
         <v>2</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2224,7 +3039,7 @@
         <f>SUMIF(元データ!F:F,A8,元データ!Y:Y)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2361,7 +3176,7 @@
         <f>SUMIF(元データ!F:F,A9,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="25" t="e">
+      <c r="N9" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2498,7 +3313,7 @@
         <f>SUMIF(元データ!F:F,A10,元データ!Y:Y)</f>
         <v>2</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="21">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -2635,7 +3450,7 @@
         <f>SUMIF(元データ!F:F,A11,元データ!Y:Y)</f>
         <v>2</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2772,7 +3587,7 @@
         <f>SUMIF(元データ!F:F,A12,元データ!Y:Y)</f>
         <v>2</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="21">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -2861,7 +3676,134 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="C13">
+        <f t="shared" ref="C13:M13" si="8">SUM(C2:C12)</f>
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" ref="N13" si="9">E13/D13</f>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13" si="10">(F13+G13+E13)/(F13+G13+D13)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13" si="11">Y13/D13</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13" si="12">O13+P13</f>
+        <v>0.46360153256704983</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13" si="13">SUM(R2:R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13" si="14">SUM(S2:S12)</f>
+        <v>23</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13" si="15">SUM(T2:T12)</f>
+        <v>13</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13" si="16">SUM(V2:V12)</f>
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13" si="17">SUM(W2:W12)</f>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13" si="18">SUM(X2:X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ref="Y13" si="19">SUM(Y2:Y12)</f>
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13" si="20">SUM(Z2:Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ref="AA13" si="21">SUM(AA2:AA12)</f>
+        <v>149</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="7"/>
+        <v>5.5185185185185182</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" ref="AC13" si="22">SUM(AC2:AC12)</f>
+        <v>15</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13" si="23">SUM(AD2:AD12)</f>
+        <v>28</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" ref="AE13" si="24">SUM(AE2:AE12)</f>
+        <v>31</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" ref="AF13" si="25">SUM(AF2:AF12)</f>
+        <v>48</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" ref="AG13" si="26">SUM(AG2:AG12)</f>
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" ref="AH13" si="27">SUM(AH2:AH12)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2869,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BD2E08-B285-4F68-BFAA-75ADB82A704F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2882,17 +3824,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484639AE-A73C-4A7B-B294-73DC7233D1D8}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T9" sqref="T9:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="3.875" style="19"/>
+    <col min="2" max="2" width="3.875" style="15"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="7.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
@@ -2904,7 +3846,7 @@
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -2948,16 +3890,16 @@
       <c r="Q1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="19" t="s">
         <v>101</v>
       </c>
       <c r="S1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="20" t="s">
         <v>103</v>
       </c>
       <c r="V1" s="8" t="s">
@@ -2975,7 +3917,7 @@
       <c r="Z1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="18" t="s">
         <v>100</v>
       </c>
       <c r="AB1" s="8" t="s">
@@ -3009,10 +3951,10 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
       <c r="C2">
@@ -3025,11 +3967,11 @@
         <v>62</v>
       </c>
       <c r="G2">
-        <f>COUNTA(AF2:AJ2)</f>
+        <f t="shared" ref="G2:G22" si="0">COUNTA(AF2:AJ2)</f>
         <v>4</v>
       </c>
       <c r="H2">
-        <f>G2-N2-O2-Z2</f>
+        <f t="shared" ref="H2:H12" si="1">G2-N2-O2-Z2</f>
         <v>4</v>
       </c>
       <c r="I2">
@@ -3109,8 +4051,8 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="19">
+      <c r="A3" s="25"/>
+      <c r="B3" s="15">
         <v>2</v>
       </c>
       <c r="C3">
@@ -3120,39 +4062,39 @@
         <v>64</v>
       </c>
       <c r="G3">
-        <f>COUNTA(AF3:AJ3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H3">
-        <f>G3-N3-O3-Z3</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I12" si="0">SUM(J3:M3)</f>
+        <f t="shared" ref="I3:I12" si="2">SUM(J3:M3)</f>
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J12" si="1">COUNTIF(AF3:AJ3, "*安*")</f>
+        <f t="shared" ref="J3:J12" si="3">COUNTIF(AF3:AJ3, "*安*")</f>
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K12" si="2">COUNTIF(AF3:AJ3, "*二")</f>
+        <f t="shared" ref="K3:K12" si="4">COUNTIF(AF3:AJ3, "*二")</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L12" si="3">COUNTIF(AF3:AJ3, "*三")</f>
+        <f t="shared" ref="L3:L12" si="5">COUNTIF(AF3:AJ3, "*三")</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M12" si="4">COUNTIF(AF3:AJ3, "*本")</f>
+        <f t="shared" ref="M3:M12" si="6">COUNTIF(AF3:AJ3, "*本")</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N12" si="5">COUNTIF(AF3:AJ3, "四球")</f>
+        <f t="shared" ref="N3:N12" si="7">COUNTIF(AF3:AJ3, "四球")</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O12" si="6">COUNTIF(AF3:AJ3, "死球")</f>
+        <f t="shared" ref="O3:O12" si="8">COUNTIF(AF3:AJ3, "死球")</f>
         <v>0</v>
       </c>
       <c r="R3">
@@ -3171,26 +4113,26 @@
         <v>4</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X12" si="7">COUNTIF(AF3:AJ3, "*失*")</f>
+        <f t="shared" ref="X3:X12" si="9">COUNTIF(AF3:AJ3, "*失*")</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y12" si="8">COUNTIF(AF3:AJ3, "*振*")</f>
+        <f t="shared" ref="Y3:Y12" si="10">COUNTIF(AF3:AJ3, "*振*")</f>
         <v>2</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z12" si="9">COUNTIF(AF3:AJ3, "*犠*")</f>
+        <f t="shared" ref="Z3:Z12" si="11">COUNTIF(AF3:AJ3, "*犠*")</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA12" si="10">COUNTIF(AF3:AJ3, "*併*")</f>
+        <f t="shared" ref="AA3:AA12" si="12">COUNTIF(AF3:AJ3, "*併*")</f>
         <v>0</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE22" si="11">F3</f>
+        <f t="shared" ref="AE3:AE22" si="13">F3</f>
         <v>岩本</v>
       </c>
       <c r="AF3" t="s">
@@ -3207,8 +4149,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19">
+      <c r="A4" s="25"/>
+      <c r="B4" s="15">
         <v>3</v>
       </c>
       <c r="C4">
@@ -3218,39 +4160,39 @@
         <v>65</v>
       </c>
       <c r="G4">
-        <f>COUNTA(AF4:AJ4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H4">
-        <f>G4-N4-O4-Z4</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R4">
@@ -3269,19 +4211,19 @@
         <v>5</v>
       </c>
       <c r="X4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC4">
@@ -3291,7 +4233,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>反町</v>
       </c>
       <c r="AF4" t="s">
@@ -3305,11 +4247,11 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19">
+      <c r="A5" s="25"/>
+      <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
@@ -3319,39 +4261,39 @@
         <v>68</v>
       </c>
       <c r="G5">
-        <f>COUNTA(AF5:AJ5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H5">
-        <f>G5-N5-O5-Z5</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P5">
@@ -3370,19 +4312,19 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC5">
@@ -3392,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="AE5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>安部剛</v>
       </c>
       <c r="AF5" t="s">
@@ -3406,11 +4348,11 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19">
+      <c r="A6" s="25"/>
+      <c r="B6" s="15">
         <v>5</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
@@ -3420,39 +4362,39 @@
         <v>66</v>
       </c>
       <c r="G6">
-        <f>COUNTA(AF6:AJ6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H6">
-        <f>G6-N6-O6-Z6</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T6">
@@ -3468,26 +4410,26 @@
         <v>6</v>
       </c>
       <c r="X6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AE6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>上小城</v>
       </c>
       <c r="AF6" t="s">
@@ -3501,50 +4443,50 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19">
+      <c r="A7" s="25"/>
+      <c r="B7" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
       </c>
       <c r="G7">
-        <f>COUNTA(AF7:AJ7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H7">
-        <f>G7-N7-O7-Z7</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S7">
@@ -3563,26 +4505,26 @@
         <v>6</v>
       </c>
       <c r="X7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC7">
         <v>1</v>
       </c>
       <c r="AE7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>北久保</v>
       </c>
       <c r="AF7" t="s">
@@ -3596,50 +4538,50 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19">
+      <c r="A8" s="25"/>
+      <c r="B8" s="15">
         <v>7</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8">
         <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>67</v>
       </c>
       <c r="G8">
-        <f>COUNTA(AF8:AJ8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H8">
-        <f>G8-N8-O8-Z8</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S8">
@@ -3658,26 +4600,26 @@
         <v>4</v>
       </c>
       <c r="X8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC8">
         <v>1</v>
       </c>
       <c r="AE8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>中井</v>
       </c>
       <c r="AF8" t="s">
@@ -3691,11 +4633,11 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19">
+      <c r="A9" s="25"/>
+      <c r="B9" s="15">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
@@ -3705,39 +4647,39 @@
         <v>69</v>
       </c>
       <c r="G9">
-        <f>COUNTA(AF9:AJ9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H9">
-        <f>G9-N9-O9-Z9</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T9">
@@ -3753,26 +4695,26 @@
         <v>4</v>
       </c>
       <c r="X9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC9">
         <v>10</v>
       </c>
       <c r="AE9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>安部滉</v>
       </c>
       <c r="AF9" t="s">
@@ -3786,50 +4728,50 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19">
+      <c r="A10" s="25"/>
+      <c r="B10" s="15">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
       </c>
       <c r="G10">
-        <f>COUNTA(AF10:AJ10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10">
-        <f>G10-N10-O10-Z10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T10">
@@ -3842,23 +4784,23 @@
         <v>2</v>
       </c>
       <c r="X10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>野場</v>
       </c>
       <c r="AF10" t="s">
@@ -3866,47 +4808,47 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="25"/>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
       </c>
       <c r="G11">
-        <f>COUNTA(AF11:AJ11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H11">
-        <f>G11-N11-O11-Z11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S11">
@@ -3925,23 +4867,23 @@
         <v>6</v>
       </c>
       <c r="X11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>池澤</v>
       </c>
       <c r="AG11" t="s">
@@ -3952,66 +4894,66 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
       </c>
       <c r="G12">
-        <f>COUNTA(AF12:AJ12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>G12-N12-O12-Z12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC12">
@@ -4021,44 +4963,44 @@
         <v>1</v>
       </c>
       <c r="AE12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>萩原</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="20">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
         <v>4</v>
       </c>
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G13">
-        <f>COUNTA(AF13:AJ13)</f>
-        <v>2</v>
-      </c>
-      <c r="AE13" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE13" s="17" t="str">
+        <f t="shared" si="13"/>
         <v>大鐘</v>
       </c>
-      <c r="AF13" s="21" t="s">
+      <c r="AF13" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AG13" s="21" t="s">
+      <c r="AG13" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19">
+      <c r="A14" s="25"/>
+      <c r="B14" s="15">
         <v>2</v>
       </c>
       <c r="C14">
@@ -4068,23 +5010,23 @@
         <v>64</v>
       </c>
       <c r="G14">
-        <f>COUNTA(AF14:AJ14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>岩本</v>
       </c>
-      <c r="AF14" s="14" t="s">
+      <c r="AF14" t="s">
         <v>96</v>
       </c>
-      <c r="AG14" s="14" t="s">
+      <c r="AG14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19">
+      <c r="A15" s="25"/>
+      <c r="B15" s="15">
         <v>3</v>
       </c>
       <c r="C15">
@@ -4094,52 +5036,52 @@
         <v>65</v>
       </c>
       <c r="G15">
-        <f>COUNTA(AF15:AJ15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>反町</v>
       </c>
-      <c r="AF15" s="14" t="s">
+      <c r="AF15" t="s">
         <v>97</v>
       </c>
-      <c r="AG15" s="14" t="s">
+      <c r="AG15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19">
+      <c r="A16" s="25"/>
+      <c r="B16" s="15">
         <v>4</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>68</v>
       </c>
       <c r="G16">
-        <f>COUNTA(AF16:AJ16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>安部剛</v>
       </c>
-      <c r="AF16" s="14" t="s">
+      <c r="AF16" t="s">
         <v>84</v>
       </c>
-      <c r="AG16" s="14" t="s">
+      <c r="AG16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19">
+      <c r="A17" s="25"/>
+      <c r="B17" s="15">
         <v>5</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
@@ -4149,112 +5091,112 @@
         <v>66</v>
       </c>
       <c r="G17">
-        <f>COUNTA(AF17:AJ17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AE17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>上小城</v>
       </c>
-      <c r="AF17" s="14" t="s">
+      <c r="AF17" t="s">
         <v>97</v>
       </c>
-      <c r="AG17" s="14" t="s">
+      <c r="AG17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19">
+      <c r="A18" s="25"/>
+      <c r="B18" s="15">
         <v>6</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18">
         <v>8</v>
       </c>
       <c r="F18" t="s">
         <v>63</v>
       </c>
       <c r="G18">
-        <f>COUNTA(AF18:AJ18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>北久保</v>
       </c>
-      <c r="AF18" s="14" t="s">
+      <c r="AF18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19">
+      <c r="A19" s="25"/>
+      <c r="B19" s="15">
         <v>7</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19">
         <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>67</v>
       </c>
       <c r="G19">
-        <f>COUNTA(AF19:AJ19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>中井</v>
       </c>
-      <c r="AF19" s="14" t="s">
+      <c r="AF19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19">
+      <c r="A20" s="25"/>
+      <c r="B20" s="15">
         <v>8</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20">
         <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>69</v>
       </c>
       <c r="G20">
-        <f>COUNTA(AF20:AJ20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>安部滉</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
-      <c r="C21" s="14">
+      <c r="A21" s="25"/>
+      <c r="C21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>73</v>
       </c>
       <c r="G21">
-        <f>COUNTA(AF21:AJ21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>池澤</v>
       </c>
-      <c r="AF21" s="14" t="s">
+      <c r="AF21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19">
+      <c r="A22" s="25"/>
+      <c r="B22" s="15">
         <v>9</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
@@ -4264,20 +5206,19 @@
         <v>70</v>
       </c>
       <c r="G22">
-        <f>COUNTA(AF22:AJ22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>野場</v>
       </c>
-      <c r="AF22" s="14" t="s">
+      <c r="AF22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0192C75B-5756-41AF-B350-2BD8F53B61E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0762AF65-745E-4153-B3C1-278A44172C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -872,12 +872,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +886,12 @@
     </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1256,773 +1256,773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="4.625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7.25" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="7.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="str">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="str">
         <f>'打撃 総合'!A1</f>
         <v>打者</v>
       </c>
-      <c r="B1" s="26" t="str">
+      <c r="B1" s="24" t="str">
         <f>'打撃 総合'!B1</f>
         <v>出場</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="24" t="str">
         <f>'打撃 総合'!C1</f>
         <v>打席</v>
       </c>
-      <c r="D1" s="26" t="str">
+      <c r="D1" s="24" t="str">
         <f>'打撃 総合'!D1</f>
         <v>打数</v>
       </c>
-      <c r="E1" s="26" t="str">
+      <c r="E1" s="24" t="str">
         <f>'打撃 総合'!E1</f>
         <v>安打</v>
       </c>
-      <c r="F1" s="26" t="str">
+      <c r="F1" s="24" t="str">
         <f>'打撃 総合'!F1</f>
         <v>四球</v>
       </c>
-      <c r="G1" s="26" t="str">
+      <c r="G1" s="24" t="str">
         <f>'打撃 総合'!I1</f>
         <v>打点</v>
       </c>
-      <c r="H1" s="26" t="str">
+      <c r="H1" s="24" t="str">
         <f>'打撃 総合'!L1</f>
         <v>本塁打</v>
       </c>
-      <c r="I1" s="26" t="str">
+      <c r="I1" s="24" t="str">
         <f>'打撃 総合'!M1</f>
         <v>三振</v>
       </c>
-      <c r="J1" s="26" t="str">
+      <c r="J1" s="24" t="str">
         <f>'打撃 総合'!N1</f>
         <v>打率</v>
       </c>
-      <c r="K1" s="26" t="str">
+      <c r="K1" s="24" t="str">
         <f>'打撃 総合'!O1</f>
         <v>出塁率</v>
       </c>
-      <c r="L1" s="26" t="str">
+      <c r="L1" s="24" t="str">
         <f>'打撃 総合'!Q1</f>
         <v>OPS</v>
       </c>
-      <c r="M1" s="26" t="str">
+      <c r="M1" s="24" t="str">
         <f>'打撃 総合'!R1</f>
         <v>失策</v>
       </c>
-      <c r="N1" s="29" t="str">
+      <c r="N1" s="27" t="str">
         <f>'打撃 総合'!U1</f>
         <v>守備率</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="str">
+      <c r="A2" s="24" t="str">
         <f>'打撃 総合'!A2</f>
         <v>安部滉</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <f>'打撃 総合'!B2</f>
         <v>2</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <f>'打撃 総合'!C2</f>
         <v>3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <f>'打撃 総合'!D2</f>
         <v>3</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <f>'打撃 総合'!E2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <f>'打撃 総合'!F2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <f>'打撃 総合'!I2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="24">
         <f>'打撃 総合'!L2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="24">
         <f>'打撃 総合'!M2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="26">
         <f>'打撃 総合'!N2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="26">
         <f>'打撃 総合'!O2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="26">
         <f>'打撃 総合'!Q2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="24">
         <f>'打撃 総合'!R2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="27">
         <f>'打撃 総合'!U2</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="str">
+      <c r="A3" s="24" t="str">
         <f>'打撃 総合'!A3</f>
         <v>中井</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <f>'打撃 総合'!B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <f>'打撃 総合'!C3</f>
         <v>2</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <f>'打撃 総合'!D3</f>
         <v>2</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <f>'打撃 総合'!E3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <f>'打撃 総合'!F3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <f>'打撃 総合'!I3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <f>'打撃 総合'!L3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <f>'打撃 総合'!M3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="26">
         <f>'打撃 総合'!N3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="26">
         <f>'打撃 総合'!O3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L3" s="28">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L3" s="26">
         <f>'打撃 総合'!Q3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M3" s="26">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M3" s="24">
         <f>'打撃 総合'!R3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="27">
         <f>'打撃 総合'!U3</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="str">
+      <c r="A4" s="24" t="str">
         <f>'打撃 総合'!A4</f>
         <v>野場</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <f>'打撃 総合'!B4</f>
         <v>2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <f>'打撃 総合'!C4</f>
         <v>1</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <f>'打撃 総合'!D4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <f>'打撃 総合'!E4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <f>'打撃 総合'!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <f>'打撃 総合'!I4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <f>'打撃 総合'!L4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <f>'打撃 総合'!M4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <f>'打撃 総合'!N4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="26">
         <f>'打撃 総合'!O4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="26">
         <f>'打撃 総合'!Q4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="24">
         <f>'打撃 総合'!R4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="29" t="e">
+      <c r="N4" s="27" t="str">
         <f>'打撃 総合'!U4</f>
-        <v>#DIV/0!</v>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="str">
+      <c r="A5" s="24" t="str">
         <f>'打撃 総合'!A5</f>
         <v>池澤</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <f>'打撃 総合'!B5</f>
         <v>2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <f>'打撃 総合'!C5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <f>'打撃 総合'!D5</f>
         <v>1</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <f>'打撃 総合'!E5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <f>'打撃 総合'!F5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <f>'打撃 総合'!I5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <f>'打撃 総合'!L5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <f>'打撃 総合'!M5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <f>'打撃 総合'!N5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <f>'打撃 総合'!O5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="26">
         <f>'打撃 総合'!Q5</f>
         <v>2</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="24">
         <f>'打撃 総合'!R5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="29" t="e">
+      <c r="N5" s="27" t="str">
         <f>'打撃 総合'!U5</f>
-        <v>#DIV/0!</v>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="str">
+      <c r="A6" s="24" t="str">
         <f>'打撃 総合'!A6</f>
         <v>安部剛</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <f>'打撃 総合'!B6</f>
         <v>2</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <f>'打撃 総合'!C6</f>
         <v>3</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <f>'打撃 総合'!D6</f>
         <v>3</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <f>'打撃 総合'!E6</f>
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <f>'打撃 総合'!F6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <f>'打撃 総合'!I6</f>
         <v>1</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <f>'打撃 総合'!L6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <f>'打撃 総合'!M6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <f>'打撃 総合'!N6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K6" s="28">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="K6" s="26">
         <f>'打撃 総合'!O6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L6" s="28">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L6" s="26">
         <f>'打撃 総合'!Q6</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="M6" s="26">
+        <v>1.667</v>
+      </c>
+      <c r="M6" s="24">
         <f>'打撃 総合'!R6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="27">
         <f>'打撃 総合'!U6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="str">
+      <c r="A7" s="24" t="str">
         <f>'打撃 総合'!A7</f>
         <v>大鐘</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <f>'打撃 総合'!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <f>'打撃 総合'!C7</f>
         <v>4</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <f>'打撃 総合'!D7</f>
         <v>4</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <f>'打撃 総合'!E7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <f>'打撃 総合'!F7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <f>'打撃 総合'!I7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <f>'打撃 総合'!L7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <f>'打撃 総合'!M7</f>
         <v>2</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="26">
         <f>'打撃 総合'!N7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <f>'打撃 総合'!O7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="26">
         <f>'打撃 総合'!Q7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="24">
         <f>'打撃 総合'!R7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="27">
         <f>'打撃 総合'!U7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="str">
+      <c r="A8" s="24" t="str">
         <f>'打撃 総合'!A8</f>
         <v>北久保</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <f>'打撃 総合'!B8</f>
         <v>2</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <f>'打撃 総合'!C8</f>
         <v>3</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <f>'打撃 総合'!D8</f>
         <v>3</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <f>'打撃 総合'!E8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <f>'打撃 総合'!F8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <f>'打撃 総合'!I8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <f>'打撃 総合'!L8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <f>'打撃 総合'!M8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="26">
         <f>'打撃 総合'!N8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <f>'打撃 総合'!O8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="26">
         <f>'打撃 総合'!Q8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="24">
         <f>'打撃 総合'!R8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="27">
         <f>'打撃 総合'!U8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="26" t="str">
+      <c r="A9" s="24" t="str">
         <f>'打撃 総合'!A9</f>
         <v>萩原</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <f>'打撃 総合'!B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <f>'打撃 総合'!C9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <f>'打撃 総合'!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="24">
         <f>'打撃 総合'!E9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <f>'打撃 総合'!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <f>'打撃 総合'!I9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <f>'打撃 総合'!L9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <f>'打撃 総合'!M9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="28" t="e">
+      <c r="J9" s="26" t="str">
         <f>'打撃 総合'!N9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="28" t="e">
+        <v>-</v>
+      </c>
+      <c r="K9" s="26" t="str">
         <f>'打撃 総合'!O9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="28" t="e">
+        <v>-</v>
+      </c>
+      <c r="L9" s="26" t="str">
         <f>'打撃 総合'!Q9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="26">
+        <v>-</v>
+      </c>
+      <c r="M9" s="24">
         <f>'打撃 総合'!R9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <f>'打撃 総合'!U9</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="str">
+      <c r="A10" s="24" t="str">
         <f>'打撃 総合'!A10</f>
         <v>岩本</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <f>'打撃 総合'!B10</f>
         <v>2</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <f>'打撃 総合'!C10</f>
         <v>4</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <f>'打撃 総合'!D10</f>
         <v>4</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <f>'打撃 総合'!E10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <f>'打撃 総合'!F10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <f>'打撃 総合'!I10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <f>'打撃 総合'!L10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <f>'打撃 総合'!M10</f>
         <v>2</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <f>'打撃 総合'!N10</f>
         <v>0.25</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <f>'打撃 総合'!O10</f>
         <v>0.25</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="26">
         <f>'打撃 総合'!Q10</f>
         <v>0.5</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="24">
         <f>'打撃 総合'!R10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="27">
         <f>'打撃 総合'!U10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="str">
+      <c r="A11" s="24" t="str">
         <f>'打撃 総合'!A11</f>
         <v>上小城</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <f>'打撃 総合'!B11</f>
         <v>2</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <f>'打撃 総合'!C11</f>
         <v>3</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <f>'打撃 総合'!D11</f>
         <v>3</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <f>'打撃 総合'!E11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <f>'打撃 総合'!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="24">
         <f>'打撃 総合'!I11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <f>'打撃 総合'!L11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="24">
         <f>'打撃 総合'!M11</f>
         <v>2</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="26">
         <f>'打撃 総合'!N11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="26">
         <f>'打撃 総合'!O11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="26">
         <f>'打撃 総合'!Q11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="24">
         <f>'打撃 総合'!R11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="27">
         <f>'打撃 総合'!U11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="str">
+      <c r="A12" s="24" t="str">
         <f>'打撃 総合'!A12</f>
         <v>反町</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <f>'打撃 総合'!B12</f>
         <v>2</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <f>'打撃 総合'!C12</f>
         <v>3</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <f>'打撃 総合'!D12</f>
         <v>3</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <f>'打撃 総合'!E12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <f>'打撃 総合'!F12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="24">
         <f>'打撃 総合'!I12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="24">
         <f>'打撃 総合'!L12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <f>'打撃 総合'!M12</f>
         <v>2</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="26">
         <f>'打撃 総合'!N12</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K12" s="28">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K12" s="26">
         <f>'打撃 総合'!O12</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L12" s="28">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L12" s="26">
         <f>'打撃 総合'!Q12</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M12" s="26">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="M12" s="24">
         <f>'打撃 総合'!R12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="27">
         <f>'打撃 総合'!U12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <f>'打撃 総合'!B13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <f>'打撃 総合'!C13</f>
         <v>27</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <f>'打撃 総合'!D13</f>
         <v>27</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <f>'打撃 総合'!E13</f>
         <v>5</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="24">
         <f>'打撃 総合'!F13</f>
         <v>2</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="24">
         <f>'打撃 総合'!I13</f>
         <v>1</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="24">
         <f>'打撃 総合'!L13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="24">
         <f>'打撃 総合'!M13</f>
         <v>11</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <f>'打撃 総合'!N13</f>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="K13" s="28">
+        <v>0.185</v>
+      </c>
+      <c r="K13" s="26">
         <f>'打撃 総合'!O13</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L13" s="28">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="L13" s="26">
         <f>'打撃 総合'!Q13</f>
-        <v>0.46360153256704983</v>
-      </c>
-      <c r="M13" s="26">
+        <v>0.46299999999999997</v>
+      </c>
+      <c r="M13" s="24">
         <f>'打撃 総合'!R13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="27">
         <f>'打撃 総合'!U13</f>
         <v>1</v>
       </c>
@@ -2037,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338593D3-E6D0-43B9-8C2C-B55EBBA3FF01}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2048,7 +2048,7 @@
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.625" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="4.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
@@ -2218,19 +2218,19 @@
         <v>1</v>
       </c>
       <c r="N2" s="21">
-        <f>E2/D2</f>
+        <f>IFERROR(ROUND(E2/D2,3),"-")</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>(F2+G2+E2)/(F2+G2+D2)</f>
+        <f>IFERROR(ROUND((F2+G2+E2)/(F2+G2+D2),3),"-")</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>Y2/D2</f>
+        <f>IFERROR(ROUND(Y2/D2,3),"-")</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>O2+P2</f>
+        <f>IFERROR(O2+P2,"-")</f>
         <v>0</v>
       </c>
       <c r="R2">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f>(S2+T2)/(R2+S2+T2)</f>
+        <f>IFERROR(ROUND((S2+T2)/(R2+S2+T2),3),"-")</f>
         <v>1</v>
       </c>
       <c r="V2">
@@ -2274,7 +2274,7 @@
         <v>15</v>
       </c>
       <c r="AB2">
-        <f>AA2/C2</f>
+        <f>IFERROR(ROUND(AA2/C2,2),"-")</f>
         <v>5</v>
       </c>
       <c r="AC2">
@@ -2355,20 +2355,20 @@
         <v>1</v>
       </c>
       <c r="N3" s="21">
-        <f t="shared" ref="N3:N12" si="0">E3/D3</f>
+        <f t="shared" ref="N3:N13" si="0">IFERROR(ROUND(E3/D3,3),"-")</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O12" si="1">(F3+G3+E3)/(F3+G3+D3)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="O3:O13" si="1">IFERROR(ROUND((F3+G3+E3)/(F3+G3+D3),3),"-")</f>
+        <v>0.33300000000000002</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P12" si="2">Y3/D3</f>
+        <f t="shared" ref="P3:P13" si="2">IFERROR(ROUND(Y3/D3,3),"-")</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q12" si="3">O3+P3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="Q3:Q13" si="3">IFERROR(O3+P3,"-")</f>
+        <v>0.33300000000000002</v>
       </c>
       <c r="R3">
         <f>SUMIF(元データ!F:F,A3,元データ!AB:AB)</f>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U13" si="4">(S3+T3)/(R3+S3+T3)</f>
+        <f t="shared" ref="U3:U13" si="4">IFERROR(ROUND((S3+T3)/(R3+S3+T3),3),"-")</f>
         <v>1</v>
       </c>
       <c r="V3">
@@ -2411,7 +2411,7 @@
         <v>17</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB13" si="7">AA3/C3</f>
+        <f t="shared" ref="AB3:AB13" si="7">IFERROR(ROUND(AA3/C3,2),"-")</f>
         <v>8.5</v>
       </c>
       <c r="AC3">
@@ -2519,9 +2519,9 @@
         <f>SUMIF(元データ!F:F,A4,元データ!AD:AD)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="1" t="e">
+      <c r="U4" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>-</v>
       </c>
       <c r="V4">
         <f>SUMIF(元データ!F:F,A4,元データ!J:J)</f>
@@ -2656,9 +2656,9 @@
         <f>SUMIF(元データ!F:F,A5,元データ!AD:AD)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="1" t="e">
+      <c r="U5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>-</v>
       </c>
       <c r="V5">
         <f>SUMIF(元データ!F:F,A5,元データ!J:J)</f>
@@ -2767,11 +2767,11 @@
       </c>
       <c r="N6" s="21">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>1.6666666666666665</v>
+        <v>1.667</v>
       </c>
       <c r="R6">
         <f>SUMIF(元データ!F:F,A6,元データ!AB:AB)</f>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="AB6">
         <f t="shared" si="7"/>
-        <v>3.6666666666666665</v>
+        <v>3.67</v>
       </c>
       <c r="AC6">
         <f>SUMIF(元データ!F:F,A6,元データ!T:T)</f>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="AB8">
         <f t="shared" si="7"/>
-        <v>4.666666666666667</v>
+        <v>4.67</v>
       </c>
       <c r="AC8">
         <f>SUMIF(元データ!F:F,A8,元データ!T:T)</f>
@@ -3176,21 +3176,21 @@
         <f>SUMIF(元データ!F:F,A9,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="21" t="e">
+      <c r="N9" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
+        <v>-</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" t="e">
+        <v>-</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" t="e">
+        <v>-</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-</v>
       </c>
       <c r="R9">
         <f>SUMIF(元データ!F:F,A9,元データ!AB:AB)</f>
@@ -3232,9 +3232,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB9" t="e">
+      <c r="AB9" t="str">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-</v>
       </c>
       <c r="AC9">
         <f>SUMIF(元データ!F:F,A9,元データ!T:T)</f>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="AB11">
         <f t="shared" si="7"/>
-        <v>5.333333333333333</v>
+        <v>5.33</v>
       </c>
       <c r="AC11">
         <f>SUMIF(元データ!F:F,A11,元データ!T:T)</f>
@@ -3589,19 +3589,19 @@
       </c>
       <c r="N12" s="21">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="R12">
         <f>SUMIF(元データ!F:F,A12,元データ!AB:AB)</f>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="AB12">
         <f t="shared" si="7"/>
-        <v>6.333333333333333</v>
+        <v>6.33</v>
       </c>
       <c r="AC12">
         <f>SUMIF(元データ!F:F,A12,元データ!T:T)</f>
@@ -3721,31 +3721,31 @@
         <v>11</v>
       </c>
       <c r="N13" s="21">
-        <f t="shared" ref="N13" si="9">E13/D13</f>
-        <v>0.18518518518518517</v>
+        <f t="shared" si="0"/>
+        <v>0.185</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13" si="10">(F13+G13+E13)/(F13+G13+D13)</f>
-        <v>0.2413793103448276</v>
+        <f t="shared" si="1"/>
+        <v>0.24099999999999999</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13" si="11">Y13/D13</f>
-        <v>0.22222222222222221</v>
+        <f t="shared" si="2"/>
+        <v>0.222</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13" si="12">O13+P13</f>
-        <v>0.46360153256704983</v>
+        <f t="shared" si="3"/>
+        <v>0.46299999999999997</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13" si="13">SUM(R2:R12)</f>
+        <f t="shared" ref="R13" si="9">SUM(R2:R12)</f>
         <v>0</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13" si="14">SUM(S2:S12)</f>
+        <f t="shared" ref="S13" si="10">SUM(S2:S12)</f>
         <v>23</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13" si="15">SUM(T2:T12)</f>
+        <f t="shared" ref="T13" si="11">SUM(T2:T12)</f>
         <v>13</v>
       </c>
       <c r="U13" s="1">
@@ -3753,55 +3753,55 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13" si="16">SUM(V2:V12)</f>
+        <f t="shared" ref="V13" si="12">SUM(V2:V12)</f>
         <v>4</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13" si="17">SUM(W2:W12)</f>
+        <f t="shared" ref="W13" si="13">SUM(W2:W12)</f>
         <v>1</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13" si="18">SUM(X2:X12)</f>
+        <f t="shared" ref="X13" si="14">SUM(X2:X12)</f>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" ref="Y13" si="19">SUM(Y2:Y12)</f>
+        <f t="shared" ref="Y13" si="15">SUM(Y2:Y12)</f>
         <v>6</v>
       </c>
       <c r="Z13">
-        <f t="shared" ref="Z13" si="20">SUM(Z2:Z12)</f>
+        <f t="shared" ref="Z13" si="16">SUM(Z2:Z12)</f>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" ref="AA13" si="21">SUM(AA2:AA12)</f>
+        <f t="shared" ref="AA13" si="17">SUM(AA2:AA12)</f>
         <v>149</v>
       </c>
       <c r="AB13">
         <f t="shared" si="7"/>
-        <v>5.5185185185185182</v>
+        <v>5.52</v>
       </c>
       <c r="AC13">
-        <f t="shared" ref="AC13" si="22">SUM(AC2:AC12)</f>
+        <f t="shared" ref="AC13" si="18">SUM(AC2:AC12)</f>
         <v>15</v>
       </c>
       <c r="AD13">
-        <f t="shared" ref="AD13" si="23">SUM(AD2:AD12)</f>
+        <f t="shared" ref="AD13" si="19">SUM(AD2:AD12)</f>
         <v>28</v>
       </c>
       <c r="AE13">
-        <f t="shared" ref="AE13" si="24">SUM(AE2:AE12)</f>
+        <f t="shared" ref="AE13" si="20">SUM(AE2:AE12)</f>
         <v>31</v>
       </c>
       <c r="AF13">
-        <f t="shared" ref="AF13" si="25">SUM(AF2:AF12)</f>
+        <f t="shared" ref="AF13" si="21">SUM(AF2:AF12)</f>
         <v>48</v>
       </c>
       <c r="AG13">
-        <f t="shared" ref="AG13" si="26">SUM(AG2:AG12)</f>
+        <f t="shared" ref="AG13" si="22">SUM(AG2:AG12)</f>
         <v>2</v>
       </c>
       <c r="AH13">
-        <f t="shared" ref="AH13" si="27">SUM(AH2:AH12)</f>
+        <f t="shared" ref="AH13" si="23">SUM(AH2:AH12)</f>
         <v>6</v>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="15">
@@ -4051,7 +4051,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="15">
         <v>2</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -4247,7 +4247,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="25"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="15">
         <v>4</v>
       </c>
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="15">
         <v>5</v>
       </c>
@@ -4443,7 +4443,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="15">
         <v>6</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="25"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="15">
         <v>7</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="15">
         <v>8</v>
       </c>
@@ -4728,7 +4728,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="25"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="15">
         <v>9</v>
       </c>
@@ -4808,7 +4808,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
+      <c r="A11" s="30"/>
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A12" s="25"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="16">
@@ -4999,7 +4999,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="25"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="15">
         <v>2</v>
       </c>
@@ -5025,7 +5025,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="25"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="15">
         <v>3</v>
       </c>
@@ -5051,7 +5051,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="25"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="15">
         <v>4</v>
       </c>
@@ -5077,7 +5077,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="25"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="15">
         <v>5</v>
       </c>
@@ -5106,7 +5106,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="15">
         <v>6</v>
       </c>
@@ -5129,7 +5129,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="25"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="15">
         <v>7</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="25"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="15">
         <v>8</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="25"/>
+      <c r="A21" s="30"/>
       <c r="C21">
         <v>3</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="15">
         <v>9</v>
       </c>
@@ -5218,7 +5218,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
+      <c r="A23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0762AF65-745E-4153-B3C1-278A44172C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A050B-6EC0-4846-A7CB-39A9AEA10C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1258,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1270,7 +1273,7 @@
     <col min="9" max="9" width="4.625" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="7.25" style="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="28" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -1385,9 +1388,9 @@
         <f>'打撃 総合'!R2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="27">
-        <f>'打撃 総合'!U2</f>
-        <v>1</v>
+      <c r="N2" s="31" t="str">
+        <f>'打撃 総合'!U2*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -1443,9 +1446,9 @@
         <f>'打撃 総合'!R3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="27">
-        <f>'打撃 総合'!U3</f>
-        <v>1</v>
+      <c r="N3" s="31" t="str">
+        <f>'打撃 総合'!U3*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -1501,9 +1504,9 @@
         <f>'打撃 総合'!R4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="27" t="str">
-        <f>'打撃 総合'!U4</f>
-        <v>-</v>
+      <c r="N4" s="31" t="e">
+        <f>'打撃 総合'!U4*100 &amp; "%"</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -1559,9 +1562,9 @@
         <f>'打撃 総合'!R5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="27" t="str">
-        <f>'打撃 総合'!U5</f>
-        <v>-</v>
+      <c r="N5" s="31" t="e">
+        <f>'打撃 総合'!U5*100 &amp; "%"</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -1617,9 +1620,9 @@
         <f>'打撃 総合'!R6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="27">
-        <f>'打撃 総合'!U6</f>
-        <v>1</v>
+      <c r="N6" s="31" t="str">
+        <f>'打撃 総合'!U6*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -1675,9 +1678,9 @@
         <f>'打撃 総合'!R7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="27">
-        <f>'打撃 総合'!U7</f>
-        <v>1</v>
+      <c r="N7" s="31" t="str">
+        <f>'打撃 総合'!U7*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -1733,9 +1736,9 @@
         <f>'打撃 総合'!R8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="27">
-        <f>'打撃 総合'!U8</f>
-        <v>1</v>
+      <c r="N8" s="31" t="str">
+        <f>'打撃 総合'!U8*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -1791,9 +1794,9 @@
         <f>'打撃 総合'!R9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="27">
-        <f>'打撃 総合'!U9</f>
-        <v>1</v>
+      <c r="N9" s="31" t="str">
+        <f>'打撃 総合'!U9*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -1849,9 +1852,9 @@
         <f>'打撃 総合'!R10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="27">
-        <f>'打撃 総合'!U10</f>
-        <v>1</v>
+      <c r="N10" s="31" t="str">
+        <f>'打撃 総合'!U10*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -1907,9 +1910,9 @@
         <f>'打撃 総合'!R11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="27">
-        <f>'打撃 総合'!U11</f>
-        <v>1</v>
+      <c r="N11" s="31" t="str">
+        <f>'打撃 総合'!U11*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -1965,9 +1968,9 @@
         <f>'打撃 総合'!R12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="27">
-        <f>'打撃 総合'!U12</f>
-        <v>1</v>
+      <c r="N12" s="31" t="str">
+        <f>'打撃 総合'!U12*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -2022,9 +2025,9 @@
         <f>'打撃 総合'!R13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="27">
-        <f>'打撃 総合'!U13</f>
-        <v>1</v>
+      <c r="N13" s="31" t="str">
+        <f>'打撃 総合'!U13*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
   </sheetData>
@@ -2037,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338593D3-E6D0-43B9-8C2C-B55EBBA3FF01}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A050B-6EC0-4846-A7CB-39A9AEA10C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4459BBC-C36E-46E9-AF62-EE573848CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
@@ -887,14 +887,14 @@
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,17 +1262,19 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="4.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" style="28" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="25"/>
   </cols>
@@ -1372,23 +1374,23 @@
         <f>'打撃 総合'!M2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="26">
-        <f>'打撃 総合'!N2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="26">
-        <f>'打撃 総合'!O2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="26">
-        <f>'打撃 総合'!Q2</f>
-        <v>0</v>
+      <c r="J2" s="26" t="str">
+        <f>TEXT('打撃 総合'!N2,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="K2" s="26" t="str">
+        <f>TEXT('打撃 総合'!O2,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="L2" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q2,"0.000")</f>
+        <v>0.000</v>
       </c>
       <c r="M2" s="24">
         <f>'打撃 総合'!R2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="31" t="str">
+      <c r="N2" s="29" t="str">
         <f>'打撃 総合'!U2*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1430,23 +1432,23 @@
         <f>'打撃 総合'!M3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="26">
-        <f>'打撃 総合'!N3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="26">
-        <f>'打撃 総合'!O3</f>
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L3" s="26">
-        <f>'打撃 総合'!Q3</f>
-        <v>0.33300000000000002</v>
+      <c r="J3" s="26" t="str">
+        <f>TEXT('打撃 総合'!N3,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="K3" s="26" t="str">
+        <f>TEXT('打撃 総合'!O3,"0.000")</f>
+        <v>0.333</v>
+      </c>
+      <c r="L3" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q3,"0.000")</f>
+        <v>0.333</v>
       </c>
       <c r="M3" s="24">
         <f>'打撃 総合'!R3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="31" t="str">
+      <c r="N3" s="29" t="str">
         <f>'打撃 総合'!U3*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1488,23 +1490,23 @@
         <f>'打撃 総合'!M4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="26">
-        <f>'打撃 総合'!N4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
-        <f>'打撃 総合'!O4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="26">
-        <f>'打撃 総合'!Q4</f>
-        <v>0</v>
+      <c r="J4" s="26" t="str">
+        <f>TEXT('打撃 総合'!N4,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="K4" s="26" t="str">
+        <f>TEXT('打撃 総合'!O4,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="L4" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q4,"0.000")</f>
+        <v>0.000</v>
       </c>
       <c r="M4" s="24">
         <f>'打撃 総合'!R4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="31" t="e">
+      <c r="N4" s="29" t="e">
         <f>'打撃 総合'!U4*100 &amp; "%"</f>
         <v>#VALUE!</v>
       </c>
@@ -1546,23 +1548,23 @@
         <f>'打撃 総合'!M5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="26">
-        <f>'打撃 総合'!N5</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="26">
-        <f>'打撃 総合'!O5</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="26">
-        <f>'打撃 総合'!Q5</f>
-        <v>2</v>
+      <c r="J5" s="26" t="str">
+        <f>TEXT('打撃 総合'!N5,"0.000")</f>
+        <v>1.000</v>
+      </c>
+      <c r="K5" s="26" t="str">
+        <f>TEXT('打撃 総合'!O5,"0.000")</f>
+        <v>1.000</v>
+      </c>
+      <c r="L5" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q5,"0.000")</f>
+        <v>2.000</v>
       </c>
       <c r="M5" s="24">
         <f>'打撃 総合'!R5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="31" t="e">
+      <c r="N5" s="29" t="e">
         <f>'打撃 総合'!U5*100 &amp; "%"</f>
         <v>#VALUE!</v>
       </c>
@@ -1604,23 +1606,23 @@
         <f>'打撃 総合'!M6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="26">
-        <f>'打撃 総合'!N6</f>
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="K6" s="26">
-        <f>'打撃 総合'!O6</f>
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="L6" s="26">
-        <f>'打撃 総合'!Q6</f>
+      <c r="J6" s="26" t="str">
+        <f>TEXT('打撃 総合'!N6,"0.000")</f>
+        <v>0.667</v>
+      </c>
+      <c r="K6" s="26" t="str">
+        <f>TEXT('打撃 総合'!O6,"0.000")</f>
+        <v>0.667</v>
+      </c>
+      <c r="L6" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q6,"0.000")</f>
         <v>1.667</v>
       </c>
       <c r="M6" s="24">
         <f>'打撃 総合'!R6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="31" t="str">
+      <c r="N6" s="29" t="str">
         <f>'打撃 総合'!U6*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1662,23 +1664,23 @@
         <f>'打撃 総合'!M7</f>
         <v>2</v>
       </c>
-      <c r="J7" s="26">
-        <f>'打撃 総合'!N7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <f>'打撃 総合'!O7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="26">
-        <f>'打撃 総合'!Q7</f>
-        <v>0</v>
+      <c r="J7" s="26" t="str">
+        <f>TEXT('打撃 総合'!N7,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="K7" s="26" t="str">
+        <f>TEXT('打撃 総合'!O7,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="L7" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q7,"0.000")</f>
+        <v>0.000</v>
       </c>
       <c r="M7" s="24">
         <f>'打撃 総合'!R7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="31" t="str">
+      <c r="N7" s="29" t="str">
         <f>'打撃 総合'!U7*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1720,23 +1722,23 @@
         <f>'打撃 総合'!M8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="26">
-        <f>'打撃 総合'!N8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="26">
-        <f>'打撃 総合'!O8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="26">
-        <f>'打撃 総合'!Q8</f>
-        <v>0</v>
+      <c r="J8" s="26" t="str">
+        <f>TEXT('打撃 総合'!N8,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="K8" s="26" t="str">
+        <f>TEXT('打撃 総合'!O8,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="L8" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q8,"0.000")</f>
+        <v>0.000</v>
       </c>
       <c r="M8" s="24">
         <f>'打撃 総合'!R8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="31" t="str">
+      <c r="N8" s="29" t="str">
         <f>'打撃 総合'!U8*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1779,22 +1781,22 @@
         <v>0</v>
       </c>
       <c r="J9" s="26" t="str">
-        <f>'打撃 総合'!N9</f>
+        <f>TEXT('打撃 総合'!N9,"0.000")</f>
         <v>-</v>
       </c>
       <c r="K9" s="26" t="str">
-        <f>'打撃 総合'!O9</f>
+        <f>TEXT('打撃 総合'!O9,"0.000")</f>
         <v>-</v>
       </c>
       <c r="L9" s="26" t="str">
-        <f>'打撃 総合'!Q9</f>
+        <f>TEXT('打撃 総合'!Q9,"0.000")</f>
         <v>-</v>
       </c>
       <c r="M9" s="24">
         <f>'打撃 総合'!R9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="31" t="str">
+      <c r="N9" s="29" t="str">
         <f>'打撃 総合'!U9*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1836,23 +1838,23 @@
         <f>'打撃 総合'!M10</f>
         <v>2</v>
       </c>
-      <c r="J10" s="26">
-        <f>'打撃 総合'!N10</f>
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="26">
-        <f>'打撃 総合'!O10</f>
-        <v>0.25</v>
-      </c>
-      <c r="L10" s="26">
-        <f>'打撃 総合'!Q10</f>
-        <v>0.5</v>
+      <c r="J10" s="26" t="str">
+        <f>TEXT('打撃 総合'!N10,"0.000")</f>
+        <v>0.250</v>
+      </c>
+      <c r="K10" s="26" t="str">
+        <f>TEXT('打撃 総合'!O10,"0.000")</f>
+        <v>0.250</v>
+      </c>
+      <c r="L10" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q10,"0.000")</f>
+        <v>0.500</v>
       </c>
       <c r="M10" s="24">
         <f>'打撃 総合'!R10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="31" t="str">
+      <c r="N10" s="29" t="str">
         <f>'打撃 総合'!U10*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1894,23 +1896,23 @@
         <f>'打撃 総合'!M11</f>
         <v>2</v>
       </c>
-      <c r="J11" s="26">
-        <f>'打撃 総合'!N11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="26">
-        <f>'打撃 総合'!O11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="26">
-        <f>'打撃 総合'!Q11</f>
-        <v>0</v>
+      <c r="J11" s="26" t="str">
+        <f>TEXT('打撃 総合'!N11,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="K11" s="26" t="str">
+        <f>TEXT('打撃 総合'!O11,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="L11" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q11,"0.000")</f>
+        <v>0.000</v>
       </c>
       <c r="M11" s="24">
         <f>'打撃 総合'!R11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="31" t="str">
+      <c r="N11" s="29" t="str">
         <f>'打撃 総合'!U11*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1952,23 +1954,23 @@
         <f>'打撃 総合'!M12</f>
         <v>2</v>
       </c>
-      <c r="J12" s="26">
-        <f>'打撃 総合'!N12</f>
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="K12" s="26">
-        <f>'打撃 総合'!O12</f>
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L12" s="26">
-        <f>'打撃 総合'!Q12</f>
-        <v>0.66600000000000004</v>
+      <c r="J12" s="26" t="str">
+        <f>TEXT('打撃 総合'!N12,"0.000")</f>
+        <v>0.333</v>
+      </c>
+      <c r="K12" s="26" t="str">
+        <f>TEXT('打撃 総合'!O12,"0.000")</f>
+        <v>0.333</v>
+      </c>
+      <c r="L12" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q12,"0.000")</f>
+        <v>0.666</v>
       </c>
       <c r="M12" s="24">
         <f>'打撃 総合'!R12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="31" t="str">
+      <c r="N12" s="29" t="str">
         <f>'打撃 総合'!U12*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -2009,23 +2011,23 @@
         <f>'打撃 総合'!M13</f>
         <v>11</v>
       </c>
-      <c r="J13" s="26">
-        <f>'打撃 総合'!N13</f>
+      <c r="J13" s="26" t="str">
+        <f>TEXT('打撃 総合'!N13,"0.000")</f>
         <v>0.185</v>
       </c>
-      <c r="K13" s="26">
-        <f>'打撃 総合'!O13</f>
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="L13" s="26">
-        <f>'打撃 総合'!Q13</f>
-        <v>0.46299999999999997</v>
+      <c r="K13" s="26" t="str">
+        <f>TEXT('打撃 総合'!O13,"0.000")</f>
+        <v>0.241</v>
+      </c>
+      <c r="L13" s="26" t="str">
+        <f>TEXT('打撃 総合'!Q13,"0.000")</f>
+        <v>0.463</v>
       </c>
       <c r="M13" s="24">
         <f>'打撃 総合'!R13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="31" t="str">
+      <c r="N13" s="29" t="str">
         <f>'打撃 総合'!U13*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -2041,7 +2043,7 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3954,7 +3956,7 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="15">
@@ -4054,7 +4056,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="15">
         <v>2</v>
       </c>
@@ -4152,7 +4154,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -4250,7 +4252,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="15">
         <v>4</v>
       </c>
@@ -4351,7 +4353,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="15">
         <v>5</v>
       </c>
@@ -4446,7 +4448,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="15">
         <v>6</v>
       </c>
@@ -4541,7 +4543,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="15">
         <v>7</v>
       </c>
@@ -4636,7 +4638,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="15">
         <v>8</v>
       </c>
@@ -4731,7 +4733,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="15">
         <v>9</v>
       </c>
@@ -4811,7 +4813,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -4897,7 +4899,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
@@ -4971,7 +4973,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="16">
@@ -5002,7 +5004,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="15">
         <v>2</v>
       </c>
@@ -5028,7 +5030,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="15">
         <v>3</v>
       </c>
@@ -5054,7 +5056,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="15">
         <v>4</v>
       </c>
@@ -5080,7 +5082,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="15">
         <v>5</v>
       </c>
@@ -5109,7 +5111,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="15">
         <v>6</v>
       </c>
@@ -5132,7 +5134,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="15">
         <v>7</v>
       </c>
@@ -5155,7 +5157,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="15">
         <v>8</v>
       </c>
@@ -5175,7 +5177,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="30"/>
+      <c r="A21" s="31"/>
       <c r="C21">
         <v>3</v>
       </c>
@@ -5195,7 +5197,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="15">
         <v>9</v>
       </c>
@@ -5221,7 +5223,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="30"/>
+      <c r="A23" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4459BBC-C36E-46E9-AF62-EE573848CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87107875-9AFC-418D-A352-A1B2391765E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,13 +658,6 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -795,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -860,34 +853,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -895,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1267,769 +1260,769 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="4.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="str">
+    <row r="1" spans="1:14" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="str">
         <f>'打撃 総合'!A1</f>
         <v>打者</v>
       </c>
-      <c r="B1" s="24" t="str">
+      <c r="B1" s="23" t="str">
         <f>'打撃 総合'!B1</f>
         <v>出場</v>
       </c>
-      <c r="C1" s="24" t="str">
+      <c r="C1" s="23" t="str">
         <f>'打撃 総合'!C1</f>
         <v>打席</v>
       </c>
-      <c r="D1" s="24" t="str">
+      <c r="D1" s="23" t="str">
         <f>'打撃 総合'!D1</f>
         <v>打数</v>
       </c>
-      <c r="E1" s="24" t="str">
+      <c r="E1" s="23" t="str">
         <f>'打撃 総合'!E1</f>
         <v>安打</v>
       </c>
-      <c r="F1" s="24" t="str">
+      <c r="F1" s="23" t="str">
         <f>'打撃 総合'!F1</f>
         <v>四球</v>
       </c>
-      <c r="G1" s="24" t="str">
+      <c r="G1" s="23" t="str">
         <f>'打撃 総合'!I1</f>
         <v>打点</v>
       </c>
-      <c r="H1" s="24" t="str">
+      <c r="H1" s="23" t="str">
         <f>'打撃 総合'!L1</f>
         <v>本塁打</v>
       </c>
-      <c r="I1" s="24" t="str">
+      <c r="I1" s="23" t="str">
         <f>'打撃 総合'!M1</f>
         <v>三振</v>
       </c>
-      <c r="J1" s="24" t="str">
+      <c r="J1" s="23" t="str">
         <f>'打撃 総合'!N1</f>
         <v>打率</v>
       </c>
-      <c r="K1" s="24" t="str">
+      <c r="K1" s="23" t="str">
         <f>'打撃 総合'!O1</f>
         <v>出塁率</v>
       </c>
-      <c r="L1" s="24" t="str">
+      <c r="L1" s="23" t="str">
         <f>'打撃 総合'!Q1</f>
         <v>OPS</v>
       </c>
-      <c r="M1" s="24" t="str">
+      <c r="M1" s="23" t="str">
         <f>'打撃 総合'!R1</f>
         <v>失策</v>
       </c>
-      <c r="N1" s="27" t="str">
+      <c r="N1" s="26" t="str">
         <f>'打撃 総合'!U1</f>
         <v>守備率</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="str">
+      <c r="A2" s="23" t="str">
         <f>'打撃 総合'!A2</f>
         <v>安部滉</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <f>'打撃 総合'!B2</f>
         <v>2</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <f>'打撃 総合'!C2</f>
         <v>3</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <f>'打撃 総合'!D2</f>
         <v>3</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <f>'打撃 総合'!E2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <f>'打撃 総合'!F2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <f>'打撃 総合'!I2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <f>'打撃 総合'!L2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <f>'打撃 総合'!M2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="26" t="str">
+      <c r="J2" s="25" t="str">
         <f>TEXT('打撃 総合'!N2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K2" s="26" t="str">
+      <c r="K2" s="25" t="str">
         <f>TEXT('打撃 総合'!O2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L2" s="26" t="str">
+      <c r="L2" s="25" t="str">
         <f>TEXT('打撃 総合'!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="23">
         <f>'打撃 総合'!R2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="29" t="str">
+      <c r="N2" s="28" t="str">
         <f>'打撃 総合'!U2*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="str">
+      <c r="A3" s="23" t="str">
         <f>'打撃 総合'!A3</f>
         <v>中井</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <f>'打撃 総合'!B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <f>'打撃 総合'!C3</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="24">
+        <v>3</v>
+      </c>
+      <c r="D3" s="23">
         <f>'打撃 総合'!D3</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="24">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23">
         <f>'打撃 総合'!E3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <f>'打撃 総合'!F3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <f>'打撃 総合'!I3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <f>'打撃 総合'!L3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <f>'打撃 総合'!M3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="26" t="str">
+        <v>2</v>
+      </c>
+      <c r="J3" s="25" t="str">
         <f>TEXT('打撃 総合'!N3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K3" s="26" t="str">
+      <c r="K3" s="25" t="str">
         <f>TEXT('打撃 総合'!O3,"0.000")</f>
-        <v>0.333</v>
-      </c>
-      <c r="L3" s="26" t="str">
+        <v>0.250</v>
+      </c>
+      <c r="L3" s="25" t="str">
         <f>TEXT('打撃 総合'!Q3,"0.000")</f>
-        <v>0.333</v>
-      </c>
-      <c r="M3" s="24">
+        <v>0.250</v>
+      </c>
+      <c r="M3" s="23">
         <f>'打撃 総合'!R3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="29" t="str">
+      <c r="N3" s="28" t="str">
         <f>'打撃 総合'!U3*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="str">
+      <c r="A4" s="23" t="str">
         <f>'打撃 総合'!A4</f>
         <v>野場</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <f>'打撃 総合'!B4</f>
         <v>2</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f>'打撃 総合'!C4</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="24">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23">
         <f>'打撃 総合'!D4</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+      <c r="E4" s="23">
         <f>'打撃 総合'!E4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <f>'打撃 総合'!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <f>'打撃 総合'!I4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <f>'打撃 総合'!L4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <f>'打撃 総合'!M4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="26" t="str">
+      <c r="J4" s="25" t="str">
         <f>TEXT('打撃 総合'!N4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="25" t="str">
         <f>TEXT('打撃 総合'!O4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L4" s="26" t="str">
+      <c r="L4" s="25" t="str">
         <f>TEXT('打撃 総合'!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="23">
         <f>'打撃 総合'!R4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="29" t="e">
+      <c r="N4" s="28" t="str">
         <f>'打撃 総合'!U4*100 &amp; "%"</f>
-        <v>#VALUE!</v>
+        <v>100%</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="str">
+      <c r="A5" s="23" t="str">
         <f>'打撃 総合'!A5</f>
         <v>池澤</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <f>'打撃 総合'!B5</f>
         <v>2</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f>'打撃 総合'!C5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="24">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
         <f>'打撃 総合'!D5</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="24">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
         <f>'打撃 総合'!E5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <f>'打撃 総合'!F5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <f>'打撃 総合'!I5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <f>'打撃 総合'!L5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <f>'打撃 総合'!M5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="26" t="str">
+      <c r="J5" s="25" t="str">
         <f>TEXT('打撃 総合'!N5,"0.000")</f>
-        <v>1.000</v>
-      </c>
-      <c r="K5" s="26" t="str">
+        <v>0.500</v>
+      </c>
+      <c r="K5" s="25" t="str">
         <f>TEXT('打撃 総合'!O5,"0.000")</f>
-        <v>1.000</v>
-      </c>
-      <c r="L5" s="26" t="str">
+        <v>0.667</v>
+      </c>
+      <c r="L5" s="25" t="str">
         <f>TEXT('打撃 総合'!Q5,"0.000")</f>
-        <v>2.000</v>
-      </c>
-      <c r="M5" s="24">
+        <v>1.167</v>
+      </c>
+      <c r="M5" s="23">
         <f>'打撃 総合'!R5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="29" t="e">
+      <c r="N5" s="28" t="str">
         <f>'打撃 総合'!U5*100 &amp; "%"</f>
-        <v>#VALUE!</v>
+        <v>100%</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="str">
+      <c r="A6" s="23" t="str">
         <f>'打撃 総合'!A6</f>
         <v>安部剛</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <f>'打撃 総合'!B6</f>
         <v>2</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <f>'打撃 総合'!C6</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="23">
+        <f>'打撃 総合'!D6</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="23">
+        <f>'打撃 総合'!E6</f>
         <v>3</v>
       </c>
-      <c r="D6" s="24">
-        <f>'打撃 総合'!D6</f>
+      <c r="F6" s="23">
+        <f>'打撃 総合'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <f>'打撃 総合'!I6</f>
         <v>3</v>
       </c>
-      <c r="E6" s="24">
-        <f>'打撃 総合'!E6</f>
-        <v>2</v>
-      </c>
-      <c r="F6" s="24">
-        <f>'打撃 総合'!F6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
-        <f>'打撃 総合'!I6</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <f>'打撃 総合'!L6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <f>'打撃 総合'!M6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="26" t="str">
+      <c r="J6" s="25" t="str">
         <f>TEXT('打撃 総合'!N6,"0.000")</f>
-        <v>0.667</v>
-      </c>
-      <c r="K6" s="26" t="str">
+        <v>0.600</v>
+      </c>
+      <c r="K6" s="25" t="str">
         <f>TEXT('打撃 総合'!O6,"0.000")</f>
-        <v>0.667</v>
-      </c>
-      <c r="L6" s="26" t="str">
+        <v>0.600</v>
+      </c>
+      <c r="L6" s="25" t="str">
         <f>TEXT('打撃 総合'!Q6,"0.000")</f>
-        <v>1.667</v>
-      </c>
-      <c r="M6" s="24">
+        <v>1.400</v>
+      </c>
+      <c r="M6" s="23">
         <f>'打撃 総合'!R6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="29" t="str">
+      <c r="N6" s="28" t="str">
         <f>'打撃 総合'!U6*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="24" t="str">
+      <c r="A7" s="23" t="str">
         <f>'打撃 総合'!A7</f>
         <v>大鐘</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <f>'打撃 総合'!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <f>'打撃 総合'!C7</f>
-        <v>4</v>
-      </c>
-      <c r="D7" s="24">
+        <v>6</v>
+      </c>
+      <c r="D7" s="23">
         <f>'打撃 総合'!D7</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="24">
+        <v>6</v>
+      </c>
+      <c r="E7" s="23">
         <f>'打撃 総合'!E7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23">
         <f>'打撃 総合'!F7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <f>'打撃 総合'!I7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <f>'打撃 総合'!L7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <f>'打撃 総合'!M7</f>
         <v>2</v>
       </c>
-      <c r="J7" s="26" t="str">
+      <c r="J7" s="25" t="str">
         <f>TEXT('打撃 総合'!N7,"0.000")</f>
-        <v>0.000</v>
-      </c>
-      <c r="K7" s="26" t="str">
+        <v>0.167</v>
+      </c>
+      <c r="K7" s="25" t="str">
         <f>TEXT('打撃 総合'!O7,"0.000")</f>
-        <v>0.000</v>
-      </c>
-      <c r="L7" s="26" t="str">
+        <v>0.167</v>
+      </c>
+      <c r="L7" s="25" t="str">
         <f>TEXT('打撃 総合'!Q7,"0.000")</f>
-        <v>0.000</v>
-      </c>
-      <c r="M7" s="24">
+        <v>0.500</v>
+      </c>
+      <c r="M7" s="23">
         <f>'打撃 総合'!R7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="29" t="str">
+      <c r="N7" s="28" t="str">
         <f>'打撃 総合'!U7*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="str">
+      <c r="A8" s="23" t="str">
         <f>'打撃 総合'!A8</f>
         <v>北久保</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <f>'打撃 総合'!B8</f>
         <v>2</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <f>'打撃 総合'!C8</f>
-        <v>3</v>
-      </c>
-      <c r="D8" s="24">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23">
         <f>'打撃 総合'!D8</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="24">
+        <v>4</v>
+      </c>
+      <c r="E8" s="23">
         <f>'打撃 総合'!E8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <f>'打撃 総合'!F8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <f>'打撃 総合'!I8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <f>'打撃 総合'!L8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <f>'打撃 総合'!M8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="26" t="str">
+      <c r="J8" s="25" t="str">
         <f>TEXT('打撃 総合'!N8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="25" t="str">
         <f>TEXT('打撃 総合'!O8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L8" s="26" t="str">
+      <c r="L8" s="25" t="str">
         <f>TEXT('打撃 総合'!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="23">
         <f>'打撃 総合'!R8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="N8" s="28" t="str">
         <f>'打撃 総合'!U8*100 &amp; "%"</f>
-        <v>100%</v>
+        <v>75%</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="str">
+      <c r="A9" s="23" t="str">
         <f>'打撃 総合'!A9</f>
         <v>萩原</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <f>'打撃 総合'!B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <f>'打撃 総合'!C9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <f>'打撃 総合'!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f>'打撃 総合'!E9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <f>'打撃 総合'!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <f>'打撃 総合'!I9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <f>'打撃 総合'!L9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f>'打撃 総合'!M9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="26" t="str">
+      <c r="J9" s="25" t="str">
         <f>TEXT('打撃 総合'!N9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="25" t="str">
         <f>TEXT('打撃 総合'!O9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="L9" s="26" t="str">
+      <c r="L9" s="25" t="str">
         <f>TEXT('打撃 総合'!Q9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="23">
         <f>'打撃 総合'!R9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="29" t="str">
+      <c r="N9" s="28" t="str">
         <f>'打撃 総合'!U9*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="str">
+      <c r="A10" s="23" t="str">
         <f>'打撃 総合'!A10</f>
         <v>岩本</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <f>'打撃 総合'!B10</f>
         <v>2</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <f>'打撃 総合'!C10</f>
-        <v>4</v>
-      </c>
-      <c r="D10" s="24">
+        <v>5</v>
+      </c>
+      <c r="D10" s="23">
         <f>'打撃 総合'!D10</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="24">
+        <v>5</v>
+      </c>
+      <c r="E10" s="23">
         <f>'打撃 総合'!E10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <f>'打撃 総合'!F10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23">
         <f>'打撃 総合'!I10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <f>'打撃 総合'!L10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <f>'打撃 総合'!M10</f>
         <v>2</v>
       </c>
-      <c r="J10" s="26" t="str">
+      <c r="J10" s="25" t="str">
         <f>TEXT('打撃 総合'!N10,"0.000")</f>
-        <v>0.250</v>
-      </c>
-      <c r="K10" s="26" t="str">
+        <v>0.200</v>
+      </c>
+      <c r="K10" s="25" t="str">
         <f>TEXT('打撃 総合'!O10,"0.000")</f>
-        <v>0.250</v>
-      </c>
-      <c r="L10" s="26" t="str">
+        <v>0.333</v>
+      </c>
+      <c r="L10" s="25" t="str">
         <f>TEXT('打撃 総合'!Q10,"0.000")</f>
-        <v>0.500</v>
-      </c>
-      <c r="M10" s="24">
+        <v>0.533</v>
+      </c>
+      <c r="M10" s="23">
         <f>'打撃 総合'!R10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="29" t="str">
+      <c r="N10" s="28" t="str">
         <f>'打撃 総合'!U10*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="str">
+      <c r="A11" s="23" t="str">
         <f>'打撃 総合'!A11</f>
         <v>上小城</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <f>'打撃 総合'!B11</f>
         <v>2</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <f>'打撃 総合'!C11</f>
-        <v>3</v>
-      </c>
-      <c r="D11" s="24">
+        <v>5</v>
+      </c>
+      <c r="D11" s="23">
         <f>'打撃 総合'!D11</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="24">
+        <v>5</v>
+      </c>
+      <c r="E11" s="23">
         <f>'打撃 総合'!E11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <f>'打撃 総合'!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <f>'打撃 総合'!I11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <f>'打撃 総合'!L11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <f>'打撃 総合'!M11</f>
         <v>2</v>
       </c>
-      <c r="J11" s="26" t="str">
+      <c r="J11" s="25" t="str">
         <f>TEXT('打撃 総合'!N11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K11" s="26" t="str">
+      <c r="K11" s="25" t="str">
         <f>TEXT('打撃 総合'!O11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L11" s="26" t="str">
+      <c r="L11" s="25" t="str">
         <f>TEXT('打撃 総合'!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="23">
         <f>'打撃 総合'!R11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="29" t="str">
+      <c r="N11" s="28" t="str">
         <f>'打撃 総合'!U11*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="str">
+      <c r="A12" s="23" t="str">
         <f>'打撃 総合'!A12</f>
         <v>反町</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <f>'打撃 総合'!B12</f>
         <v>2</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f>'打撃 総合'!C12</f>
-        <v>3</v>
-      </c>
-      <c r="D12" s="24">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23">
         <f>'打撃 総合'!D12</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="24">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23">
         <f>'打撃 総合'!E12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <f>'打撃 総合'!F12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
         <f>'打撃 総合'!I12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <f>'打撃 総合'!L12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <f>'打撃 総合'!M12</f>
         <v>2</v>
       </c>
-      <c r="J12" s="26" t="str">
+      <c r="J12" s="25" t="str">
         <f>TEXT('打撃 総合'!N12,"0.000")</f>
-        <v>0.333</v>
-      </c>
-      <c r="K12" s="26" t="str">
+        <v>0.250</v>
+      </c>
+      <c r="K12" s="25" t="str">
         <f>TEXT('打撃 総合'!O12,"0.000")</f>
-        <v>0.333</v>
-      </c>
-      <c r="L12" s="26" t="str">
+        <v>0.400</v>
+      </c>
+      <c r="L12" s="25" t="str">
         <f>TEXT('打撃 総合'!Q12,"0.000")</f>
-        <v>0.666</v>
-      </c>
-      <c r="M12" s="24">
+        <v>0.650</v>
+      </c>
+      <c r="M12" s="23">
         <f>'打撃 総合'!R12</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="N12" s="28" t="str">
         <f>'打撃 総合'!U12*100 &amp; "%"</f>
-        <v>100%</v>
+        <v>91.7%</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <f>'打撃 総合'!B13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <f>'打撃 総合'!C13</f>
-        <v>27</v>
-      </c>
-      <c r="D13" s="24">
+        <v>39</v>
+      </c>
+      <c r="D13" s="23">
         <f>'打撃 総合'!D13</f>
-        <v>27</v>
-      </c>
-      <c r="E13" s="24">
+        <v>39</v>
+      </c>
+      <c r="E13" s="23">
         <f>'打撃 総合'!E13</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="24">
+        <v>7</v>
+      </c>
+      <c r="F13" s="23">
         <f>'打撃 総合'!F13</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="24">
+        <v>4</v>
+      </c>
+      <c r="G13" s="23">
         <f>'打撃 総合'!I13</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="24">
+        <v>3</v>
+      </c>
+      <c r="H13" s="23">
         <f>'打撃 総合'!L13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <f>'打撃 総合'!M13</f>
-        <v>11</v>
-      </c>
-      <c r="J13" s="26" t="str">
+        <v>12</v>
+      </c>
+      <c r="J13" s="25" t="str">
         <f>TEXT('打撃 総合'!N13,"0.000")</f>
-        <v>0.185</v>
-      </c>
-      <c r="K13" s="26" t="str">
+        <v>0.179</v>
+      </c>
+      <c r="K13" s="25" t="str">
         <f>TEXT('打撃 総合'!O13,"0.000")</f>
-        <v>0.241</v>
-      </c>
-      <c r="L13" s="26" t="str">
+        <v>0.256</v>
+      </c>
+      <c r="L13" s="25" t="str">
         <f>TEXT('打撃 総合'!Q13,"0.000")</f>
-        <v>0.463</v>
-      </c>
-      <c r="M13" s="24">
+        <v>0.487</v>
+      </c>
+      <c r="M13" s="23">
         <f>'打撃 総合'!R13</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="N13" s="28" t="str">
         <f>'打撃 総合'!U13*100 &amp; "%"</f>
-        <v>100%</v>
+        <v>96%</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338593D3-E6D0-43B9-8C2C-B55EBBA3FF01}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -2066,107 +2059,107 @@
     <col min="33" max="34" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
+    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AD1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AE1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AH1" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2222,7 +2215,7 @@
         <f>SUMIF(元データ!F:F,A2,元データ!Y:Y)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="20">
         <f>IFERROR(ROUND(E2/D2,3),"-")</f>
         <v>0</v>
       </c>
@@ -2317,11 +2310,11 @@
       </c>
       <c r="C3">
         <f>SUMIF(元データ!F:F,A3,元データ!H:H)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f>SUMIF(元データ!F:F,A3,元データ!H:H)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f>SUMIF(元データ!F:F,A3,元データ!I:I)</f>
@@ -2357,15 +2350,15 @@
       </c>
       <c r="M3">
         <f>SUMIF(元データ!F:F,A3,元データ!Y:Y)</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="21">
+        <v>2</v>
+      </c>
+      <c r="N3" s="20">
         <f t="shared" ref="N3:N13" si="0">IFERROR(ROUND(E3/D3,3),"-")</f>
         <v>0</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O13" si="1">IFERROR(ROUND((F3+G3+E3)/(F3+G3+D3),3),"-")</f>
-        <v>0.33300000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P13" si="2">IFERROR(ROUND(Y3/D3,3),"-")</f>
@@ -2373,7 +2366,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q13" si="3">IFERROR(O3+P3,"-")</f>
-        <v>0.33300000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
         <f>SUMIF(元データ!F:F,A3,元データ!AB:AB)</f>
@@ -2413,11 +2406,11 @@
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA12" si="6">SUM(AC3:AF3)+D3+K3</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB13" si="7">IFERROR(ROUND(AA3/C3,2),"-")</f>
-        <v>8.5</v>
+        <v>7.67</v>
       </c>
       <c r="AC3">
         <f>SUMIF(元データ!F:F,A3,元データ!T:T)</f>
@@ -2425,15 +2418,15 @@
       </c>
       <c r="AD3">
         <f>SUMIF(元データ!F:F,A3,元データ!U:U)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE3">
         <f>SUMIF(元データ!F:F,A3,元データ!V:V)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF3">
         <f>SUMIF(元データ!F:F,A3,元データ!W:W)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG3">
         <f>SUMIF(元データ!F:F,A3,元データ!R:R)</f>
@@ -2454,11 +2447,11 @@
       </c>
       <c r="C4">
         <f>SUMIF(元データ!F:F,A4,元データ!H:H)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f>SUMIF(元データ!F:F,A4,元データ!H:H)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f>SUMIF(元データ!F:F,A4,元データ!I:I)</f>
@@ -2496,7 +2489,7 @@
         <f>SUMIF(元データ!F:F,A4,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2522,11 +2515,11 @@
       </c>
       <c r="T4">
         <f>SUMIF(元データ!F:F,A4,元データ!AD:AD)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <f>SUMIF(元データ!F:F,A4,元データ!J:J)</f>
@@ -2550,11 +2543,11 @@
       </c>
       <c r="AA4">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB4">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AC4">
         <f>SUMIF(元データ!F:F,A4,元データ!T:T)</f>
@@ -2570,7 +2563,7 @@
       </c>
       <c r="AF4">
         <f>SUMIF(元データ!F:F,A4,元データ!W:W)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG4">
         <f>SUMIF(元データ!F:F,A4,元データ!R:R)</f>
@@ -2591,11 +2584,11 @@
       </c>
       <c r="C5">
         <f>SUMIF(元データ!F:F,A5,元データ!H:H)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f>SUMIF(元データ!F:F,A5,元データ!H:H)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f>SUMIF(元データ!F:F,A5,元データ!I:I)</f>
@@ -2633,21 +2626,21 @@
         <f>SUMIF(元データ!F:F,A5,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.167</v>
       </c>
       <c r="R5">
         <f>SUMIF(元データ!F:F,A5,元データ!AB:AB)</f>
@@ -2655,15 +2648,15 @@
       </c>
       <c r="S5">
         <f>SUMIF(元データ!F:F,A5,元データ!AC:AC)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <f>SUMIF(元データ!F:F,A5,元データ!AD:AD)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="U5" s="1">
         <f t="shared" si="4"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f>SUMIF(元データ!F:F,A5,元データ!J:J)</f>
@@ -2687,11 +2680,11 @@
       </c>
       <c r="AA5">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB5">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AC5">
         <f>SUMIF(元データ!F:F,A5,元データ!T:T)</f>
@@ -2728,15 +2721,15 @@
       </c>
       <c r="C6">
         <f>SUMIF(元データ!F:F,A6,元データ!H:H)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f>SUMIF(元データ!F:F,A6,元データ!H:H)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f>SUMIF(元データ!F:F,A6,元データ!I:I)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f>SUMIF(元データ!F:F,A6,元データ!N:N)</f>
@@ -2752,7 +2745,7 @@
       </c>
       <c r="I6">
         <f>SUMIF(元データ!F:F,A6,元データ!P:P)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <f>SUMIF(元データ!F:F,A6,元データ!R:R)</f>
@@ -2770,21 +2763,21 @@
         <f>SUMIF(元データ!F:F,A6,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <f t="shared" si="0"/>
-        <v>0.66700000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>0.66700000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>1.667</v>
+        <v>1.4</v>
       </c>
       <c r="R6">
         <f>SUMIF(元データ!F:F,A6,元データ!AB:AB)</f>
@@ -2792,7 +2785,7 @@
       </c>
       <c r="S6">
         <f>SUMIF(元データ!F:F,A6,元データ!AC:AC)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <f>SUMIF(元データ!F:F,A6,元データ!AD:AD)</f>
@@ -2804,7 +2797,7 @@
       </c>
       <c r="V6">
         <f>SUMIF(元データ!F:F,A6,元データ!J:J)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <f>SUMIF(元データ!F:F,A6,元データ!K:K)</f>
@@ -2816,7 +2809,7 @@
       </c>
       <c r="Y6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z6">
         <f>SUMIF(元データ!F:F,A6,元データ!AA:AA)</f>
@@ -2824,15 +2817,15 @@
       </c>
       <c r="AA6">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AB6">
         <f t="shared" si="7"/>
-        <v>3.67</v>
+        <v>3.8</v>
       </c>
       <c r="AC6">
         <f>SUMIF(元データ!F:F,A6,元データ!T:T)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD6">
         <f>SUMIF(元データ!F:F,A6,元データ!U:U)</f>
@@ -2844,7 +2837,7 @@
       </c>
       <c r="AF6">
         <f>SUMIF(元データ!F:F,A6,元データ!W:W)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG6">
         <f>SUMIF(元データ!F:F,A6,元データ!R:R)</f>
@@ -2852,7 +2845,7 @@
       </c>
       <c r="AH6">
         <f>SUMIF(元データ!F:F,A6,元データ!S:S)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.4">
@@ -2865,15 +2858,15 @@
       </c>
       <c r="C7">
         <f>SUMIF(元データ!F:F,A7,元データ!H:H)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f>SUMIF(元データ!F:F,A7,元データ!H:H)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f>SUMIF(元データ!F:F,A7,元データ!I:I)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f>SUMIF(元データ!F:F,A7,元データ!N:N)</f>
@@ -2893,7 +2886,7 @@
       </c>
       <c r="J7">
         <f>SUMIF(元データ!F:F,A7,元データ!R:R)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f>SUMIF(元データ!F:F,A7,元データ!Z:Z)</f>
@@ -2907,21 +2900,21 @@
         <f>SUMIF(元データ!F:F,A7,元データ!Y:Y)</f>
         <v>2</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
         <f>SUMIF(元データ!F:F,A7,元データ!AB:AB)</f>
@@ -2929,7 +2922,7 @@
       </c>
       <c r="S7">
         <f>SUMIF(元データ!F:F,A7,元データ!AC:AC)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <f>SUMIF(元データ!F:F,A7,元データ!AD:AD)</f>
@@ -2945,7 +2938,7 @@
       </c>
       <c r="W7">
         <f>SUMIF(元データ!F:F,A7,元データ!K:K)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f>SUMIF(元データ!F:F,A7,元データ!L:L)</f>
@@ -2953,7 +2946,7 @@
       </c>
       <c r="Y7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <f>SUMIF(元データ!F:F,A7,元データ!AA:AA)</f>
@@ -2961,11 +2954,11 @@
       </c>
       <c r="AA7">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AB7">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5.17</v>
       </c>
       <c r="AC7">
         <f>SUMIF(元データ!F:F,A7,元データ!T:T)</f>
@@ -2973,23 +2966,23 @@
       </c>
       <c r="AD7">
         <f>SUMIF(元データ!F:F,A7,元データ!U:U)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7">
         <f>SUMIF(元データ!F:F,A7,元データ!V:V)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7">
         <f>SUMIF(元データ!F:F,A7,元データ!W:W)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG7">
         <f>SUMIF(元データ!F:F,A7,元データ!R:R)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f>SUMIF(元データ!F:F,A7,元データ!S:S)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.4">
@@ -3002,11 +2995,11 @@
       </c>
       <c r="C8">
         <f>SUMIF(元データ!F:F,A8,元データ!H:H)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f>SUMIF(元データ!F:F,A8,元データ!H:H)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <f>SUMIF(元データ!F:F,A8,元データ!I:I)</f>
@@ -3044,7 +3037,7 @@
         <f>SUMIF(元データ!F:F,A8,元データ!Y:Y)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3062,19 +3055,19 @@
       </c>
       <c r="R8">
         <f>SUMIF(元データ!F:F,A8,元データ!AB:AB)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f>SUMIF(元データ!F:F,A8,元データ!AC:AC)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <f>SUMIF(元データ!F:F,A8,元データ!AD:AD)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V8">
         <f>SUMIF(元データ!F:F,A8,元データ!J:J)</f>
@@ -3098,11 +3091,11 @@
       </c>
       <c r="AA8">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB8">
         <f t="shared" si="7"/>
-        <v>4.67</v>
+        <v>4</v>
       </c>
       <c r="AC8">
         <f>SUMIF(元データ!F:F,A8,元データ!T:T)</f>
@@ -3118,7 +3111,7 @@
       </c>
       <c r="AF8">
         <f>SUMIF(元データ!F:F,A8,元データ!W:W)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8">
         <f>SUMIF(元データ!F:F,A8,元データ!R:R)</f>
@@ -3181,7 +3174,7 @@
         <f>SUMIF(元データ!F:F,A9,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="21" t="str">
+      <c r="N9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
@@ -3276,11 +3269,11 @@
       </c>
       <c r="C10">
         <f>SUMIF(元データ!F:F,A10,元データ!H:H)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <f>SUMIF(元データ!F:F,A10,元データ!H:H)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f>SUMIF(元データ!F:F,A10,元データ!I:I)</f>
@@ -3288,7 +3281,7 @@
       </c>
       <c r="F10">
         <f>SUMIF(元データ!F:F,A10,元データ!N:N)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f>SUMIF(元データ!F:F,A10,元データ!O:O)</f>
@@ -3296,7 +3289,7 @@
       </c>
       <c r="H10">
         <f>SUMIF(元データ!F:F,A10,元データ!Q:Q)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f>SUMIF(元データ!F:F,A10,元データ!P:P)</f>
@@ -3304,7 +3297,7 @@
       </c>
       <c r="J10">
         <f>SUMIF(元データ!F:F,A10,元データ!R:R)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <f>SUMIF(元データ!F:F,A10,元データ!Z:Z)</f>
@@ -3318,21 +3311,21 @@
         <f>SUMIF(元データ!F:F,A10,元データ!Y:Y)</f>
         <v>2</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="20">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="R10">
         <f>SUMIF(元データ!F:F,A10,元データ!AB:AB)</f>
@@ -3372,19 +3365,19 @@
       </c>
       <c r="AA10">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AB10">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC10">
         <f>SUMIF(元データ!F:F,A10,元データ!T:T)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD10">
         <f>SUMIF(元データ!F:F,A10,元データ!U:U)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10">
         <f>SUMIF(元データ!F:F,A10,元データ!V:V)</f>
@@ -3392,11 +3385,11 @@
       </c>
       <c r="AF10">
         <f>SUMIF(元データ!F:F,A10,元データ!W:W)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AG10">
         <f>SUMIF(元データ!F:F,A10,元データ!R:R)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH10">
         <f>SUMIF(元データ!F:F,A10,元データ!S:S)</f>
@@ -3413,11 +3406,11 @@
       </c>
       <c r="C11">
         <f>SUMIF(元データ!F:F,A11,元データ!H:H)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <f>SUMIF(元データ!F:F,A11,元データ!H:H)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f>SUMIF(元データ!F:F,A11,元データ!I:I)</f>
@@ -3455,7 +3448,7 @@
         <f>SUMIF(元データ!F:F,A11,元データ!Y:Y)</f>
         <v>2</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3477,7 +3470,7 @@
       </c>
       <c r="S11">
         <f>SUMIF(元データ!F:F,A11,元データ!AC:AC)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <f>SUMIF(元データ!F:F,A11,元データ!AD:AD)</f>
@@ -3509,27 +3502,27 @@
       </c>
       <c r="AA11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AB11">
         <f t="shared" si="7"/>
-        <v>5.33</v>
+        <v>4.8</v>
       </c>
       <c r="AC11">
         <f>SUMIF(元データ!F:F,A11,元データ!T:T)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD11">
         <f>SUMIF(元データ!F:F,A11,元データ!U:U)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11">
         <f>SUMIF(元データ!F:F,A11,元データ!V:V)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF11">
         <f>SUMIF(元データ!F:F,A11,元データ!W:W)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG11">
         <f>SUMIF(元データ!F:F,A11,元データ!R:R)</f>
@@ -3550,11 +3543,11 @@
       </c>
       <c r="C12">
         <f>SUMIF(元データ!F:F,A12,元データ!H:H)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f>SUMIF(元データ!F:F,A12,元データ!H:H)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <f>SUMIF(元データ!F:F,A12,元データ!I:I)</f>
@@ -3562,7 +3555,7 @@
       </c>
       <c r="F12">
         <f>SUMIF(元データ!F:F,A12,元データ!N:N)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f>SUMIF(元データ!F:F,A12,元データ!O:O)</f>
@@ -3592,37 +3585,37 @@
         <f>SUMIF(元データ!F:F,A12,元データ!Y:Y)</f>
         <v>2</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <f t="shared" si="0"/>
-        <v>0.33300000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>0.33300000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>0.33300000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0.66600000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="R12">
         <f>SUMIF(元データ!F:F,A12,元データ!AB:AB)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <f>SUMIF(元データ!F:F,A12,元データ!AC:AC)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T12">
         <f>SUMIF(元データ!F:F,A12,元データ!AD:AD)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="V12">
         <f>SUMIF(元データ!F:F,A12,元データ!J:J)</f>
@@ -3646,15 +3639,15 @@
       </c>
       <c r="AA12">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AB12">
         <f t="shared" si="7"/>
-        <v>6.33</v>
+        <v>7</v>
       </c>
       <c r="AC12">
         <f>SUMIF(元データ!F:F,A12,元データ!T:T)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD12">
         <f>SUMIF(元データ!F:F,A12,元データ!U:U)</f>
@@ -3666,7 +3659,7 @@
       </c>
       <c r="AF12">
         <f>SUMIF(元データ!F:F,A12,元データ!W:W)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AG12">
         <f>SUMIF(元データ!F:F,A12,元データ!R:R)</f>
@@ -3674,7 +3667,7 @@
       </c>
       <c r="AH12">
         <f>SUMIF(元データ!F:F,A12,元データ!S:S)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.4">
@@ -3683,19 +3676,19 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:M13" si="8">SUM(C2:C12)</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f t="shared" si="8"/>
@@ -3703,15 +3696,15 @@
       </c>
       <c r="H13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <f t="shared" si="8"/>
@@ -3723,47 +3716,47 @@
       </c>
       <c r="M13">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="N13" s="21">
+        <v>12</v>
+      </c>
+      <c r="N13" s="20">
         <f t="shared" si="0"/>
-        <v>0.185</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>0.24099999999999999</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>0.222</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>0.46299999999999997</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="R13">
         <f t="shared" ref="R13" si="9">SUM(R2:R12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <f t="shared" ref="S13" si="10">SUM(S2:S12)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T13">
         <f t="shared" ref="T13" si="11">SUM(T2:T12)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13" si="12">SUM(V2:V12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W13">
         <f t="shared" ref="W13" si="13">SUM(W2:W12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <f t="shared" ref="X13" si="14">SUM(X2:X12)</f>
@@ -3771,7 +3764,7 @@
       </c>
       <c r="Y13">
         <f t="shared" ref="Y13" si="15">SUM(Y2:Y12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z13">
         <f t="shared" ref="Z13" si="16">SUM(Z2:Z12)</f>
@@ -3779,35 +3772,35 @@
       </c>
       <c r="AA13">
         <f t="shared" ref="AA13" si="17">SUM(AA2:AA12)</f>
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="AB13">
         <f t="shared" si="7"/>
-        <v>5.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC13">
         <f t="shared" ref="AC13" si="18">SUM(AC2:AC12)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AD13">
         <f t="shared" ref="AD13" si="19">SUM(AD2:AD12)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE13">
         <f t="shared" ref="AE13" si="20">SUM(AE2:AE12)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AF13">
         <f t="shared" ref="AF13" si="21">SUM(AF2:AF12)</f>
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="AG13">
         <f t="shared" ref="AG13" si="22">SUM(AG2:AG12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH13">
         <f t="shared" ref="AH13" si="23">SUM(AH2:AH12)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +3827,7 @@
   <dimension ref="A1:AL23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:W9"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3901,10 +3894,10 @@
       <c r="S1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>103</v>
       </c>
       <c r="V1" s="8" t="s">
@@ -3956,7 +3949,7 @@
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="15">
@@ -4056,7 +4049,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="15">
         <v>2</v>
       </c>
@@ -4154,7 +4147,7 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -4252,7 +4245,7 @@
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="15">
         <v>4</v>
       </c>
@@ -4353,7 +4346,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="15">
         <v>5</v>
       </c>
@@ -4448,7 +4441,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="15">
         <v>6</v>
       </c>
@@ -4543,7 +4536,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="15">
         <v>7</v>
       </c>
@@ -4638,7 +4631,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="15">
         <v>8</v>
       </c>
@@ -4733,7 +4726,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="15">
         <v>9</v>
       </c>
@@ -4813,7 +4806,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
+      <c r="A11" s="30"/>
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -4899,7 +4892,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
@@ -4972,8 +4965,8 @@
         <v>萩原</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="16">
@@ -4988,9 +4981,75 @@
       <c r="F13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" ref="H13:H22" si="14">G13-N13-O13-Z13</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="17">
+        <f>SUM(J13:M13)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <f>COUNTIF(AF13:AJ13, "*安*")</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>COUNTIF(AF13:AJ13, "*二")</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="17">
+        <f>COUNTIF(AF13:AJ13, "*三")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <f>COUNTIF(AF13:AJ13, "*本")</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <f>COUNTIF(AF13:AJ13, "四球")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <f>COUNTIF(AF13:AJ13, "死球")</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <v>1</v>
+      </c>
+      <c r="S13" s="17">
+        <v>1</v>
+      </c>
+      <c r="U13" s="17">
+        <v>1</v>
+      </c>
+      <c r="V13" s="17">
+        <v>1</v>
+      </c>
+      <c r="W13" s="17">
+        <v>3</v>
+      </c>
+      <c r="X13" s="17">
+        <f>COUNTIF(AF13:AJ13, "*失*")</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="17">
+        <f>COUNTIF(AF13:AJ13, "*振*")</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <f>COUNTIF(AF13:AJ13, "*犠*")</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17">
+        <f>COUNTIF(AF13:AJ13, "*併*")</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>1</v>
       </c>
       <c r="AE13" s="17" t="str">
         <f t="shared" si="13"/>
@@ -5004,7 +5063,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="31"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="15">
         <v>2</v>
       </c>
@@ -5017,6 +5076,69 @@
       <c r="G14">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I22" si="15">SUM(J14:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J22" si="16">COUNTIF(AF14:AJ14, "*安*")</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K22" si="17">COUNTIF(AF14:AJ14, "*二")</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L22" si="18">COUNTIF(AF14:AJ14, "*三")</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M22" si="19">COUNTIF(AF14:AJ14, "*本")</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N22" si="20">COUNTIF(AF14:AJ14, "四球")</f>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O22" si="21">COUNTIF(AF14:AJ14, "死球")</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="T14" s="31">
+        <v>2</v>
+      </c>
+      <c r="U14" s="31">
+        <v>1</v>
+      </c>
+      <c r="W14" s="31">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X22" si="22">COUNTIF(AF14:AJ14, "*失*")</f>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ref="Y14:Y22" si="23">COUNTIF(AF14:AJ14, "*振*")</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ref="Z14:Z22" si="24">COUNTIF(AF14:AJ14, "*犠*")</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14:AA22" si="25">COUNTIF(AF14:AJ14, "*併*")</f>
+        <v>0</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="13"/>
@@ -5030,7 +5152,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="15">
         <v>3</v>
       </c>
@@ -5043,6 +5165,72 @@
       <c r="G15">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="31">
+        <v>1</v>
+      </c>
+      <c r="W15" s="31">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="13"/>
@@ -5056,7 +5244,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="15">
         <v>4</v>
       </c>
@@ -5069,6 +5257,69 @@
       <c r="G16">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="31">
+        <v>3</v>
+      </c>
+      <c r="W16" s="31">
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="13"/>
@@ -5082,7 +5333,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="15">
         <v>5</v>
       </c>
@@ -5098,6 +5349,69 @@
       <c r="G17">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="31">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17" s="31">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
       </c>
       <c r="AE17" t="str">
         <f t="shared" si="13"/>
@@ -5111,7 +5425,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="15">
         <v>6</v>
       </c>
@@ -5123,6 +5437,66 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="31">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>1</v>
       </c>
       <c r="AE18" t="str">
@@ -5134,7 +5508,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="31"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="15">
         <v>7</v>
       </c>
@@ -5147,6 +5521,63 @@
       <c r="G19">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19" s="31">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="AE19" t="str">
         <f t="shared" si="13"/>
@@ -5157,7 +5588,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="31"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="15">
         <v>8</v>
       </c>
@@ -5169,6 +5600,54 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE20" t="str">
@@ -5177,7 +5656,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="31"/>
+      <c r="A21" s="30"/>
       <c r="C21">
         <v>3</v>
       </c>
@@ -5187,6 +5666,57 @@
       <c r="G21">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
       </c>
       <c r="AE21" t="str">
         <f t="shared" si="13"/>
@@ -5197,7 +5727,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="31"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="15">
         <v>9</v>
       </c>
@@ -5213,6 +5743,60 @@
       <c r="G22">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
       </c>
       <c r="AE22" t="str">
         <f t="shared" si="13"/>
@@ -5222,13 +5806,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A23" s="31"/>
+    <row r="23" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A13:A22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C1:E1048576">

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87107875-9AFC-418D-A352-A1B2391765E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E023EB-6226-4D5F-9807-BE4115A922B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,9 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1255,7 +1252,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1974,7 +1971,7 @@
       </c>
       <c r="B13" s="23">
         <f>'打撃 総合'!B13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="23">
         <f>'打撃 総合'!C13</f>
@@ -2036,7 +2033,7 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3673,6 +3670,10 @@
     <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>34</v>
+      </c>
+      <c r="B13">
+        <f>COUNTA(元データ!A:A)-1</f>
+        <v>2</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:M13" si="8">SUM(C2:C12)</f>
@@ -3827,7 +3828,7 @@
   <dimension ref="A1:AL23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5115,13 +5116,13 @@
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="T14" s="31">
-        <v>2</v>
-      </c>
-      <c r="U14" s="31">
-        <v>1</v>
-      </c>
-      <c r="W14" s="31">
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>6</v>
       </c>
       <c r="X14">
@@ -5201,10 +5202,10 @@
       <c r="S15">
         <v>1</v>
       </c>
-      <c r="T15" s="31">
-        <v>1</v>
-      </c>
-      <c r="W15" s="31">
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="W15">
         <v>7</v>
       </c>
       <c r="X15">
@@ -5296,10 +5297,10 @@
       <c r="S16">
         <v>1</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16">
         <v>3</v>
       </c>
-      <c r="W16" s="31">
+      <c r="W16">
         <v>3</v>
       </c>
       <c r="X16">
@@ -5382,7 +5383,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17">
         <v>1</v>
       </c>
       <c r="U17">
@@ -5391,7 +5392,7 @@
       <c r="V17">
         <v>1</v>
       </c>
-      <c r="W17" s="31">
+      <c r="W17">
         <v>3</v>
       </c>
       <c r="X17">
@@ -5471,7 +5472,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W18" s="31">
+      <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
@@ -5560,7 +5561,7 @@
       <c r="V19">
         <v>2</v>
       </c>
-      <c r="W19" s="31">
+      <c r="W19">
         <v>2</v>
       </c>
       <c r="X19">

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E023EB-6226-4D5F-9807-BE4115A922B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1A6F19-99F6-4521-897A-EDCD48690CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
-    <sheet name="打撃 総合" sheetId="4" r:id="rId2"/>
-    <sheet name="投手" sheetId="2" r:id="rId3"/>
-    <sheet name="元データ" sheetId="3" r:id="rId4"/>
+    <sheet name="打撃詳細" sheetId="5" r:id="rId2"/>
+    <sheet name="打撃集計" sheetId="4" r:id="rId3"/>
+    <sheet name="投手" sheetId="2" r:id="rId4"/>
+    <sheet name="元データ" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1251,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1271,698 +1272,698 @@
   <sheetData>
     <row r="1" spans="1:14" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="str">
-        <f>'打撃 総合'!A1</f>
+        <f>打撃集計!A1</f>
         <v>打者</v>
       </c>
       <c r="B1" s="23" t="str">
-        <f>'打撃 総合'!B1</f>
+        <f>打撃集計!B1</f>
         <v>出場</v>
       </c>
       <c r="C1" s="23" t="str">
-        <f>'打撃 総合'!C1</f>
+        <f>打撃集計!C1</f>
         <v>打席</v>
       </c>
       <c r="D1" s="23" t="str">
-        <f>'打撃 総合'!D1</f>
+        <f>打撃集計!D1</f>
         <v>打数</v>
       </c>
       <c r="E1" s="23" t="str">
-        <f>'打撃 総合'!E1</f>
+        <f>打撃集計!E1</f>
         <v>安打</v>
       </c>
       <c r="F1" s="23" t="str">
-        <f>'打撃 総合'!F1</f>
+        <f>打撃集計!F1</f>
         <v>四球</v>
       </c>
       <c r="G1" s="23" t="str">
-        <f>'打撃 総合'!I1</f>
+        <f>打撃集計!I1</f>
         <v>打点</v>
       </c>
       <c r="H1" s="23" t="str">
-        <f>'打撃 総合'!L1</f>
+        <f>打撃集計!L1</f>
         <v>本塁打</v>
       </c>
       <c r="I1" s="23" t="str">
-        <f>'打撃 総合'!M1</f>
+        <f>打撃集計!M1</f>
         <v>三振</v>
       </c>
       <c r="J1" s="23" t="str">
-        <f>'打撃 総合'!N1</f>
+        <f>打撃集計!N1</f>
         <v>打率</v>
       </c>
       <c r="K1" s="23" t="str">
-        <f>'打撃 総合'!O1</f>
+        <f>打撃集計!O1</f>
         <v>出塁率</v>
       </c>
       <c r="L1" s="23" t="str">
-        <f>'打撃 総合'!Q1</f>
+        <f>打撃集計!Q1</f>
         <v>OPS</v>
       </c>
       <c r="M1" s="23" t="str">
-        <f>'打撃 総合'!R1</f>
+        <f>打撃集計!R1</f>
         <v>失策</v>
       </c>
       <c r="N1" s="26" t="str">
-        <f>'打撃 総合'!U1</f>
+        <f>打撃集計!U1</f>
         <v>守備率</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="str">
-        <f>'打撃 総合'!A2</f>
+        <f>打撃集計!A2</f>
         <v>安部滉</v>
       </c>
       <c r="B2" s="23">
-        <f>'打撃 総合'!B2</f>
+        <f>打撃集計!B2</f>
         <v>2</v>
       </c>
       <c r="C2" s="23">
-        <f>'打撃 総合'!C2</f>
+        <f>打撃集計!C2</f>
         <v>3</v>
       </c>
       <c r="D2" s="23">
-        <f>'打撃 総合'!D2</f>
+        <f>打撃集計!D2</f>
         <v>3</v>
       </c>
       <c r="E2" s="23">
-        <f>'打撃 総合'!E2</f>
+        <f>打撃集計!E2</f>
         <v>0</v>
       </c>
       <c r="F2" s="23">
-        <f>'打撃 総合'!F2</f>
+        <f>打撃集計!F2</f>
         <v>0</v>
       </c>
       <c r="G2" s="23">
-        <f>'打撃 総合'!I2</f>
+        <f>打撃集計!I2</f>
         <v>0</v>
       </c>
       <c r="H2" s="23">
-        <f>'打撃 総合'!L2</f>
+        <f>打撃集計!L2</f>
         <v>0</v>
       </c>
       <c r="I2" s="23">
-        <f>'打撃 総合'!M2</f>
+        <f>打撃集計!M2</f>
         <v>1</v>
       </c>
       <c r="J2" s="25" t="str">
-        <f>TEXT('打撃 総合'!N2,"0.000")</f>
+        <f>TEXT(打撃集計!N2,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="K2" s="25" t="str">
-        <f>TEXT('打撃 総合'!O2,"0.000")</f>
+        <f>TEXT(打撃集計!O2,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="L2" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q2,"0.000")</f>
+        <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="M2" s="23">
-        <f>'打撃 総合'!R2</f>
+        <f>打撃集計!R2</f>
         <v>0</v>
       </c>
       <c r="N2" s="28" t="str">
-        <f>'打撃 総合'!U2*100 &amp; "%"</f>
+        <f>打撃集計!U2*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="str">
-        <f>'打撃 総合'!A3</f>
+        <f>打撃集計!A3</f>
         <v>中井</v>
       </c>
       <c r="B3" s="23">
-        <f>'打撃 総合'!B3</f>
+        <f>打撃集計!B3</f>
         <v>2</v>
       </c>
       <c r="C3" s="23">
-        <f>'打撃 総合'!C3</f>
+        <f>打撃集計!C3</f>
         <v>3</v>
       </c>
       <c r="D3" s="23">
-        <f>'打撃 総合'!D3</f>
+        <f>打撃集計!D3</f>
         <v>3</v>
       </c>
       <c r="E3" s="23">
-        <f>'打撃 総合'!E3</f>
+        <f>打撃集計!E3</f>
         <v>0</v>
       </c>
       <c r="F3" s="23">
-        <f>'打撃 総合'!F3</f>
+        <f>打撃集計!F3</f>
         <v>1</v>
       </c>
       <c r="G3" s="23">
-        <f>'打撃 総合'!I3</f>
+        <f>打撃集計!I3</f>
         <v>0</v>
       </c>
       <c r="H3" s="23">
-        <f>'打撃 総合'!L3</f>
+        <f>打撃集計!L3</f>
         <v>0</v>
       </c>
       <c r="I3" s="23">
-        <f>'打撃 総合'!M3</f>
+        <f>打撃集計!M3</f>
         <v>2</v>
       </c>
       <c r="J3" s="25" t="str">
-        <f>TEXT('打撃 総合'!N3,"0.000")</f>
+        <f>TEXT(打撃集計!N3,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="K3" s="25" t="str">
-        <f>TEXT('打撃 総合'!O3,"0.000")</f>
+        <f>TEXT(打撃集計!O3,"0.000")</f>
         <v>0.250</v>
       </c>
       <c r="L3" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q3,"0.000")</f>
+        <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
       <c r="M3" s="23">
-        <f>'打撃 総合'!R3</f>
+        <f>打撃集計!R3</f>
         <v>0</v>
       </c>
       <c r="N3" s="28" t="str">
-        <f>'打撃 総合'!U3*100 &amp; "%"</f>
+        <f>打撃集計!U3*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="str">
-        <f>'打撃 総合'!A4</f>
+        <f>打撃集計!A4</f>
         <v>野場</v>
       </c>
       <c r="B4" s="23">
-        <f>'打撃 総合'!B4</f>
+        <f>打撃集計!B4</f>
         <v>2</v>
       </c>
       <c r="C4" s="23">
-        <f>'打撃 総合'!C4</f>
+        <f>打撃集計!C4</f>
         <v>2</v>
       </c>
       <c r="D4" s="23">
-        <f>'打撃 総合'!D4</f>
+        <f>打撃集計!D4</f>
         <v>2</v>
       </c>
       <c r="E4" s="23">
-        <f>'打撃 総合'!E4</f>
+        <f>打撃集計!E4</f>
         <v>0</v>
       </c>
       <c r="F4" s="23">
-        <f>'打撃 総合'!F4</f>
+        <f>打撃集計!F4</f>
         <v>0</v>
       </c>
       <c r="G4" s="23">
-        <f>'打撃 総合'!I4</f>
+        <f>打撃集計!I4</f>
         <v>0</v>
       </c>
       <c r="H4" s="23">
-        <f>'打撃 総合'!L4</f>
+        <f>打撃集計!L4</f>
         <v>0</v>
       </c>
       <c r="I4" s="23">
-        <f>'打撃 総合'!M4</f>
+        <f>打撃集計!M4</f>
         <v>0</v>
       </c>
       <c r="J4" s="25" t="str">
-        <f>TEXT('打撃 総合'!N4,"0.000")</f>
+        <f>TEXT(打撃集計!N4,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="K4" s="25" t="str">
-        <f>TEXT('打撃 総合'!O4,"0.000")</f>
+        <f>TEXT(打撃集計!O4,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="L4" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q4,"0.000")</f>
+        <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="M4" s="23">
-        <f>'打撃 総合'!R4</f>
+        <f>打撃集計!R4</f>
         <v>0</v>
       </c>
       <c r="N4" s="28" t="str">
-        <f>'打撃 総合'!U4*100 &amp; "%"</f>
+        <f>打撃集計!U4*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="str">
-        <f>'打撃 総合'!A5</f>
+        <f>打撃集計!A5</f>
         <v>池澤</v>
       </c>
       <c r="B5" s="23">
-        <f>'打撃 総合'!B5</f>
+        <f>打撃集計!B5</f>
         <v>2</v>
       </c>
       <c r="C5" s="23">
-        <f>'打撃 総合'!C5</f>
+        <f>打撃集計!C5</f>
         <v>2</v>
       </c>
       <c r="D5" s="23">
-        <f>'打撃 総合'!D5</f>
+        <f>打撃集計!D5</f>
         <v>2</v>
       </c>
       <c r="E5" s="23">
-        <f>'打撃 総合'!E5</f>
+        <f>打撃集計!E5</f>
         <v>1</v>
       </c>
       <c r="F5" s="23">
-        <f>'打撃 総合'!F5</f>
+        <f>打撃集計!F5</f>
         <v>1</v>
       </c>
       <c r="G5" s="23">
-        <f>'打撃 総合'!I5</f>
+        <f>打撃集計!I5</f>
         <v>0</v>
       </c>
       <c r="H5" s="23">
-        <f>'打撃 総合'!L5</f>
+        <f>打撃集計!L5</f>
         <v>0</v>
       </c>
       <c r="I5" s="23">
-        <f>'打撃 総合'!M5</f>
+        <f>打撃集計!M5</f>
         <v>0</v>
       </c>
       <c r="J5" s="25" t="str">
-        <f>TEXT('打撃 総合'!N5,"0.000")</f>
+        <f>TEXT(打撃集計!N5,"0.000")</f>
         <v>0.500</v>
       </c>
       <c r="K5" s="25" t="str">
-        <f>TEXT('打撃 総合'!O5,"0.000")</f>
+        <f>TEXT(打撃集計!O5,"0.000")</f>
         <v>0.667</v>
       </c>
       <c r="L5" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q5,"0.000")</f>
+        <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
       <c r="M5" s="23">
-        <f>'打撃 総合'!R5</f>
+        <f>打撃集計!R5</f>
         <v>0</v>
       </c>
       <c r="N5" s="28" t="str">
-        <f>'打撃 総合'!U5*100 &amp; "%"</f>
+        <f>打撃集計!U5*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="str">
-        <f>'打撃 総合'!A6</f>
+        <f>打撃集計!A6</f>
         <v>安部剛</v>
       </c>
       <c r="B6" s="23">
-        <f>'打撃 総合'!B6</f>
+        <f>打撃集計!B6</f>
         <v>2</v>
       </c>
       <c r="C6" s="23">
-        <f>'打撃 総合'!C6</f>
+        <f>打撃集計!C6</f>
         <v>5</v>
       </c>
       <c r="D6" s="23">
-        <f>'打撃 総合'!D6</f>
+        <f>打撃集計!D6</f>
         <v>5</v>
       </c>
       <c r="E6" s="23">
-        <f>'打撃 総合'!E6</f>
+        <f>打撃集計!E6</f>
         <v>3</v>
       </c>
       <c r="F6" s="23">
-        <f>'打撃 総合'!F6</f>
+        <f>打撃集計!F6</f>
         <v>0</v>
       </c>
       <c r="G6" s="23">
-        <f>'打撃 総合'!I6</f>
+        <f>打撃集計!I6</f>
         <v>3</v>
       </c>
       <c r="H6" s="23">
-        <f>'打撃 総合'!L6</f>
+        <f>打撃集計!L6</f>
         <v>0</v>
       </c>
       <c r="I6" s="23">
-        <f>'打撃 総合'!M6</f>
+        <f>打撃集計!M6</f>
         <v>0</v>
       </c>
       <c r="J6" s="25" t="str">
-        <f>TEXT('打撃 総合'!N6,"0.000")</f>
+        <f>TEXT(打撃集計!N6,"0.000")</f>
         <v>0.600</v>
       </c>
       <c r="K6" s="25" t="str">
-        <f>TEXT('打撃 総合'!O6,"0.000")</f>
+        <f>TEXT(打撃集計!O6,"0.000")</f>
         <v>0.600</v>
       </c>
       <c r="L6" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q6,"0.000")</f>
+        <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
       <c r="M6" s="23">
-        <f>'打撃 総合'!R6</f>
+        <f>打撃集計!R6</f>
         <v>0</v>
       </c>
       <c r="N6" s="28" t="str">
-        <f>'打撃 総合'!U6*100 &amp; "%"</f>
+        <f>打撃集計!U6*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="str">
-        <f>'打撃 総合'!A7</f>
+        <f>打撃集計!A7</f>
         <v>大鐘</v>
       </c>
       <c r="B7" s="23">
-        <f>'打撃 総合'!B7</f>
+        <f>打撃集計!B7</f>
         <v>2</v>
       </c>
       <c r="C7" s="23">
-        <f>'打撃 総合'!C7</f>
+        <f>打撃集計!C7</f>
         <v>6</v>
       </c>
       <c r="D7" s="23">
-        <f>'打撃 総合'!D7</f>
+        <f>打撃集計!D7</f>
         <v>6</v>
       </c>
       <c r="E7" s="23">
-        <f>'打撃 総合'!E7</f>
+        <f>打撃集計!E7</f>
         <v>1</v>
       </c>
       <c r="F7" s="23">
-        <f>'打撃 総合'!F7</f>
+        <f>打撃集計!F7</f>
         <v>0</v>
       </c>
       <c r="G7" s="23">
-        <f>'打撃 総合'!I7</f>
+        <f>打撃集計!I7</f>
         <v>0</v>
       </c>
       <c r="H7" s="23">
-        <f>'打撃 総合'!L7</f>
+        <f>打撃集計!L7</f>
         <v>0</v>
       </c>
       <c r="I7" s="23">
-        <f>'打撃 総合'!M7</f>
+        <f>打撃集計!M7</f>
         <v>2</v>
       </c>
       <c r="J7" s="25" t="str">
-        <f>TEXT('打撃 総合'!N7,"0.000")</f>
+        <f>TEXT(打撃集計!N7,"0.000")</f>
         <v>0.167</v>
       </c>
       <c r="K7" s="25" t="str">
-        <f>TEXT('打撃 総合'!O7,"0.000")</f>
+        <f>TEXT(打撃集計!O7,"0.000")</f>
         <v>0.167</v>
       </c>
       <c r="L7" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q7,"0.000")</f>
+        <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
       <c r="M7" s="23">
-        <f>'打撃 総合'!R7</f>
+        <f>打撃集計!R7</f>
         <v>0</v>
       </c>
       <c r="N7" s="28" t="str">
-        <f>'打撃 総合'!U7*100 &amp; "%"</f>
+        <f>打撃集計!U7*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="str">
-        <f>'打撃 総合'!A8</f>
+        <f>打撃集計!A8</f>
         <v>北久保</v>
       </c>
       <c r="B8" s="23">
-        <f>'打撃 総合'!B8</f>
+        <f>打撃集計!B8</f>
         <v>2</v>
       </c>
       <c r="C8" s="23">
-        <f>'打撃 総合'!C8</f>
+        <f>打撃集計!C8</f>
         <v>4</v>
       </c>
       <c r="D8" s="23">
-        <f>'打撃 総合'!D8</f>
+        <f>打撃集計!D8</f>
         <v>4</v>
       </c>
       <c r="E8" s="23">
-        <f>'打撃 総合'!E8</f>
+        <f>打撃集計!E8</f>
         <v>0</v>
       </c>
       <c r="F8" s="23">
-        <f>'打撃 総合'!F8</f>
+        <f>打撃集計!F8</f>
         <v>0</v>
       </c>
       <c r="G8" s="23">
-        <f>'打撃 総合'!I8</f>
+        <f>打撃集計!I8</f>
         <v>0</v>
       </c>
       <c r="H8" s="23">
-        <f>'打撃 総合'!L8</f>
+        <f>打撃集計!L8</f>
         <v>0</v>
       </c>
       <c r="I8" s="23">
-        <f>'打撃 総合'!M8</f>
+        <f>打撃集計!M8</f>
         <v>1</v>
       </c>
       <c r="J8" s="25" t="str">
-        <f>TEXT('打撃 総合'!N8,"0.000")</f>
+        <f>TEXT(打撃集計!N8,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="K8" s="25" t="str">
-        <f>TEXT('打撃 総合'!O8,"0.000")</f>
+        <f>TEXT(打撃集計!O8,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="L8" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q8,"0.000")</f>
+        <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="M8" s="23">
-        <f>'打撃 総合'!R8</f>
+        <f>打撃集計!R8</f>
         <v>1</v>
       </c>
       <c r="N8" s="28" t="str">
-        <f>'打撃 総合'!U8*100 &amp; "%"</f>
+        <f>打撃集計!U8*100 &amp; "%"</f>
         <v>75%</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="str">
-        <f>'打撃 総合'!A9</f>
+        <f>打撃集計!A9</f>
         <v>萩原</v>
       </c>
       <c r="B9" s="23">
-        <f>'打撃 総合'!B9</f>
+        <f>打撃集計!B9</f>
         <v>1</v>
       </c>
       <c r="C9" s="23">
-        <f>'打撃 総合'!C9</f>
+        <f>打撃集計!C9</f>
         <v>0</v>
       </c>
       <c r="D9" s="23">
-        <f>'打撃 総合'!D9</f>
+        <f>打撃集計!D9</f>
         <v>0</v>
       </c>
       <c r="E9" s="23">
-        <f>'打撃 総合'!E9</f>
+        <f>打撃集計!E9</f>
         <v>0</v>
       </c>
       <c r="F9" s="23">
-        <f>'打撃 総合'!F9</f>
+        <f>打撃集計!F9</f>
         <v>0</v>
       </c>
       <c r="G9" s="23">
-        <f>'打撃 総合'!I9</f>
+        <f>打撃集計!I9</f>
         <v>0</v>
       </c>
       <c r="H9" s="23">
-        <f>'打撃 総合'!L9</f>
+        <f>打撃集計!L9</f>
         <v>0</v>
       </c>
       <c r="I9" s="23">
-        <f>'打撃 総合'!M9</f>
+        <f>打撃集計!M9</f>
         <v>0</v>
       </c>
       <c r="J9" s="25" t="str">
-        <f>TEXT('打撃 総合'!N9,"0.000")</f>
+        <f>TEXT(打撃集計!N9,"0.000")</f>
         <v>-</v>
       </c>
       <c r="K9" s="25" t="str">
-        <f>TEXT('打撃 総合'!O9,"0.000")</f>
+        <f>TEXT(打撃集計!O9,"0.000")</f>
         <v>-</v>
       </c>
       <c r="L9" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q9,"0.000")</f>
+        <f>TEXT(打撃集計!Q9,"0.000")</f>
         <v>-</v>
       </c>
       <c r="M9" s="23">
-        <f>'打撃 総合'!R9</f>
+        <f>打撃集計!R9</f>
         <v>0</v>
       </c>
       <c r="N9" s="28" t="str">
-        <f>'打撃 総合'!U9*100 &amp; "%"</f>
+        <f>打撃集計!U9*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="str">
-        <f>'打撃 総合'!A10</f>
+        <f>打撃集計!A10</f>
         <v>岩本</v>
       </c>
       <c r="B10" s="23">
-        <f>'打撃 総合'!B10</f>
+        <f>打撃集計!B10</f>
         <v>2</v>
       </c>
       <c r="C10" s="23">
-        <f>'打撃 総合'!C10</f>
+        <f>打撃集計!C10</f>
         <v>5</v>
       </c>
       <c r="D10" s="23">
-        <f>'打撃 総合'!D10</f>
+        <f>打撃集計!D10</f>
         <v>5</v>
       </c>
       <c r="E10" s="23">
-        <f>'打撃 総合'!E10</f>
+        <f>打撃集計!E10</f>
         <v>1</v>
       </c>
       <c r="F10" s="23">
-        <f>'打撃 総合'!F10</f>
+        <f>打撃集計!F10</f>
         <v>1</v>
       </c>
       <c r="G10" s="23">
-        <f>'打撃 総合'!I10</f>
+        <f>打撃集計!I10</f>
         <v>0</v>
       </c>
       <c r="H10" s="23">
-        <f>'打撃 総合'!L10</f>
+        <f>打撃集計!L10</f>
         <v>0</v>
       </c>
       <c r="I10" s="23">
-        <f>'打撃 総合'!M10</f>
+        <f>打撃集計!M10</f>
         <v>2</v>
       </c>
       <c r="J10" s="25" t="str">
-        <f>TEXT('打撃 総合'!N10,"0.000")</f>
+        <f>TEXT(打撃集計!N10,"0.000")</f>
         <v>0.200</v>
       </c>
       <c r="K10" s="25" t="str">
-        <f>TEXT('打撃 総合'!O10,"0.000")</f>
+        <f>TEXT(打撃集計!O10,"0.000")</f>
         <v>0.333</v>
       </c>
       <c r="L10" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q10,"0.000")</f>
+        <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
       <c r="M10" s="23">
-        <f>'打撃 総合'!R10</f>
+        <f>打撃集計!R10</f>
         <v>0</v>
       </c>
       <c r="N10" s="28" t="str">
-        <f>'打撃 総合'!U10*100 &amp; "%"</f>
+        <f>打撃集計!U10*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="str">
-        <f>'打撃 総合'!A11</f>
+        <f>打撃集計!A11</f>
         <v>上小城</v>
       </c>
       <c r="B11" s="23">
-        <f>'打撃 総合'!B11</f>
+        <f>打撃集計!B11</f>
         <v>2</v>
       </c>
       <c r="C11" s="23">
-        <f>'打撃 総合'!C11</f>
+        <f>打撃集計!C11</f>
         <v>5</v>
       </c>
       <c r="D11" s="23">
-        <f>'打撃 総合'!D11</f>
+        <f>打撃集計!D11</f>
         <v>5</v>
       </c>
       <c r="E11" s="23">
-        <f>'打撃 総合'!E11</f>
+        <f>打撃集計!E11</f>
         <v>0</v>
       </c>
       <c r="F11" s="23">
-        <f>'打撃 総合'!F11</f>
+        <f>打撃集計!F11</f>
         <v>0</v>
       </c>
       <c r="G11" s="23">
-        <f>'打撃 総合'!I11</f>
+        <f>打撃集計!I11</f>
         <v>0</v>
       </c>
       <c r="H11" s="23">
-        <f>'打撃 総合'!L11</f>
+        <f>打撃集計!L11</f>
         <v>0</v>
       </c>
       <c r="I11" s="23">
-        <f>'打撃 総合'!M11</f>
+        <f>打撃集計!M11</f>
         <v>2</v>
       </c>
       <c r="J11" s="25" t="str">
-        <f>TEXT('打撃 総合'!N11,"0.000")</f>
+        <f>TEXT(打撃集計!N11,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="K11" s="25" t="str">
-        <f>TEXT('打撃 総合'!O11,"0.000")</f>
+        <f>TEXT(打撃集計!O11,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="L11" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q11,"0.000")</f>
+        <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
       <c r="M11" s="23">
-        <f>'打撃 総合'!R11</f>
+        <f>打撃集計!R11</f>
         <v>0</v>
       </c>
       <c r="N11" s="28" t="str">
-        <f>'打撃 総合'!U11*100 &amp; "%"</f>
+        <f>打撃集計!U11*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="str">
-        <f>'打撃 総合'!A12</f>
+        <f>打撃集計!A12</f>
         <v>反町</v>
       </c>
       <c r="B12" s="23">
-        <f>'打撃 総合'!B12</f>
+        <f>打撃集計!B12</f>
         <v>2</v>
       </c>
       <c r="C12" s="23">
-        <f>'打撃 総合'!C12</f>
+        <f>打撃集計!C12</f>
         <v>4</v>
       </c>
       <c r="D12" s="23">
-        <f>'打撃 総合'!D12</f>
+        <f>打撃集計!D12</f>
         <v>4</v>
       </c>
       <c r="E12" s="23">
-        <f>'打撃 総合'!E12</f>
+        <f>打撃集計!E12</f>
         <v>1</v>
       </c>
       <c r="F12" s="23">
-        <f>'打撃 総合'!F12</f>
+        <f>打撃集計!F12</f>
         <v>1</v>
       </c>
       <c r="G12" s="23">
-        <f>'打撃 総合'!I12</f>
+        <f>打撃集計!I12</f>
         <v>0</v>
       </c>
       <c r="H12" s="23">
-        <f>'打撃 総合'!L12</f>
+        <f>打撃集計!L12</f>
         <v>0</v>
       </c>
       <c r="I12" s="23">
-        <f>'打撃 総合'!M12</f>
+        <f>打撃集計!M12</f>
         <v>2</v>
       </c>
       <c r="J12" s="25" t="str">
-        <f>TEXT('打撃 総合'!N12,"0.000")</f>
+        <f>TEXT(打撃集計!N12,"0.000")</f>
         <v>0.250</v>
       </c>
       <c r="K12" s="25" t="str">
-        <f>TEXT('打撃 総合'!O12,"0.000")</f>
+        <f>TEXT(打撃集計!O12,"0.000")</f>
         <v>0.400</v>
       </c>
       <c r="L12" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q12,"0.000")</f>
+        <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
       <c r="M12" s="23">
-        <f>'打撃 総合'!R12</f>
-        <v>1</v>
+        <f>打撃集計!R12</f>
+        <v>0</v>
       </c>
       <c r="N12" s="28" t="str">
-        <f>'打撃 総合'!U12*100 &amp; "%"</f>
-        <v>91.7%</v>
+        <f>打撃集計!U12*100 &amp; "%"</f>
+        <v>100%</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -1970,56 +1971,56 @@
         <v>34</v>
       </c>
       <c r="B13" s="23">
-        <f>'打撃 総合'!B13</f>
+        <f>打撃集計!B13</f>
         <v>2</v>
       </c>
       <c r="C13" s="23">
-        <f>'打撃 総合'!C13</f>
+        <f>打撃集計!C13</f>
         <v>39</v>
       </c>
       <c r="D13" s="23">
-        <f>'打撃 総合'!D13</f>
+        <f>打撃集計!D13</f>
         <v>39</v>
       </c>
       <c r="E13" s="23">
-        <f>'打撃 総合'!E13</f>
+        <f>打撃集計!E13</f>
         <v>7</v>
       </c>
       <c r="F13" s="23">
-        <f>'打撃 総合'!F13</f>
+        <f>打撃集計!F13</f>
         <v>4</v>
       </c>
       <c r="G13" s="23">
-        <f>'打撃 総合'!I13</f>
+        <f>打撃集計!I13</f>
         <v>3</v>
       </c>
       <c r="H13" s="23">
-        <f>'打撃 総合'!L13</f>
+        <f>打撃集計!L13</f>
         <v>0</v>
       </c>
       <c r="I13" s="23">
-        <f>'打撃 総合'!M13</f>
+        <f>打撃集計!M13</f>
         <v>12</v>
       </c>
       <c r="J13" s="25" t="str">
-        <f>TEXT('打撃 総合'!N13,"0.000")</f>
+        <f>TEXT(打撃集計!N13,"0.000")</f>
         <v>0.179</v>
       </c>
       <c r="K13" s="25" t="str">
-        <f>TEXT('打撃 総合'!O13,"0.000")</f>
+        <f>TEXT(打撃集計!O13,"0.000")</f>
         <v>0.256</v>
       </c>
       <c r="L13" s="25" t="str">
-        <f>TEXT('打撃 総合'!Q13,"0.000")</f>
+        <f>TEXT(打撃集計!Q13,"0.000")</f>
         <v>0.487</v>
       </c>
       <c r="M13" s="23">
-        <f>'打撃 総合'!R13</f>
-        <v>2</v>
+        <f>打撃集計!R13</f>
+        <v>1</v>
       </c>
       <c r="N13" s="28" t="str">
-        <f>'打撃 総合'!U13*100 &amp; "%"</f>
-        <v>96%</v>
+        <f>打撃集計!U13*100 &amp; "%"</f>
+        <v>97.8%</v>
       </c>
     </row>
   </sheetData>
@@ -2029,11 +2030,1787 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0621FDB-0526-45B7-9AB1-C0717FC379E3}">
+  <dimension ref="A1:AG13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f>打撃集計!A1</f>
+        <v>打者</v>
+      </c>
+      <c r="B1" t="str">
+        <f>打撃集計!B1</f>
+        <v>出場</v>
+      </c>
+      <c r="C1" t="str">
+        <f>打撃集計!C1</f>
+        <v>打席</v>
+      </c>
+      <c r="D1" t="str">
+        <f>打撃集計!D1</f>
+        <v>打数</v>
+      </c>
+      <c r="E1" t="str">
+        <f>打撃集計!E1</f>
+        <v>安打</v>
+      </c>
+      <c r="F1" t="str">
+        <f>打撃集計!F1</f>
+        <v>四球</v>
+      </c>
+      <c r="G1" t="str">
+        <f>打撃集計!G1</f>
+        <v>死球</v>
+      </c>
+      <c r="H1" t="str">
+        <f>打撃集計!H1</f>
+        <v>盗塁</v>
+      </c>
+      <c r="I1" t="str">
+        <f>打撃集計!I1</f>
+        <v>打点</v>
+      </c>
+      <c r="J1" t="str">
+        <f>打撃集計!J1</f>
+        <v>得点</v>
+      </c>
+      <c r="K1" t="str">
+        <f>打撃集計!K1</f>
+        <v>犠打</v>
+      </c>
+      <c r="L1" t="str">
+        <f>打撃集計!L1</f>
+        <v>本塁打</v>
+      </c>
+      <c r="M1" t="str">
+        <f>打撃集計!M1</f>
+        <v>三振</v>
+      </c>
+      <c r="N1" t="str">
+        <f>打撃集計!N1</f>
+        <v>打率</v>
+      </c>
+      <c r="O1" t="str">
+        <f>打撃集計!O1</f>
+        <v>出塁率</v>
+      </c>
+      <c r="P1" t="str">
+        <f>打撃集計!P1</f>
+        <v>長打率</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>打撃集計!Q1</f>
+        <v>OPS</v>
+      </c>
+      <c r="R1" t="str">
+        <f>打撃集計!R1</f>
+        <v>失策</v>
+      </c>
+      <c r="S1" t="str">
+        <f>打撃集計!S1</f>
+        <v>刺殺</v>
+      </c>
+      <c r="T1" t="str">
+        <f>打撃集計!T1</f>
+        <v>補殺</v>
+      </c>
+      <c r="U1" t="str">
+        <f>打撃集計!U1</f>
+        <v>守備率</v>
+      </c>
+      <c r="V1" t="str">
+        <f>打撃集計!V1</f>
+        <v>単打</v>
+      </c>
+      <c r="W1" t="str">
+        <f>打撃集計!W1</f>
+        <v>二塁打</v>
+      </c>
+      <c r="X1" t="str">
+        <f>打撃集計!X1</f>
+        <v>三塁打</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>打撃集計!Y1</f>
+        <v>塁打数</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>打撃集計!Z1</f>
+        <v>併殺</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>打撃集計!AA1</f>
+        <v>球数</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>打撃集計!AB1</f>
+        <v>P/B</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>打撃集計!AC1</f>
+        <v>見逃し</v>
+      </c>
+      <c r="AD1" t="str">
+        <f>打撃集計!AD1</f>
+        <v>空振り</v>
+      </c>
+      <c r="AE1" t="str">
+        <f>打撃集計!AE1</f>
+        <v>ファール</v>
+      </c>
+      <c r="AF1" t="str">
+        <f>打撃集計!AF1</f>
+        <v>ボール</v>
+      </c>
+      <c r="AG1" t="str">
+        <f>打撃集計!AH1</f>
+        <v>残塁</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" t="str">
+        <f>打撃集計!A2</f>
+        <v>安部滉</v>
+      </c>
+      <c r="B2">
+        <f>打撃集計!B2</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>打撃集計!C2</f>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>打撃集計!D2</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>打撃集計!E2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>打撃集計!F2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>打撃集計!G2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>打撃集計!H2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>打撃集計!I2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>打撃集計!J2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>打撃集計!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>打撃集計!L2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>打撃集計!M2</f>
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <f>TEXT(打撃集計!N2,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="O2" t="str">
+        <f>TEXT(打撃集計!O2,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="P2" t="str">
+        <f>TEXT(打撃集計!P2,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>TEXT(打撃集計!Q2,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="R2">
+        <f>打撃集計!R2</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>打撃集計!S2</f>
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <f>打撃集計!T2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" t="str">
+        <f>打撃!N2</f>
+        <v>100%</v>
+      </c>
+      <c r="V2">
+        <f>打撃集計!V2</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>打撃集計!W2</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>打撃集計!X2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>打撃集計!Y2</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>打撃集計!Z2</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>打撃集計!AA2</f>
+        <v>15</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>TEXT(打撃集計!AB2,"0.0")</f>
+        <v>5.0</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>ROUND(打撃集計!AC2/$AA2,2)*100 &amp; "%"</f>
+        <v>20%</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>ROUND(打撃集計!AD2/$AA2,2)*100 &amp; "%"</f>
+        <v>20%</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>ROUND(打撃集計!AE2/$AA2,2)*100 &amp; "%"</f>
+        <v>13%</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>ROUND(打撃集計!AF2/$AA2,2)*100 &amp; "%"</f>
+        <v>27%</v>
+      </c>
+      <c r="AG2">
+        <f>打撃集計!AH2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f>打撃集計!A3</f>
+        <v>中井</v>
+      </c>
+      <c r="B3">
+        <f>打撃集計!B3</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>打撃集計!C3</f>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f>打撃集計!D3</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>打撃集計!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>打撃集計!F3</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>打撃集計!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>打撃集計!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>打撃集計!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>打撃集計!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>打撃集計!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>打撃集計!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>打撃集計!M3</f>
+        <v>2</v>
+      </c>
+      <c r="N3" t="str">
+        <f>TEXT(打撃集計!N3,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="O3" t="str">
+        <f>TEXT(打撃集計!O3,"0.000")</f>
+        <v>0.250</v>
+      </c>
+      <c r="P3" t="str">
+        <f>TEXT(打撃集計!P3,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>TEXT(打撃集計!Q3,"0.000")</f>
+        <v>0.250</v>
+      </c>
+      <c r="R3">
+        <f>打撃集計!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>打撃集計!S3</f>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f>打撃集計!T3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" t="str">
+        <f>打撃!N3</f>
+        <v>100%</v>
+      </c>
+      <c r="V3">
+        <f>打撃集計!V3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>打撃集計!W3</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>打撃集計!X3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>打撃集計!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>打撃集計!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>打撃集計!AA3</f>
+        <v>23</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>TEXT(打撃集計!AB3,"0.0")</f>
+        <v>7.7</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>ROUND(打撃集計!AC3/$AA3,2)*100 &amp; "%"</f>
+        <v>4%</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>ROUND(打撃集計!AD3/$AA3,2)*100 &amp; "%"</f>
+        <v>22%</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>ROUND(打撃集計!AE3/$AA3,2)*100 &amp; "%"</f>
+        <v>35%</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>ROUND(打撃集計!AF3/$AA3,2)*100 &amp; "%"</f>
+        <v>26%</v>
+      </c>
+      <c r="AG3">
+        <f>打撃集計!AH3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f>打撃集計!A4</f>
+        <v>野場</v>
+      </c>
+      <c r="B4">
+        <f>打撃集計!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>打撃集計!C4</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>打撃集計!D4</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>打撃集計!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>打撃集計!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>打撃集計!G4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>打撃集計!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>打撃集計!I4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>打撃集計!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>打撃集計!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>打撃集計!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>打撃集計!M4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" t="str">
+        <f>TEXT(打撃集計!N4,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="O4" t="str">
+        <f>TEXT(打撃集計!O4,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="P4" t="str">
+        <f>TEXT(打撃集計!P4,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>TEXT(打撃集計!Q4,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="R4">
+        <f>打撃集計!R4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>打撃集計!S4</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>打撃集計!T4</f>
+        <v>2</v>
+      </c>
+      <c r="U4" t="str">
+        <f>打撃!N4</f>
+        <v>100%</v>
+      </c>
+      <c r="V4">
+        <f>打撃集計!V4</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>打撃集計!W4</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>打撃集計!X4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>打撃集計!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>打撃集計!Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>打撃集計!AA4</f>
+        <v>7</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>TEXT(打撃集計!AB4,"0.0")</f>
+        <v>3.5</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>ROUND(打撃集計!AC4/$AA4,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AD4" t="str">
+        <f>ROUND(打撃集計!AD4/$AA4,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>ROUND(打撃集計!AE4/$AA4,2)*100 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="AF4" t="str">
+        <f>ROUND(打撃集計!AF4/$AA4,2)*100 &amp; "%"</f>
+        <v>43%</v>
+      </c>
+      <c r="AG4">
+        <f>打撃集計!AH4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f>打撃集計!A5</f>
+        <v>池澤</v>
+      </c>
+      <c r="B5">
+        <f>打撃集計!B5</f>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>打撃集計!C5</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>打撃集計!D5</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>打撃集計!E5</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>打撃集計!F5</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>打撃集計!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>打撃集計!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>打撃集計!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>打撃集計!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>打撃集計!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>打撃集計!L5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>打撃集計!M5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" t="str">
+        <f>TEXT(打撃集計!N5,"0.000")</f>
+        <v>0.500</v>
+      </c>
+      <c r="O5" t="str">
+        <f>TEXT(打撃集計!O5,"0.000")</f>
+        <v>0.667</v>
+      </c>
+      <c r="P5" t="str">
+        <f>TEXT(打撃集計!P5,"0.000")</f>
+        <v>0.500</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>TEXT(打撃集計!Q5,"0.000")</f>
+        <v>1.167</v>
+      </c>
+      <c r="R5">
+        <f>打撃集計!R5</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>打撃集計!S5</f>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f>打撃集計!T5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" t="str">
+        <f>打撃!N5</f>
+        <v>100%</v>
+      </c>
+      <c r="V5">
+        <f>打撃集計!V5</f>
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <f>打撃集計!W5</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>打撃集計!X5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>打撃集計!Y5</f>
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <f>打撃集計!Z5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>打撃集計!AA5</f>
+        <v>11</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>TEXT(打撃集計!AB5,"0.0")</f>
+        <v>5.5</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>ROUND(打撃集計!AC5/$AA5,2)*100 &amp; "%"</f>
+        <v>9%</v>
+      </c>
+      <c r="AD5" t="str">
+        <f>ROUND(打撃集計!AD5/$AA5,2)*100 &amp; "%"</f>
+        <v>9%</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>ROUND(打撃集計!AE5/$AA5,2)*100 &amp; "%"</f>
+        <v>9%</v>
+      </c>
+      <c r="AF5" t="str">
+        <f>ROUND(打撃集計!AF5/$AA5,2)*100 &amp; "%"</f>
+        <v>55%</v>
+      </c>
+      <c r="AG5">
+        <f>打撃集計!AH5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f>打撃集計!A6</f>
+        <v>安部剛</v>
+      </c>
+      <c r="B6">
+        <f>打撃集計!B6</f>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f>打撃集計!C6</f>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>打撃集計!D6</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f>打撃集計!E6</f>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f>打撃集計!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>打撃集計!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>打撃集計!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>打撃集計!I6</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f>打撃集計!J6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>打撃集計!K6</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>打撃集計!L6</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>打撃集計!M6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" t="str">
+        <f>TEXT(打撃集計!N6,"0.000")</f>
+        <v>0.600</v>
+      </c>
+      <c r="O6" t="str">
+        <f>TEXT(打撃集計!O6,"0.000")</f>
+        <v>0.600</v>
+      </c>
+      <c r="P6" t="str">
+        <f>TEXT(打撃集計!P6,"0.000")</f>
+        <v>0.800</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>TEXT(打撃集計!Q6,"0.000")</f>
+        <v>1.400</v>
+      </c>
+      <c r="R6">
+        <f>打撃集計!R6</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>打撃集計!S6</f>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f>打撃集計!T6</f>
+        <v>1</v>
+      </c>
+      <c r="U6" t="str">
+        <f>打撃!N6</f>
+        <v>100%</v>
+      </c>
+      <c r="V6">
+        <f>打撃集計!V6</f>
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <f>打撃集計!W6</f>
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f>打撃集計!X6</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>打撃集計!Y6</f>
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <f>打撃集計!Z6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>打撃集計!AA6</f>
+        <v>19</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>TEXT(打撃集計!AB6,"0.0")</f>
+        <v>3.8</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>ROUND(打撃集計!AC6/$AA6,2)*100 &amp; "%"</f>
+        <v>21%</v>
+      </c>
+      <c r="AD6" t="str">
+        <f>ROUND(打撃集計!AD6/$AA6,2)*100 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="AE6" t="str">
+        <f>ROUND(打撃集計!AE6/$AA6,2)*100 &amp; "%"</f>
+        <v>16%</v>
+      </c>
+      <c r="AF6" t="str">
+        <f>ROUND(打撃集計!AF6/$AA6,2)*100 &amp; "%"</f>
+        <v>37%</v>
+      </c>
+      <c r="AG6">
+        <f>打撃集計!AH6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f>打撃集計!A7</f>
+        <v>大鐘</v>
+      </c>
+      <c r="B7">
+        <f>打撃集計!B7</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>打撃集計!C7</f>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>打撃集計!D7</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>打撃集計!E7</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>打撃集計!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>打撃集計!G7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>打撃集計!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>打撃集計!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>打撃集計!J7</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>打撃集計!K7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>打撃集計!L7</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>打撃集計!M7</f>
+        <v>2</v>
+      </c>
+      <c r="N7" t="str">
+        <f>TEXT(打撃集計!N7,"0.000")</f>
+        <v>0.167</v>
+      </c>
+      <c r="O7" t="str">
+        <f>TEXT(打撃集計!O7,"0.000")</f>
+        <v>0.167</v>
+      </c>
+      <c r="P7" t="str">
+        <f>TEXT(打撃集計!P7,"0.000")</f>
+        <v>0.333</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>TEXT(打撃集計!Q7,"0.000")</f>
+        <v>0.500</v>
+      </c>
+      <c r="R7">
+        <f>打撃集計!R7</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>打撃集計!S7</f>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <f>打撃集計!T7</f>
+        <v>4</v>
+      </c>
+      <c r="U7" t="str">
+        <f>打撃!N7</f>
+        <v>100%</v>
+      </c>
+      <c r="V7">
+        <f>打撃集計!V7</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>打撃集計!W7</f>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f>打撃集計!X7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>打撃集計!Y7</f>
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <f>打撃集計!Z7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f>打撃集計!AA7</f>
+        <v>31</v>
+      </c>
+      <c r="AB7" t="str">
+        <f>TEXT(打撃集計!AB7,"0.0")</f>
+        <v>5.2</v>
+      </c>
+      <c r="AC7" t="str">
+        <f>ROUND(打撃集計!AC7/$AA7,2)*100 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="AD7" t="str">
+        <f>ROUND(打撃集計!AD7/$AA7,2)*100 &amp; "%"</f>
+        <v>32%</v>
+      </c>
+      <c r="AE7" t="str">
+        <f>ROUND(打撃集計!AE7/$AA7,2)*100 &amp; "%"</f>
+        <v>16%</v>
+      </c>
+      <c r="AF7" t="str">
+        <f>ROUND(打撃集計!AF7/$AA7,2)*100 &amp; "%"</f>
+        <v>32%</v>
+      </c>
+      <c r="AG7">
+        <f>打撃集計!AH7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f>打撃集計!A8</f>
+        <v>北久保</v>
+      </c>
+      <c r="B8">
+        <f>打撃集計!B8</f>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>打撃集計!C8</f>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f>打撃集計!D8</f>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>打撃集計!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>打撃集計!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>打撃集計!G8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>打撃集計!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>打撃集計!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>打撃集計!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>打撃集計!K8</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>打撃集計!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>打撃集計!M8</f>
+        <v>1</v>
+      </c>
+      <c r="N8" t="str">
+        <f>TEXT(打撃集計!N8,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="O8" t="str">
+        <f>TEXT(打撃集計!O8,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="P8" t="str">
+        <f>TEXT(打撃集計!P8,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>TEXT(打撃集計!Q8,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="R8">
+        <f>打撃集計!R8</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f>打撃集計!S8</f>
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f>打撃集計!T8</f>
+        <v>1</v>
+      </c>
+      <c r="U8" t="str">
+        <f>打撃!N8</f>
+        <v>75%</v>
+      </c>
+      <c r="V8">
+        <f>打撃集計!V8</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>打撃集計!W8</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>打撃集計!X8</f>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f>打撃集計!Y8</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f>打撃集計!Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f>打撃集計!AA8</f>
+        <v>16</v>
+      </c>
+      <c r="AB8" t="str">
+        <f>TEXT(打撃集計!AB8,"0.0")</f>
+        <v>4.0</v>
+      </c>
+      <c r="AC8" t="str">
+        <f>ROUND(打撃集計!AC8/$AA8,2)*100 &amp; "%"</f>
+        <v>6%</v>
+      </c>
+      <c r="AD8" t="str">
+        <f>ROUND(打撃集計!AD8/$AA8,2)*100 &amp; "%"</f>
+        <v>13%</v>
+      </c>
+      <c r="AE8" t="str">
+        <f>ROUND(打撃集計!AE8/$AA8,2)*100 &amp; "%"</f>
+        <v>13%</v>
+      </c>
+      <c r="AF8" t="str">
+        <f>ROUND(打撃集計!AF8/$AA8,2)*100 &amp; "%"</f>
+        <v>44%</v>
+      </c>
+      <c r="AG8">
+        <f>打撃集計!AH8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f>打撃集計!A9</f>
+        <v>萩原</v>
+      </c>
+      <c r="B9">
+        <f>打撃集計!B9</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>打撃集計!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>打撃集計!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>打撃集計!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>打撃集計!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>打撃集計!G9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>打撃集計!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>打撃集計!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>打撃集計!J9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>打撃集計!K9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>打撃集計!L9</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>打撃集計!M9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" t="str">
+        <f>TEXT(打撃集計!N9,"0.000")</f>
+        <v>-</v>
+      </c>
+      <c r="O9" t="str">
+        <f>TEXT(打撃集計!O9,"0.000")</f>
+        <v>-</v>
+      </c>
+      <c r="P9" t="str">
+        <f>TEXT(打撃集計!P9,"0.000")</f>
+        <v>-</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>TEXT(打撃集計!Q9,"0.000")</f>
+        <v>-</v>
+      </c>
+      <c r="R9">
+        <f>打撃集計!R9</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>打撃集計!S9</f>
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <f>打撃集計!T9</f>
+        <v>1</v>
+      </c>
+      <c r="U9" t="str">
+        <f>打撃!N9</f>
+        <v>100%</v>
+      </c>
+      <c r="V9">
+        <f>打撃集計!V9</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>打撃集計!W9</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>打撃集計!X9</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>打撃集計!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>打撃集計!Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>打撃集計!AA9</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" t="str">
+        <f>TEXT(打撃集計!AB9,"0.0")</f>
+        <v>-</v>
+      </c>
+      <c r="AC9" t="str">
+        <f>IFERROR(ROUND(打撃集計!AC9/$AA9,2)*100 &amp; "%","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AD9" t="str">
+        <f>IFERROR(ROUND(打撃集計!AD9/$AA9,2)*100 &amp; "%","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AE9" t="str">
+        <f>IFERROR(ROUND(打撃集計!AE9/$AA9,2)*100 &amp; "%","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AF9" t="str">
+        <f>IFERROR(ROUND(打撃集計!AF9/$AA9,2)*100 &amp; "%","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AG9">
+        <f>打撃集計!AH9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f>打撃集計!A10</f>
+        <v>岩本</v>
+      </c>
+      <c r="B10">
+        <f>打撃集計!B10</f>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>打撃集計!C10</f>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f>打撃集計!D10</f>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <f>打撃集計!E10</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>打撃集計!F10</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>打撃集計!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>打撃集計!H10</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>打撃集計!I10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>打撃集計!J10</f>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f>打撃集計!K10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>打撃集計!L10</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>打撃集計!M10</f>
+        <v>2</v>
+      </c>
+      <c r="N10" t="str">
+        <f>TEXT(打撃集計!N10,"0.000")</f>
+        <v>0.200</v>
+      </c>
+      <c r="O10" t="str">
+        <f>TEXT(打撃集計!O10,"0.000")</f>
+        <v>0.333</v>
+      </c>
+      <c r="P10" t="str">
+        <f>TEXT(打撃集計!P10,"0.000")</f>
+        <v>0.200</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>TEXT(打撃集計!Q10,"0.000")</f>
+        <v>0.533</v>
+      </c>
+      <c r="R10">
+        <f>打撃集計!R10</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>打撃集計!S10</f>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f>打撃集計!T10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" t="str">
+        <f>打撃!N10</f>
+        <v>100%</v>
+      </c>
+      <c r="V10">
+        <f>打撃集計!V10</f>
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <f>打撃集計!W10</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>打撃集計!X10</f>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f>打撃集計!Y10</f>
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <f>打撃集計!Z10</f>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f>打撃集計!AA10</f>
+        <v>28</v>
+      </c>
+      <c r="AB10" t="str">
+        <f>TEXT(打撃集計!AB10,"0.0")</f>
+        <v>5.6</v>
+      </c>
+      <c r="AC10" t="str">
+        <f>ROUND(打撃集計!AC10/$AA10,2)*100 &amp; "%"</f>
+        <v>18%</v>
+      </c>
+      <c r="AD10" t="str">
+        <f>ROUND(打撃集計!AD10/$AA10,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AE10" t="str">
+        <f>ROUND(打撃集計!AE10/$AA10,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AF10" t="str">
+        <f>ROUND(打撃集計!AF10/$AA10,2)*100 &amp; "%"</f>
+        <v>36%</v>
+      </c>
+      <c r="AG10">
+        <f>打撃集計!AH10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" t="str">
+        <f>打撃集計!A11</f>
+        <v>上小城</v>
+      </c>
+      <c r="B11">
+        <f>打撃集計!B11</f>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>打撃集計!C11</f>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>打撃集計!D11</f>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f>打撃集計!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>打撃集計!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>打撃集計!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>打撃集計!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>打撃集計!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>打撃集計!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>打撃集計!K11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>打撃集計!L11</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>打撃集計!M11</f>
+        <v>2</v>
+      </c>
+      <c r="N11" t="str">
+        <f>TEXT(打撃集計!N11,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="O11" t="str">
+        <f>TEXT(打撃集計!O11,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="P11" t="str">
+        <f>TEXT(打撃集計!P11,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>TEXT(打撃集計!Q11,"0.000")</f>
+        <v>0.000</v>
+      </c>
+      <c r="R11">
+        <f>打撃集計!R11</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>打撃集計!S11</f>
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <f>打撃集計!T11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" t="str">
+        <f>打撃!N11</f>
+        <v>100%</v>
+      </c>
+      <c r="V11">
+        <f>打撃集計!V11</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>打撃集計!W11</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>打撃集計!X11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f>打撃集計!Y11</f>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>打撃集計!Z11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>打撃集計!AA11</f>
+        <v>24</v>
+      </c>
+      <c r="AB11" t="str">
+        <f>TEXT(打撃集計!AB11,"0.0")</f>
+        <v>4.8</v>
+      </c>
+      <c r="AC11" t="str">
+        <f>ROUND(打撃集計!AC11/$AA11,2)*100 &amp; "%"</f>
+        <v>8%</v>
+      </c>
+      <c r="AD11" t="str">
+        <f>ROUND(打撃集計!AD11/$AA11,2)*100 &amp; "%"</f>
+        <v>13%</v>
+      </c>
+      <c r="AE11" t="str">
+        <f>ROUND(打撃集計!AE11/$AA11,2)*100 &amp; "%"</f>
+        <v>21%</v>
+      </c>
+      <c r="AF11" t="str">
+        <f>ROUND(打撃集計!AF11/$AA11,2)*100 &amp; "%"</f>
+        <v>38%</v>
+      </c>
+      <c r="AG11">
+        <f>打撃集計!AH11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" t="str">
+        <f>打撃集計!A12</f>
+        <v>反町</v>
+      </c>
+      <c r="B12">
+        <f>打撃集計!B12</f>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>打撃集計!C12</f>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f>打撃集計!D12</f>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f>打撃集計!E12</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>打撃集計!F12</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>打撃集計!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>打撃集計!H12</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>打撃集計!I12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>打撃集計!J12</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>打撃集計!K12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>打撃集計!L12</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>打撃集計!M12</f>
+        <v>2</v>
+      </c>
+      <c r="N12" t="str">
+        <f>TEXT(打撃集計!N12,"0.000")</f>
+        <v>0.250</v>
+      </c>
+      <c r="O12" t="str">
+        <f>TEXT(打撃集計!O12,"0.000")</f>
+        <v>0.400</v>
+      </c>
+      <c r="P12" t="str">
+        <f>TEXT(打撃集計!P12,"0.000")</f>
+        <v>0.250</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>TEXT(打撃集計!Q12,"0.000")</f>
+        <v>0.650</v>
+      </c>
+      <c r="R12">
+        <f>打撃集計!R12</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>打撃集計!S12</f>
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <f>打撃集計!T12</f>
+        <v>6</v>
+      </c>
+      <c r="U12" t="str">
+        <f>打撃!N12</f>
+        <v>100%</v>
+      </c>
+      <c r="V12">
+        <f>打撃集計!V12</f>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f>打撃集計!W12</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>打撃集計!X12</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>打撃集計!Y12</f>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f>打撃集計!Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f>打撃集計!AA12</f>
+        <v>28</v>
+      </c>
+      <c r="AB12" t="str">
+        <f>TEXT(打撃集計!AB12,"0.0")</f>
+        <v>7.0</v>
+      </c>
+      <c r="AC12" t="str">
+        <f>ROUND(打撃集計!AC12/$AA12,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AD12" t="str">
+        <f>ROUND(打撃集計!AD12/$AA12,2)*100 &amp; "%"</f>
+        <v>11%</v>
+      </c>
+      <c r="AE12" t="str">
+        <f>ROUND(打撃集計!AE12/$AA12,2)*100 &amp; "%"</f>
+        <v>18%</v>
+      </c>
+      <c r="AF12" t="str">
+        <f>ROUND(打撃集計!AF12/$AA12,2)*100 &amp; "%"</f>
+        <v>43%</v>
+      </c>
+      <c r="AG12">
+        <f>打撃集計!AH12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" t="str">
+        <f>打撃集計!A13</f>
+        <v>全体</v>
+      </c>
+      <c r="B13">
+        <f>打撃集計!B13</f>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>打撃集計!C13</f>
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <f>打撃集計!D13</f>
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <f>打撃集計!E13</f>
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f>打撃集計!F13</f>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f>打撃集計!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>打撃集計!H13</f>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>打撃集計!I13</f>
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <f>打撃集計!J13</f>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f>打撃集計!K13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>打撃集計!L13</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>打撃集計!M13</f>
+        <v>12</v>
+      </c>
+      <c r="N13" t="str">
+        <f>TEXT(打撃集計!N13,"0.000")</f>
+        <v>0.179</v>
+      </c>
+      <c r="O13" t="str">
+        <f>TEXT(打撃集計!O13,"0.000")</f>
+        <v>0.256</v>
+      </c>
+      <c r="P13" t="str">
+        <f>TEXT(打撃集計!P13,"0.000")</f>
+        <v>0.231</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>TEXT(打撃集計!Q13,"0.000")</f>
+        <v>0.487</v>
+      </c>
+      <c r="R13">
+        <f>打撃集計!R13</f>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f>打撃集計!S13</f>
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <f>打撃集計!T13</f>
+        <v>15</v>
+      </c>
+      <c r="U13" t="str">
+        <f>打撃!N13</f>
+        <v>97.8%</v>
+      </c>
+      <c r="V13">
+        <f>打撃集計!V13</f>
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <f>打撃集計!W13</f>
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <f>打撃集計!X13</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f>打撃集計!Y13</f>
+        <v>9</v>
+      </c>
+      <c r="Z13">
+        <f>打撃集計!Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>打撃集計!AA13</f>
+        <v>202</v>
+      </c>
+      <c r="AB13" t="str">
+        <f>TEXT(打撃集計!AB13,"0.0")</f>
+        <v>5.2</v>
+      </c>
+      <c r="AC13" t="str">
+        <f>ROUND(打撃集計!AC13/$AA13,2)*100 &amp; "%"</f>
+        <v>11%</v>
+      </c>
+      <c r="AD13" t="str">
+        <f>ROUND(打撃集計!AD13/$AA13,2)*100 &amp; "%"</f>
+        <v>16%</v>
+      </c>
+      <c r="AE13" t="str">
+        <f>ROUND(打撃集計!AE13/$AA13,2)*100 &amp; "%"</f>
+        <v>17%</v>
+      </c>
+      <c r="AF13" t="str">
+        <f>ROUND(打撃集計!AF13/$AA13,2)*100 &amp; "%"</f>
+        <v>37%</v>
+      </c>
+      <c r="AG13">
+        <f>打撃集計!AH13</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338593D3-E6D0-43B9-8C2C-B55EBBA3FF01}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2234,7 +4011,7 @@
       </c>
       <c r="S2">
         <f>SUMIF(元データ!F:F,A2,元データ!AC:AC)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T2">
         <f>SUMIF(元データ!F:F,A2,元データ!AD:AD)</f>
@@ -2923,7 +4700,7 @@
       </c>
       <c r="T7">
         <f>SUMIF(元データ!F:F,A7,元データ!AD:AD)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="4"/>
@@ -3600,19 +5377,19 @@
       </c>
       <c r="R12">
         <f>SUMIF(元データ!F:F,A12,元データ!AB:AB)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f>SUMIF(元データ!F:F,A12,元データ!AC:AC)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <f>SUMIF(元データ!F:F,A12,元データ!AD:AD)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="4"/>
-        <v>0.91700000000000004</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <f>SUMIF(元データ!F:F,A12,元データ!J:J)</f>
@@ -3737,19 +5514,19 @@
       </c>
       <c r="R13">
         <f t="shared" ref="R13" si="9">SUM(R2:R12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <f t="shared" ref="S13" si="10">SUM(S2:S12)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T13">
         <f t="shared" ref="T13" si="11">SUM(T2:T12)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="4"/>
-        <v>0.96</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13" si="12">SUM(V2:V12)</f>
@@ -3810,7 +5587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BD2E08-B285-4F68-BFAA-75ADB82A704F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3823,12 +5600,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484639AE-A73C-4A7B-B294-73DC7233D1D8}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView topLeftCell="O6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4030,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="str">
         <f>F2</f>
@@ -4229,7 +6006,7 @@
         <v>2</v>
       </c>
       <c r="AD4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="13"/>
@@ -4710,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="13"/>
@@ -5224,11 +7001,8 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
       <c r="AC15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD15">
         <v>1</v>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1A6F19-99F6-4521-897A-EDCD48690CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44024D-0F53-4728-82AE-757A3614E24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -2033,28 +2033,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0621FDB-0526-45B7-9AB1-C0717FC379E3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.125" customWidth="1"/>
+    <col min="22" max="23" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.125" customWidth="1"/>
+    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
@@ -2103,92 +2104,92 @@
         <v>犠打</v>
       </c>
       <c r="L1" t="str">
+        <f>打撃集計!N1</f>
+        <v>打率</v>
+      </c>
+      <c r="M1" t="str">
+        <f>打撃集計!O1</f>
+        <v>出塁率</v>
+      </c>
+      <c r="N1" t="str">
+        <f>打撃集計!P1</f>
+        <v>長打率</v>
+      </c>
+      <c r="O1" t="str">
+        <f>打撃集計!Q1</f>
+        <v>OPS</v>
+      </c>
+      <c r="P1" t="str">
+        <f>打撃集計!V1</f>
+        <v>単打</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>打撃集計!W1</f>
+        <v>二塁打</v>
+      </c>
+      <c r="R1" t="str">
+        <f>打撃集計!X1</f>
+        <v>三塁打</v>
+      </c>
+      <c r="S1" t="str">
         <f>打撃集計!L1</f>
         <v>本塁打</v>
       </c>
-      <c r="M1" t="str">
+      <c r="T1" t="str">
+        <f>打撃集計!Y1</f>
+        <v>塁打数</v>
+      </c>
+      <c r="U1" t="str">
         <f>打撃集計!M1</f>
         <v>三振</v>
       </c>
-      <c r="N1" t="str">
-        <f>打撃集計!N1</f>
-        <v>打率</v>
-      </c>
-      <c r="O1" t="str">
-        <f>打撃集計!O1</f>
-        <v>出塁率</v>
-      </c>
-      <c r="P1" t="str">
-        <f>打撃集計!P1</f>
-        <v>長打率</v>
-      </c>
-      <c r="Q1" t="str">
-        <f>打撃集計!Q1</f>
-        <v>OPS</v>
-      </c>
-      <c r="R1" t="str">
+      <c r="V1" t="str">
+        <f>打撃集計!Z1</f>
+        <v>併殺</v>
+      </c>
+      <c r="W1" t="str">
+        <f>打撃集計!AH1</f>
+        <v>残塁</v>
+      </c>
+      <c r="X1" t="str">
+        <f>打撃集計!AA1</f>
+        <v>球数</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>打撃集計!AB1</f>
+        <v>P/B</v>
+      </c>
+      <c r="Z1" t="str">
+        <f>打撃集計!AC1</f>
+        <v>見逃し</v>
+      </c>
+      <c r="AA1" t="str">
+        <f>打撃集計!AD1</f>
+        <v>空振り</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>打撃集計!AE1</f>
+        <v>ファール</v>
+      </c>
+      <c r="AC1" t="str">
+        <f>打撃集計!AF1</f>
+        <v>ボール</v>
+      </c>
+      <c r="AD1" t="str">
         <f>打撃集計!R1</f>
         <v>失策</v>
       </c>
-      <c r="S1" t="str">
+      <c r="AE1" t="str">
         <f>打撃集計!S1</f>
         <v>刺殺</v>
       </c>
-      <c r="T1" t="str">
+      <c r="AF1" t="str">
         <f>打撃集計!T1</f>
         <v>補殺</v>
       </c>
-      <c r="U1" t="str">
+      <c r="AG1" t="str">
         <f>打撃集計!U1</f>
         <v>守備率</v>
-      </c>
-      <c r="V1" t="str">
-        <f>打撃集計!V1</f>
-        <v>単打</v>
-      </c>
-      <c r="W1" t="str">
-        <f>打撃集計!W1</f>
-        <v>二塁打</v>
-      </c>
-      <c r="X1" t="str">
-        <f>打撃集計!X1</f>
-        <v>三塁打</v>
-      </c>
-      <c r="Y1" t="str">
-        <f>打撃集計!Y1</f>
-        <v>塁打数</v>
-      </c>
-      <c r="Z1" t="str">
-        <f>打撃集計!Z1</f>
-        <v>併殺</v>
-      </c>
-      <c r="AA1" t="str">
-        <f>打撃集計!AA1</f>
-        <v>球数</v>
-      </c>
-      <c r="AB1" t="str">
-        <f>打撃集計!AB1</f>
-        <v>P/B</v>
-      </c>
-      <c r="AC1" t="str">
-        <f>打撃集計!AC1</f>
-        <v>見逃し</v>
-      </c>
-      <c r="AD1" t="str">
-        <f>打撃集計!AD1</f>
-        <v>空振り</v>
-      </c>
-      <c r="AE1" t="str">
-        <f>打撃集計!AE1</f>
-        <v>ファール</v>
-      </c>
-      <c r="AF1" t="str">
-        <f>打撃集計!AF1</f>
-        <v>ボール</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>打撃集計!AH1</f>
-        <v>残塁</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
@@ -2236,93 +2237,93 @@
         <f>打撃集計!K2</f>
         <v>0</v>
       </c>
-      <c r="L2">
-        <f>打撃集計!L2</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f>打撃集計!M2</f>
-        <v>1</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="L2" t="str">
         <f>TEXT(打撃集計!N2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O2" t="str">
+      <c r="M2" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P2" t="str">
+      <c r="N2" t="str">
         <f>TEXT(打撃集計!P2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="O2" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
+      <c r="P2">
+        <f>打撃集計!V2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>打撃集計!W2</f>
+        <v>0</v>
+      </c>
       <c r="R2">
+        <f>打撃集計!X2</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>打撃集計!L2</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>打撃集計!Y2</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>打撃集計!M2</f>
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <f>打撃集計!Z2</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>打撃集計!AH2</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>打撃集計!AA2</f>
+        <v>15</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>TEXT(打撃集計!AB2,"0.0")</f>
+        <v>5.0</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>ROUND(打撃集計!AC2/$X2,2)*100 &amp; "%"</f>
+        <v>20%</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>ROUND(打撃集計!AD2/$X2,2)*100 &amp; "%"</f>
+        <v>20%</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>ROUND(打撃集計!AE2/$X2,2)*100 &amp; "%"</f>
+        <v>13%</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>ROUND(打撃集計!AF2/$X2,2)*100 &amp; "%"</f>
+        <v>27%</v>
+      </c>
+      <c r="AD2">
         <f>打撃集計!R2</f>
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="AE2">
         <f>打撃集計!S2</f>
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="AF2">
         <f>打撃集計!T2</f>
         <v>0</v>
       </c>
-      <c r="U2" t="str">
+      <c r="AG2" t="str">
         <f>打撃!N2</f>
         <v>100%</v>
-      </c>
-      <c r="V2">
-        <f>打撃集計!V2</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>打撃集計!W2</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f>打撃集計!X2</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f>打撃集計!Y2</f>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f>打撃集計!Z2</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f>打撃集計!AA2</f>
-        <v>15</v>
-      </c>
-      <c r="AB2" t="str">
-        <f>TEXT(打撃集計!AB2,"0.0")</f>
-        <v>5.0</v>
-      </c>
-      <c r="AC2" t="str">
-        <f>ROUND(打撃集計!AC2/$AA2,2)*100 &amp; "%"</f>
-        <v>20%</v>
-      </c>
-      <c r="AD2" t="str">
-        <f>ROUND(打撃集計!AD2/$AA2,2)*100 &amp; "%"</f>
-        <v>20%</v>
-      </c>
-      <c r="AE2" t="str">
-        <f>ROUND(打撃集計!AE2/$AA2,2)*100 &amp; "%"</f>
-        <v>13%</v>
-      </c>
-      <c r="AF2" t="str">
-        <f>ROUND(打撃集計!AF2/$AA2,2)*100 &amp; "%"</f>
-        <v>27%</v>
-      </c>
-      <c r="AG2">
-        <f>打撃集計!AH2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
@@ -2370,93 +2371,93 @@
         <f>打撃集計!K3</f>
         <v>0</v>
       </c>
-      <c r="L3">
-        <f>打撃集計!L3</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>打撃集計!M3</f>
-        <v>2</v>
-      </c>
-      <c r="N3" t="str">
+      <c r="L3" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O3" t="str">
+      <c r="M3" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="P3" t="str">
+      <c r="N3" t="str">
         <f>TEXT(打撃集計!P3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="O3" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
+      <c r="P3">
+        <f>打撃集計!V3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>打撃集計!W3</f>
+        <v>0</v>
+      </c>
       <c r="R3">
+        <f>打撃集計!X3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>打撃集計!L3</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>打撃集計!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>打撃集計!M3</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f>打撃集計!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>打撃集計!AH3</f>
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f>打撃集計!AA3</f>
+        <v>23</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>TEXT(打撃集計!AB3,"0.0")</f>
+        <v>7.7</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>ROUND(打撃集計!AC3/$X3,2)*100 &amp; "%"</f>
+        <v>4%</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>ROUND(打撃集計!AD3/$X3,2)*100 &amp; "%"</f>
+        <v>22%</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>ROUND(打撃集計!AE3/$X3,2)*100 &amp; "%"</f>
+        <v>35%</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>ROUND(打撃集計!AF3/$X3,2)*100 &amp; "%"</f>
+        <v>26%</v>
+      </c>
+      <c r="AD3">
         <f>打撃集計!R3</f>
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="AE3">
         <f>打撃集計!S3</f>
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="AF3">
         <f>打撃集計!T3</f>
         <v>0</v>
       </c>
-      <c r="U3" t="str">
+      <c r="AG3" t="str">
         <f>打撃!N3</f>
         <v>100%</v>
-      </c>
-      <c r="V3">
-        <f>打撃集計!V3</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f>打撃集計!W3</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f>打撃集計!X3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f>打撃集計!Y3</f>
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <f>打撃集計!Z3</f>
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <f>打撃集計!AA3</f>
-        <v>23</v>
-      </c>
-      <c r="AB3" t="str">
-        <f>TEXT(打撃集計!AB3,"0.0")</f>
-        <v>7.7</v>
-      </c>
-      <c r="AC3" t="str">
-        <f>ROUND(打撃集計!AC3/$AA3,2)*100 &amp; "%"</f>
-        <v>4%</v>
-      </c>
-      <c r="AD3" t="str">
-        <f>ROUND(打撃集計!AD3/$AA3,2)*100 &amp; "%"</f>
-        <v>22%</v>
-      </c>
-      <c r="AE3" t="str">
-        <f>ROUND(打撃集計!AE3/$AA3,2)*100 &amp; "%"</f>
-        <v>35%</v>
-      </c>
-      <c r="AF3" t="str">
-        <f>ROUND(打撃集計!AF3/$AA3,2)*100 &amp; "%"</f>
-        <v>26%</v>
-      </c>
-      <c r="AG3">
-        <f>打撃集計!AH3</f>
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
@@ -2504,93 +2505,93 @@
         <f>打撃集計!K4</f>
         <v>0</v>
       </c>
-      <c r="L4">
-        <f>打撃集計!L4</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>打撃集計!M4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" t="str">
+      <c r="L4" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O4" t="str">
+      <c r="M4" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P4" t="str">
+      <c r="N4" t="str">
         <f>TEXT(打撃集計!P4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="O4" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
+      <c r="P4">
+        <f>打撃集計!V4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>打撃集計!W4</f>
+        <v>0</v>
+      </c>
       <c r="R4">
+        <f>打撃集計!X4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>打撃集計!L4</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>打撃集計!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>打撃集計!M4</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>打撃集計!Z4</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>打撃集計!AH4</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>打撃集計!AA4</f>
+        <v>7</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>TEXT(打撃集計!AB4,"0.0")</f>
+        <v>3.5</v>
+      </c>
+      <c r="Z4" t="str">
+        <f>ROUND(打撃集計!AC4/$X4,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AA4" t="str">
+        <f>ROUND(打撃集計!AD4/$X4,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>ROUND(打撃集計!AE4/$X4,2)*100 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>ROUND(打撃集計!AF4/$X4,2)*100 &amp; "%"</f>
+        <v>43%</v>
+      </c>
+      <c r="AD4">
         <f>打撃集計!R4</f>
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="AE4">
         <f>打撃集計!S4</f>
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="AF4">
         <f>打撃集計!T4</f>
         <v>2</v>
       </c>
-      <c r="U4" t="str">
+      <c r="AG4" t="str">
         <f>打撃!N4</f>
         <v>100%</v>
-      </c>
-      <c r="V4">
-        <f>打撃集計!V4</f>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f>打撃集計!W4</f>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f>打撃集計!X4</f>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f>打撃集計!Y4</f>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f>打撃集計!Z4</f>
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <f>打撃集計!AA4</f>
-        <v>7</v>
-      </c>
-      <c r="AB4" t="str">
-        <f>TEXT(打撃集計!AB4,"0.0")</f>
-        <v>3.5</v>
-      </c>
-      <c r="AC4" t="str">
-        <f>ROUND(打撃集計!AC4/$AA4,2)*100 &amp; "%"</f>
-        <v>14%</v>
-      </c>
-      <c r="AD4" t="str">
-        <f>ROUND(打撃集計!AD4/$AA4,2)*100 &amp; "%"</f>
-        <v>14%</v>
-      </c>
-      <c r="AE4" t="str">
-        <f>ROUND(打撃集計!AE4/$AA4,2)*100 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="AF4" t="str">
-        <f>ROUND(打撃集計!AF4/$AA4,2)*100 &amp; "%"</f>
-        <v>43%</v>
-      </c>
-      <c r="AG4">
-        <f>打撃集計!AH4</f>
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
@@ -2638,93 +2639,93 @@
         <f>打撃集計!K5</f>
         <v>0</v>
       </c>
-      <c r="L5">
-        <f>打撃集計!L5</f>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f>打撃集計!M5</f>
-        <v>0</v>
-      </c>
-      <c r="N5" t="str">
+      <c r="L5" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="O5" t="str">
+      <c r="M5" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
         <v>0.667</v>
       </c>
-      <c r="P5" t="str">
+      <c r="N5" t="str">
         <f>TEXT(打撃集計!P5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="O5" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
+      <c r="P5">
+        <f>打撃集計!V5</f>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f>打撃集計!W5</f>
+        <v>0</v>
+      </c>
       <c r="R5">
+        <f>打撃集計!X5</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>打撃集計!L5</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>打撃集計!Y5</f>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f>打撃集計!M5</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>打撃集計!Z5</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>打撃集計!AH5</f>
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <f>打撃集計!AA5</f>
+        <v>11</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>TEXT(打撃集計!AB5,"0.0")</f>
+        <v>5.5</v>
+      </c>
+      <c r="Z5" t="str">
+        <f>ROUND(打撃集計!AC5/$X5,2)*100 &amp; "%"</f>
+        <v>9%</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>ROUND(打撃集計!AD5/$X5,2)*100 &amp; "%"</f>
+        <v>9%</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>ROUND(打撃集計!AE5/$X5,2)*100 &amp; "%"</f>
+        <v>9%</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>ROUND(打撃集計!AF5/$X5,2)*100 &amp; "%"</f>
+        <v>55%</v>
+      </c>
+      <c r="AD5">
         <f>打撃集計!R5</f>
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="AE5">
         <f>打撃集計!S5</f>
         <v>2</v>
       </c>
-      <c r="T5">
+      <c r="AF5">
         <f>打撃集計!T5</f>
         <v>0</v>
       </c>
-      <c r="U5" t="str">
+      <c r="AG5" t="str">
         <f>打撃!N5</f>
         <v>100%</v>
-      </c>
-      <c r="V5">
-        <f>打撃集計!V5</f>
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <f>打撃集計!W5</f>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f>打撃集計!X5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f>打撃集計!Y5</f>
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <f>打撃集計!Z5</f>
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <f>打撃集計!AA5</f>
-        <v>11</v>
-      </c>
-      <c r="AB5" t="str">
-        <f>TEXT(打撃集計!AB5,"0.0")</f>
-        <v>5.5</v>
-      </c>
-      <c r="AC5" t="str">
-        <f>ROUND(打撃集計!AC5/$AA5,2)*100 &amp; "%"</f>
-        <v>9%</v>
-      </c>
-      <c r="AD5" t="str">
-        <f>ROUND(打撃集計!AD5/$AA5,2)*100 &amp; "%"</f>
-        <v>9%</v>
-      </c>
-      <c r="AE5" t="str">
-        <f>ROUND(打撃集計!AE5/$AA5,2)*100 &amp; "%"</f>
-        <v>9%</v>
-      </c>
-      <c r="AF5" t="str">
-        <f>ROUND(打撃集計!AF5/$AA5,2)*100 &amp; "%"</f>
-        <v>55%</v>
-      </c>
-      <c r="AG5">
-        <f>打撃集計!AH5</f>
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
@@ -2772,93 +2773,93 @@
         <f>打撃集計!K6</f>
         <v>0</v>
       </c>
-      <c r="L6">
-        <f>打撃集計!L6</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>打撃集計!M6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" t="str">
+      <c r="L6" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="O6" t="str">
+      <c r="M6" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="P6" t="str">
+      <c r="N6" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
         <v>0.800</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="O6" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
+      <c r="P6">
+        <f>打撃集計!V6</f>
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f>打撃集計!W6</f>
+        <v>1</v>
+      </c>
       <c r="R6">
+        <f>打撃集計!X6</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>打撃集計!L6</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>打撃集計!Y6</f>
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <f>打撃集計!M6</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>打撃集計!Z6</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>打撃集計!AH6</f>
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <f>打撃集計!AA6</f>
+        <v>19</v>
+      </c>
+      <c r="Y6" t="str">
+        <f>TEXT(打撃集計!AB6,"0.0")</f>
+        <v>3.8</v>
+      </c>
+      <c r="Z6" t="str">
+        <f>ROUND(打撃集計!AC6/$X6,2)*100 &amp; "%"</f>
+        <v>21%</v>
+      </c>
+      <c r="AA6" t="str">
+        <f>ROUND(打撃集計!AD6/$X6,2)*100 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>ROUND(打撃集計!AE6/$X6,2)*100 &amp; "%"</f>
+        <v>16%</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>ROUND(打撃集計!AF6/$X6,2)*100 &amp; "%"</f>
+        <v>37%</v>
+      </c>
+      <c r="AD6">
         <f>打撃集計!R6</f>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="AE6">
         <f>打撃集計!S6</f>
         <v>2</v>
       </c>
-      <c r="T6">
+      <c r="AF6">
         <f>打撃集計!T6</f>
         <v>1</v>
       </c>
-      <c r="U6" t="str">
+      <c r="AG6" t="str">
         <f>打撃!N6</f>
         <v>100%</v>
-      </c>
-      <c r="V6">
-        <f>打撃集計!V6</f>
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <f>打撃集計!W6</f>
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <f>打撃集計!X6</f>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f>打撃集計!Y6</f>
-        <v>4</v>
-      </c>
-      <c r="Z6">
-        <f>打撃集計!Z6</f>
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f>打撃集計!AA6</f>
-        <v>19</v>
-      </c>
-      <c r="AB6" t="str">
-        <f>TEXT(打撃集計!AB6,"0.0")</f>
-        <v>3.8</v>
-      </c>
-      <c r="AC6" t="str">
-        <f>ROUND(打撃集計!AC6/$AA6,2)*100 &amp; "%"</f>
-        <v>21%</v>
-      </c>
-      <c r="AD6" t="str">
-        <f>ROUND(打撃集計!AD6/$AA6,2)*100 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="AE6" t="str">
-        <f>ROUND(打撃集計!AE6/$AA6,2)*100 &amp; "%"</f>
-        <v>16%</v>
-      </c>
-      <c r="AF6" t="str">
-        <f>ROUND(打撃集計!AF6/$AA6,2)*100 &amp; "%"</f>
-        <v>37%</v>
-      </c>
-      <c r="AG6">
-        <f>打撃集計!AH6</f>
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
@@ -2906,93 +2907,93 @@
         <f>打撃集計!K7</f>
         <v>0</v>
       </c>
-      <c r="L7">
-        <f>打撃集計!L7</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>打撃集計!M7</f>
-        <v>2</v>
-      </c>
-      <c r="N7" t="str">
+      <c r="L7" t="str">
         <f>TEXT(打撃集計!N7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="O7" t="str">
+      <c r="M7" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="P7" t="str">
+      <c r="N7" t="str">
         <f>TEXT(打撃集計!P7,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="O7" t="str">
         <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
+      <c r="P7">
+        <f>打撃集計!V7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>打撃集計!W7</f>
+        <v>1</v>
+      </c>
       <c r="R7">
+        <f>打撃集計!X7</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>打撃集計!L7</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>打撃集計!Y7</f>
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <f>打撃集計!M7</f>
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <f>打撃集計!Z7</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>打撃集計!AH7</f>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f>打撃集計!AA7</f>
+        <v>31</v>
+      </c>
+      <c r="Y7" t="str">
+        <f>TEXT(打撃集計!AB7,"0.0")</f>
+        <v>5.2</v>
+      </c>
+      <c r="Z7" t="str">
+        <f>ROUND(打撃集計!AC7/$X7,2)*100 &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="AA7" t="str">
+        <f>ROUND(打撃集計!AD7/$X7,2)*100 &amp; "%"</f>
+        <v>32%</v>
+      </c>
+      <c r="AB7" t="str">
+        <f>ROUND(打撃集計!AE7/$X7,2)*100 &amp; "%"</f>
+        <v>16%</v>
+      </c>
+      <c r="AC7" t="str">
+        <f>ROUND(打撃集計!AF7/$X7,2)*100 &amp; "%"</f>
+        <v>32%</v>
+      </c>
+      <c r="AD7">
         <f>打撃集計!R7</f>
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="AE7">
         <f>打撃集計!S7</f>
         <v>2</v>
       </c>
-      <c r="T7">
+      <c r="AF7">
         <f>打撃集計!T7</f>
         <v>4</v>
       </c>
-      <c r="U7" t="str">
+      <c r="AG7" t="str">
         <f>打撃!N7</f>
         <v>100%</v>
-      </c>
-      <c r="V7">
-        <f>打撃集計!V7</f>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f>打撃集計!W7</f>
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <f>打撃集計!X7</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>打撃集計!Y7</f>
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <f>打撃集計!Z7</f>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f>打撃集計!AA7</f>
-        <v>31</v>
-      </c>
-      <c r="AB7" t="str">
-        <f>TEXT(打撃集計!AB7,"0.0")</f>
-        <v>5.2</v>
-      </c>
-      <c r="AC7" t="str">
-        <f>ROUND(打撃集計!AC7/$AA7,2)*100 &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="AD7" t="str">
-        <f>ROUND(打撃集計!AD7/$AA7,2)*100 &amp; "%"</f>
-        <v>32%</v>
-      </c>
-      <c r="AE7" t="str">
-        <f>ROUND(打撃集計!AE7/$AA7,2)*100 &amp; "%"</f>
-        <v>16%</v>
-      </c>
-      <c r="AF7" t="str">
-        <f>ROUND(打撃集計!AF7/$AA7,2)*100 &amp; "%"</f>
-        <v>32%</v>
-      </c>
-      <c r="AG7">
-        <f>打撃集計!AH7</f>
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
@@ -3040,93 +3041,93 @@
         <f>打撃集計!K8</f>
         <v>0</v>
       </c>
-      <c r="L8">
-        <f>打撃集計!L8</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>打撃集計!M8</f>
-        <v>1</v>
-      </c>
-      <c r="N8" t="str">
+      <c r="L8" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O8" t="str">
+      <c r="M8" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P8" t="str">
+      <c r="N8" t="str">
         <f>TEXT(打撃集計!P8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="O8" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
+      <c r="P8">
+        <f>打撃集計!V8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>打撃集計!W8</f>
+        <v>0</v>
+      </c>
       <c r="R8">
+        <f>打撃集計!X8</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>打撃集計!L8</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>打撃集計!Y8</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>打撃集計!M8</f>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f>打撃集計!Z8</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>打撃集計!AH8</f>
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <f>打撃集計!AA8</f>
+        <v>16</v>
+      </c>
+      <c r="Y8" t="str">
+        <f>TEXT(打撃集計!AB8,"0.0")</f>
+        <v>4.0</v>
+      </c>
+      <c r="Z8" t="str">
+        <f>ROUND(打撃集計!AC8/$X8,2)*100 &amp; "%"</f>
+        <v>6%</v>
+      </c>
+      <c r="AA8" t="str">
+        <f>ROUND(打撃集計!AD8/$X8,2)*100 &amp; "%"</f>
+        <v>13%</v>
+      </c>
+      <c r="AB8" t="str">
+        <f>ROUND(打撃集計!AE8/$X8,2)*100 &amp; "%"</f>
+        <v>13%</v>
+      </c>
+      <c r="AC8" t="str">
+        <f>ROUND(打撃集計!AF8/$X8,2)*100 &amp; "%"</f>
+        <v>44%</v>
+      </c>
+      <c r="AD8">
         <f>打撃集計!R8</f>
         <v>1</v>
       </c>
-      <c r="S8">
+      <c r="AE8">
         <f>打撃集計!S8</f>
         <v>2</v>
       </c>
-      <c r="T8">
+      <c r="AF8">
         <f>打撃集計!T8</f>
         <v>1</v>
       </c>
-      <c r="U8" t="str">
+      <c r="AG8" t="str">
         <f>打撃!N8</f>
         <v>75%</v>
-      </c>
-      <c r="V8">
-        <f>打撃集計!V8</f>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f>打撃集計!W8</f>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f>打撃集計!X8</f>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f>打撃集計!Y8</f>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f>打撃集計!Z8</f>
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f>打撃集計!AA8</f>
-        <v>16</v>
-      </c>
-      <c r="AB8" t="str">
-        <f>TEXT(打撃集計!AB8,"0.0")</f>
-        <v>4.0</v>
-      </c>
-      <c r="AC8" t="str">
-        <f>ROUND(打撃集計!AC8/$AA8,2)*100 &amp; "%"</f>
-        <v>6%</v>
-      </c>
-      <c r="AD8" t="str">
-        <f>ROUND(打撃集計!AD8/$AA8,2)*100 &amp; "%"</f>
-        <v>13%</v>
-      </c>
-      <c r="AE8" t="str">
-        <f>ROUND(打撃集計!AE8/$AA8,2)*100 &amp; "%"</f>
-        <v>13%</v>
-      </c>
-      <c r="AF8" t="str">
-        <f>ROUND(打撃集計!AF8/$AA8,2)*100 &amp; "%"</f>
-        <v>44%</v>
-      </c>
-      <c r="AG8">
-        <f>打撃集計!AH8</f>
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
@@ -3174,93 +3175,93 @@
         <f>打撃集計!K9</f>
         <v>0</v>
       </c>
-      <c r="L9">
-        <f>打撃集計!L9</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>打撃集計!M9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" t="str">
+      <c r="L9" t="str">
         <f>TEXT(打撃集計!N9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="O9" t="str">
+      <c r="M9" t="str">
         <f>TEXT(打撃集計!O9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="P9" t="str">
+      <c r="N9" t="str">
         <f>TEXT(打撃集計!P9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="O9" t="str">
         <f>TEXT(打撃集計!Q9,"0.000")</f>
         <v>-</v>
       </c>
+      <c r="P9">
+        <f>打撃集計!V9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>打撃集計!W9</f>
+        <v>0</v>
+      </c>
       <c r="R9">
+        <f>打撃集計!X9</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>打撃集計!L9</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>打撃集計!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>打撃集計!M9</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>打撃集計!Z9</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>打撃集計!AH9</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>打撃集計!AA9</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" t="str">
+        <f>TEXT(打撃集計!AB9,"0.0")</f>
+        <v>-</v>
+      </c>
+      <c r="Z9" t="str">
+        <f>IFERROR(ROUND(打撃集計!AC9/$X9,2)*100 &amp; "%","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AA9" t="str">
+        <f>IFERROR(ROUND(打撃集計!AD9/$X9,2)*100 &amp; "%","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AB9" t="str">
+        <f>IFERROR(ROUND(打撃集計!AE9/$X9,2)*100 &amp; "%","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AC9" t="str">
+        <f>IFERROR(ROUND(打撃集計!AF9/$X9,2)*100 &amp; "%","-")</f>
+        <v>-</v>
+      </c>
+      <c r="AD9">
         <f>打撃集計!R9</f>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="AE9">
         <f>打撃集計!S9</f>
         <v>5</v>
       </c>
-      <c r="T9">
+      <c r="AF9">
         <f>打撃集計!T9</f>
         <v>1</v>
       </c>
-      <c r="U9" t="str">
+      <c r="AG9" t="str">
         <f>打撃!N9</f>
         <v>100%</v>
-      </c>
-      <c r="V9">
-        <f>打撃集計!V9</f>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f>打撃集計!W9</f>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f>打撃集計!X9</f>
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <f>打撃集計!Y9</f>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f>打撃集計!Z9</f>
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <f>打撃集計!AA9</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" t="str">
-        <f>TEXT(打撃集計!AB9,"0.0")</f>
-        <v>-</v>
-      </c>
-      <c r="AC9" t="str">
-        <f>IFERROR(ROUND(打撃集計!AC9/$AA9,2)*100 &amp; "%","-")</f>
-        <v>-</v>
-      </c>
-      <c r="AD9" t="str">
-        <f>IFERROR(ROUND(打撃集計!AD9/$AA9,2)*100 &amp; "%","-")</f>
-        <v>-</v>
-      </c>
-      <c r="AE9" t="str">
-        <f>IFERROR(ROUND(打撃集計!AE9/$AA9,2)*100 &amp; "%","-")</f>
-        <v>-</v>
-      </c>
-      <c r="AF9" t="str">
-        <f>IFERROR(ROUND(打撃集計!AF9/$AA9,2)*100 &amp; "%","-")</f>
-        <v>-</v>
-      </c>
-      <c r="AG9">
-        <f>打撃集計!AH9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
@@ -3308,93 +3309,93 @@
         <f>打撃集計!K10</f>
         <v>0</v>
       </c>
-      <c r="L10">
-        <f>打撃集計!L10</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>打撃集計!M10</f>
-        <v>2</v>
-      </c>
-      <c r="N10" t="str">
+      <c r="L10" t="str">
         <f>TEXT(打撃集計!N10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="O10" t="str">
+      <c r="M10" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="P10" t="str">
+      <c r="N10" t="str">
         <f>TEXT(打撃集計!P10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="O10" t="str">
         <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
+      <c r="P10">
+        <f>打撃集計!V10</f>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f>打撃集計!W10</f>
+        <v>0</v>
+      </c>
       <c r="R10">
+        <f>打撃集計!X10</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>打撃集計!L10</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>打撃集計!Y10</f>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f>打撃集計!M10</f>
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <f>打撃集計!Z10</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>打撃集計!AH10</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>打撃集計!AA10</f>
+        <v>28</v>
+      </c>
+      <c r="Y10" t="str">
+        <f>TEXT(打撃集計!AB10,"0.0")</f>
+        <v>5.6</v>
+      </c>
+      <c r="Z10" t="str">
+        <f>ROUND(打撃集計!AC10/$X10,2)*100 &amp; "%"</f>
+        <v>18%</v>
+      </c>
+      <c r="AA10" t="str">
+        <f>ROUND(打撃集計!AD10/$X10,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AB10" t="str">
+        <f>ROUND(打撃集計!AE10/$X10,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AC10" t="str">
+        <f>ROUND(打撃集計!AF10/$X10,2)*100 &amp; "%"</f>
+        <v>36%</v>
+      </c>
+      <c r="AD10">
         <f>打撃集計!R10</f>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="AE10">
         <f>打撃集計!S10</f>
         <v>1</v>
       </c>
-      <c r="T10">
+      <c r="AF10">
         <f>打撃集計!T10</f>
         <v>0</v>
       </c>
-      <c r="U10" t="str">
+      <c r="AG10" t="str">
         <f>打撃!N10</f>
         <v>100%</v>
-      </c>
-      <c r="V10">
-        <f>打撃集計!V10</f>
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <f>打撃集計!W10</f>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f>打撃集計!X10</f>
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <f>打撃集計!Y10</f>
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <f>打撃集計!Z10</f>
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <f>打撃集計!AA10</f>
-        <v>28</v>
-      </c>
-      <c r="AB10" t="str">
-        <f>TEXT(打撃集計!AB10,"0.0")</f>
-        <v>5.6</v>
-      </c>
-      <c r="AC10" t="str">
-        <f>ROUND(打撃集計!AC10/$AA10,2)*100 &amp; "%"</f>
-        <v>18%</v>
-      </c>
-      <c r="AD10" t="str">
-        <f>ROUND(打撃集計!AD10/$AA10,2)*100 &amp; "%"</f>
-        <v>14%</v>
-      </c>
-      <c r="AE10" t="str">
-        <f>ROUND(打撃集計!AE10/$AA10,2)*100 &amp; "%"</f>
-        <v>14%</v>
-      </c>
-      <c r="AF10" t="str">
-        <f>ROUND(打撃集計!AF10/$AA10,2)*100 &amp; "%"</f>
-        <v>36%</v>
-      </c>
-      <c r="AG10">
-        <f>打撃集計!AH10</f>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
@@ -3442,93 +3443,93 @@
         <f>打撃集計!K11</f>
         <v>0</v>
       </c>
-      <c r="L11">
-        <f>打撃集計!L11</f>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f>打撃集計!M11</f>
-        <v>2</v>
-      </c>
-      <c r="N11" t="str">
+      <c r="L11" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O11" t="str">
+      <c r="M11" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P11" t="str">
+      <c r="N11" t="str">
         <f>TEXT(打撃集計!P11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="O11" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
+      <c r="P11">
+        <f>打撃集計!V11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>打撃集計!W11</f>
+        <v>0</v>
+      </c>
       <c r="R11">
+        <f>打撃集計!X11</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>打撃集計!L11</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>打撃集計!Y11</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>打撃集計!M11</f>
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f>打撃集計!Z11</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>打撃集計!AH11</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>打撃集計!AA11</f>
+        <v>24</v>
+      </c>
+      <c r="Y11" t="str">
+        <f>TEXT(打撃集計!AB11,"0.0")</f>
+        <v>4.8</v>
+      </c>
+      <c r="Z11" t="str">
+        <f>ROUND(打撃集計!AC11/$X11,2)*100 &amp; "%"</f>
+        <v>8%</v>
+      </c>
+      <c r="AA11" t="str">
+        <f>ROUND(打撃集計!AD11/$X11,2)*100 &amp; "%"</f>
+        <v>13%</v>
+      </c>
+      <c r="AB11" t="str">
+        <f>ROUND(打撃集計!AE11/$X11,2)*100 &amp; "%"</f>
+        <v>21%</v>
+      </c>
+      <c r="AC11" t="str">
+        <f>ROUND(打撃集計!AF11/$X11,2)*100 &amp; "%"</f>
+        <v>38%</v>
+      </c>
+      <c r="AD11">
         <f>打撃集計!R11</f>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="AE11">
         <f>打撃集計!S11</f>
         <v>2</v>
       </c>
-      <c r="T11">
+      <c r="AF11">
         <f>打撃集計!T11</f>
         <v>0</v>
       </c>
-      <c r="U11" t="str">
+      <c r="AG11" t="str">
         <f>打撃!N11</f>
         <v>100%</v>
-      </c>
-      <c r="V11">
-        <f>打撃集計!V11</f>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f>打撃集計!W11</f>
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <f>打撃集計!X11</f>
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <f>打撃集計!Y11</f>
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <f>打撃集計!Z11</f>
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <f>打撃集計!AA11</f>
-        <v>24</v>
-      </c>
-      <c r="AB11" t="str">
-        <f>TEXT(打撃集計!AB11,"0.0")</f>
-        <v>4.8</v>
-      </c>
-      <c r="AC11" t="str">
-        <f>ROUND(打撃集計!AC11/$AA11,2)*100 &amp; "%"</f>
-        <v>8%</v>
-      </c>
-      <c r="AD11" t="str">
-        <f>ROUND(打撃集計!AD11/$AA11,2)*100 &amp; "%"</f>
-        <v>13%</v>
-      </c>
-      <c r="AE11" t="str">
-        <f>ROUND(打撃集計!AE11/$AA11,2)*100 &amp; "%"</f>
-        <v>21%</v>
-      </c>
-      <c r="AF11" t="str">
-        <f>ROUND(打撃集計!AF11/$AA11,2)*100 &amp; "%"</f>
-        <v>38%</v>
-      </c>
-      <c r="AG11">
-        <f>打撃集計!AH11</f>
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
@@ -3576,93 +3577,93 @@
         <f>打撃集計!K12</f>
         <v>0</v>
       </c>
-      <c r="L12">
-        <f>打撃集計!L12</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>打撃集計!M12</f>
-        <v>2</v>
-      </c>
-      <c r="N12" t="str">
+      <c r="L12" t="str">
         <f>TEXT(打撃集計!N12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="O12" t="str">
+      <c r="M12" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
         <v>0.400</v>
       </c>
-      <c r="P12" t="str">
+      <c r="N12" t="str">
         <f>TEXT(打撃集計!P12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="O12" t="str">
         <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
+      <c r="P12">
+        <f>打撃集計!V12</f>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f>打撃集計!W12</f>
+        <v>0</v>
+      </c>
       <c r="R12">
+        <f>打撃集計!X12</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>打撃集計!L12</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>打撃集計!Y12</f>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f>打撃集計!M12</f>
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <f>打撃集計!Z12</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>打撃集計!AH12</f>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f>打撃集計!AA12</f>
+        <v>28</v>
+      </c>
+      <c r="Y12" t="str">
+        <f>TEXT(打撃集計!AB12,"0.0")</f>
+        <v>7.0</v>
+      </c>
+      <c r="Z12" t="str">
+        <f>ROUND(打撃集計!AC12/$X12,2)*100 &amp; "%"</f>
+        <v>14%</v>
+      </c>
+      <c r="AA12" t="str">
+        <f>ROUND(打撃集計!AD12/$X12,2)*100 &amp; "%"</f>
+        <v>11%</v>
+      </c>
+      <c r="AB12" t="str">
+        <f>ROUND(打撃集計!AE12/$X12,2)*100 &amp; "%"</f>
+        <v>18%</v>
+      </c>
+      <c r="AC12" t="str">
+        <f>ROUND(打撃集計!AF12/$X12,2)*100 &amp; "%"</f>
+        <v>43%</v>
+      </c>
+      <c r="AD12">
         <f>打撃集計!R12</f>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="AE12">
         <f>打撃集計!S12</f>
         <v>5</v>
       </c>
-      <c r="T12">
+      <c r="AF12">
         <f>打撃集計!T12</f>
         <v>6</v>
       </c>
-      <c r="U12" t="str">
+      <c r="AG12" t="str">
         <f>打撃!N12</f>
         <v>100%</v>
-      </c>
-      <c r="V12">
-        <f>打撃集計!V12</f>
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <f>打撃集計!W12</f>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f>打撃集計!X12</f>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f>打撃集計!Y12</f>
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <f>打撃集計!Z12</f>
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f>打撃集計!AA12</f>
-        <v>28</v>
-      </c>
-      <c r="AB12" t="str">
-        <f>TEXT(打撃集計!AB12,"0.0")</f>
-        <v>7.0</v>
-      </c>
-      <c r="AC12" t="str">
-        <f>ROUND(打撃集計!AC12/$AA12,2)*100 &amp; "%"</f>
-        <v>14%</v>
-      </c>
-      <c r="AD12" t="str">
-        <f>ROUND(打撃集計!AD12/$AA12,2)*100 &amp; "%"</f>
-        <v>11%</v>
-      </c>
-      <c r="AE12" t="str">
-        <f>ROUND(打撃集計!AE12/$AA12,2)*100 &amp; "%"</f>
-        <v>18%</v>
-      </c>
-      <c r="AF12" t="str">
-        <f>ROUND(打撃集計!AF12/$AA12,2)*100 &amp; "%"</f>
-        <v>43%</v>
-      </c>
-      <c r="AG12">
-        <f>打撃集計!AH12</f>
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
@@ -3710,93 +3711,93 @@
         <f>打撃集計!K13</f>
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="str">
+        <f>TEXT(打撃集計!N13,"0.000")</f>
+        <v>0.179</v>
+      </c>
+      <c r="M13" t="str">
+        <f>TEXT(打撃集計!O13,"0.000")</f>
+        <v>0.256</v>
+      </c>
+      <c r="N13" t="str">
+        <f>TEXT(打撃集計!P13,"0.000")</f>
+        <v>0.231</v>
+      </c>
+      <c r="O13" t="str">
+        <f>TEXT(打撃集計!Q13,"0.000")</f>
+        <v>0.487</v>
+      </c>
+      <c r="P13">
+        <f>打撃集計!V13</f>
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f>打撃集計!W13</f>
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <f>打撃集計!X13</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
         <f>打撃集計!L13</f>
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="T13">
+        <f>打撃集計!Y13</f>
+        <v>9</v>
+      </c>
+      <c r="U13">
         <f>打撃集計!M13</f>
         <v>12</v>
       </c>
-      <c r="N13" t="str">
-        <f>TEXT(打撃集計!N13,"0.000")</f>
-        <v>0.179</v>
-      </c>
-      <c r="O13" t="str">
-        <f>TEXT(打撃集計!O13,"0.000")</f>
-        <v>0.256</v>
-      </c>
-      <c r="P13" t="str">
-        <f>TEXT(打撃集計!P13,"0.000")</f>
-        <v>0.231</v>
-      </c>
-      <c r="Q13" t="str">
-        <f>TEXT(打撃集計!Q13,"0.000")</f>
-        <v>0.487</v>
-      </c>
-      <c r="R13">
+      <c r="V13">
+        <f>打撃集計!Z13</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>打撃集計!AH13</f>
+        <v>9</v>
+      </c>
+      <c r="X13">
+        <f>打撃集計!AA13</f>
+        <v>202</v>
+      </c>
+      <c r="Y13" t="str">
+        <f>TEXT(打撃集計!AB13,"0.0")</f>
+        <v>5.2</v>
+      </c>
+      <c r="Z13" t="str">
+        <f>ROUND(打撃集計!AC13/$X13,2)*100 &amp; "%"</f>
+        <v>11%</v>
+      </c>
+      <c r="AA13" t="str">
+        <f>ROUND(打撃集計!AD13/$X13,2)*100 &amp; "%"</f>
+        <v>16%</v>
+      </c>
+      <c r="AB13" t="str">
+        <f>ROUND(打撃集計!AE13/$X13,2)*100 &amp; "%"</f>
+        <v>17%</v>
+      </c>
+      <c r="AC13" t="str">
+        <f>ROUND(打撃集計!AF13/$X13,2)*100 &amp; "%"</f>
+        <v>37%</v>
+      </c>
+      <c r="AD13">
         <f>打撃集計!R13</f>
         <v>1</v>
       </c>
-      <c r="S13">
+      <c r="AE13">
         <f>打撃集計!S13</f>
         <v>30</v>
       </c>
-      <c r="T13">
+      <c r="AF13">
         <f>打撃集計!T13</f>
         <v>15</v>
       </c>
-      <c r="U13" t="str">
+      <c r="AG13" t="str">
         <f>打撃!N13</f>
         <v>97.8%</v>
-      </c>
-      <c r="V13">
-        <f>打撃集計!V13</f>
-        <v>5</v>
-      </c>
-      <c r="W13">
-        <f>打撃集計!W13</f>
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <f>打撃集計!X13</f>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f>打撃集計!Y13</f>
-        <v>9</v>
-      </c>
-      <c r="Z13">
-        <f>打撃集計!Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <f>打撃集計!AA13</f>
-        <v>202</v>
-      </c>
-      <c r="AB13" t="str">
-        <f>TEXT(打撃集計!AB13,"0.0")</f>
-        <v>5.2</v>
-      </c>
-      <c r="AC13" t="str">
-        <f>ROUND(打撃集計!AC13/$AA13,2)*100 &amp; "%"</f>
-        <v>11%</v>
-      </c>
-      <c r="AD13" t="str">
-        <f>ROUND(打撃集計!AD13/$AA13,2)*100 &amp; "%"</f>
-        <v>16%</v>
-      </c>
-      <c r="AE13" t="str">
-        <f>ROUND(打撃集計!AE13/$AA13,2)*100 &amp; "%"</f>
-        <v>17%</v>
-      </c>
-      <c r="AF13" t="str">
-        <f>ROUND(打撃集計!AF13/$AA13,2)*100 &amp; "%"</f>
-        <v>37%</v>
-      </c>
-      <c r="AG13">
-        <f>打撃集計!AH13</f>
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44024D-0F53-4728-82AE-757A3614E24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EF42B-925F-4272-9485-979A5BE2B0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,7 +1256,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="4.5" style="24" bestFit="1" customWidth="1"/>
@@ -1270,7 +1270,7 @@
     <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="23" customFormat="1" ht="15.75">
       <c r="A1" s="23" t="str">
         <f>打撃集計!A1</f>
         <v>打者</v>
@@ -1328,7 +1328,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="A2" s="23" t="str">
         <f>打撃集計!A2</f>
         <v>安部滉</v>
@@ -1386,7 +1386,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="A3" s="23" t="str">
         <f>打撃集計!A3</f>
         <v>中井</v>
@@ -1444,7 +1444,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14">
       <c r="A4" s="23" t="str">
         <f>打撃集計!A4</f>
         <v>野場</v>
@@ -1502,7 +1502,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14">
       <c r="A5" s="23" t="str">
         <f>打撃集計!A5</f>
         <v>池澤</v>
@@ -1560,7 +1560,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="str">
         <f>打撃集計!A6</f>
         <v>安部剛</v>
@@ -1618,7 +1618,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14">
       <c r="A7" s="23" t="str">
         <f>打撃集計!A7</f>
         <v>大鐘</v>
@@ -1676,7 +1676,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14">
       <c r="A8" s="23" t="str">
         <f>打撃集計!A8</f>
         <v>北久保</v>
@@ -1734,7 +1734,7 @@
         <v>75%</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14">
       <c r="A9" s="23" t="str">
         <f>打撃集計!A9</f>
         <v>萩原</v>
@@ -1792,7 +1792,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14">
       <c r="A10" s="23" t="str">
         <f>打撃集計!A10</f>
         <v>岩本</v>
@@ -1850,7 +1850,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14">
       <c r="A11" s="23" t="str">
         <f>打撃集計!A11</f>
         <v>上小城</v>
@@ -1908,7 +1908,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14">
       <c r="A12" s="23" t="str">
         <f>打撃集計!A12</f>
         <v>反町</v>
@@ -1966,7 +1966,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14">
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
@@ -2033,11 +2033,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0621FDB-0526-45B7-9AB1-C0717FC379E3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="5.25" bestFit="1" customWidth="1"/>
@@ -2058,7 +2058,7 @@
     <col min="30" max="30" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33">
       <c r="A1" t="str">
         <f>打撃集計!A1</f>
         <v>打者</v>
@@ -2140,16 +2140,16 @@
         <v>塁打数</v>
       </c>
       <c r="U1" t="str">
+        <f>打撃集計!AH1</f>
+        <v>残塁</v>
+      </c>
+      <c r="V1" t="str">
         <f>打撃集計!M1</f>
         <v>三振</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <f>打撃集計!Z1</f>
         <v>併殺</v>
-      </c>
-      <c r="W1" t="str">
-        <f>打撃集計!AH1</f>
-        <v>残塁</v>
       </c>
       <c r="X1" t="str">
         <f>打撃集計!AA1</f>
@@ -2192,7 +2192,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33">
       <c r="A2" t="str">
         <f>打撃集計!A2</f>
         <v>安部滉</v>
@@ -2274,15 +2274,15 @@
         <v>0</v>
       </c>
       <c r="U2">
+        <f>打撃集計!AH2</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
         <f>打撃集計!M2</f>
         <v>1</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <f>打撃集計!Z2</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>打撃集計!AH2</f>
         <v>0</v>
       </c>
       <c r="X2">
@@ -2326,7 +2326,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33">
       <c r="A3" t="str">
         <f>打撃集計!A3</f>
         <v>中井</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="U3">
+        <f>打撃集計!AH3</f>
+        <v>1</v>
+      </c>
+      <c r="V3">
         <f>打撃集計!M3</f>
         <v>2</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <f>打撃集計!Z3</f>
         <v>0</v>
-      </c>
-      <c r="W3">
-        <f>打撃集計!AH3</f>
-        <v>1</v>
       </c>
       <c r="X3">
         <f>打撃集計!AA3</f>
@@ -2460,7 +2460,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33">
       <c r="A4" t="str">
         <f>打撃集計!A4</f>
         <v>野場</v>
@@ -2542,15 +2542,15 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <f>打撃集計!AH4</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
         <f>打撃集計!M4</f>
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f>打撃集計!Z4</f>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f>打撃集計!AH4</f>
         <v>0</v>
       </c>
       <c r="X4">
@@ -2594,7 +2594,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33">
       <c r="A5" t="str">
         <f>打撃集計!A5</f>
         <v>池澤</v>
@@ -2676,16 +2676,16 @@
         <v>1</v>
       </c>
       <c r="U5">
+        <f>打撃集計!AH5</f>
+        <v>2</v>
+      </c>
+      <c r="V5">
         <f>打撃集計!M5</f>
         <v>0</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f>打撃集計!Z5</f>
         <v>0</v>
-      </c>
-      <c r="W5">
-        <f>打撃集計!AH5</f>
-        <v>2</v>
       </c>
       <c r="X5">
         <f>打撃集計!AA5</f>
@@ -2728,7 +2728,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33">
       <c r="A6" t="str">
         <f>打撃集計!A6</f>
         <v>安部剛</v>
@@ -2810,16 +2810,16 @@
         <v>4</v>
       </c>
       <c r="U6">
-        <f>打撃集計!M6</f>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f>打撃集計!Z6</f>
-        <v>0</v>
-      </c>
-      <c r="W6">
         <f>打撃集計!AH6</f>
         <v>3</v>
+      </c>
+      <c r="V6">
+        <f>打撃集計!M6</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>打撃集計!Z6</f>
+        <v>0</v>
       </c>
       <c r="X6">
         <f>打撃集計!AA6</f>
@@ -2862,7 +2862,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33">
       <c r="A7" t="str">
         <f>打撃集計!A7</f>
         <v>大鐘</v>
@@ -2944,16 +2944,16 @@
         <v>2</v>
       </c>
       <c r="U7">
+        <f>打撃集計!AH7</f>
+        <v>1</v>
+      </c>
+      <c r="V7">
         <f>打撃集計!M7</f>
         <v>2</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f>打撃集計!Z7</f>
         <v>0</v>
-      </c>
-      <c r="W7">
-        <f>打撃集計!AH7</f>
-        <v>1</v>
       </c>
       <c r="X7">
         <f>打撃集計!AA7</f>
@@ -2996,7 +2996,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33">
       <c r="A8" t="str">
         <f>打撃集計!A8</f>
         <v>北久保</v>
@@ -3078,16 +3078,16 @@
         <v>0</v>
       </c>
       <c r="U8">
+        <f>打撃集計!AH8</f>
+        <v>1</v>
+      </c>
+      <c r="V8">
         <f>打撃集計!M8</f>
         <v>1</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f>打撃集計!Z8</f>
         <v>0</v>
-      </c>
-      <c r="W8">
-        <f>打撃集計!AH8</f>
-        <v>1</v>
       </c>
       <c r="X8">
         <f>打撃集計!AA8</f>
@@ -3130,7 +3130,7 @@
         <v>75%</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33">
       <c r="A9" t="str">
         <f>打撃集計!A9</f>
         <v>萩原</v>
@@ -3212,15 +3212,15 @@
         <v>0</v>
       </c>
       <c r="U9">
+        <f>打撃集計!AH9</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
         <f>打撃集計!M9</f>
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f>打撃集計!Z9</f>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f>打撃集計!AH9</f>
         <v>0</v>
       </c>
       <c r="X9">
@@ -3264,7 +3264,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33">
       <c r="A10" t="str">
         <f>打撃集計!A10</f>
         <v>岩本</v>
@@ -3346,15 +3346,15 @@
         <v>1</v>
       </c>
       <c r="U10">
+        <f>打撃集計!AH10</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
         <f>打撃集計!M10</f>
         <v>2</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f>打撃集計!Z10</f>
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <f>打撃集計!AH10</f>
         <v>0</v>
       </c>
       <c r="X10">
@@ -3398,7 +3398,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33">
       <c r="A11" t="str">
         <f>打撃集計!A11</f>
         <v>上小城</v>
@@ -3480,15 +3480,15 @@
         <v>0</v>
       </c>
       <c r="U11">
+        <f>打撃集計!AH11</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
         <f>打撃集計!M11</f>
         <v>2</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f>打撃集計!Z11</f>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f>打撃集計!AH11</f>
         <v>0</v>
       </c>
       <c r="X11">
@@ -3532,7 +3532,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33">
       <c r="A12" t="str">
         <f>打撃集計!A12</f>
         <v>反町</v>
@@ -3614,16 +3614,16 @@
         <v>1</v>
       </c>
       <c r="U12">
+        <f>打撃集計!AH12</f>
+        <v>1</v>
+      </c>
+      <c r="V12">
         <f>打撃集計!M12</f>
         <v>2</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f>打撃集計!Z12</f>
         <v>0</v>
-      </c>
-      <c r="W12">
-        <f>打撃集計!AH12</f>
-        <v>1</v>
       </c>
       <c r="X12">
         <f>打撃集計!AA12</f>
@@ -3666,7 +3666,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33">
       <c r="A13" t="str">
         <f>打撃集計!A13</f>
         <v>全体</v>
@@ -3748,16 +3748,16 @@
         <v>9</v>
       </c>
       <c r="U13">
+        <f>打撃集計!AH13</f>
+        <v>9</v>
+      </c>
+      <c r="V13">
         <f>打撃集計!M13</f>
         <v>12</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f>打撃集計!Z13</f>
         <v>0</v>
-      </c>
-      <c r="W13">
-        <f>打撃集計!AH13</f>
-        <v>9</v>
       </c>
       <c r="X13">
         <f>打撃集計!AA13</f>
@@ -3814,7 +3814,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="4.5" bestFit="1" customWidth="1"/>
@@ -3834,7 +3834,7 @@
     <col min="33" max="34" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5594,7 +5594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5609,7 +5609,7 @@
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="3.875" style="15"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
@@ -5619,7 +5619,7 @@
     <col min="36" max="36" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" ht="19.5" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:38" ht="19.5" thickTop="1">
       <c r="A2" s="29" t="s">
         <v>61</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:38">
       <c r="A3" s="30"/>
       <c r="B3" s="15">
         <v>2</v>
@@ -5925,7 +5925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38">
       <c r="A4" s="30"/>
       <c r="B4" s="15">
         <v>3</v>
@@ -6023,7 +6023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38">
       <c r="A5" s="30"/>
       <c r="B5" s="15">
         <v>4</v>
@@ -6124,7 +6124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38">
       <c r="A6" s="30"/>
       <c r="B6" s="15">
         <v>5</v>
@@ -6219,7 +6219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38">
       <c r="A7" s="30"/>
       <c r="B7" s="15">
         <v>6</v>
@@ -6314,7 +6314,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38">
       <c r="A8" s="30"/>
       <c r="B8" s="15">
         <v>7</v>
@@ -6409,7 +6409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38">
       <c r="A9" s="30"/>
       <c r="B9" s="15">
         <v>8</v>
@@ -6504,7 +6504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38">
       <c r="A10" s="30"/>
       <c r="B10" s="15">
         <v>9</v>
@@ -6584,7 +6584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38">
       <c r="A11" s="30"/>
       <c r="C11" t="s">
         <v>59</v>
@@ -6670,7 +6670,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:38">
       <c r="A12" s="30"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
@@ -6744,7 +6744,7 @@
         <v>萩原</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:38">
       <c r="A14" s="30"/>
       <c r="B14" s="15">
         <v>2</v>
@@ -6930,7 +6930,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:38">
       <c r="A15" s="30"/>
       <c r="B15" s="15">
         <v>3</v>
@@ -7019,7 +7019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38">
       <c r="A16" s="30"/>
       <c r="B16" s="15">
         <v>4</v>
@@ -7108,7 +7108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33">
       <c r="A17" s="30"/>
       <c r="B17" s="15">
         <v>5</v>
@@ -7200,7 +7200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33">
       <c r="A18" s="30"/>
       <c r="B18" s="15">
         <v>6</v>
@@ -7283,7 +7283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33">
       <c r="A19" s="30"/>
       <c r="B19" s="15">
         <v>7</v>
@@ -7363,7 +7363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33">
       <c r="A20" s="30"/>
       <c r="B20" s="15">
         <v>8</v>
@@ -7431,7 +7431,7 @@
         <v>安部滉</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33">
       <c r="A21" s="30"/>
       <c r="C21">
         <v>3</v>
@@ -7502,7 +7502,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33">
       <c r="A22" s="30"/>
       <c r="B22" s="15">
         <v>9</v>
@@ -7582,7 +7582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" s="17" customFormat="1">
       <c r="B23" s="16"/>
     </row>
   </sheetData>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EF42B-925F-4272-9485-979A5BE2B0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FEFED7-DF71-4925-BE30-FBF790421132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,11 +1252,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="4.5" style="24" bestFit="1" customWidth="1"/>
@@ -1270,7 +1270,7 @@
     <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" ht="15.75">
+    <row r="1" spans="1:14" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="str">
         <f>打撃集計!A1</f>
         <v>打者</v>
@@ -1328,7 +1328,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="str">
         <f>打撃集計!A2</f>
         <v>安部滉</v>
@@ -1386,7 +1386,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="str">
         <f>打撃集計!A3</f>
         <v>中井</v>
@@ -1444,7 +1444,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="str">
         <f>打撃集計!A4</f>
         <v>野場</v>
@@ -1502,7 +1502,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="str">
         <f>打撃集計!A5</f>
         <v>池澤</v>
@@ -1560,7 +1560,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="str">
         <f>打撃集計!A6</f>
         <v>安部剛</v>
@@ -1618,7 +1618,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="str">
         <f>打撃集計!A7</f>
         <v>大鐘</v>
@@ -1676,7 +1676,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="str">
         <f>打撃集計!A8</f>
         <v>北久保</v>
@@ -1734,7 +1734,7 @@
         <v>75%</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="str">
         <f>打撃集計!A9</f>
         <v>萩原</v>
@@ -1792,7 +1792,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="str">
         <f>打撃集計!A10</f>
         <v>岩本</v>
@@ -1850,7 +1850,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="str">
         <f>打撃集計!A11</f>
         <v>上小城</v>
@@ -1908,7 +1908,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="str">
         <f>打撃集計!A12</f>
         <v>反町</v>
@@ -1966,7 +1966,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
@@ -2033,11 +2033,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0621FDB-0526-45B7-9AB1-C0717FC379E3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="5.25" bestFit="1" customWidth="1"/>
@@ -2058,7 +2058,7 @@
     <col min="30" max="30" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>打撃集計!A1</f>
         <v>打者</v>
@@ -2192,7 +2192,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <f>打撃集計!A2</f>
         <v>安部滉</v>
@@ -2326,7 +2326,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f>打撃集計!A3</f>
         <v>中井</v>
@@ -2460,7 +2460,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f>打撃集計!A4</f>
         <v>野場</v>
@@ -2594,7 +2594,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f>打撃集計!A5</f>
         <v>池澤</v>
@@ -2728,7 +2728,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f>打撃集計!A6</f>
         <v>安部剛</v>
@@ -2862,7 +2862,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f>打撃集計!A7</f>
         <v>大鐘</v>
@@ -2996,7 +2996,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f>打撃集計!A8</f>
         <v>北久保</v>
@@ -3130,7 +3130,7 @@
         <v>75%</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f>打撃集計!A9</f>
         <v>萩原</v>
@@ -3264,7 +3264,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f>打撃集計!A10</f>
         <v>岩本</v>
@@ -3398,7 +3398,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>打撃集計!A11</f>
         <v>上小城</v>
@@ -3532,7 +3532,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f>打撃集計!A12</f>
         <v>反町</v>
@@ -3666,7 +3666,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f>打撃集計!A13</f>
         <v>全体</v>
@@ -3814,7 +3814,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="4.5" bestFit="1" customWidth="1"/>
@@ -3834,7 +3834,7 @@
     <col min="33" max="34" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75">
+    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5594,7 +5594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5609,7 +5609,7 @@
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="3.875" style="15"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
@@ -5619,7 +5619,7 @@
     <col min="36" max="36" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.5" thickBot="1">
+    <row r="1" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" ht="19.5" thickTop="1">
+    <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>61</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3" s="30"/>
       <c r="B3" s="15">
         <v>2</v>
@@ -5925,7 +5925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="30"/>
       <c r="B4" s="15">
         <v>3</v>
@@ -6023,7 +6023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5" s="30"/>
       <c r="B5" s="15">
         <v>4</v>
@@ -6124,7 +6124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="30"/>
       <c r="B6" s="15">
         <v>5</v>
@@ -6219,7 +6219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="30"/>
       <c r="B7" s="15">
         <v>6</v>
@@ -6314,7 +6314,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8" s="30"/>
       <c r="B8" s="15">
         <v>7</v>
@@ -6409,7 +6409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A9" s="30"/>
       <c r="B9" s="15">
         <v>8</v>
@@ -6504,7 +6504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A10" s="30"/>
       <c r="B10" s="15">
         <v>9</v>
@@ -6584,7 +6584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11" s="30"/>
       <c r="C11" t="s">
         <v>59</v>
@@ -6670,7 +6670,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A12" s="30"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
@@ -6744,7 +6744,7 @@
         <v>萩原</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1">
+    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" s="30"/>
       <c r="B14" s="15">
         <v>2</v>
@@ -6930,7 +6930,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15" s="30"/>
       <c r="B15" s="15">
         <v>3</v>
@@ -7019,7 +7019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16" s="30"/>
       <c r="B16" s="15">
         <v>4</v>
@@ -7108,7 +7108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="30"/>
       <c r="B17" s="15">
         <v>5</v>
@@ -7200,7 +7200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="30"/>
       <c r="B18" s="15">
         <v>6</v>
@@ -7283,7 +7283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="30"/>
       <c r="B19" s="15">
         <v>7</v>
@@ -7363,7 +7363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="30"/>
       <c r="B20" s="15">
         <v>8</v>
@@ -7431,7 +7431,7 @@
         <v>安部滉</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="30"/>
       <c r="C21">
         <v>3</v>
@@ -7502,7 +7502,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="30"/>
       <c r="B22" s="15">
         <v>9</v>
@@ -7582,7 +7582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="17" customFormat="1">
+    <row r="23" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="16"/>
     </row>
   </sheetData>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FEFED7-DF71-4925-BE30-FBF790421132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2263FF4C-4F9F-436B-A1F7-7C92AE1461C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>打者</t>
   </si>
@@ -580,6 +580,10 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -588,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,775 +1254,815 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="4.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="4.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="str">
+    <row r="1" spans="1:15" s="23" customFormat="1" ht="15.75">
+      <c r="A1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="23" t="str">
         <f>打撃集計!A1</f>
         <v>打者</v>
       </c>
-      <c r="B1" s="23" t="str">
+      <c r="C1" s="23" t="str">
         <f>打撃集計!B1</f>
         <v>出場</v>
       </c>
-      <c r="C1" s="23" t="str">
+      <c r="D1" s="23" t="str">
         <f>打撃集計!C1</f>
         <v>打席</v>
       </c>
-      <c r="D1" s="23" t="str">
+      <c r="E1" s="23" t="str">
         <f>打撃集計!D1</f>
         <v>打数</v>
       </c>
-      <c r="E1" s="23" t="str">
+      <c r="F1" s="23" t="str">
         <f>打撃集計!E1</f>
         <v>安打</v>
       </c>
-      <c r="F1" s="23" t="str">
+      <c r="G1" s="23" t="str">
         <f>打撃集計!F1</f>
         <v>四球</v>
       </c>
-      <c r="G1" s="23" t="str">
+      <c r="H1" s="23" t="str">
         <f>打撃集計!I1</f>
         <v>打点</v>
       </c>
-      <c r="H1" s="23" t="str">
+      <c r="I1" s="23" t="str">
         <f>打撃集計!L1</f>
         <v>本塁打</v>
       </c>
-      <c r="I1" s="23" t="str">
+      <c r="J1" s="23" t="str">
         <f>打撃集計!M1</f>
         <v>三振</v>
       </c>
-      <c r="J1" s="23" t="str">
+      <c r="K1" s="23" t="str">
         <f>打撃集計!N1</f>
         <v>打率</v>
       </c>
-      <c r="K1" s="23" t="str">
+      <c r="L1" s="23" t="str">
         <f>打撃集計!O1</f>
         <v>出塁率</v>
       </c>
-      <c r="L1" s="23" t="str">
+      <c r="M1" s="23" t="str">
         <f>打撃集計!Q1</f>
         <v>OPS</v>
       </c>
-      <c r="M1" s="23" t="str">
+      <c r="N1" s="23" t="str">
         <f>打撃集計!R1</f>
         <v>失策</v>
       </c>
-      <c r="N1" s="26" t="str">
+      <c r="O1" s="26" t="str">
         <f>打撃集計!U1</f>
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="str">
+    <row r="2" spans="1:15">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="str">
         <f>打撃集計!A2</f>
         <v>安部滉</v>
       </c>
-      <c r="B2" s="23">
+      <c r="C2" s="23">
         <f>打撃集計!B2</f>
         <v>2</v>
       </c>
-      <c r="C2" s="23">
+      <c r="D2" s="23">
         <f>打撃集計!C2</f>
         <v>3</v>
       </c>
-      <c r="D2" s="23">
+      <c r="E2" s="23">
         <f>打撃集計!D2</f>
         <v>3</v>
       </c>
-      <c r="E2" s="23">
+      <c r="F2" s="23">
         <f>打撃集計!E2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="23">
+      <c r="G2" s="23">
         <f>打撃集計!F2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="23">
+      <c r="H2" s="23">
         <f>打撃集計!I2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="23">
+      <c r="I2" s="23">
         <f>打撃集計!L2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="23">
+      <c r="J2" s="23">
         <f>打撃集計!M2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="25" t="str">
+      <c r="K2" s="25" t="str">
         <f>TEXT(打撃集計!N2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K2" s="25" t="str">
+      <c r="L2" s="25" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L2" s="25" t="str">
+      <c r="M2" s="25" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M2" s="23">
+      <c r="N2" s="23">
         <f>打撃集計!R2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="28" t="str">
+      <c r="O2" s="28" t="str">
         <f>打撃集計!U2*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="str">
+    <row r="3" spans="1:15">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="str">
         <f>打撃集計!A3</f>
         <v>中井</v>
       </c>
-      <c r="B3" s="23">
+      <c r="C3" s="23">
         <f>打撃集計!B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="D3" s="23">
         <f>打撃集計!C3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="23">
+      <c r="E3" s="23">
         <f>打撃集計!D3</f>
         <v>3</v>
       </c>
-      <c r="E3" s="23">
+      <c r="F3" s="23">
         <f>打撃集計!E3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="G3" s="23">
         <f>打撃集計!F3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="23">
+      <c r="H3" s="23">
         <f>打撃集計!I3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="23">
+      <c r="I3" s="23">
         <f>打撃集計!L3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="23">
+      <c r="J3" s="23">
         <f>打撃集計!M3</f>
         <v>2</v>
       </c>
-      <c r="J3" s="25" t="str">
+      <c r="K3" s="25" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K3" s="25" t="str">
+      <c r="L3" s="25" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="L3" s="25" t="str">
+      <c r="M3" s="25" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="M3" s="23">
+      <c r="N3" s="23">
         <f>打撃集計!R3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="28" t="str">
+      <c r="O3" s="28" t="str">
         <f>打撃集計!U3*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="str">
+    <row r="4" spans="1:15">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="str">
         <f>打撃集計!A4</f>
         <v>野場</v>
       </c>
-      <c r="B4" s="23">
+      <c r="C4" s="23">
         <f>打撃集計!B4</f>
         <v>2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="D4" s="23">
         <f>打撃集計!C4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="E4" s="23">
         <f>打撃集計!D4</f>
         <v>2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="F4" s="23">
         <f>打撃集計!E4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="G4" s="23">
         <f>打撃集計!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="H4" s="23">
         <f>打撃集計!I4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="I4" s="23">
         <f>打撃集計!L4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="23">
+      <c r="J4" s="23">
         <f>打撃集計!M4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="25" t="str">
+      <c r="K4" s="25" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K4" s="25" t="str">
+      <c r="L4" s="25" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L4" s="25" t="str">
+      <c r="M4" s="25" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M4" s="23">
+      <c r="N4" s="23">
         <f>打撃集計!R4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="28" t="str">
+      <c r="O4" s="28" t="str">
         <f>打撃集計!U4*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="str">
+    <row r="5" spans="1:15">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="str">
         <f>打撃集計!A5</f>
         <v>池澤</v>
       </c>
-      <c r="B5" s="23">
+      <c r="C5" s="23">
         <f>打撃集計!B5</f>
         <v>2</v>
       </c>
-      <c r="C5" s="23">
+      <c r="D5" s="23">
         <f>打撃集計!C5</f>
         <v>2</v>
       </c>
-      <c r="D5" s="23">
+      <c r="E5" s="23">
         <f>打撃集計!D5</f>
         <v>2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="F5" s="23">
         <f>打撃集計!E5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="23">
+      <c r="G5" s="23">
         <f>打撃集計!F5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="23">
+      <c r="H5" s="23">
         <f>打撃集計!I5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="I5" s="23">
         <f>打撃集計!L5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="23">
+      <c r="J5" s="23">
         <f>打撃集計!M5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="25" t="str">
+      <c r="K5" s="25" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="K5" s="25" t="str">
+      <c r="L5" s="25" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
         <v>0.667</v>
       </c>
-      <c r="L5" s="25" t="str">
+      <c r="M5" s="25" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
-      <c r="M5" s="23">
+      <c r="N5" s="23">
         <f>打撃集計!R5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="28" t="str">
+      <c r="O5" s="28" t="str">
         <f>打撃集計!U5*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="str">
+    <row r="6" spans="1:15">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="str">
         <f>打撃集計!A6</f>
         <v>安部剛</v>
       </c>
-      <c r="B6" s="23">
+      <c r="C6" s="23">
         <f>打撃集計!B6</f>
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="D6" s="23">
         <f>打撃集計!C6</f>
         <v>5</v>
       </c>
-      <c r="D6" s="23">
+      <c r="E6" s="23">
         <f>打撃集計!D6</f>
         <v>5</v>
       </c>
-      <c r="E6" s="23">
+      <c r="F6" s="23">
         <f>打撃集計!E6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="23">
+      <c r="G6" s="23">
         <f>打撃集計!F6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="23">
+      <c r="H6" s="23">
         <f>打撃集計!I6</f>
         <v>3</v>
       </c>
-      <c r="H6" s="23">
+      <c r="I6" s="23">
         <f>打撃集計!L6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="23">
+      <c r="J6" s="23">
         <f>打撃集計!M6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="25" t="str">
+      <c r="K6" s="25" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="K6" s="25" t="str">
+      <c r="L6" s="25" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="L6" s="25" t="str">
+      <c r="M6" s="25" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
-      <c r="M6" s="23">
+      <c r="N6" s="23">
         <f>打撃集計!R6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="28" t="str">
+      <c r="O6" s="28" t="str">
         <f>打撃集計!U6*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="str">
+    <row r="7" spans="1:15">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="str">
         <f>打撃集計!A7</f>
         <v>大鐘</v>
       </c>
-      <c r="B7" s="23">
+      <c r="C7" s="23">
         <f>打撃集計!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="D7" s="23">
         <f>打撃集計!C7</f>
         <v>6</v>
       </c>
-      <c r="D7" s="23">
+      <c r="E7" s="23">
         <f>打撃集計!D7</f>
         <v>6</v>
       </c>
-      <c r="E7" s="23">
+      <c r="F7" s="23">
         <f>打撃集計!E7</f>
         <v>1</v>
       </c>
-      <c r="F7" s="23">
+      <c r="G7" s="23">
         <f>打撃集計!F7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="23">
+      <c r="H7" s="23">
         <f>打撃集計!I7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="23">
+      <c r="I7" s="23">
         <f>打撃集計!L7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="23">
+      <c r="J7" s="23">
         <f>打撃集計!M7</f>
         <v>2</v>
       </c>
-      <c r="J7" s="25" t="str">
+      <c r="K7" s="25" t="str">
         <f>TEXT(打撃集計!N7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="K7" s="25" t="str">
+      <c r="L7" s="25" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="L7" s="25" t="str">
+      <c r="M7" s="25" t="str">
         <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="M7" s="23">
+      <c r="N7" s="23">
         <f>打撃集計!R7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="28" t="str">
+      <c r="O7" s="28" t="str">
         <f>打撃集計!U7*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="str">
+    <row r="8" spans="1:15">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="str">
         <f>打撃集計!A8</f>
         <v>北久保</v>
       </c>
-      <c r="B8" s="23">
+      <c r="C8" s="23">
         <f>打撃集計!B8</f>
         <v>2</v>
       </c>
-      <c r="C8" s="23">
+      <c r="D8" s="23">
         <f>打撃集計!C8</f>
         <v>4</v>
       </c>
-      <c r="D8" s="23">
+      <c r="E8" s="23">
         <f>打撃集計!D8</f>
         <v>4</v>
       </c>
-      <c r="E8" s="23">
+      <c r="F8" s="23">
         <f>打撃集計!E8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="23">
+      <c r="G8" s="23">
         <f>打撃集計!F8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="23">
+      <c r="H8" s="23">
         <f>打撃集計!I8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="23">
+      <c r="I8" s="23">
         <f>打撃集計!L8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="23">
+      <c r="J8" s="23">
         <f>打撃集計!M8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="25" t="str">
+      <c r="K8" s="25" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K8" s="25" t="str">
+      <c r="L8" s="25" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L8" s="25" t="str">
+      <c r="M8" s="25" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M8" s="23">
+      <c r="N8" s="23">
         <f>打撃集計!R8</f>
         <v>1</v>
       </c>
-      <c r="N8" s="28" t="str">
+      <c r="O8" s="28" t="str">
         <f>打撃集計!U8*100 &amp; "%"</f>
         <v>75%</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="str">
+    <row r="9" spans="1:15">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="str">
         <f>打撃集計!A9</f>
         <v>萩原</v>
       </c>
-      <c r="B9" s="23">
+      <c r="C9" s="23">
         <f>打撃集計!B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="23">
+      <c r="D9" s="23">
         <f>打撃集計!C9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="23">
+      <c r="E9" s="23">
         <f>打撃集計!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="23">
+      <c r="F9" s="23">
         <f>打撃集計!E9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="23">
+      <c r="G9" s="23">
         <f>打撃集計!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="23">
+      <c r="H9" s="23">
         <f>打撃集計!I9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="23">
+      <c r="I9" s="23">
         <f>打撃集計!L9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="23">
+      <c r="J9" s="23">
         <f>打撃集計!M9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="25" t="str">
+      <c r="K9" s="25" t="str">
         <f>TEXT(打撃集計!N9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="K9" s="25" t="str">
+      <c r="L9" s="25" t="str">
         <f>TEXT(打撃集計!O9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="L9" s="25" t="str">
+      <c r="M9" s="25" t="str">
         <f>TEXT(打撃集計!Q9,"0.000")</f>
         <v>-</v>
       </c>
-      <c r="M9" s="23">
+      <c r="N9" s="23">
         <f>打撃集計!R9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="28" t="str">
+      <c r="O9" s="28" t="str">
         <f>打撃集計!U9*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="str">
+    <row r="10" spans="1:15">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="str">
         <f>打撃集計!A10</f>
         <v>岩本</v>
       </c>
-      <c r="B10" s="23">
+      <c r="C10" s="23">
         <f>打撃集計!B10</f>
         <v>2</v>
       </c>
-      <c r="C10" s="23">
+      <c r="D10" s="23">
         <f>打撃集計!C10</f>
         <v>5</v>
       </c>
-      <c r="D10" s="23">
+      <c r="E10" s="23">
         <f>打撃集計!D10</f>
         <v>5</v>
       </c>
-      <c r="E10" s="23">
+      <c r="F10" s="23">
         <f>打撃集計!E10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="23">
+      <c r="G10" s="23">
         <f>打撃集計!F10</f>
         <v>1</v>
       </c>
-      <c r="G10" s="23">
+      <c r="H10" s="23">
         <f>打撃集計!I10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="23">
+      <c r="I10" s="23">
         <f>打撃集計!L10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="23">
+      <c r="J10" s="23">
         <f>打撃集計!M10</f>
         <v>2</v>
       </c>
-      <c r="J10" s="25" t="str">
+      <c r="K10" s="25" t="str">
         <f>TEXT(打撃集計!N10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="K10" s="25" t="str">
+      <c r="L10" s="25" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="L10" s="25" t="str">
+      <c r="M10" s="25" t="str">
         <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
-      <c r="M10" s="23">
+      <c r="N10" s="23">
         <f>打撃集計!R10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="28" t="str">
+      <c r="O10" s="28" t="str">
         <f>打撃集計!U10*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="23" t="str">
+    <row r="11" spans="1:15">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="str">
         <f>打撃集計!A11</f>
         <v>上小城</v>
       </c>
-      <c r="B11" s="23">
+      <c r="C11" s="23">
         <f>打撃集計!B11</f>
         <v>2</v>
       </c>
-      <c r="C11" s="23">
+      <c r="D11" s="23">
         <f>打撃集計!C11</f>
         <v>5</v>
       </c>
-      <c r="D11" s="23">
+      <c r="E11" s="23">
         <f>打撃集計!D11</f>
         <v>5</v>
       </c>
-      <c r="E11" s="23">
+      <c r="F11" s="23">
         <f>打撃集計!E11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="G11" s="23">
         <f>打撃集計!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="23">
+      <c r="H11" s="23">
         <f>打撃集計!I11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="I11" s="23">
         <f>打撃集計!L11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="J11" s="23">
         <f>打撃集計!M11</f>
         <v>2</v>
       </c>
-      <c r="J11" s="25" t="str">
+      <c r="K11" s="25" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="K11" s="25" t="str">
+      <c r="L11" s="25" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L11" s="25" t="str">
+      <c r="M11" s="25" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M11" s="23">
+      <c r="N11" s="23">
         <f>打撃集計!R11</f>
         <v>0</v>
       </c>
-      <c r="N11" s="28" t="str">
+      <c r="O11" s="28" t="str">
         <f>打撃集計!U11*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="str">
+    <row r="12" spans="1:15">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="str">
         <f>打撃集計!A12</f>
         <v>反町</v>
       </c>
-      <c r="B12" s="23">
+      <c r="C12" s="23">
         <f>打撃集計!B12</f>
         <v>2</v>
       </c>
-      <c r="C12" s="23">
+      <c r="D12" s="23">
         <f>打撃集計!C12</f>
         <v>4</v>
       </c>
-      <c r="D12" s="23">
+      <c r="E12" s="23">
         <f>打撃集計!D12</f>
         <v>4</v>
       </c>
-      <c r="E12" s="23">
+      <c r="F12" s="23">
         <f>打撃集計!E12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="23">
+      <c r="G12" s="23">
         <f>打撃集計!F12</f>
         <v>1</v>
       </c>
-      <c r="G12" s="23">
+      <c r="H12" s="23">
         <f>打撃集計!I12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="23">
+      <c r="I12" s="23">
         <f>打撃集計!L12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="23">
+      <c r="J12" s="23">
         <f>打撃集計!M12</f>
         <v>2</v>
       </c>
-      <c r="J12" s="25" t="str">
+      <c r="K12" s="25" t="str">
         <f>TEXT(打撃集計!N12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="K12" s="25" t="str">
+      <c r="L12" s="25" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
         <v>0.400</v>
       </c>
-      <c r="L12" s="25" t="str">
+      <c r="M12" s="25" t="str">
         <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
-      <c r="M12" s="23">
+      <c r="N12" s="23">
         <f>打撃集計!R12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="28" t="str">
+      <c r="O12" s="28" t="str">
         <f>打撃集計!U12*100 &amp; "%"</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="23">
+      <c r="C13" s="23">
         <f>打撃集計!B13</f>
         <v>2</v>
       </c>
-      <c r="C13" s="23">
+      <c r="D13" s="23">
         <f>打撃集計!C13</f>
         <v>39</v>
       </c>
-      <c r="D13" s="23">
+      <c r="E13" s="23">
         <f>打撃集計!D13</f>
         <v>39</v>
       </c>
-      <c r="E13" s="23">
+      <c r="F13" s="23">
         <f>打撃集計!E13</f>
         <v>7</v>
       </c>
-      <c r="F13" s="23">
+      <c r="G13" s="23">
         <f>打撃集計!F13</f>
         <v>4</v>
       </c>
-      <c r="G13" s="23">
+      <c r="H13" s="23">
         <f>打撃集計!I13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="23">
+      <c r="I13" s="23">
         <f>打撃集計!L13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="23">
+      <c r="J13" s="23">
         <f>打撃集計!M13</f>
         <v>12</v>
       </c>
-      <c r="J13" s="25" t="str">
+      <c r="K13" s="25" t="str">
         <f>TEXT(打撃集計!N13,"0.000")</f>
         <v>0.179</v>
       </c>
-      <c r="K13" s="25" t="str">
+      <c r="L13" s="25" t="str">
         <f>TEXT(打撃集計!O13,"0.000")</f>
         <v>0.256</v>
       </c>
-      <c r="L13" s="25" t="str">
+      <c r="M13" s="25" t="str">
         <f>TEXT(打撃集計!Q13,"0.000")</f>
         <v>0.487</v>
       </c>
-      <c r="M13" s="23">
+      <c r="N13" s="23">
         <f>打撃集計!R13</f>
         <v>1</v>
       </c>
-      <c r="N13" s="28" t="str">
+      <c r="O13" s="28" t="str">
         <f>打撃集計!U13*100 &amp; "%"</f>
         <v>97.8%</v>
       </c>
@@ -2037,7 +2081,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="5.25" bestFit="1" customWidth="1"/>
@@ -2058,7 +2102,7 @@
     <col min="30" max="30" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33">
       <c r="A1" t="str">
         <f>打撃集計!A1</f>
         <v>打者</v>
@@ -2192,7 +2236,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33">
       <c r="A2" t="str">
         <f>打撃集計!A2</f>
         <v>安部滉</v>
@@ -2322,11 +2366,11 @@
         <v>0</v>
       </c>
       <c r="AG2" t="str">
-        <f>打撃!N2</f>
+        <f>打撃!O2</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33">
       <c r="A3" t="str">
         <f>打撃集計!A3</f>
         <v>中井</v>
@@ -2456,11 +2500,11 @@
         <v>0</v>
       </c>
       <c r="AG3" t="str">
-        <f>打撃!N3</f>
+        <f>打撃!O3</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33">
       <c r="A4" t="str">
         <f>打撃集計!A4</f>
         <v>野場</v>
@@ -2590,11 +2634,11 @@
         <v>2</v>
       </c>
       <c r="AG4" t="str">
-        <f>打撃!N4</f>
+        <f>打撃!O4</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33">
       <c r="A5" t="str">
         <f>打撃集計!A5</f>
         <v>池澤</v>
@@ -2724,11 +2768,11 @@
         <v>0</v>
       </c>
       <c r="AG5" t="str">
-        <f>打撃!N5</f>
+        <f>打撃!O5</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33">
       <c r="A6" t="str">
         <f>打撃集計!A6</f>
         <v>安部剛</v>
@@ -2858,11 +2902,11 @@
         <v>1</v>
       </c>
       <c r="AG6" t="str">
-        <f>打撃!N6</f>
+        <f>打撃!O6</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33">
       <c r="A7" t="str">
         <f>打撃集計!A7</f>
         <v>大鐘</v>
@@ -2992,11 +3036,11 @@
         <v>4</v>
       </c>
       <c r="AG7" t="str">
-        <f>打撃!N7</f>
+        <f>打撃!O7</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33">
       <c r="A8" t="str">
         <f>打撃集計!A8</f>
         <v>北久保</v>
@@ -3126,11 +3170,11 @@
         <v>1</v>
       </c>
       <c r="AG8" t="str">
-        <f>打撃!N8</f>
+        <f>打撃!O8</f>
         <v>75%</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33">
       <c r="A9" t="str">
         <f>打撃集計!A9</f>
         <v>萩原</v>
@@ -3260,11 +3304,11 @@
         <v>1</v>
       </c>
       <c r="AG9" t="str">
-        <f>打撃!N9</f>
+        <f>打撃!O9</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33">
       <c r="A10" t="str">
         <f>打撃集計!A10</f>
         <v>岩本</v>
@@ -3394,11 +3438,11 @@
         <v>0</v>
       </c>
       <c r="AG10" t="str">
-        <f>打撃!N10</f>
+        <f>打撃!O10</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33">
       <c r="A11" t="str">
         <f>打撃集計!A11</f>
         <v>上小城</v>
@@ -3528,11 +3572,11 @@
         <v>0</v>
       </c>
       <c r="AG11" t="str">
-        <f>打撃!N11</f>
+        <f>打撃!O11</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33">
       <c r="A12" t="str">
         <f>打撃集計!A12</f>
         <v>反町</v>
@@ -3662,11 +3706,11 @@
         <v>6</v>
       </c>
       <c r="AG12" t="str">
-        <f>打撃!N12</f>
+        <f>打撃!O12</f>
         <v>100%</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33">
       <c r="A13" t="str">
         <f>打撃集計!A13</f>
         <v>全体</v>
@@ -3796,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="AG13" t="str">
-        <f>打撃!N13</f>
+        <f>打撃!O13</f>
         <v>97.8%</v>
       </c>
     </row>
@@ -3814,7 +3858,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="4.5" bestFit="1" customWidth="1"/>
@@ -3834,7 +3878,7 @@
     <col min="33" max="34" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3938,7 +3982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4075,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4212,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4349,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4486,7 +4530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4623,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4760,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4897,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -5034,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5171,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5308,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5445,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5594,7 +5638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5609,7 +5653,7 @@
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="3.875" style="15"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
@@ -5619,7 +5663,7 @@
     <col min="36" max="36" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" ht="19.5" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -5727,7 +5771,7 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:38" ht="19.5" thickTop="1">
       <c r="A2" s="29" t="s">
         <v>61</v>
       </c>
@@ -5827,7 +5871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:38">
       <c r="A3" s="30"/>
       <c r="B3" s="15">
         <v>2</v>
@@ -5925,7 +5969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38">
       <c r="A4" s="30"/>
       <c r="B4" s="15">
         <v>3</v>
@@ -6023,7 +6067,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38">
       <c r="A5" s="30"/>
       <c r="B5" s="15">
         <v>4</v>
@@ -6124,7 +6168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38">
       <c r="A6" s="30"/>
       <c r="B6" s="15">
         <v>5</v>
@@ -6219,7 +6263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38">
       <c r="A7" s="30"/>
       <c r="B7" s="15">
         <v>6</v>
@@ -6314,7 +6358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38">
       <c r="A8" s="30"/>
       <c r="B8" s="15">
         <v>7</v>
@@ -6409,7 +6453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38">
       <c r="A9" s="30"/>
       <c r="B9" s="15">
         <v>8</v>
@@ -6504,7 +6548,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38">
       <c r="A10" s="30"/>
       <c r="B10" s="15">
         <v>9</v>
@@ -6584,7 +6628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38">
       <c r="A11" s="30"/>
       <c r="C11" t="s">
         <v>59</v>
@@ -6670,7 +6714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:38">
       <c r="A12" s="30"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
@@ -6744,7 +6788,7 @@
         <v>萩原</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
@@ -6841,7 +6885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:38">
       <c r="A14" s="30"/>
       <c r="B14" s="15">
         <v>2</v>
@@ -6930,7 +6974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:38">
       <c r="A15" s="30"/>
       <c r="B15" s="15">
         <v>3</v>
@@ -7019,7 +7063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38">
       <c r="A16" s="30"/>
       <c r="B16" s="15">
         <v>4</v>
@@ -7108,7 +7152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33">
       <c r="A17" s="30"/>
       <c r="B17" s="15">
         <v>5</v>
@@ -7200,7 +7244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33">
       <c r="A18" s="30"/>
       <c r="B18" s="15">
         <v>6</v>
@@ -7283,7 +7327,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33">
       <c r="A19" s="30"/>
       <c r="B19" s="15">
         <v>7</v>
@@ -7363,7 +7407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33">
       <c r="A20" s="30"/>
       <c r="B20" s="15">
         <v>8</v>
@@ -7431,7 +7475,7 @@
         <v>安部滉</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33">
       <c r="A21" s="30"/>
       <c r="C21">
         <v>3</v>
@@ -7502,7 +7546,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33">
       <c r="A22" s="30"/>
       <c r="B22" s="15">
         <v>9</v>
@@ -7582,7 +7626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" s="17" customFormat="1">
       <c r="B23" s="16"/>
     </row>
   </sheetData>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2263FF4C-4F9F-436B-A1F7-7C92AE1461C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA4235-BDB9-48AC-8E39-D2289541F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,6 +890,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1256,11 +1259,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="6" style="24" bestFit="1" customWidth="1"/>
@@ -1275,7 +1278,7 @@
     <col min="16" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="23" customFormat="1" ht="15.75">
+    <row r="1" spans="1:15" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>106</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>75%</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -1805,15 +1808,15 @@
       </c>
       <c r="K9" s="25" t="str">
         <f>TEXT(打撃集計!N9,"0.000")</f>
-        <v>-</v>
+        <v>0.000</v>
       </c>
       <c r="L9" s="25" t="str">
         <f>TEXT(打撃集計!O9,"0.000")</f>
-        <v>-</v>
+        <v>0.000</v>
       </c>
       <c r="M9" s="25" t="str">
         <f>TEXT(打撃集計!Q9,"0.000")</f>
-        <v>-</v>
+        <v>0.000</v>
       </c>
       <c r="N9" s="23">
         <f>打撃集計!R9</f>
@@ -1824,7 +1827,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -2077,11 +2080,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0621FDB-0526-45B7-9AB1-C0717FC379E3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="5.25" bestFit="1" customWidth="1"/>
@@ -2102,7 +2105,7 @@
     <col min="30" max="30" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>打撃集計!A1</f>
         <v>打者</v>
@@ -2236,7 +2239,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <f>打撃集計!A2</f>
         <v>安部滉</v>
@@ -2281,19 +2284,19 @@
         <f>打撃集計!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="31" t="str">
         <f>TEXT(打撃集計!N2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M2" s="31" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N2" s="31" t="str">
         <f>TEXT(打撃集計!P2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="31" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f>打撃集計!A3</f>
         <v>中井</v>
@@ -2415,19 +2418,19 @@
         <f>打撃集計!K3</f>
         <v>0</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="31" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M3" s="31" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="N3" t="str">
+      <c r="N3" s="31" t="str">
         <f>TEXT(打撃集計!P3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O3" t="str">
+      <c r="O3" s="31" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f>打撃集計!A4</f>
         <v>野場</v>
@@ -2549,19 +2552,19 @@
         <f>打撃集計!K4</f>
         <v>0</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="31" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4" s="31" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N4" s="31" t="str">
         <f>TEXT(打撃集計!P4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O4" s="31" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f>打撃集計!A5</f>
         <v>池澤</v>
@@ -2683,19 +2686,19 @@
         <f>打撃集計!K5</f>
         <v>0</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="31" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5" s="31" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
         <v>0.667</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N5" s="31" t="str">
         <f>TEXT(打撃集計!P5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="O5" t="str">
+      <c r="O5" s="31" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f>打撃集計!A6</f>
         <v>安部剛</v>
@@ -2817,19 +2820,19 @@
         <f>打撃集計!K6</f>
         <v>0</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="31" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6" s="31" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N6" s="31" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
         <v>0.800</v>
       </c>
-      <c r="O6" t="str">
+      <c r="O6" s="31" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f>打撃集計!A7</f>
         <v>大鐘</v>
@@ -2951,19 +2954,19 @@
         <f>打撃集計!K7</f>
         <v>0</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="31" t="str">
         <f>TEXT(打撃集計!N7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="31" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="N7" t="str">
+      <c r="N7" s="31" t="str">
         <f>TEXT(打撃集計!P7,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="O7" t="str">
+      <c r="O7" s="31" t="str">
         <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f>打撃集計!A8</f>
         <v>北久保</v>
@@ -3085,19 +3088,19 @@
         <f>打撃集計!K8</f>
         <v>0</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="31" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M8" s="31" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N8" t="str">
+      <c r="N8" s="31" t="str">
         <f>TEXT(打撃集計!P8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O8" t="str">
+      <c r="O8" s="31" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>75%</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f>打撃集計!A9</f>
         <v>萩原</v>
@@ -3219,21 +3222,21 @@
         <f>打撃集計!K9</f>
         <v>0</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="31" t="str">
         <f>TEXT(打撃集計!N9,"0.000")</f>
-        <v>-</v>
-      </c>
-      <c r="M9" t="str">
+        <v>0.000</v>
+      </c>
+      <c r="M9" s="31" t="str">
         <f>TEXT(打撃集計!O9,"0.000")</f>
-        <v>-</v>
-      </c>
-      <c r="N9" t="str">
+        <v>0.000</v>
+      </c>
+      <c r="N9" s="31" t="str">
         <f>TEXT(打撃集計!P9,"0.000")</f>
-        <v>-</v>
-      </c>
-      <c r="O9" t="str">
+        <v>0.000</v>
+      </c>
+      <c r="O9" s="31" t="str">
         <f>TEXT(打撃集計!Q9,"0.000")</f>
-        <v>-</v>
+        <v>0.000</v>
       </c>
       <c r="P9">
         <f>打撃集計!V9</f>
@@ -3273,23 +3276,23 @@
       </c>
       <c r="Y9" t="str">
         <f>TEXT(打撃集計!AB9,"0.0")</f>
-        <v>-</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" t="str">
-        <f>IFERROR(ROUND(打撃集計!AC9/$X9,2)*100 &amp; "%","-")</f>
-        <v>-</v>
+        <f>IFERROR(ROUND(打撃集計!AC9/$X9,2)*100 &amp; "%","0%")</f>
+        <v>0%</v>
       </c>
       <c r="AA9" t="str">
-        <f>IFERROR(ROUND(打撃集計!AD9/$X9,2)*100 &amp; "%","-")</f>
-        <v>-</v>
+        <f>IFERROR(ROUND(打撃集計!AD9/$X9,2)*100 &amp; "%","0%")</f>
+        <v>0%</v>
       </c>
       <c r="AB9" t="str">
-        <f>IFERROR(ROUND(打撃集計!AE9/$X9,2)*100 &amp; "%","-")</f>
-        <v>-</v>
+        <f>IFERROR(ROUND(打撃集計!AE9/$X9,2)*100 &amp; "%","0%")</f>
+        <v>0%</v>
       </c>
       <c r="AC9" t="str">
-        <f>IFERROR(ROUND(打撃集計!AF9/$X9,2)*100 &amp; "%","-")</f>
-        <v>-</v>
+        <f>IFERROR(ROUND(打撃集計!AF9/$X9,2)*100 &amp; "%","0%")</f>
+        <v>0%</v>
       </c>
       <c r="AD9">
         <f>打撃集計!R9</f>
@@ -3308,7 +3311,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f>打撃集計!A10</f>
         <v>岩本</v>
@@ -3353,19 +3356,19 @@
         <f>打撃集計!K10</f>
         <v>0</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="31" t="str">
         <f>TEXT(打撃集計!N10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10" s="31" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10" s="31" t="str">
         <f>TEXT(打撃集計!P10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="O10" t="str">
+      <c r="O10" s="31" t="str">
         <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>打撃集計!A11</f>
         <v>上小城</v>
@@ -3487,19 +3490,19 @@
         <f>打撃集計!K11</f>
         <v>0</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="31" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M11" t="str">
+      <c r="M11" s="31" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N11" t="str">
+      <c r="N11" s="31" t="str">
         <f>TEXT(打撃集計!P11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O11" t="str">
+      <c r="O11" s="31" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f>打撃集計!A12</f>
         <v>反町</v>
@@ -3621,19 +3624,19 @@
         <f>打撃集計!K12</f>
         <v>0</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="31" t="str">
         <f>TEXT(打撃集計!N12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M12" s="31" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
         <v>0.400</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N12" s="31" t="str">
         <f>TEXT(打撃集計!P12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="O12" t="str">
+      <c r="O12" s="31" t="str">
         <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>100%</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f>打撃集計!A13</f>
         <v>全体</v>
@@ -3755,19 +3758,19 @@
         <f>打撃集計!K13</f>
         <v>0</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="31" t="str">
         <f>TEXT(打撃集計!N13,"0.000")</f>
         <v>0.179</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="31" t="str">
         <f>TEXT(打撃集計!O13,"0.000")</f>
         <v>0.256</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N13" s="31" t="str">
         <f>TEXT(打撃集計!P13,"0.000")</f>
         <v>0.231</v>
       </c>
-      <c r="O13" t="str">
+      <c r="O13" s="31" t="str">
         <f>TEXT(打撃集計!Q13,"0.000")</f>
         <v>0.487</v>
       </c>
@@ -3855,10 +3858,10 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="4.5" bestFit="1" customWidth="1"/>
@@ -3878,7 +3881,7 @@
     <col min="33" max="34" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75">
+    <row r="1" spans="1:34" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4667,7 +4670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -4993,21 +4996,21 @@
         <f>SUMIF(元データ!F:F,A9,元データ!Y:Y)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="Q9" t="str">
+      <c r="N9" s="20">
+        <f>IFERROR(ROUND(E9/D9,3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>IFERROR(ROUND((F9+G9+E9)/(F9+G9+D9),3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>IFERROR(ROUND(Y9/D9,3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f>SUMIF(元データ!F:F,A9,元データ!AB:AB)</f>
@@ -5049,9 +5052,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB9" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="AB9">
+        <f>IFERROR(ROUND(AA9/C9,2),0)</f>
+        <v>0</v>
       </c>
       <c r="AC9">
         <f>SUMIF(元データ!F:F,A9,元データ!T:T)</f>
@@ -5078,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5638,7 +5641,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5653,7 +5656,7 @@
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="3.875" style="15"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
@@ -5663,7 +5666,7 @@
     <col min="36" max="36" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.5" thickBot="1">
+    <row r="1" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -5771,7 +5774,7 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" ht="19.5" thickTop="1">
+    <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>61</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A3" s="30"/>
       <c r="B3" s="15">
         <v>2</v>
@@ -5969,7 +5972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="30"/>
       <c r="B4" s="15">
         <v>3</v>
@@ -6067,7 +6070,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A5" s="30"/>
       <c r="B5" s="15">
         <v>4</v>
@@ -6168,7 +6171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="30"/>
       <c r="B6" s="15">
         <v>5</v>
@@ -6263,7 +6266,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="30"/>
       <c r="B7" s="15">
         <v>6</v>
@@ -6358,7 +6361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A8" s="30"/>
       <c r="B8" s="15">
         <v>7</v>
@@ -6453,7 +6456,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A9" s="30"/>
       <c r="B9" s="15">
         <v>8</v>
@@ -6548,7 +6551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A10" s="30"/>
       <c r="B10" s="15">
         <v>9</v>
@@ -6628,7 +6631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A11" s="30"/>
       <c r="C11" t="s">
         <v>59</v>
@@ -6714,7 +6717,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A12" s="30"/>
       <c r="B12" s="15" t="s">
         <v>72</v>
@@ -6788,7 +6791,7 @@
         <v>萩原</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1">
+    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
@@ -6885,7 +6888,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A14" s="30"/>
       <c r="B14" s="15">
         <v>2</v>
@@ -6974,7 +6977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A15" s="30"/>
       <c r="B15" s="15">
         <v>3</v>
@@ -7063,7 +7066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A16" s="30"/>
       <c r="B16" s="15">
         <v>4</v>
@@ -7152,7 +7155,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="30"/>
       <c r="B17" s="15">
         <v>5</v>
@@ -7244,7 +7247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="30"/>
       <c r="B18" s="15">
         <v>6</v>
@@ -7327,7 +7330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="30"/>
       <c r="B19" s="15">
         <v>7</v>
@@ -7407,7 +7410,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="30"/>
       <c r="B20" s="15">
         <v>8</v>
@@ -7475,7 +7478,7 @@
         <v>安部滉</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="30"/>
       <c r="C21">
         <v>3</v>
@@ -7546,7 +7549,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="30"/>
       <c r="B22" s="15">
         <v>9</v>
@@ -7626,7 +7629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="17" customFormat="1">
+    <row r="23" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="16"/>
     </row>
   </sheetData>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA4235-BDB9-48AC-8E39-D2289541F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439FD68-E8CE-40C4-A242-EE496E1DA97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -873,9 +873,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,13 +882,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,13 +1259,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="24"/>
+    <col min="1" max="1" width="3.5" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="4.5" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="24" bestFit="1" customWidth="1"/>
@@ -1274,7 +1274,7 @@
     <col min="12" max="12" width="6" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.375" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -1334,7 +1334,7 @@
         <f>打撃集計!R1</f>
         <v>失策</v>
       </c>
-      <c r="O1" s="26" t="str">
+      <c r="O1" s="25" t="str">
         <f>打撃集計!U1</f>
         <v>守備率</v>
       </c>
@@ -1379,15 +1379,15 @@
         <f>打撃集計!M2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="25" t="str">
+      <c r="K2" s="31" t="str">
         <f>TEXT(打撃集計!N2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L2" s="25" t="str">
+      <c r="L2" s="31" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M2" s="25" t="str">
+      <c r="M2" s="31" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1395,7 +1395,7 @@
         <f>打撃集計!R2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="28" t="str">
+      <c r="O2" s="27" t="str">
         <f>打撃集計!U2*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1440,15 +1440,15 @@
         <f>打撃集計!M3</f>
         <v>2</v>
       </c>
-      <c r="K3" s="25" t="str">
+      <c r="K3" s="31" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L3" s="25" t="str">
+      <c r="L3" s="31" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="M3" s="25" t="str">
+      <c r="M3" s="31" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
@@ -1456,7 +1456,7 @@
         <f>打撃集計!R3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="28" t="str">
+      <c r="O3" s="27" t="str">
         <f>打撃集計!U3*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1501,15 +1501,15 @@
         <f>打撃集計!M4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="25" t="str">
+      <c r="K4" s="31" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L4" s="25" t="str">
+      <c r="L4" s="31" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M4" s="25" t="str">
+      <c r="M4" s="31" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1517,7 +1517,7 @@
         <f>打撃集計!R4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="28" t="str">
+      <c r="O4" s="27" t="str">
         <f>打撃集計!U4*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1562,15 +1562,15 @@
         <f>打撃集計!M5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="25" t="str">
+      <c r="K5" s="31" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="L5" s="25" t="str">
+      <c r="L5" s="31" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
         <v>0.667</v>
       </c>
-      <c r="M5" s="25" t="str">
+      <c r="M5" s="31" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
@@ -1578,7 +1578,7 @@
         <f>打撃集計!R5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="28" t="str">
+      <c r="O5" s="27" t="str">
         <f>打撃集計!U5*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1623,15 +1623,15 @@
         <f>打撃集計!M6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="25" t="str">
+      <c r="K6" s="31" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="L6" s="25" t="str">
+      <c r="L6" s="31" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="M6" s="25" t="str">
+      <c r="M6" s="31" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
@@ -1639,7 +1639,7 @@
         <f>打撃集計!R6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="28" t="str">
+      <c r="O6" s="27" t="str">
         <f>打撃集計!U6*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1684,15 +1684,15 @@
         <f>打撃集計!M7</f>
         <v>2</v>
       </c>
-      <c r="K7" s="25" t="str">
+      <c r="K7" s="31" t="str">
         <f>TEXT(打撃集計!N7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="L7" s="25" t="str">
+      <c r="L7" s="31" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="M7" s="25" t="str">
+      <c r="M7" s="31" t="str">
         <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
@@ -1700,7 +1700,7 @@
         <f>打撃集計!R7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="28" t="str">
+      <c r="O7" s="27" t="str">
         <f>打撃集計!U7*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1745,15 +1745,15 @@
         <f>打撃集計!M8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="25" t="str">
+      <c r="K8" s="31" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L8" s="25" t="str">
+      <c r="L8" s="31" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M8" s="25" t="str">
+      <c r="M8" s="31" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1761,7 +1761,7 @@
         <f>打撃集計!R8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="28" t="str">
+      <c r="O8" s="27" t="str">
         <f>打撃集計!U8*100 &amp; "%"</f>
         <v>75%</v>
       </c>
@@ -1806,15 +1806,15 @@
         <f>打撃集計!M9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="25" t="str">
+      <c r="K9" s="31" t="str">
         <f>TEXT(打撃集計!N9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L9" s="25" t="str">
+      <c r="L9" s="31" t="str">
         <f>TEXT(打撃集計!O9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M9" s="25" t="str">
+      <c r="M9" s="31" t="str">
         <f>TEXT(打撃集計!Q9,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1822,7 +1822,7 @@
         <f>打撃集計!R9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="28" t="str">
+      <c r="O9" s="27" t="str">
         <f>打撃集計!U9*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1867,15 +1867,15 @@
         <f>打撃集計!M10</f>
         <v>2</v>
       </c>
-      <c r="K10" s="25" t="str">
+      <c r="K10" s="31" t="str">
         <f>TEXT(打撃集計!N10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="L10" s="25" t="str">
+      <c r="L10" s="31" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="M10" s="25" t="str">
+      <c r="M10" s="31" t="str">
         <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
@@ -1883,7 +1883,7 @@
         <f>打撃集計!R10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="28" t="str">
+      <c r="O10" s="27" t="str">
         <f>打撃集計!U10*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1928,15 +1928,15 @@
         <f>打撃集計!M11</f>
         <v>2</v>
       </c>
-      <c r="K11" s="25" t="str">
+      <c r="K11" s="31" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L11" s="25" t="str">
+      <c r="L11" s="31" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M11" s="25" t="str">
+      <c r="M11" s="31" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1944,7 +1944,7 @@
         <f>打撃集計!R11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="28" t="str">
+      <c r="O11" s="27" t="str">
         <f>打撃集計!U11*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -1989,15 +1989,15 @@
         <f>打撃集計!M12</f>
         <v>2</v>
       </c>
-      <c r="K12" s="25" t="str">
+      <c r="K12" s="31" t="str">
         <f>TEXT(打撃集計!N12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="L12" s="25" t="str">
+      <c r="L12" s="31" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
         <v>0.400</v>
       </c>
-      <c r="M12" s="25" t="str">
+      <c r="M12" s="31" t="str">
         <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
@@ -2005,7 +2005,7 @@
         <f>打撃集計!R12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="28" t="str">
+      <c r="O12" s="27" t="str">
         <f>打撃集計!U12*100 &amp; "%"</f>
         <v>100%</v>
       </c>
@@ -2049,15 +2049,15 @@
         <f>打撃集計!M13</f>
         <v>12</v>
       </c>
-      <c r="K13" s="25" t="str">
+      <c r="K13" s="31" t="str">
         <f>TEXT(打撃集計!N13,"0.000")</f>
         <v>0.179</v>
       </c>
-      <c r="L13" s="25" t="str">
+      <c r="L13" s="31" t="str">
         <f>TEXT(打撃集計!O13,"0.000")</f>
         <v>0.256</v>
       </c>
-      <c r="M13" s="25" t="str">
+      <c r="M13" s="31" t="str">
         <f>TEXT(打撃集計!Q13,"0.000")</f>
         <v>0.487</v>
       </c>
@@ -2065,7 +2065,7 @@
         <f>打撃集計!R13</f>
         <v>1</v>
       </c>
-      <c r="O13" s="28" t="str">
+      <c r="O13" s="27" t="str">
         <f>打撃集計!U13*100 &amp; "%"</f>
         <v>97.8%</v>
       </c>
@@ -2080,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0621FDB-0526-45B7-9AB1-C0717FC379E3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
@@ -2284,19 +2284,19 @@
         <f>打撃集計!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="31" t="str">
+      <c r="L2" s="28" t="str">
         <f>TEXT(打撃集計!N2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M2" s="31" t="str">
+      <c r="M2" s="28" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N2" s="31" t="str">
+      <c r="N2" s="28" t="str">
         <f>TEXT(打撃集計!P2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O2" s="31" t="str">
+      <c r="O2" s="28" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -2418,19 +2418,19 @@
         <f>打撃集計!K3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="31" t="str">
+      <c r="L3" s="28" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M3" s="31" t="str">
+      <c r="M3" s="28" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="N3" s="31" t="str">
+      <c r="N3" s="28" t="str">
         <f>TEXT(打撃集計!P3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O3" s="31" t="str">
+      <c r="O3" s="28" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
@@ -2552,19 +2552,19 @@
         <f>打撃集計!K4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="31" t="str">
+      <c r="L4" s="28" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M4" s="31" t="str">
+      <c r="M4" s="28" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N4" s="31" t="str">
+      <c r="N4" s="28" t="str">
         <f>TEXT(打撃集計!P4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O4" s="31" t="str">
+      <c r="O4" s="28" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -2686,19 +2686,19 @@
         <f>打撃集計!K5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="28" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="28" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
         <v>0.667</v>
       </c>
-      <c r="N5" s="31" t="str">
+      <c r="N5" s="28" t="str">
         <f>TEXT(打撃集計!P5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="O5" s="31" t="str">
+      <c r="O5" s="28" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
@@ -2820,19 +2820,19 @@
         <f>打撃集計!K6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="31" t="str">
+      <c r="L6" s="28" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="28" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="N6" s="31" t="str">
+      <c r="N6" s="28" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
         <v>0.800</v>
       </c>
-      <c r="O6" s="31" t="str">
+      <c r="O6" s="28" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
@@ -2954,19 +2954,19 @@
         <f>打撃集計!K7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="31" t="str">
+      <c r="L7" s="28" t="str">
         <f>TEXT(打撃集計!N7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="M7" s="31" t="str">
+      <c r="M7" s="28" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="N7" s="31" t="str">
+      <c r="N7" s="28" t="str">
         <f>TEXT(打撃集計!P7,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="O7" s="31" t="str">
+      <c r="O7" s="28" t="str">
         <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
@@ -3088,19 +3088,19 @@
         <f>打撃集計!K8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="31" t="str">
+      <c r="L8" s="28" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M8" s="31" t="str">
+      <c r="M8" s="28" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N8" s="31" t="str">
+      <c r="N8" s="28" t="str">
         <f>TEXT(打撃集計!P8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O8" s="31" t="str">
+      <c r="O8" s="28" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -3222,19 +3222,19 @@
         <f>打撃集計!K9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="31" t="str">
+      <c r="L9" s="28" t="str">
         <f>TEXT(打撃集計!N9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M9" s="31" t="str">
+      <c r="M9" s="28" t="str">
         <f>TEXT(打撃集計!O9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N9" s="31" t="str">
+      <c r="N9" s="28" t="str">
         <f>TEXT(打撃集計!P9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O9" s="31" t="str">
+      <c r="O9" s="28" t="str">
         <f>TEXT(打撃集計!Q9,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -3356,19 +3356,19 @@
         <f>打撃集計!K10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="31" t="str">
+      <c r="L10" s="28" t="str">
         <f>TEXT(打撃集計!N10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="M10" s="31" t="str">
+      <c r="M10" s="28" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="N10" s="31" t="str">
+      <c r="N10" s="28" t="str">
         <f>TEXT(打撃集計!P10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="O10" s="31" t="str">
+      <c r="O10" s="28" t="str">
         <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
@@ -3490,19 +3490,19 @@
         <f>打撃集計!K11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="31" t="str">
+      <c r="L11" s="28" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M11" s="31" t="str">
+      <c r="M11" s="28" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N11" s="31" t="str">
+      <c r="N11" s="28" t="str">
         <f>TEXT(打撃集計!P11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O11" s="31" t="str">
+      <c r="O11" s="28" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -3624,19 +3624,19 @@
         <f>打撃集計!K12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="31" t="str">
+      <c r="L12" s="28" t="str">
         <f>TEXT(打撃集計!N12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="M12" s="31" t="str">
+      <c r="M12" s="28" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
         <v>0.400</v>
       </c>
-      <c r="N12" s="31" t="str">
+      <c r="N12" s="28" t="str">
         <f>TEXT(打撃集計!P12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="O12" s="31" t="str">
+      <c r="O12" s="28" t="str">
         <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
@@ -3758,19 +3758,19 @@
         <f>打撃集計!K13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="31" t="str">
+      <c r="L13" s="28" t="str">
         <f>TEXT(打撃集計!N13,"0.000")</f>
         <v>0.179</v>
       </c>
-      <c r="M13" s="31" t="str">
+      <c r="M13" s="28" t="str">
         <f>TEXT(打撃集計!O13,"0.000")</f>
         <v>0.256</v>
       </c>
-      <c r="N13" s="31" t="str">
+      <c r="N13" s="28" t="str">
         <f>TEXT(打撃集計!P13,"0.000")</f>
         <v>0.231</v>
       </c>
-      <c r="O13" s="31" t="str">
+      <c r="O13" s="28" t="str">
         <f>TEXT(打撃集計!Q13,"0.000")</f>
         <v>0.487</v>
       </c>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439FD68-E8CE-40C4-A242-EE496E1DA97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B13125-A7F6-4735-82FB-C3D4F065EED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -879,10 +879,10 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -891,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1379,15 +1379,15 @@
         <f>打撃集計!M2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="31" t="str">
+      <c r="K2" s="28" t="str">
         <f>TEXT(打撃集計!N2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L2" s="31" t="str">
+      <c r="L2" s="28" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M2" s="31" t="str">
+      <c r="M2" s="28" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1395,9 +1395,9 @@
         <f>打撃集計!R2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="27" t="str">
-        <f>打撃集計!U2*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O2" s="31" t="str">
+        <f>TEXT(打撃集計!U2,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
@@ -1440,15 +1440,15 @@
         <f>打撃集計!M3</f>
         <v>2</v>
       </c>
-      <c r="K3" s="31" t="str">
+      <c r="K3" s="28" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L3" s="31" t="str">
+      <c r="L3" s="28" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="M3" s="31" t="str">
+      <c r="M3" s="28" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
@@ -1456,9 +1456,9 @@
         <f>打撃集計!R3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="27" t="str">
-        <f>打撃集計!U3*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O3" s="31" t="str">
+        <f>TEXT(打撃集計!U3,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
@@ -1501,15 +1501,15 @@
         <f>打撃集計!M4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="31" t="str">
+      <c r="K4" s="28" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L4" s="31" t="str">
+      <c r="L4" s="28" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M4" s="31" t="str">
+      <c r="M4" s="28" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1517,9 +1517,9 @@
         <f>打撃集計!R4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="27" t="str">
-        <f>打撃集計!U4*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O4" s="31" t="str">
+        <f>TEXT(打撃集計!U4,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -1562,15 +1562,15 @@
         <f>打撃集計!M5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="31" t="str">
+      <c r="K5" s="28" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="28" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
         <v>0.667</v>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="28" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
@@ -1578,9 +1578,9 @@
         <f>打撃集計!R5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="27" t="str">
-        <f>打撃集計!U5*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O5" s="31" t="str">
+        <f>TEXT(打撃集計!U5,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -1623,15 +1623,15 @@
         <f>打撃集計!M6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="28" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="L6" s="31" t="str">
+      <c r="L6" s="28" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="28" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
@@ -1639,9 +1639,9 @@
         <f>打撃集計!R6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="27" t="str">
-        <f>打撃集計!U6*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O6" s="31" t="str">
+        <f>TEXT(打撃集計!U6,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -1684,15 +1684,15 @@
         <f>打撃集計!M7</f>
         <v>2</v>
       </c>
-      <c r="K7" s="31" t="str">
+      <c r="K7" s="28" t="str">
         <f>TEXT(打撃集計!N7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="L7" s="31" t="str">
+      <c r="L7" s="28" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="M7" s="31" t="str">
+      <c r="M7" s="28" t="str">
         <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
@@ -1700,9 +1700,9 @@
         <f>打撃集計!R7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="27" t="str">
-        <f>打撃集計!U7*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O7" s="31" t="str">
+        <f>TEXT(打撃集計!U7,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
@@ -1745,15 +1745,15 @@
         <f>打撃集計!M8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="31" t="str">
+      <c r="K8" s="28" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L8" s="31" t="str">
+      <c r="L8" s="28" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M8" s="31" t="str">
+      <c r="M8" s="28" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1761,9 +1761,9 @@
         <f>打撃集計!R8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="27" t="str">
-        <f>打撃集計!U8*100 &amp; "%"</f>
-        <v>75%</v>
+      <c r="O8" s="31" t="str">
+        <f>TEXT(打撃集計!U8,"0.00")</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -1806,15 +1806,15 @@
         <f>打撃集計!M9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="31" t="str">
+      <c r="K9" s="28" t="str">
         <f>TEXT(打撃集計!N9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L9" s="31" t="str">
+      <c r="L9" s="28" t="str">
         <f>TEXT(打撃集計!O9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M9" s="31" t="str">
+      <c r="M9" s="28" t="str">
         <f>TEXT(打撃集計!Q9,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1822,9 +1822,9 @@
         <f>打撃集計!R9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="27" t="str">
-        <f>打撃集計!U9*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O9" s="31" t="str">
+        <f>TEXT(打撃集計!U9,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
@@ -1867,15 +1867,15 @@
         <f>打撃集計!M10</f>
         <v>2</v>
       </c>
-      <c r="K10" s="31" t="str">
+      <c r="K10" s="28" t="str">
         <f>TEXT(打撃集計!N10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="L10" s="31" t="str">
+      <c r="L10" s="28" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="M10" s="31" t="str">
+      <c r="M10" s="28" t="str">
         <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
@@ -1883,9 +1883,9 @@
         <f>打撃集計!R10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="27" t="str">
-        <f>打撃集計!U10*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O10" s="31" t="str">
+        <f>TEXT(打撃集計!U10,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -1928,15 +1928,15 @@
         <f>打撃集計!M11</f>
         <v>2</v>
       </c>
-      <c r="K11" s="31" t="str">
+      <c r="K11" s="28" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="L11" s="31" t="str">
+      <c r="L11" s="28" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M11" s="31" t="str">
+      <c r="M11" s="28" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -1944,9 +1944,9 @@
         <f>打撃集計!R11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="27" t="str">
-        <f>打撃集計!U11*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O11" s="31" t="str">
+        <f>TEXT(打撃集計!U11,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
@@ -1989,15 +1989,15 @@
         <f>打撃集計!M12</f>
         <v>2</v>
       </c>
-      <c r="K12" s="31" t="str">
+      <c r="K12" s="28" t="str">
         <f>TEXT(打撃集計!N12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="L12" s="31" t="str">
+      <c r="L12" s="28" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
         <v>0.400</v>
       </c>
-      <c r="M12" s="31" t="str">
+      <c r="M12" s="28" t="str">
         <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
@@ -2005,9 +2005,9 @@
         <f>打撃集計!R12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="27" t="str">
-        <f>打撃集計!U12*100 &amp; "%"</f>
-        <v>100%</v>
+      <c r="O12" s="31" t="str">
+        <f>TEXT(打撃集計!U12,"0.00")</f>
+        <v>1.00</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
@@ -2049,15 +2049,15 @@
         <f>打撃集計!M13</f>
         <v>12</v>
       </c>
-      <c r="K13" s="31" t="str">
+      <c r="K13" s="28" t="str">
         <f>TEXT(打撃集計!N13,"0.000")</f>
         <v>0.179</v>
       </c>
-      <c r="L13" s="31" t="str">
+      <c r="L13" s="28" t="str">
         <f>TEXT(打撃集計!O13,"0.000")</f>
         <v>0.256</v>
       </c>
-      <c r="M13" s="31" t="str">
+      <c r="M13" s="28" t="str">
         <f>TEXT(打撃集計!Q13,"0.000")</f>
         <v>0.487</v>
       </c>
@@ -2065,9 +2065,9 @@
         <f>打撃集計!R13</f>
         <v>1</v>
       </c>
-      <c r="O13" s="27" t="str">
-        <f>打撃集計!U13*100 &amp; "%"</f>
-        <v>97.8%</v>
+      <c r="O13" s="31" t="str">
+        <f>TEXT(打撃集計!U13,"0.00")</f>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0621FDB-0526-45B7-9AB1-C0717FC379E3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
@@ -2284,19 +2284,19 @@
         <f>打撃集計!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="28" t="str">
+      <c r="L2" s="27" t="str">
         <f>TEXT(打撃集計!N2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M2" s="28" t="str">
+      <c r="M2" s="27" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N2" s="28" t="str">
+      <c r="N2" s="27" t="str">
         <f>TEXT(打撃集計!P2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O2" s="28" t="str">
+      <c r="O2" s="27" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="AG2" t="str">
         <f>打撃!O2</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
@@ -2418,19 +2418,19 @@
         <f>打撃集計!K3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="28" t="str">
+      <c r="L3" s="27" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M3" s="28" t="str">
+      <c r="M3" s="27" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="N3" s="28" t="str">
+      <c r="N3" s="27" t="str">
         <f>TEXT(打撃集計!P3,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O3" s="28" t="str">
+      <c r="O3" s="27" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="AG3" t="str">
         <f>打撃!O3</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
@@ -2552,19 +2552,19 @@
         <f>打撃集計!K4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="28" t="str">
+      <c r="L4" s="27" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M4" s="28" t="str">
+      <c r="M4" s="27" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N4" s="28" t="str">
+      <c r="N4" s="27" t="str">
         <f>TEXT(打撃集計!P4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O4" s="28" t="str">
+      <c r="O4" s="27" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="AG4" t="str">
         <f>打撃!O4</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
@@ -2686,19 +2686,19 @@
         <f>打撃集計!K5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="28" t="str">
+      <c r="L5" s="27" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="M5" s="28" t="str">
+      <c r="M5" s="27" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
         <v>0.667</v>
       </c>
-      <c r="N5" s="28" t="str">
+      <c r="N5" s="27" t="str">
         <f>TEXT(打撃集計!P5,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="O5" s="28" t="str">
+      <c r="O5" s="27" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="AG5" t="str">
         <f>打撃!O5</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
@@ -2820,19 +2820,19 @@
         <f>打撃集計!K6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="28" t="str">
+      <c r="L6" s="27" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="M6" s="28" t="str">
+      <c r="M6" s="27" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
         <v>0.600</v>
       </c>
-      <c r="N6" s="28" t="str">
+      <c r="N6" s="27" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
         <v>0.800</v>
       </c>
-      <c r="O6" s="28" t="str">
+      <c r="O6" s="27" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="AG6" t="str">
         <f>打撃!O6</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
@@ -2954,19 +2954,19 @@
         <f>打撃集計!K7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="28" t="str">
+      <c r="L7" s="27" t="str">
         <f>TEXT(打撃集計!N7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="M7" s="28" t="str">
+      <c r="M7" s="27" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
         <v>0.167</v>
       </c>
-      <c r="N7" s="28" t="str">
+      <c r="N7" s="27" t="str">
         <f>TEXT(打撃集計!P7,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="O7" s="28" t="str">
+      <c r="O7" s="27" t="str">
         <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="AG7" t="str">
         <f>打撃!O7</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
@@ -3088,19 +3088,19 @@
         <f>打撃集計!K8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="28" t="str">
+      <c r="L8" s="27" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M8" s="28" t="str">
+      <c r="M8" s="27" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N8" s="28" t="str">
+      <c r="N8" s="27" t="str">
         <f>TEXT(打撃集計!P8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O8" s="28" t="str">
+      <c r="O8" s="27" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="AG8" t="str">
         <f>打撃!O8</f>
-        <v>75%</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
@@ -3222,19 +3222,19 @@
         <f>打撃集計!K9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="28" t="str">
+      <c r="L9" s="27" t="str">
         <f>TEXT(打撃集計!N9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="27" t="str">
         <f>TEXT(打撃集計!O9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N9" s="28" t="str">
+      <c r="N9" s="27" t="str">
         <f>TEXT(打撃集計!P9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O9" s="28" t="str">
+      <c r="O9" s="27" t="str">
         <f>TEXT(打撃集計!Q9,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="AG9" t="str">
         <f>打撃!O9</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
@@ -3356,19 +3356,19 @@
         <f>打撃集計!K10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="28" t="str">
+      <c r="L10" s="27" t="str">
         <f>TEXT(打撃集計!N10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="M10" s="28" t="str">
+      <c r="M10" s="27" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
         <v>0.333</v>
       </c>
-      <c r="N10" s="28" t="str">
+      <c r="N10" s="27" t="str">
         <f>TEXT(打撃集計!P10,"0.000")</f>
         <v>0.200</v>
       </c>
-      <c r="O10" s="28" t="str">
+      <c r="O10" s="27" t="str">
         <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="AG10" t="str">
         <f>打撃!O10</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
@@ -3490,19 +3490,19 @@
         <f>打撃集計!K11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="28" t="str">
+      <c r="L11" s="27" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="M11" s="28" t="str">
+      <c r="M11" s="27" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="N11" s="28" t="str">
+      <c r="N11" s="27" t="str">
         <f>TEXT(打撃集計!P11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="O11" s="28" t="str">
+      <c r="O11" s="27" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="AG11" t="str">
         <f>打撃!O11</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
@@ -3624,19 +3624,19 @@
         <f>打撃集計!K12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="28" t="str">
+      <c r="L12" s="27" t="str">
         <f>TEXT(打撃集計!N12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="M12" s="28" t="str">
+      <c r="M12" s="27" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
         <v>0.400</v>
       </c>
-      <c r="N12" s="28" t="str">
+      <c r="N12" s="27" t="str">
         <f>TEXT(打撃集計!P12,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="O12" s="28" t="str">
+      <c r="O12" s="27" t="str">
         <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="AG12" t="str">
         <f>打撃!O12</f>
-        <v>100%</v>
+        <v>1.00</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
@@ -3758,19 +3758,19 @@
         <f>打撃集計!K13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="28" t="str">
+      <c r="L13" s="27" t="str">
         <f>TEXT(打撃集計!N13,"0.000")</f>
         <v>0.179</v>
       </c>
-      <c r="M13" s="28" t="str">
+      <c r="M13" s="27" t="str">
         <f>TEXT(打撃集計!O13,"0.000")</f>
         <v>0.256</v>
       </c>
-      <c r="N13" s="28" t="str">
+      <c r="N13" s="27" t="str">
         <f>TEXT(打撃集計!P13,"0.000")</f>
         <v>0.231</v>
       </c>
-      <c r="O13" s="28" t="str">
+      <c r="O13" s="27" t="str">
         <f>TEXT(打撃集計!Q13,"0.000")</f>
         <v>0.487</v>
       </c>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="AG13" t="str">
         <f>打撃!O13</f>
-        <v>97.8%</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B13125-A7F6-4735-82FB-C3D4F065EED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7036A49-9D69-4C5E-96F4-6313382718CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,9 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1259,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BA246-015E-4E9C-8C99-400853E20B40}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R7" activeCellId="1" sqref="O9 R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1395,7 +1392,7 @@
         <f>打撃集計!R2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="31" t="str">
+      <c r="O2" s="25" t="str">
         <f>TEXT(打撃集計!U2,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -1456,7 +1453,7 @@
         <f>打撃集計!R3</f>
         <v>0</v>
       </c>
-      <c r="O3" s="31" t="str">
+      <c r="O3" s="25" t="str">
         <f>TEXT(打撃集計!U3,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -1517,7 +1514,7 @@
         <f>打撃集計!R4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="31" t="str">
+      <c r="O4" s="25" t="str">
         <f>TEXT(打撃集計!U4,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -1578,7 +1575,7 @@
         <f>打撃集計!R5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="31" t="str">
+      <c r="O5" s="25" t="str">
         <f>TEXT(打撃集計!U5,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -1639,7 +1636,7 @@
         <f>打撃集計!R6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="31" t="str">
+      <c r="O6" s="25" t="str">
         <f>TEXT(打撃集計!U6,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -1700,7 +1697,7 @@
         <f>打撃集計!R7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="31" t="str">
+      <c r="O7" s="25" t="str">
         <f>TEXT(打撃集計!U7,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -1761,7 +1758,7 @@
         <f>打撃集計!R8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="31" t="str">
+      <c r="O8" s="25" t="str">
         <f>TEXT(打撃集計!U8,"0.00")</f>
         <v>0.75</v>
       </c>
@@ -1822,7 +1819,7 @@
         <f>打撃集計!R9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="31" t="str">
+      <c r="O9" s="25" t="str">
         <f>TEXT(打撃集計!U9,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -1883,7 +1880,7 @@
         <f>打撃集計!R10</f>
         <v>0</v>
       </c>
-      <c r="O10" s="31" t="str">
+      <c r="O10" s="25" t="str">
         <f>TEXT(打撃集計!U10,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -1944,7 +1941,7 @@
         <f>打撃集計!R11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="31" t="str">
+      <c r="O11" s="25" t="str">
         <f>TEXT(打撃集計!U11,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -2005,7 +2002,7 @@
         <f>打撃集計!R12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="31" t="str">
+      <c r="O12" s="25" t="str">
         <f>TEXT(打撃集計!U12,"0.00")</f>
         <v>1.00</v>
       </c>
@@ -2065,7 +2062,7 @@
         <f>打撃集計!R13</f>
         <v>1</v>
       </c>
-      <c r="O13" s="31" t="str">
+      <c r="O13" s="25" t="str">
         <f>TEXT(打撃集計!U13,"0.00")</f>
         <v>0.98</v>
       </c>
@@ -2080,29 +2077,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0621FDB-0526-45B7-9AB1-C0717FC379E3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.125" customWidth="1"/>
     <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.125" customWidth="1"/>
-    <col min="22" max="23" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.125" customWidth="1"/>
     <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
@@ -2244,43 +2240,43 @@
         <f>打撃集計!A2</f>
         <v>安部滉</v>
       </c>
-      <c r="B2">
-        <f>打撃集計!B2</f>
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="27" t="str">
+        <f>TEXT(打撃集計!B2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="27">
         <f>打撃集計!C2</f>
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="27">
         <f>打撃集計!D2</f>
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="27">
         <f>打撃集計!E2</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="27">
         <f>打撃集計!F2</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="27">
         <f>打撃集計!G2</f>
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="27">
         <f>打撃集計!H2</f>
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="27">
         <f>打撃集計!I2</f>
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="27">
         <f>打撃集計!J2</f>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="27">
         <f>打撃集計!K2</f>
         <v>0</v>
       </c>
@@ -2300,43 +2296,43 @@
         <f>TEXT(打撃集計!Q2,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="27">
         <f>打撃集計!V2</f>
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="27">
         <f>打撃集計!W2</f>
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="27">
         <f>打撃集計!X2</f>
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="27">
         <f>打撃集計!L2</f>
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="27">
         <f>打撃集計!Y2</f>
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="27">
         <f>打撃集計!AH2</f>
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="27">
         <f>打撃集計!M2</f>
         <v>1</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="27">
         <f>打撃集計!Z2</f>
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="27">
         <f>打撃集計!AA2</f>
         <v>15</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="27" t="str">
         <f>TEXT(打撃集計!AB2,"0.0")</f>
         <v>5.0</v>
       </c>
@@ -2356,15 +2352,15 @@
         <f>ROUND(打撃集計!AF2/$X2,2)*100 &amp; "%"</f>
         <v>27%</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="27">
         <f>打撃集計!R2</f>
         <v>0</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="27">
         <f>打撃集計!S2</f>
         <v>8</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="27">
         <f>打撃集計!T2</f>
         <v>0</v>
       </c>
@@ -2378,43 +2374,43 @@
         <f>打撃集計!A3</f>
         <v>中井</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="27">
         <f>打撃集計!B3</f>
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="27">
         <f>打撃集計!C3</f>
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="27">
         <f>打撃集計!D3</f>
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="27">
         <f>打撃集計!E3</f>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="27">
         <f>打撃集計!F3</f>
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="27">
         <f>打撃集計!G3</f>
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="27">
         <f>打撃集計!H3</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="27">
         <f>打撃集計!I3</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="27">
         <f>打撃集計!J3</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="27">
         <f>打撃集計!K3</f>
         <v>0</v>
       </c>
@@ -2434,43 +2430,43 @@
         <f>TEXT(打撃集計!Q3,"0.000")</f>
         <v>0.250</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="27">
         <f>打撃集計!V3</f>
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="27">
         <f>打撃集計!W3</f>
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="27">
         <f>打撃集計!X3</f>
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="27">
         <f>打撃集計!L3</f>
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="27">
         <f>打撃集計!Y3</f>
         <v>0</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="27">
         <f>打撃集計!AH3</f>
         <v>1</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="27">
         <f>打撃集計!M3</f>
         <v>2</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="27">
         <f>打撃集計!Z3</f>
         <v>0</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="27">
         <f>打撃集計!AA3</f>
         <v>23</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Y3" s="27" t="str">
         <f>TEXT(打撃集計!AB3,"0.0")</f>
         <v>7.7</v>
       </c>
@@ -2490,15 +2486,15 @@
         <f>ROUND(打撃集計!AF3/$X3,2)*100 &amp; "%"</f>
         <v>26%</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="27">
         <f>打撃集計!R3</f>
         <v>0</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="27">
         <f>打撃集計!S3</f>
         <v>1</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="27">
         <f>打撃集計!T3</f>
         <v>0</v>
       </c>
@@ -2512,43 +2508,43 @@
         <f>打撃集計!A4</f>
         <v>野場</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="27">
         <f>打撃集計!B4</f>
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="27">
         <f>打撃集計!C4</f>
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="27">
         <f>打撃集計!D4</f>
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="27">
         <f>打撃集計!E4</f>
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="27">
         <f>打撃集計!F4</f>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="27">
         <f>打撃集計!G4</f>
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="27">
         <f>打撃集計!H4</f>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="27">
         <f>打撃集計!I4</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="27">
         <f>打撃集計!J4</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="27">
         <f>打撃集計!K4</f>
         <v>0</v>
       </c>
@@ -2568,43 +2564,43 @@
         <f>TEXT(打撃集計!Q4,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="27">
         <f>打撃集計!V4</f>
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="27">
         <f>打撃集計!W4</f>
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="27">
         <f>打撃集計!X4</f>
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="27">
         <f>打撃集計!L4</f>
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="27">
         <f>打撃集計!Y4</f>
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="27">
         <f>打撃集計!AH4</f>
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="27">
         <f>打撃集計!M4</f>
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="27">
         <f>打撃集計!Z4</f>
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="27">
         <f>打撃集計!AA4</f>
         <v>7</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="Y4" s="27" t="str">
         <f>TEXT(打撃集計!AB4,"0.0")</f>
         <v>3.5</v>
       </c>
@@ -2624,15 +2620,15 @@
         <f>ROUND(打撃集計!AF4/$X4,2)*100 &amp; "%"</f>
         <v>43%</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="27">
         <f>打撃集計!R4</f>
         <v>0</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="27">
         <f>打撃集計!S4</f>
         <v>0</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="27">
         <f>打撃集計!T4</f>
         <v>2</v>
       </c>
@@ -2646,43 +2642,43 @@
         <f>打撃集計!A5</f>
         <v>池澤</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="27">
         <f>打撃集計!B5</f>
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="27">
         <f>打撃集計!C5</f>
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="27">
         <f>打撃集計!D5</f>
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="27">
         <f>打撃集計!E5</f>
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="27">
         <f>打撃集計!F5</f>
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="27">
         <f>打撃集計!G5</f>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="27">
         <f>打撃集計!H5</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="27">
         <f>打撃集計!I5</f>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="27">
         <f>打撃集計!J5</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="27">
         <f>打撃集計!K5</f>
         <v>0</v>
       </c>
@@ -2702,43 +2698,43 @@
         <f>TEXT(打撃集計!Q5,"0.000")</f>
         <v>1.167</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="27">
         <f>打撃集計!V5</f>
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="27">
         <f>打撃集計!W5</f>
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="27">
         <f>打撃集計!X5</f>
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="27">
         <f>打撃集計!L5</f>
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="27">
         <f>打撃集計!Y5</f>
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="27">
         <f>打撃集計!AH5</f>
         <v>2</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="27">
         <f>打撃集計!M5</f>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="27">
         <f>打撃集計!Z5</f>
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="27">
         <f>打撃集計!AA5</f>
         <v>11</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="Y5" s="27" t="str">
         <f>TEXT(打撃集計!AB5,"0.0")</f>
         <v>5.5</v>
       </c>
@@ -2758,15 +2754,15 @@
         <f>ROUND(打撃集計!AF5/$X5,2)*100 &amp; "%"</f>
         <v>55%</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="27">
         <f>打撃集計!R5</f>
         <v>0</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="27">
         <f>打撃集計!S5</f>
         <v>2</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="27">
         <f>打撃集計!T5</f>
         <v>0</v>
       </c>
@@ -2780,43 +2776,43 @@
         <f>打撃集計!A6</f>
         <v>安部剛</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="27">
         <f>打撃集計!B6</f>
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="27">
         <f>打撃集計!C6</f>
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="27">
         <f>打撃集計!D6</f>
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="27">
         <f>打撃集計!E6</f>
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="27">
         <f>打撃集計!F6</f>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="27">
         <f>打撃集計!G6</f>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="27">
         <f>打撃集計!H6</f>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="27">
         <f>打撃集計!I6</f>
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="27">
         <f>打撃集計!J6</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="27">
         <f>打撃集計!K6</f>
         <v>0</v>
       </c>
@@ -2836,43 +2832,43 @@
         <f>TEXT(打撃集計!Q6,"0.000")</f>
         <v>1.400</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="27">
         <f>打撃集計!V6</f>
         <v>2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="27">
         <f>打撃集計!W6</f>
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="27">
         <f>打撃集計!X6</f>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="27">
         <f>打撃集計!L6</f>
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="27">
         <f>打撃集計!Y6</f>
         <v>4</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="27">
         <f>打撃集計!AH6</f>
         <v>3</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="27">
         <f>打撃集計!M6</f>
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="27">
         <f>打撃集計!Z6</f>
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="27">
         <f>打撃集計!AA6</f>
         <v>19</v>
       </c>
-      <c r="Y6" t="str">
+      <c r="Y6" s="27" t="str">
         <f>TEXT(打撃集計!AB6,"0.0")</f>
         <v>3.8</v>
       </c>
@@ -2892,15 +2888,15 @@
         <f>ROUND(打撃集計!AF6/$X6,2)*100 &amp; "%"</f>
         <v>37%</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="27">
         <f>打撃集計!R6</f>
         <v>0</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="27">
         <f>打撃集計!S6</f>
         <v>2</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="27">
         <f>打撃集計!T6</f>
         <v>1</v>
       </c>
@@ -2914,43 +2910,43 @@
         <f>打撃集計!A7</f>
         <v>大鐘</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="27">
         <f>打撃集計!B7</f>
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="27">
         <f>打撃集計!C7</f>
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="27">
         <f>打撃集計!D7</f>
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="27">
         <f>打撃集計!E7</f>
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="27">
         <f>打撃集計!F7</f>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="27">
         <f>打撃集計!G7</f>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="27">
         <f>打撃集計!H7</f>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="27">
         <f>打撃集計!I7</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="27">
         <f>打撃集計!J7</f>
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="27">
         <f>打撃集計!K7</f>
         <v>0</v>
       </c>
@@ -2970,43 +2966,43 @@
         <f>TEXT(打撃集計!Q7,"0.000")</f>
         <v>0.500</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="27">
         <f>打撃集計!V7</f>
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="27">
         <f>打撃集計!W7</f>
         <v>1</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="27">
         <f>打撃集計!X7</f>
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="27">
         <f>打撃集計!L7</f>
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="27">
         <f>打撃集計!Y7</f>
         <v>2</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="27">
         <f>打撃集計!AH7</f>
         <v>1</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="27">
         <f>打撃集計!M7</f>
         <v>2</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="27">
         <f>打撃集計!Z7</f>
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="27">
         <f>打撃集計!AA7</f>
         <v>31</v>
       </c>
-      <c r="Y7" t="str">
+      <c r="Y7" s="27" t="str">
         <f>TEXT(打撃集計!AB7,"0.0")</f>
         <v>5.2</v>
       </c>
@@ -3026,15 +3022,15 @@
         <f>ROUND(打撃集計!AF7/$X7,2)*100 &amp; "%"</f>
         <v>32%</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="27">
         <f>打撃集計!R7</f>
         <v>0</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="27">
         <f>打撃集計!S7</f>
         <v>2</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="27">
         <f>打撃集計!T7</f>
         <v>4</v>
       </c>
@@ -3048,43 +3044,43 @@
         <f>打撃集計!A8</f>
         <v>北久保</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="27">
         <f>打撃集計!B8</f>
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="27">
         <f>打撃集計!C8</f>
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="27">
         <f>打撃集計!D8</f>
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="27">
         <f>打撃集計!E8</f>
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="27">
         <f>打撃集計!F8</f>
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="27">
         <f>打撃集計!G8</f>
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="27">
         <f>打撃集計!H8</f>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="27">
         <f>打撃集計!I8</f>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="27">
         <f>打撃集計!J8</f>
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="27">
         <f>打撃集計!K8</f>
         <v>0</v>
       </c>
@@ -3104,43 +3100,43 @@
         <f>TEXT(打撃集計!Q8,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="27">
         <f>打撃集計!V8</f>
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="27">
         <f>打撃集計!W8</f>
         <v>0</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="27">
         <f>打撃集計!X8</f>
         <v>0</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="27">
         <f>打撃集計!L8</f>
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="27">
         <f>打撃集計!Y8</f>
         <v>0</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="27">
         <f>打撃集計!AH8</f>
         <v>1</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="27">
         <f>打撃集計!M8</f>
         <v>1</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="27">
         <f>打撃集計!Z8</f>
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="27">
         <f>打撃集計!AA8</f>
         <v>16</v>
       </c>
-      <c r="Y8" t="str">
+      <c r="Y8" s="27" t="str">
         <f>TEXT(打撃集計!AB8,"0.0")</f>
         <v>4.0</v>
       </c>
@@ -3160,15 +3156,15 @@
         <f>ROUND(打撃集計!AF8/$X8,2)*100 &amp; "%"</f>
         <v>44%</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="27">
         <f>打撃集計!R8</f>
         <v>1</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="27">
         <f>打撃集計!S8</f>
         <v>2</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="27">
         <f>打撃集計!T8</f>
         <v>1</v>
       </c>
@@ -3182,43 +3178,43 @@
         <f>打撃集計!A9</f>
         <v>萩原</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="27">
         <f>打撃集計!B9</f>
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="27">
         <f>打撃集計!C9</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="27">
         <f>打撃集計!D9</f>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="27">
         <f>打撃集計!E9</f>
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="27">
         <f>打撃集計!F9</f>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="27">
         <f>打撃集計!G9</f>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="27">
         <f>打撃集計!H9</f>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="27">
         <f>打撃集計!I9</f>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="27">
         <f>打撃集計!J9</f>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="27">
         <f>打撃集計!K9</f>
         <v>0</v>
       </c>
@@ -3238,43 +3234,43 @@
         <f>TEXT(打撃集計!Q9,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="27">
         <f>打撃集計!V9</f>
         <v>0</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="27">
         <f>打撃集計!W9</f>
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="27">
         <f>打撃集計!X9</f>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="27">
         <f>打撃集計!L9</f>
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="27">
         <f>打撃集計!Y9</f>
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="27">
         <f>打撃集計!AH9</f>
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="27">
         <f>打撃集計!M9</f>
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="27">
         <f>打撃集計!Z9</f>
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="27">
         <f>打撃集計!AA9</f>
         <v>0</v>
       </c>
-      <c r="Y9" t="str">
+      <c r="Y9" s="27" t="str">
         <f>TEXT(打撃集計!AB9,"0.0")</f>
         <v>0.0</v>
       </c>
@@ -3294,15 +3290,15 @@
         <f>IFERROR(ROUND(打撃集計!AF9/$X9,2)*100 &amp; "%","0%")</f>
         <v>0%</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="27">
         <f>打撃集計!R9</f>
         <v>0</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="27">
         <f>打撃集計!S9</f>
         <v>5</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="27">
         <f>打撃集計!T9</f>
         <v>1</v>
       </c>
@@ -3316,43 +3312,43 @@
         <f>打撃集計!A10</f>
         <v>岩本</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="27">
         <f>打撃集計!B10</f>
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="27">
         <f>打撃集計!C10</f>
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="27">
         <f>打撃集計!D10</f>
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="27">
         <f>打撃集計!E10</f>
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="27">
         <f>打撃集計!F10</f>
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="27">
         <f>打撃集計!G10</f>
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="27">
         <f>打撃集計!H10</f>
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="27">
         <f>打撃集計!I10</f>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="27">
         <f>打撃集計!J10</f>
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="27">
         <f>打撃集計!K10</f>
         <v>0</v>
       </c>
@@ -3372,43 +3368,43 @@
         <f>TEXT(打撃集計!Q10,"0.000")</f>
         <v>0.533</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="27">
         <f>打撃集計!V10</f>
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="27">
         <f>打撃集計!W10</f>
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="27">
         <f>打撃集計!X10</f>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="27">
         <f>打撃集計!L10</f>
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="27">
         <f>打撃集計!Y10</f>
         <v>1</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="27">
         <f>打撃集計!AH10</f>
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="27">
         <f>打撃集計!M10</f>
         <v>2</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="27">
         <f>打撃集計!Z10</f>
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="27">
         <f>打撃集計!AA10</f>
         <v>28</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="Y10" s="27" t="str">
         <f>TEXT(打撃集計!AB10,"0.0")</f>
         <v>5.6</v>
       </c>
@@ -3428,15 +3424,15 @@
         <f>ROUND(打撃集計!AF10/$X10,2)*100 &amp; "%"</f>
         <v>36%</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="27">
         <f>打撃集計!R10</f>
         <v>0</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="27">
         <f>打撃集計!S10</f>
         <v>1</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="27">
         <f>打撃集計!T10</f>
         <v>0</v>
       </c>
@@ -3450,43 +3446,43 @@
         <f>打撃集計!A11</f>
         <v>上小城</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="27">
         <f>打撃集計!B11</f>
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="27">
         <f>打撃集計!C11</f>
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="27">
         <f>打撃集計!D11</f>
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="27">
         <f>打撃集計!E11</f>
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="27">
         <f>打撃集計!F11</f>
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="27">
         <f>打撃集計!G11</f>
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="27">
         <f>打撃集計!H11</f>
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="27">
         <f>打撃集計!I11</f>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="27">
         <f>打撃集計!J11</f>
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="27">
         <f>打撃集計!K11</f>
         <v>0</v>
       </c>
@@ -3506,43 +3502,43 @@
         <f>TEXT(打撃集計!Q11,"0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="27">
         <f>打撃集計!V11</f>
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="27">
         <f>打撃集計!W11</f>
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="27">
         <f>打撃集計!X11</f>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="27">
         <f>打撃集計!L11</f>
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="27">
         <f>打撃集計!Y11</f>
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="27">
         <f>打撃集計!AH11</f>
         <v>0</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="27">
         <f>打撃集計!M11</f>
         <v>2</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="27">
         <f>打撃集計!Z11</f>
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="27">
         <f>打撃集計!AA11</f>
         <v>24</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="Y11" s="27" t="str">
         <f>TEXT(打撃集計!AB11,"0.0")</f>
         <v>4.8</v>
       </c>
@@ -3562,15 +3558,15 @@
         <f>ROUND(打撃集計!AF11/$X11,2)*100 &amp; "%"</f>
         <v>38%</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="27">
         <f>打撃集計!R11</f>
         <v>0</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="27">
         <f>打撃集計!S11</f>
         <v>2</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="27">
         <f>打撃集計!T11</f>
         <v>0</v>
       </c>
@@ -3584,43 +3580,43 @@
         <f>打撃集計!A12</f>
         <v>反町</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="27">
         <f>打撃集計!B12</f>
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="27">
         <f>打撃集計!C12</f>
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="27">
         <f>打撃集計!D12</f>
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="27">
         <f>打撃集計!E12</f>
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="27">
         <f>打撃集計!F12</f>
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="27">
         <f>打撃集計!G12</f>
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="27">
         <f>打撃集計!H12</f>
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="27">
         <f>打撃集計!I12</f>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="27">
         <f>打撃集計!J12</f>
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="27">
         <f>打撃集計!K12</f>
         <v>0</v>
       </c>
@@ -3640,43 +3636,43 @@
         <f>TEXT(打撃集計!Q12,"0.000")</f>
         <v>0.650</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="27">
         <f>打撃集計!V12</f>
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="27">
         <f>打撃集計!W12</f>
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="27">
         <f>打撃集計!X12</f>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="27">
         <f>打撃集計!L12</f>
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="27">
         <f>打撃集計!Y12</f>
         <v>1</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="27">
         <f>打撃集計!AH12</f>
         <v>1</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="27">
         <f>打撃集計!M12</f>
         <v>2</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="27">
         <f>打撃集計!Z12</f>
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="27">
         <f>打撃集計!AA12</f>
         <v>28</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="Y12" s="27" t="str">
         <f>TEXT(打撃集計!AB12,"0.0")</f>
         <v>7.0</v>
       </c>
@@ -3696,15 +3692,15 @@
         <f>ROUND(打撃集計!AF12/$X12,2)*100 &amp; "%"</f>
         <v>43%</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="27">
         <f>打撃集計!R12</f>
         <v>0</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="27">
         <f>打撃集計!S12</f>
         <v>5</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="27">
         <f>打撃集計!T12</f>
         <v>6</v>
       </c>
@@ -3718,43 +3714,43 @@
         <f>打撃集計!A13</f>
         <v>全体</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="27">
         <f>打撃集計!B13</f>
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="27">
         <f>打撃集計!C13</f>
         <v>39</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="27">
         <f>打撃集計!D13</f>
         <v>39</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="27">
         <f>打撃集計!E13</f>
         <v>7</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="27">
         <f>打撃集計!F13</f>
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="27">
         <f>打撃集計!G13</f>
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="27">
         <f>打撃集計!H13</f>
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="27">
         <f>打撃集計!I13</f>
         <v>3</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="27">
         <f>打撃集計!J13</f>
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="27">
         <f>打撃集計!K13</f>
         <v>0</v>
       </c>
@@ -3774,43 +3770,43 @@
         <f>TEXT(打撃集計!Q13,"0.000")</f>
         <v>0.487</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="27">
         <f>打撃集計!V13</f>
         <v>5</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="27">
         <f>打撃集計!W13</f>
         <v>2</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="27">
         <f>打撃集計!X13</f>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="27">
         <f>打撃集計!L13</f>
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="27">
         <f>打撃集計!Y13</f>
         <v>9</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="27">
         <f>打撃集計!AH13</f>
         <v>9</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="27">
         <f>打撃集計!M13</f>
         <v>12</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="27">
         <f>打撃集計!Z13</f>
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="27">
         <f>打撃集計!AA13</f>
         <v>202</v>
       </c>
-      <c r="Y13" t="str">
+      <c r="Y13" s="27" t="str">
         <f>TEXT(打撃集計!AB13,"0.0")</f>
         <v>5.2</v>
       </c>
@@ -3830,15 +3826,15 @@
         <f>ROUND(打撃集計!AF13/$X13,2)*100 &amp; "%"</f>
         <v>37%</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="27">
         <f>打撃集計!R13</f>
         <v>1</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="27">
         <f>打撃集計!S13</f>
         <v>30</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="27">
         <f>打撃集計!T13</f>
         <v>15</v>
       </c>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696A4358-F74B-45A8-BBFE-9DB1CFB77686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2048BEC-EFD4-474A-A981-C82E0BB7461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="5" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
     <sheet name="打撃詳細" sheetId="5" r:id="rId2"/>
     <sheet name="打撃集計" sheetId="4" r:id="rId3"/>
-    <sheet name="投手" sheetId="2" r:id="rId4"/>
-    <sheet name="元データ" sheetId="3" r:id="rId5"/>
-    <sheet name="23" sheetId="6" r:id="rId6"/>
+    <sheet name="打席結果" sheetId="7" r:id="rId4"/>
+    <sheet name="投手" sheetId="2" r:id="rId5"/>
+    <sheet name="元データ" sheetId="3" r:id="rId6"/>
+    <sheet name="23" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="180">
   <si>
     <t>打者</t>
   </si>
@@ -209,13 +232,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>相手</t>
-    <rPh sb="0" eb="2">
-      <t>アイテ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>打順</t>
@@ -816,6 +832,79 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>対戦相手</t>
+    <rPh sb="0" eb="4">
+      <t>タイセンアイテ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第１打席</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第２打席</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第３打席</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第４打席</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第５打席</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポジション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -826,7 +915,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1022,6 +1111,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1031,7 +1129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,10 +1256,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1172,7 +1282,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="179" formatCode="&quot;捕&quot;"/>
     </dxf>
@@ -1199,6 +1309,33 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="187" formatCode="&quot;投&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="187" formatCode="&quot;投&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="&quot;捕&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="&quot;一&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="&quot;二&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="&quot;三&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="&quot;遊&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode="&quot;左&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="&quot;中&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode="&quot;右&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,10 +1670,10 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="3.5" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="24" bestFit="1" customWidth="1"/>
@@ -1551,9 +1688,9 @@
     <col min="16" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="23" customFormat="1" ht="15">
       <c r="A1" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="23" t="str">
         <f>打撃集計!B1</f>
@@ -1612,7 +1749,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -1673,7 +1810,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -1734,7 +1871,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -1795,7 +1932,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -1856,7 +1993,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -1917,7 +2054,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -1978,7 +2115,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -2039,7 +2176,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -2100,7 +2237,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -2161,7 +2298,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -2222,7 +2359,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -2283,12 +2420,12 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="24">
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="23">
         <f>打撃集計!C13</f>
@@ -2343,12 +2480,12 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="24">
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="23">
         <f>打撃集計!C14</f>
@@ -2403,12 +2540,12 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="A15" s="24">
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="23">
         <f>打撃集計!C15</f>
@@ -2463,12 +2600,12 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15">
       <c r="A16" s="24">
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="23">
         <f>打撃集計!C16</f>
@@ -2523,12 +2660,12 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15">
       <c r="A17" s="24">
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="23">
         <f>打撃集計!C17</f>
@@ -2583,7 +2720,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -2654,10 +2791,10 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="5.25" bestFit="1" customWidth="1"/>
@@ -2677,7 +2814,7 @@
     <col min="33" max="33" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33">
       <c r="A1" t="str">
         <f>打撃集計!B1</f>
         <v>打者</v>
@@ -2811,7 +2948,7 @@
         <v>守備率</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33">
       <c r="A2" t="str">
         <f>打撃集計!B2</f>
         <v>安部滉</v>
@@ -2945,7 +3082,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33">
       <c r="A3" t="str">
         <f>打撃集計!B3</f>
         <v>中井</v>
@@ -3079,7 +3216,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33">
       <c r="A4" t="str">
         <f>打撃集計!B4</f>
         <v>野場</v>
@@ -3213,7 +3350,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33">
       <c r="A5" t="str">
         <f>打撃集計!B5</f>
         <v>池澤</v>
@@ -3347,7 +3484,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33">
       <c r="A6" t="str">
         <f>打撃集計!B6</f>
         <v>安部剛</v>
@@ -3481,7 +3618,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33">
       <c r="A7" t="str">
         <f>打撃集計!B7</f>
         <v>大鐘</v>
@@ -3615,7 +3752,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33">
       <c r="A8" t="str">
         <f>打撃集計!B8</f>
         <v>北久保</v>
@@ -3749,7 +3886,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33">
       <c r="A9" t="str">
         <f>打撃集計!B9</f>
         <v>萩原</v>
@@ -3883,7 +4020,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33">
       <c r="A10" t="str">
         <f>打撃集計!B10</f>
         <v>岩本</v>
@@ -4017,7 +4154,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33">
       <c r="A11" t="str">
         <f>打撃集計!B11</f>
         <v>上小城</v>
@@ -4151,7 +4288,7 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33">
       <c r="A12" t="str">
         <f>打撃集計!B12</f>
         <v>反町</v>
@@ -4285,9 +4422,9 @@
         <v>1.00</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="27">
         <f>打撃集計!C13</f>
@@ -4418,9 +4555,9 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="27">
         <f>打撃集計!C14</f>
@@ -4551,9 +4688,9 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="27">
         <f>打撃集計!C15</f>
@@ -4684,9 +4821,9 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="27">
         <f>打撃集計!C16</f>
@@ -4817,9 +4954,9 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="27">
         <f>打撃集計!C17</f>
@@ -4950,7 +5087,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33">
       <c r="A18" t="str">
         <f>打撃集計!B18</f>
         <v>全体</v>
@@ -5094,11 +5231,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338593D3-E6D0-43B9-8C2C-B55EBBA3FF01}">
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -5119,9 +5256,9 @@
     <col min="34" max="35" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" s="22" customFormat="1" ht="15">
       <c r="A1" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -5196,7 +5333,7 @@
         <v>38</v>
       </c>
       <c r="Z1" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA1" s="22" t="s">
         <v>39</v>
@@ -5226,9 +5363,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -5366,9 +5503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -5506,9 +5643,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -5646,9 +5783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -5786,9 +5923,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -5926,9 +6063,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6066,9 +6203,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6206,9 +6343,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -6346,9 +6483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -6486,9 +6623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -6626,9 +6763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -6766,12 +6903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <f>COUNTIF(元データ!F:F,B13)</f>
@@ -6834,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R17" si="8">IFERROR(P13+Q13,"-")</f>
+        <f t="shared" ref="R13" si="8">IFERROR(P13+Q13,"-")</f>
         <v>0</v>
       </c>
       <c r="S13">
@@ -6906,12 +7043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14">
         <f>COUNTIF(元データ!F:F,B14)</f>
@@ -7046,12 +7183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15">
         <f>COUNTIF(元データ!F:F,B15)</f>
@@ -7186,12 +7323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16">
         <f>COUNTIF(元データ!F:F,B16)</f>
@@ -7326,12 +7463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17">
         <f>COUNTIF(元データ!F:F,B17)</f>
@@ -7466,12 +7603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35">
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18">
-        <f>COUNTA(元データ!A:A)-1</f>
+        <f>COUNTA(元データ!A:A)</f>
         <v>2</v>
       </c>
       <c r="D18">
@@ -7610,50 +7747,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23269E53-C5D2-4357-8D9A-B50AFBD8533B}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A33">_xlfn.VSTACK(
+_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""))</f>
+        <v>埼玉</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:I33">_xlfn.VSTACK(
+_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B2,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B3,""),
+_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B4,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B5,""),
+_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B6,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B7,""),
+_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B8,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B9,""),
+_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B10,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B11,""),
+_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B12,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B13,""),
+_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B14,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B15,""),
+_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B16,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B17,""))</f>
+        <v>安部滉</v>
+      </c>
+      <c r="C2" t="str">
+        <v>中飛</v>
+      </c>
+      <c r="D2" t="str">
+        <v>右飛</v>
+      </c>
+      <c r="E2" t="str">
+        <v>空振</v>
+      </c>
+      <c r="F2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H2" s="44" t="str">
+        <v>一</v>
+      </c>
+      <c r="I2" s="27" t="str">
+        <v>左</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B3" t="str">
+        <v>安部滉</v>
+      </c>
+      <c r="C3" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D3" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E3" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F3" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G3" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H3" s="27" t="str">
+        <v>左</v>
+      </c>
+      <c r="I3" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B4" t="str">
+        <v>中井</v>
+      </c>
+      <c r="C4" t="str">
+        <v>四球</v>
+      </c>
+      <c r="D4" t="str">
+        <v>遊ゴロ</v>
+      </c>
+      <c r="E4" t="str">
+        <v>空振</v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H4" s="27" t="str">
+        <v>右</v>
+      </c>
+      <c r="I4" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B5" t="str">
+        <v>中井</v>
+      </c>
+      <c r="C5" t="str">
+        <v>空振</v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H5" s="27" t="str">
+        <v>右</v>
+      </c>
+      <c r="I5" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B6" t="str">
+        <v>野場</v>
+      </c>
+      <c r="C6" t="str">
+        <v>三邪飛</v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="27" t="str">
+        <v>D</v>
+      </c>
+      <c r="I6" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B7" t="str">
+        <v>野場</v>
+      </c>
+      <c r="C7" t="str">
+        <v>一ゴロ</v>
+      </c>
+      <c r="D7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H7" s="27" t="str">
+        <v>一</v>
+      </c>
+      <c r="I7" s="27" t="str">
+        <v>二</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B8" t="str">
+        <v>池澤</v>
+      </c>
+      <c r="C8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D8" t="str">
+        <v>四球</v>
+      </c>
+      <c r="E8" t="str">
+        <v>右安</v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H8" s="27" t="str">
+        <v>D</v>
+      </c>
+      <c r="I8" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B9" t="str">
+        <v>池澤</v>
+      </c>
+      <c r="C9" t="str">
+        <v>二ゴロ</v>
+      </c>
+      <c r="D9" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E9" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F9" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G9" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H9" s="27" t="str">
+        <v>一</v>
+      </c>
+      <c r="I9" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B10" t="str">
+        <v>安部剛</v>
+      </c>
+      <c r="C10" t="str">
+        <v>中二</v>
+      </c>
+      <c r="D10" t="str">
+        <v>中安</v>
+      </c>
+      <c r="E10" t="str">
+        <v>中飛</v>
+      </c>
+      <c r="F10" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G10" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H10" s="27" t="str">
+        <v>二</v>
+      </c>
+      <c r="I10" s="27" t="str">
+        <v>一</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B11" t="str">
+        <v>安部剛</v>
+      </c>
+      <c r="C11" t="str">
+        <v>遊ゴロ</v>
+      </c>
+      <c r="D11" t="str">
+        <v>左安</v>
+      </c>
+      <c r="E11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H11" s="27" t="str">
+        <v>捕</v>
+      </c>
+      <c r="I11" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B12" t="str">
+        <v>大鐘</v>
+      </c>
+      <c r="C12" t="str">
+        <v>空振</v>
+      </c>
+      <c r="D12" t="str">
+        <v>空振</v>
+      </c>
+      <c r="E12" t="str">
+        <v>三直</v>
+      </c>
+      <c r="F12" t="str">
+        <v>一飛</v>
+      </c>
+      <c r="G12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H12" s="27" t="str">
+        <v>投</v>
+      </c>
+      <c r="I12" s="27" t="str">
+        <v>二</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B13" t="str">
+        <v>大鐘</v>
+      </c>
+      <c r="C13" t="str">
+        <v>遊失</v>
+      </c>
+      <c r="D13" t="str">
+        <v>中二</v>
+      </c>
+      <c r="E13" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F13" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G13" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H13" s="27" t="str">
+        <v>二</v>
+      </c>
+      <c r="I13" s="27" t="str">
+        <v>投</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B14" t="str">
+        <v>北久保</v>
+      </c>
+      <c r="C14" t="str">
+        <v>空振</v>
+      </c>
+      <c r="D14" t="str">
+        <v>一ゴロ</v>
+      </c>
+      <c r="E14" t="str">
+        <v>二失</v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G14" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H14" s="27" t="str">
+        <v>中</v>
+      </c>
+      <c r="I14" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B15" t="str">
+        <v>北久保</v>
+      </c>
+      <c r="C15" t="str">
+        <v>遊ゴロ</v>
+      </c>
+      <c r="D15" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E15" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F15" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G15" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H15" s="27" t="str">
+        <v>中</v>
+      </c>
+      <c r="I15" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B16" t="str">
+        <v>萩原</v>
+      </c>
+      <c r="C16" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D16" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E16" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F16" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G16" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H16" s="27" t="str">
+        <v>捕</v>
+      </c>
+      <c r="I16" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B17" t="str">
+        <v>萩原</v>
+      </c>
+      <c r="C17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H17" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I17" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B18" t="str">
+        <v>岩本</v>
+      </c>
+      <c r="C18" t="str">
+        <v>左安</v>
+      </c>
+      <c r="D18" t="str">
+        <v>逃振</v>
+      </c>
+      <c r="E18" t="str">
+        <v>逃振</v>
+      </c>
+      <c r="F18" t="str">
+        <v>一飛</v>
+      </c>
+      <c r="G18" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H18" s="27" t="str">
+        <v>三</v>
+      </c>
+      <c r="I18" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B19" t="str">
+        <v>岩本</v>
+      </c>
+      <c r="C19" t="str">
+        <v>左飛</v>
+      </c>
+      <c r="D19" t="str">
+        <v>四球</v>
+      </c>
+      <c r="E19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H19" s="27" t="str">
+        <v>三</v>
+      </c>
+      <c r="I19" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B20" t="str">
+        <v>上小城</v>
+      </c>
+      <c r="C20" t="str">
+        <v>空振</v>
+      </c>
+      <c r="D20" t="str">
+        <v>空振</v>
+      </c>
+      <c r="E20" t="str">
+        <v>右飛</v>
+      </c>
+      <c r="F20" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G20" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H20" s="27" t="str">
+        <v>左</v>
+      </c>
+      <c r="I20" s="27" t="str">
+        <v>投</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B21" t="str">
+        <v>上小城</v>
+      </c>
+      <c r="C21" t="str">
+        <v>投ゴロ</v>
+      </c>
+      <c r="D21" t="str">
+        <v>遊ゴロ</v>
+      </c>
+      <c r="E21" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F21" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G21" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H21" s="27" t="str">
+        <v>投</v>
+      </c>
+      <c r="I21" s="27" t="str">
+        <v>左</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B22" t="str">
+        <v>反町</v>
+      </c>
+      <c r="C22" t="str">
+        <v>中安</v>
+      </c>
+      <c r="D22" t="str">
+        <v>空振</v>
+      </c>
+      <c r="E22" t="str">
+        <v>空振</v>
+      </c>
+      <c r="F22" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G22" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H22" s="27" t="str">
+        <v>遊</v>
+      </c>
+      <c r="I22" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B23" t="str">
+        <v>反町</v>
+      </c>
+      <c r="C23" t="str">
+        <v>投ゴロ</v>
+      </c>
+      <c r="D23" t="str">
+        <v>四球</v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H23" s="27" t="str">
+        <v>遊</v>
+      </c>
+      <c r="I23" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B24" t="str">
+        <v>NAKAHATA</v>
+      </c>
+      <c r="C24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H24" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I24" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B25" t="str">
+        <v>NAKAHATA</v>
+      </c>
+      <c r="C25" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D25" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E25" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F25" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G25" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H25" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I25" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B26" t="str">
+        <v>HENRY</v>
+      </c>
+      <c r="C26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H26" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I26" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B27" t="str">
+        <v>HENRY</v>
+      </c>
+      <c r="C27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H27" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I27" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B28" t="str">
+        <v>加本</v>
+      </c>
+      <c r="C28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H28" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I28" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B29" t="str">
+        <v>加本</v>
+      </c>
+      <c r="C29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H29" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I29" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B30" t="str">
+        <v>佐伯</v>
+      </c>
+      <c r="C30" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D30" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E30" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F30" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G30" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H30" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I30" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B31" t="str">
+        <v>佐伯</v>
+      </c>
+      <c r="C31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H31" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I31" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B32" t="str">
+        <v>新畑</v>
+      </c>
+      <c r="C32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H32" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I32" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="str">
+        <v>埼玉</v>
+      </c>
+      <c r="B33" t="str">
+        <v>新畑</v>
+      </c>
+      <c r="C33" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D33" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E33" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F33" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G33" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H33" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I33" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="H1:J1048576">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BD2E08-B285-4F68-BFAA-75ADB82A704F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484639AE-A73C-4A7B-B294-73DC7233D1D8}">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="2" max="2" width="3.875" style="15"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="2.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="7.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="5.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.875" customWidth="1"/>
+    <col min="37" max="37" width="2.8125" style="41" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.875" style="41"/>
+    <col min="39" max="39" width="6.125" style="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:39" ht="24.4" thickBot="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -7689,22 +8849,22 @@
         <v>52</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="T1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>35</v>
@@ -7716,7 +8876,7 @@
         <v>10</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB1" s="8" t="s">
         <v>55</v>
@@ -7728,29 +8888,30 @@
         <v>19</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-    </row>
-    <row r="2" spans="1:38" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
-        <v>61</v>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+    </row>
+    <row r="2" spans="1:39" ht="19.5" customHeight="1" thickTop="1">
+      <c r="A2" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -7762,10 +8923,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G22" si="0">COUNTA(AF2:AJ2)</f>
+        <f t="shared" ref="G2:G27" si="0">COUNTA(AF2:AJ2)</f>
         <v>4</v>
       </c>
       <c r="H2">
@@ -7836,20 +8997,30 @@
         <v>大鐘</v>
       </c>
       <c r="AF2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
+        <v>88</v>
+      </c>
+      <c r="AK2" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL2" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM2" s="41" t="str" cm="1">
+        <f t="array" ref="AM2">_xlfn.IFS(E2=1,"投",E2=2,"捕",E2=3,"一",E2=4,"二",E2=5,"三",E2=6,"遊",E2=7,"左",E2=8,"中",E2=9,"右",E2="","",E2="D","D",E2="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="45"/>
       <c r="B3" s="15">
         <v>2</v>
       </c>
@@ -7857,7 +9028,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -7930,24 +9101,31 @@
         <v>1</v>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE22" si="13">F3</f>
+        <f t="shared" ref="AE3:AE27" si="13">F3</f>
         <v>岩本</v>
       </c>
       <c r="AF3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
+        <v>88</v>
+      </c>
+      <c r="AK3" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM3" s="41" t="str" cm="1">
+        <f t="array" ref="AM3">_xlfn.IFS(E3=1,"投",E3=2,"捕",E3=3,"一",E3=4,"二",E3=5,"三",E3=6,"遊",E3=7,"左",E3=8,"中",E3=9,"右",E3="","",E3="D","D",E3="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="45"/>
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -7955,7 +9133,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -8035,17 +9213,29 @@
         <v>反町</v>
       </c>
       <c r="AF4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
+        <v>81</v>
+      </c>
+      <c r="AK4" s="41" t="str" cm="1">
+        <f t="array" ref="AK4">_xlfn.IFS(C4=1,"投",C4=2,"捕",C4=3,"一",C4=4,"二",C4=5,"三",C4=6,"遊",C4=7,"左",C4=8,"中",C4=9,"右",C4="","",C4="D","D",C4="F","F")</f>
+        <v>遊</v>
+      </c>
+      <c r="AL4" s="41" t="str" cm="1">
+        <f t="array" ref="AL4">_xlfn.IFS(D4=1,"投",D4=2,"捕",D4=3,"一",D4=4,"二",D4=5,"三",D4=6,"遊",D4=7,"左",D4=8,"中",D4=9,"右",D4="","",D4="D","D",D4="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM4" s="41" t="str" cm="1">
+        <f t="array" ref="AM4">_xlfn.IFS(E4=1,"投",E4=2,"捕",E4=3,"一",E4=4,"二",E4=5,"三",E4=6,"遊",E4=7,"左",E4=8,"中",E4=9,"右",E4="","",E4="D","D",E4="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="45"/>
       <c r="B5" s="15">
         <v>4</v>
       </c>
@@ -8056,7 +9246,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -8136,17 +9326,29 @@
         <v>安部剛</v>
       </c>
       <c r="AF5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
+        <v>78</v>
+      </c>
+      <c r="AK5" s="41" t="str" cm="1">
+        <f t="array" ref="AK5">_xlfn.IFS(C5=1,"投",C5=2,"捕",C5=3,"一",C5=4,"二",C5=5,"三",C5=6,"遊",C5=7,"左",C5=8,"中",C5=9,"右",C5="","",C5="D","D",C5="F","F")</f>
+        <v>二</v>
+      </c>
+      <c r="AL5" s="41" t="str" cm="1">
+        <f t="array" ref="AL5">_xlfn.IFS(D5=1,"投",D5=2,"捕",D5=3,"一",D5=4,"二",D5=5,"三",D5=6,"遊",D5=7,"左",D5=8,"中",D5=9,"右",D5="","",D5="D","D",D5="F","F")</f>
+        <v>一</v>
+      </c>
+      <c r="AM5" s="41" t="str" cm="1">
+        <f t="array" ref="AM5">_xlfn.IFS(E5=1,"投",E5=2,"捕",E5=3,"一",E5=4,"二",E5=5,"三",E5=6,"遊",E5=7,"左",E5=8,"中",E5=9,"右",E5="","",E5="D","D",E5="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="45"/>
       <c r="B6" s="15">
         <v>5</v>
       </c>
@@ -8157,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -8231,17 +9433,29 @@
         <v>上小城</v>
       </c>
       <c r="AF6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
+        <v>84</v>
+      </c>
+      <c r="AK6" s="41" t="str" cm="1">
+        <f t="array" ref="AK6">_xlfn.IFS(C6=1,"投",C6=2,"捕",C6=3,"一",C6=4,"二",C6=5,"三",C6=6,"遊",C6=7,"左",C6=8,"中",C6=9,"右",C6="","",C6="D","D",C6="F","F")</f>
+        <v>左</v>
+      </c>
+      <c r="AL6" s="41" t="str" cm="1">
+        <f t="array" ref="AL6">_xlfn.IFS(D6=1,"投",D6=2,"捕",D6=3,"一",D6=4,"二",D6=5,"三",D6=6,"遊",D6=7,"左",D6=8,"中",D6=9,"右",D6="","",D6="D","D",D6="F","F")</f>
+        <v>投</v>
+      </c>
+      <c r="AM6" s="41" t="str" cm="1">
+        <f t="array" ref="AM6">_xlfn.IFS(E6=1,"投",E6=2,"捕",E6=3,"一",E6=4,"二",E6=5,"三",E6=6,"遊",E6=7,"左",E6=8,"中",E6=9,"右",E6="","",E6="D","D",E6="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="45"/>
       <c r="B7" s="15">
         <v>6</v>
       </c>
@@ -8249,7 +9463,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -8326,17 +9540,29 @@
         <v>北久保</v>
       </c>
       <c r="AF7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
+        <v>86</v>
+      </c>
+      <c r="AK7" s="41" t="str" cm="1">
+        <f t="array" ref="AK7">_xlfn.IFS(C7=1,"投",C7=2,"捕",C7=3,"一",C7=4,"二",C7=5,"三",C7=6,"遊",C7=7,"左",C7=8,"中",C7=9,"右",C7="","",C7="D","D",C7="F","F")</f>
+        <v>中</v>
+      </c>
+      <c r="AL7" s="41" t="str" cm="1">
+        <f t="array" ref="AL7">_xlfn.IFS(D7=1,"投",D7=2,"捕",D7=3,"一",D7=4,"二",D7=5,"三",D7=6,"遊",D7=7,"左",D7=8,"中",D7=9,"右",D7="","",D7="D","D",D7="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM7" s="41" t="str" cm="1">
+        <f t="array" ref="AM7">_xlfn.IFS(E7=1,"投",E7=2,"捕",E7=3,"一",E7=4,"二",E7=5,"三",E7=6,"遊",E7=7,"左",E7=8,"中",E7=9,"右",E7="","",E7="D","D",E7="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="45"/>
       <c r="B8" s="15">
         <v>7</v>
       </c>
@@ -8344,7 +9570,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -8421,17 +9647,29 @@
         <v>中井</v>
       </c>
       <c r="AF8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
+        <v>81</v>
+      </c>
+      <c r="AK8" s="41" t="str" cm="1">
+        <f t="array" ref="AK8">_xlfn.IFS(C8=1,"投",C8=2,"捕",C8=3,"一",C8=4,"二",C8=5,"三",C8=6,"遊",C8=7,"左",C8=8,"中",C8=9,"右",C8="","",C8="D","D",C8="F","F")</f>
+        <v>右</v>
+      </c>
+      <c r="AL8" s="41" t="str" cm="1">
+        <f t="array" ref="AL8">_xlfn.IFS(D8=1,"投",D8=2,"捕",D8=3,"一",D8=4,"二",D8=5,"三",D8=6,"遊",D8=7,"左",D8=8,"中",D8=9,"右",D8="","",D8="D","D",D8="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM8" s="41" t="str" cm="1">
+        <f t="array" ref="AM8">_xlfn.IFS(E8=1,"投",E8=2,"捕",E8=3,"一",E8=4,"二",E8=5,"三",E8=6,"遊",E8=7,"左",E8=8,"中",E8=9,"右",E8="","",E8="D","D",E8="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="45"/>
       <c r="B9" s="15">
         <v>8</v>
       </c>
@@ -8442,7 +9680,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -8516,25 +9754,37 @@
         <v>安部滉</v>
       </c>
       <c r="AF9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="43"/>
+        <v>81</v>
+      </c>
+      <c r="AK9" s="41" t="str" cm="1">
+        <f t="array" ref="AK9">_xlfn.IFS(C9=1,"投",C9=2,"捕",C9=3,"一",C9=4,"二",C9=5,"三",C9=6,"遊",C9=7,"左",C9=8,"中",C9=9,"右",C9="","",C9="D","D",C9="F","F")</f>
+        <v>一</v>
+      </c>
+      <c r="AL9" s="41" t="str" cm="1">
+        <f t="array" ref="AL9">_xlfn.IFS(D9=1,"投",D9=2,"捕",D9=3,"一",D9=4,"二",D9=5,"三",D9=6,"遊",D9=7,"左",D9=8,"中",D9=9,"右",D9="","",D9="D","D",D9="F","F")</f>
+        <v>左</v>
+      </c>
+      <c r="AM9" s="41" t="str" cm="1">
+        <f t="array" ref="AM9">_xlfn.IFS(E9=1,"投",E9=2,"捕",E9=3,"一",E9=4,"二",E9=5,"三",E9=6,"遊",E9=7,"左",E9=8,"中",E9=9,"右",E9="","",E9="D","D",E9="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="45"/>
       <c r="B10" s="15">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -8602,16 +9852,28 @@
         <v>野場</v>
       </c>
       <c r="AF10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A11" s="43"/>
+        <v>79</v>
+      </c>
+      <c r="AK10" s="41" t="str" cm="1">
+        <f t="array" ref="AK10">_xlfn.IFS(C10=1,"投",C10=2,"捕",C10=3,"一",C10=4,"二",C10=5,"三",C10=6,"遊",C10=7,"左",C10=8,"中",C10=9,"右",C10="","",C10="D","D",C10="F","F")</f>
+        <v>D</v>
+      </c>
+      <c r="AL10" s="41" t="str" cm="1">
+        <f t="array" ref="AL10">_xlfn.IFS(D10=1,"投",D10=2,"捕",D10=3,"一",D10=4,"二",D10=5,"三",D10=6,"遊",D10=7,"左",D10=8,"中",D10=9,"右",D10="","",D10="D","D",D10="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM10" s="41" t="str" cm="1">
+        <f t="array" ref="AM10">_xlfn.IFS(E10=1,"投",E10=2,"捕",E10=3,"一",E10=4,"二",E10=5,"三",E10=6,"遊",E10=7,"左",E10=8,"中",E10=9,"右",E10="","",E10="D","D",E10="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="45"/>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -8685,22 +9947,34 @@
         <v>池澤</v>
       </c>
       <c r="AG11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
+        <v>87</v>
+      </c>
+      <c r="AK11" s="41" t="str" cm="1">
+        <f t="array" ref="AK11">_xlfn.IFS(C11=1,"投",C11=2,"捕",C11=3,"一",C11=4,"二",C11=5,"三",C11=6,"遊",C11=7,"左",C11=8,"中",C11=9,"右",C11="","",C11="D","D",C11="F","F")</f>
+        <v>D</v>
+      </c>
+      <c r="AL11" s="41" t="str" cm="1">
+        <f t="array" ref="AL11">_xlfn.IFS(D11=1,"投",D11=2,"捕",D11=3,"一",D11=4,"二",D11=5,"三",D11=6,"遊",D11=7,"左",D11=8,"中",D11=9,"右",D11="","",D11="D","D",D11="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM11" s="41" t="str" cm="1">
+        <f t="array" ref="AM11">_xlfn.IFS(E11=1,"投",E11=2,"捕",E11=3,"一",E11=4,"二",E11=5,"三",E11=6,"遊",E11=7,"左",E11=8,"中",E11=9,"右",E11="","",E11="D","D",E11="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="45"/>
       <c r="B12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -8764,852 +10038,1195 @@
         <f t="shared" si="13"/>
         <v>萩原</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43" t="s">
+      <c r="AK12" s="41" t="str" cm="1">
+        <f t="array" ref="AK12">_xlfn.IFS(C12=1,"投",C12=2,"捕",C12=3,"一",C12=4,"二",C12=5,"三",C12=6,"遊",C12=7,"左",C12=8,"中",C12=9,"右",C12="","",C12="D","D",C12="F","F")</f>
+        <v>捕</v>
+      </c>
+      <c r="AL12" s="41" t="str" cm="1">
+        <f t="array" ref="AL12">_xlfn.IFS(D12=1,"投",D12=2,"捕",D12=3,"一",D12=4,"二",D12=5,"三",D12=6,"遊",D12=7,"左",D12=8,"中",D12=9,"右",D12="","",D12="D","D",D12="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM12" s="41" t="str" cm="1">
+        <f t="array" ref="AM12">_xlfn.IFS(E12=1,"投",E12=2,"捕",E12=3,"一",E12=4,"二",E12=5,"三",E12=6,"遊",E12=7,"左",E12=8,"中",E12=9,"右",E12="","",E12="D","D",E12="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:39" hidden="1">
+      <c r="A13" s="45"/>
+      <c r="F13" s="23"/>
+      <c r="AE13" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK13" s="41" t="str" cm="1">
+        <f t="array" ref="AK13">_xlfn.IFS(C13=1,"投",C13=2,"捕",C13=3,"一",C13=4,"二",C13=5,"三",C13=6,"遊",C13=7,"左",C13=8,"中",C13=9,"右",C13="","",C13="D","D",C13="F","F")</f>
+        <v/>
+      </c>
+      <c r="AL13" s="41" t="str" cm="1">
+        <f t="array" ref="AL13">_xlfn.IFS(D13=1,"投",D13=2,"捕",D13=3,"一",D13=4,"二",D13=5,"三",D13=6,"遊",D13=7,"左",D13=8,"中",D13=9,"右",D13="","",D13="D","D",D13="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM13" s="41" t="str" cm="1">
+        <f t="array" ref="AM13">_xlfn.IFS(E13=1,"投",E13=2,"捕",E13=3,"一",E13=4,"二",E13=5,"三",E13=6,"遊",E13=7,"左",E13=8,"中",E13=9,"右",E13="","",E13="D","D",E13="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:39" hidden="1">
+      <c r="A14" s="45"/>
+      <c r="F14" s="23"/>
+      <c r="AE14" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK14" s="41" t="str" cm="1">
+        <f t="array" ref="AK14">_xlfn.IFS(C14=1,"投",C14=2,"捕",C14=3,"一",C14=4,"二",C14=5,"三",C14=6,"遊",C14=7,"左",C14=8,"中",C14=9,"右",C14="","",C14="D","D",C14="F","F")</f>
+        <v/>
+      </c>
+      <c r="AL14" s="41" t="str" cm="1">
+        <f t="array" ref="AL14">_xlfn.IFS(D14=1,"投",D14=2,"捕",D14=3,"一",D14=4,"二",D14=5,"三",D14=6,"遊",D14=7,"左",D14=8,"中",D14=9,"右",D14="","",D14="D","D",D14="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM14" s="41" t="str" cm="1">
+        <f t="array" ref="AM14">_xlfn.IFS(E14=1,"投",E14=2,"捕",E14=3,"一",E14=4,"二",E14=5,"三",E14=6,"遊",E14=7,"左",E14=8,"中",E14=9,"右",E14="","",E14="D","D",E14="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:39" hidden="1">
+      <c r="A15" s="45"/>
+      <c r="F15" s="23"/>
+      <c r="AE15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK15" s="41" t="str" cm="1">
+        <f t="array" ref="AK15">_xlfn.IFS(C15=1,"投",C15=2,"捕",C15=3,"一",C15=4,"二",C15=5,"三",C15=6,"遊",C15=7,"左",C15=8,"中",C15=9,"右",C15="","",C15="D","D",C15="F","F")</f>
+        <v/>
+      </c>
+      <c r="AL15" s="41" t="str" cm="1">
+        <f t="array" ref="AL15">_xlfn.IFS(D15=1,"投",D15=2,"捕",D15=3,"一",D15=4,"二",D15=5,"三",D15=6,"遊",D15=7,"左",D15=8,"中",D15=9,"右",D15="","",D15="D","D",D15="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM15" s="41" t="str" cm="1">
+        <f t="array" ref="AM15">_xlfn.IFS(E15=1,"投",E15=2,"捕",E15=3,"一",E15=4,"二",E15=5,"三",E15=6,"遊",E15=7,"左",E15=8,"中",E15=9,"右",E15="","",E15="D","D",E15="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:39" hidden="1">
+      <c r="A16" s="45"/>
+      <c r="F16" s="23"/>
+      <c r="AE16" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK16" s="41" t="str" cm="1">
+        <f t="array" ref="AK16">_xlfn.IFS(C16=1,"投",C16=2,"捕",C16=3,"一",C16=4,"二",C16=5,"三",C16=6,"遊",C16=7,"左",C16=8,"中",C16=9,"右",C16="","",C16="D","D",C16="F","F")</f>
+        <v/>
+      </c>
+      <c r="AL16" s="41" t="str" cm="1">
+        <f t="array" ref="AL16">_xlfn.IFS(D16=1,"投",D16=2,"捕",D16=3,"一",D16=4,"二",D16=5,"三",D16=6,"遊",D16=7,"左",D16=8,"中",D16=9,"右",D16="","",D16="D","D",D16="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM16" s="41" t="str" cm="1">
+        <f t="array" ref="AM16">_xlfn.IFS(E16=1,"投",E16=2,"捕",E16=3,"一",E16=4,"二",E16=5,"三",E16=6,"遊",E16=7,"左",E16=8,"中",E16=9,"右",E16="","",E16="D","D",E16="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:39" hidden="1">
+      <c r="A17" s="45"/>
+      <c r="F17" s="23"/>
+      <c r="AE17" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK17" s="41" t="str" cm="1">
+        <f t="array" ref="AK17">_xlfn.IFS(C17=1,"投",C17=2,"捕",C17=3,"一",C17=4,"二",C17=5,"三",C17=6,"遊",C17=7,"左",C17=8,"中",C17=9,"右",C17="","",C17="D","D",C17="F","F")</f>
+        <v/>
+      </c>
+      <c r="AL17" s="41" t="str" cm="1">
+        <f t="array" ref="AL17">_xlfn.IFS(D17=1,"投",D17=2,"捕",D17=3,"一",D17=4,"二",D17=5,"三",D17=6,"遊",D17=7,"左",D17=8,"中",D17=9,"右",D17="","",D17="D","D",D17="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM17" s="41" t="str" cm="1">
+        <f t="array" ref="AM17">_xlfn.IFS(E17=1,"投",E17=2,"捕",E17=3,"一",E17=4,"二",E17=5,"三",E17=6,"遊",E17=7,"左",E17=8,"中",E17=9,"右",E17="","",E17="D","D",E17="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:39" s="17" customFormat="1">
+      <c r="A18" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17">
+        <v>4</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="16">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17">
-        <v>4</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="17">
+      <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H13" s="17">
-        <f t="shared" ref="H13:H22" si="14">G13-N13-O13-Z13</f>
-        <v>2</v>
-      </c>
-      <c r="I13" s="17">
-        <f>SUM(J13:M13)</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="17">
-        <f>COUNTIF(AF13:AJ13, "*安*")</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
-        <f>COUNTIF(AF13:AJ13, "*二")</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="17">
-        <f>COUNTIF(AF13:AJ13, "*三")</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="17">
-        <f>COUNTIF(AF13:AJ13, "*本")</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
-        <f>COUNTIF(AF13:AJ13, "四球")</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="17">
-        <f>COUNTIF(AF13:AJ13, "死球")</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="17">
-        <v>1</v>
-      </c>
-      <c r="S13" s="17">
-        <v>1</v>
-      </c>
-      <c r="U13" s="17">
-        <v>1</v>
-      </c>
-      <c r="V13" s="17">
-        <v>1</v>
-      </c>
-      <c r="W13" s="17">
+      <c r="H18" s="17">
+        <f t="shared" ref="H18:H27" si="14">G18-N18-O18-Z18</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="17">
+        <f>SUM(J18:M18)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <f>COUNTIF(AF18:AJ18, "*安*")</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f>COUNTIF(AF18:AJ18, "*二")</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="17">
+        <f>COUNTIF(AF18:AJ18, "*三")</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <f>COUNTIF(AF18:AJ18, "*本")</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <f>COUNTIF(AF18:AJ18, "四球")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="17">
+        <f>COUNTIF(AF18:AJ18, "死球")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
+        <v>1</v>
+      </c>
+      <c r="S18" s="17">
+        <v>1</v>
+      </c>
+      <c r="U18" s="17">
+        <v>1</v>
+      </c>
+      <c r="V18" s="17">
+        <v>1</v>
+      </c>
+      <c r="W18" s="17">
         <v>3</v>
       </c>
-      <c r="X13" s="17">
-        <f>COUNTIF(AF13:AJ13, "*失*")</f>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="17">
-        <f>COUNTIF(AF13:AJ13, "*振*")</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="17">
-        <f>COUNTIF(AF13:AJ13, "*犠*")</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="17">
-        <f>COUNTIF(AF13:AJ13, "*併*")</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="17" t="str">
+      <c r="X18" s="17">
+        <f>COUNTIF(AF18:AJ18, "*失*")</f>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="17">
+        <f>COUNTIF(AF18:AJ18, "*振*")</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="17">
+        <f>COUNTIF(AF18:AJ18, "*犠*")</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="17">
+        <f>COUNTIF(AF18:AJ18, "*併*")</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="17" t="str">
         <f t="shared" si="13"/>
         <v>大鐘</v>
       </c>
-      <c r="AF13" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG13" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="43"/>
-      <c r="B14" s="15">
-        <v>2</v>
-      </c>
-      <c r="C14">
+      <c r="AF18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK18" s="43" t="str" cm="1">
+        <f t="array" ref="AK18">_xlfn.IFS(C18=1,"投",C18=2,"捕",C18=3,"一",C18=4,"二",C18=5,"三",C18=6,"遊",C18=7,"左",C18=8,"中",C18=9,"右",C18="","",C18="D","D",C18="F","F")</f>
+        <v>二</v>
+      </c>
+      <c r="AL18" s="43" t="str" cm="1">
+        <f t="array" ref="AL18">_xlfn.IFS(D18=1,"投",D18=2,"捕",D18=3,"一",D18=4,"二",D18=5,"三",D18=6,"遊",D18=7,"左",D18=8,"中",D18=9,"右",D18="","",D18="D","D",D18="F","F")</f>
+        <v>投</v>
+      </c>
+      <c r="AM18" s="43" t="str" cm="1">
+        <f t="array" ref="AM18">_xlfn.IFS(E18=1,"投",E18=2,"捕",E18=3,"一",E18=4,"二",E18=5,"三",E18=6,"遊",E18=7,"左",E18=8,"中",E18=9,"右",E18="","",E18="D","D",E18="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" s="45"/>
+      <c r="B19" s="15">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14">
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H19">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I14">
-        <f t="shared" ref="I14:I22" si="15">SUM(J14:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J22" si="16">COUNTIF(AF14:AJ14, "*安*")</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K22" si="17">COUNTIF(AF14:AJ14, "*二")</f>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14:L22" si="18">COUNTIF(AF14:AJ14, "*三")</f>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14:M22" si="19">COUNTIF(AF14:AJ14, "*本")</f>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ref="N14:N22" si="20">COUNTIF(AF14:AJ14, "四球")</f>
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O22" si="21">COUNTIF(AF14:AJ14, "死球")</f>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="W14">
+      <c r="I19">
+        <f t="shared" ref="I19:I27" si="15">SUM(J19:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J27" si="16">COUNTIF(AF19:AJ19, "*安*")</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K27" si="17">COUNTIF(AF19:AJ19, "*二")</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L27" si="18">COUNTIF(AF19:AJ19, "*三")</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M27" si="19">COUNTIF(AF19:AJ19, "*本")</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N27" si="20">COUNTIF(AF19:AJ19, "四球")</f>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O27" si="21">COUNTIF(AF19:AJ19, "死球")</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="W19">
         <v>6</v>
       </c>
-      <c r="X14">
-        <f t="shared" ref="X14:X22" si="22">COUNTIF(AF14:AJ14, "*失*")</f>
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" ref="Y14:Y22" si="23">COUNTIF(AF14:AJ14, "*振*")</f>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" ref="Z14:Z22" si="24">COUNTIF(AF14:AJ14, "*犠*")</f>
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" ref="AA14:AA22" si="25">COUNTIF(AF14:AJ14, "*併*")</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" t="str">
+      <c r="X19">
+        <f t="shared" ref="X19:X27" si="22">COUNTIF(AF19:AJ19, "*失*")</f>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19:Y27" si="23">COUNTIF(AF19:AJ19, "*振*")</f>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ref="Z19:Z27" si="24">COUNTIF(AF19:AJ19, "*犠*")</f>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ref="AA19:AA27" si="25">COUNTIF(AF19:AJ19, "*併*")</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" t="str">
         <f t="shared" si="13"/>
         <v>岩本</v>
       </c>
-      <c r="AF14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
-      <c r="B15" s="15">
+      <c r="AF19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK19" s="41" t="str" cm="1">
+        <f t="array" ref="AK19">_xlfn.IFS(C19=1,"投",C19=2,"捕",C19=3,"一",C19=4,"二",C19=5,"三",C19=6,"遊",C19=7,"左",C19=8,"中",C19=9,"右",C19="","",C19="D","D",C19="F","F")</f>
+        <v>三</v>
+      </c>
+      <c r="AL19" s="41" t="str" cm="1">
+        <f t="array" ref="AL19">_xlfn.IFS(D19=1,"投",D19=2,"捕",D19=3,"一",D19=4,"二",D19=5,"三",D19=6,"遊",D19=7,"左",D19=8,"中",D19=9,"右",D19="","",D19="D","D",D19="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM19" s="41" t="str" cm="1">
+        <f t="array" ref="AM19">_xlfn.IFS(E19=1,"投",E19=2,"捕",E19=3,"一",E19=4,"二",E19=5,"三",E19=6,"遊",E19=7,"左",E19=8,"中",E19=9,"右",E19="","",E19="D","D",E19="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" s="45"/>
+      <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15">
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="H20">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="I20">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M20">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="N20">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="O20">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="W15">
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="W20">
         <v>7</v>
       </c>
-      <c r="X15">
+      <c r="X20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="Y20">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z15">
+      <c r="Z20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="AA20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC15">
+      <c r="AC20">
         <v>3</v>
       </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="str">
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="str">
         <f t="shared" si="13"/>
         <v>反町</v>
       </c>
-      <c r="AF15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
-      <c r="B16" s="15">
+      <c r="AF20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK20" s="41" t="str" cm="1">
+        <f t="array" ref="AK20">_xlfn.IFS(C20=1,"投",C20=2,"捕",C20=3,"一",C20=4,"二",C20=5,"三",C20=6,"遊",C20=7,"左",C20=8,"中",C20=9,"右",C20="","",C20="D","D",C20="F","F")</f>
+        <v>遊</v>
+      </c>
+      <c r="AL20" s="41" t="str" cm="1">
+        <f t="array" ref="AL20">_xlfn.IFS(D20=1,"投",D20=2,"捕",D20=3,"一",D20=4,"二",D20=5,"三",D20=6,"遊",D20=7,"左",D20=8,"中",D20=9,"右",D20="","",D20="D","D",D20="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM20" s="41" t="str" cm="1">
+        <f t="array" ref="AM20">_xlfn.IFS(E20=1,"投",E20=2,"捕",E20=3,"一",E20=4,"二",E20=5,"三",E20=6,"遊",E20=7,"左",E20=8,"中",E20=9,"右",E20="","",E20="D","D",E20="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="45"/>
+      <c r="B21" s="15">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H16">
+      <c r="H21">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="I21">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J21">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="K21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L16">
+      <c r="L21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N21">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="O21">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
         <v>3</v>
       </c>
-      <c r="W16">
+      <c r="W21">
         <v>3</v>
       </c>
-      <c r="X16">
+      <c r="X21">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="Y21">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z16">
+      <c r="Z21">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA16">
+      <c r="AA21">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="str">
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="str">
         <f t="shared" si="13"/>
         <v>安部剛</v>
       </c>
-      <c r="AF16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="15">
+      <c r="AF21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK21" s="41" t="str" cm="1">
+        <f t="array" ref="AK21">_xlfn.IFS(C21=1,"投",C21=2,"捕",C21=3,"一",C21=4,"二",C21=5,"三",C21=6,"遊",C21=7,"左",C21=8,"中",C21=9,"右",C21="","",C21="D","D",C21="F","F")</f>
+        <v>捕</v>
+      </c>
+      <c r="AL21" s="41" t="str" cm="1">
+        <f t="array" ref="AL21">_xlfn.IFS(D21=1,"投",D21=2,"捕",D21=3,"一",D21=4,"二",D21=5,"三",D21=6,"遊",D21=7,"左",D21=8,"中",D21=9,"右",D21="","",D21="D","D",D21="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM21" s="41" t="str" cm="1">
+        <f t="array" ref="AM21">_xlfn.IFS(E21=1,"投",E21=2,"捕",E21=3,"一",E21=4,"二",E21=5,"三",E21=6,"遊",E21=7,"左",E21=8,"中",E21=9,"右",E21="","",E21="D","D",E21="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" s="45"/>
+      <c r="B22" s="15">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>7</v>
       </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17">
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H17">
+      <c r="H22">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="I17">
+      <c r="I22">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J22">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K22">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L22">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M22">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N22">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="O22">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
         <v>3</v>
       </c>
-      <c r="X17">
+      <c r="X22">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="Y22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z17">
+      <c r="Z22">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA17">
+      <c r="AA22">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="str">
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="str">
         <f t="shared" si="13"/>
         <v>上小城</v>
       </c>
-      <c r="AF17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="15">
+      <c r="AF22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK22" s="41" t="str" cm="1">
+        <f t="array" ref="AK22">_xlfn.IFS(C22=1,"投",C22=2,"捕",C22=3,"一",C22=4,"二",C22=5,"三",C22=6,"遊",C22=7,"左",C22=8,"中",C22=9,"右",C22="","",C22="D","D",C22="F","F")</f>
+        <v>投</v>
+      </c>
+      <c r="AL22" s="41" t="str" cm="1">
+        <f t="array" ref="AL22">_xlfn.IFS(D22=1,"投",D22=2,"捕",D22=3,"一",D22=4,"二",D22=5,"三",D22=6,"遊",D22=7,"左",D22=8,"中",D22=9,"右",D22="","",D22="D","D",D22="F","F")</f>
+        <v>左</v>
+      </c>
+      <c r="AM22" s="41" t="str" cm="1">
+        <f t="array" ref="AM22">_xlfn.IFS(E22=1,"投",E22=2,"捕",E22=3,"一",E22=4,"二",E22=5,"三",E22=6,"遊",E22=7,"左",E22=8,"中",E22=9,"右",E22="","",E22="D","D",E22="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" s="45"/>
+      <c r="B23" s="15">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="C23">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18">
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H23">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="I23">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="J23">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="K23">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L23">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="M23">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="N23">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="O23">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="Y23">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z18">
+      <c r="Z23">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA18">
+      <c r="AA23">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>1</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="str">
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="str">
         <f t="shared" si="13"/>
         <v>北久保</v>
       </c>
-      <c r="AF18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A19" s="43"/>
-      <c r="B19" s="15">
+      <c r="AF23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK23" s="41" t="str" cm="1">
+        <f t="array" ref="AK23">_xlfn.IFS(C23=1,"投",C23=2,"捕",C23=3,"一",C23=4,"二",C23=5,"三",C23=6,"遊",C23=7,"左",C23=8,"中",C23=9,"右",C23="","",C23="D","D",C23="F","F")</f>
+        <v>中</v>
+      </c>
+      <c r="AL23" s="41" t="str" cm="1">
+        <f t="array" ref="AL23">_xlfn.IFS(D23=1,"投",D23=2,"捕",D23=3,"一",D23=4,"二",D23=5,"三",D23=6,"遊",D23=7,"左",D23=8,"中",D23=9,"右",D23="","",D23="D","D",D23="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM23" s="41" t="str" cm="1">
+        <f t="array" ref="AM23">_xlfn.IFS(E23=1,"投",E23=2,"捕",E23=3,"一",E23=4,"二",E23=5,"三",E23=6,"遊",E23=7,"左",E23=8,"中",E23=9,"右",E23="","",E23="D","D",E23="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="45"/>
+      <c r="B24" s="15">
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19">
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H24">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I19">
+      <c r="I24">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="J24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="K24">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L24">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M24">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="N24">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="O24">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19">
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y19">
+      <c r="Y24">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="Z19">
+      <c r="Z24">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA19">
+      <c r="AA24">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AE19" t="str">
+      <c r="AE24" t="str">
         <f t="shared" si="13"/>
         <v>中井</v>
       </c>
-      <c r="AF19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="15">
+      <c r="AF24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK24" s="41" t="str" cm="1">
+        <f t="array" ref="AK24">_xlfn.IFS(C24=1,"投",C24=2,"捕",C24=3,"一",C24=4,"二",C24=5,"三",C24=6,"遊",C24=7,"左",C24=8,"中",C24=9,"右",C24="","",C24="D","D",C24="F","F")</f>
+        <v>右</v>
+      </c>
+      <c r="AL24" s="41" t="str" cm="1">
+        <f t="array" ref="AL24">_xlfn.IFS(D24=1,"投",D24=2,"捕",D24=3,"一",D24=4,"二",D24=5,"三",D24=6,"遊",D24=7,"左",D24=8,"中",D24=9,"右",D24="","",D24="D","D",D24="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM24" s="41" t="str" cm="1">
+        <f t="array" ref="AM24">_xlfn.IFS(E24=1,"投",E24=2,"捕",E24=3,"一",E24=4,"二",E24=5,"三",E24=6,"遊",E24=7,"左",E24=8,"中",E24=9,"右",E24="","",E24="D","D",E24="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="45"/>
+      <c r="B25" s="15">
         <v>8</v>
       </c>
-      <c r="C20">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20">
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I25">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J25">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="K25">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L25">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M25">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="N25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="O25">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X20">
+      <c r="X25">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="Y25">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="Z25">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA20">
+      <c r="AA25">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AE20" t="str">
+      <c r="AE25" t="str">
         <f t="shared" si="13"/>
         <v>安部滉</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
-      <c r="C21">
+      <c r="AK25" s="41" t="str" cm="1">
+        <f t="array" ref="AK25">_xlfn.IFS(C25=1,"投",C25=2,"捕",C25=3,"一",C25=4,"二",C25=5,"三",C25=6,"遊",C25=7,"左",C25=8,"中",C25=9,"右",C25="","",C25="D","D",C25="F","F")</f>
+        <v>左</v>
+      </c>
+      <c r="AL25" s="41" t="str" cm="1">
+        <f t="array" ref="AL25">_xlfn.IFS(D25=1,"投",D25=2,"捕",D25=3,"一",D25=4,"二",D25=5,"三",D25=6,"遊",D25=7,"左",D25=8,"中",D25=9,"右",D25="","",D25="D","D",D25="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM25" s="41" t="str" cm="1">
+        <f t="array" ref="AM25">_xlfn.IFS(E25=1,"投",E25=2,"捕",E25=3,"一",E25=4,"二",E25=5,"三",E25=6,"遊",E25=7,"左",E25=8,"中",E25=9,"右",E25="","",E25="D","D",E25="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="45"/>
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21">
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="H26">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="I26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="J26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="K26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L21">
+      <c r="L26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M26">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="N26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="O26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X21">
+      <c r="X26">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="Y26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z21">
+      <c r="Z26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA21">
+      <c r="AA26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC21">
-        <v>2</v>
-      </c>
-      <c r="AE21" t="str">
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AE26" t="str">
         <f t="shared" si="13"/>
         <v>池澤</v>
       </c>
-      <c r="AF21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="15">
+      <c r="AF26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK26" s="41" t="str" cm="1">
+        <f t="array" ref="AK26">_xlfn.IFS(C26=1,"投",C26=2,"捕",C26=3,"一",C26=4,"二",C26=5,"三",C26=6,"遊",C26=7,"左",C26=8,"中",C26=9,"右",C26="","",C26="D","D",C26="F","F")</f>
+        <v>一</v>
+      </c>
+      <c r="AL26" s="41" t="str" cm="1">
+        <f t="array" ref="AL26">_xlfn.IFS(D26=1,"投",D26=2,"捕",D26=3,"一",D26=4,"二",D26=5,"三",D26=6,"遊",D26=7,"左",D26=8,"中",D26=9,"右",D26="","",D26="D","D",D26="F","F")</f>
+        <v/>
+      </c>
+      <c r="AM26" s="41" t="str" cm="1">
+        <f t="array" ref="AM26">_xlfn.IFS(E26=1,"投",E26=2,"捕",E26=3,"一",E26=4,"二",E26=5,"三",E26=6,"遊",E26=7,"左",E26=8,"中",E26=9,"右",E26="","",E26="D","D",E26="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" s="45"/>
+      <c r="B27" s="15">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22">
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="H27">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="I27">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J27">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="K27">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L27">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M27">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="N27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="O27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y27">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="Z27">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA22">
+      <c r="AA27">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AD22">
-        <v>2</v>
-      </c>
-      <c r="AE22" t="str">
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27" t="str">
         <f t="shared" si="13"/>
         <v>野場</v>
       </c>
-      <c r="AF22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
+      <c r="AF27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK27" s="41" t="str" cm="1">
+        <f t="array" ref="AK27">_xlfn.IFS(C27=1,"投",C27=2,"捕",C27=3,"一",C27=4,"二",C27=5,"三",C27=6,"遊",C27=7,"左",C27=8,"中",C27=9,"右",C27="","",C27="D","D",C27="F","F")</f>
+        <v>一</v>
+      </c>
+      <c r="AL27" s="41" t="str" cm="1">
+        <f t="array" ref="AL27">_xlfn.IFS(D27=1,"投",D27=2,"捕",D27=3,"一",D27=4,"二",D27=5,"三",D27=6,"遊",D27=7,"左",D27=8,"中",D27=9,"右",D27="","",D27="D","D",D27="F","F")</f>
+        <v>二</v>
+      </c>
+      <c r="AM27" s="41" t="str" cm="1">
+        <f t="array" ref="AM27">_xlfn.IFS(E27=1,"投",E27=2,"捕",E27=3,"一",E27=4,"二",E27=5,"三",E27=6,"遊",E27=7,"左",E27=8,"中",E27=9,"右",E27="","",E27="D","D",E27="F","F")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:39" hidden="1">
+      <c r="A28" s="45"/>
+      <c r="AE28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK28" s="41" t="str" cm="1">
+        <f t="array" ref="AK28">_xlfn.IFS(C28=1,"投",C28=2,"捕",C28=3,"一",C28=4,"二",C28=5,"三",C28=6,"遊",C28=7,"左",C28=8,"中",C28=9,"右",C28="","")</f>
+        <v/>
+      </c>
+      <c r="AL28" s="41" t="str" cm="1">
+        <f t="array" ref="AL28">_xlfn.IFS(D28=1,"投",D28=2,"捕",D28=3,"一",D28=4,"二",D28=5,"三",D28=6,"遊",D28=7,"左",D28=8,"中",D28=9,"右",D28="","")</f>
+        <v/>
+      </c>
+      <c r="AM28" s="41" t="str" cm="1">
+        <f t="array" ref="AM28">_xlfn.IFS(E28=1,"投",E28=2,"捕",E28=3,"一",E28=4,"二",E28=5,"三",E28=6,"遊",E28=7,"左",E28=8,"中",E28=9,"右",E28="","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:39" hidden="1">
+      <c r="A29" s="45"/>
+      <c r="F29" s="23"/>
+      <c r="AE29" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK29" s="41" t="str" cm="1">
+        <f t="array" ref="AK29">_xlfn.IFS(C29=1,"投",C29=2,"捕",C29=3,"一",C29=4,"二",C29=5,"三",C29=6,"遊",C29=7,"左",C29=8,"中",C29=9,"右",C29="","")</f>
+        <v/>
+      </c>
+      <c r="AL29" s="41" t="str" cm="1">
+        <f t="array" ref="AL29">_xlfn.IFS(D29=1,"投",D29=2,"捕",D29=3,"一",D29=4,"二",D29=5,"三",D29=6,"遊",D29=7,"左",D29=8,"中",D29=9,"右",D29="","")</f>
+        <v/>
+      </c>
+      <c r="AM29" s="41" t="str" cm="1">
+        <f t="array" ref="AM29">_xlfn.IFS(E29=1,"投",E29=2,"捕",E29=3,"一",E29=4,"二",E29=5,"三",E29=6,"遊",E29=7,"左",E29=8,"中",E29=9,"右",E29="","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:39" hidden="1">
+      <c r="A30" s="45"/>
+      <c r="F30" s="23"/>
+      <c r="AE30" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK30" s="41" t="str" cm="1">
+        <f t="array" ref="AK30">_xlfn.IFS(C30=1,"投",C30=2,"捕",C30=3,"一",C30=4,"二",C30=5,"三",C30=6,"遊",C30=7,"左",C30=8,"中",C30=9,"右",C30="","")</f>
+        <v/>
+      </c>
+      <c r="AL30" s="41" t="str" cm="1">
+        <f t="array" ref="AL30">_xlfn.IFS(D30=1,"投",D30=2,"捕",D30=3,"一",D30=4,"二",D30=5,"三",D30=6,"遊",D30=7,"左",D30=8,"中",D30=9,"右",D30="","")</f>
+        <v/>
+      </c>
+      <c r="AM30" s="41" t="str" cm="1">
+        <f t="array" ref="AM30">_xlfn.IFS(E30=1,"投",E30=2,"捕",E30=3,"一",E30=4,"二",E30=5,"三",E30=6,"遊",E30=7,"左",E30=8,"中",E30=9,"右",E30="","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:39" hidden="1">
+      <c r="A31" s="45"/>
+      <c r="F31" s="23"/>
+      <c r="AE31" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK31" s="41" t="str" cm="1">
+        <f t="array" ref="AK31">_xlfn.IFS(C31=1,"投",C31=2,"捕",C31=3,"一",C31=4,"二",C31=5,"三",C31=6,"遊",C31=7,"左",C31=8,"中",C31=9,"右",C31="","")</f>
+        <v/>
+      </c>
+      <c r="AL31" s="41" t="str" cm="1">
+        <f t="array" ref="AL31">_xlfn.IFS(D31=1,"投",D31=2,"捕",D31=3,"一",D31=4,"二",D31=5,"三",D31=6,"遊",D31=7,"左",D31=8,"中",D31=9,"右",D31="","")</f>
+        <v/>
+      </c>
+      <c r="AM31" s="41" t="str" cm="1">
+        <f t="array" ref="AM31">_xlfn.IFS(E31=1,"投",E31=2,"捕",E31=3,"一",E31=4,"二",E31=5,"三",E31=6,"遊",E31=7,"左",E31=8,"中",E31=9,"右",E31="","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:39" hidden="1">
+      <c r="A32" s="45"/>
+      <c r="F32" s="23"/>
+      <c r="AE32" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK32" s="41" t="str" cm="1">
+        <f t="array" ref="AK32">_xlfn.IFS(C32=1,"投",C32=2,"捕",C32=3,"一",C32=4,"二",C32=5,"三",C32=6,"遊",C32=7,"左",C32=8,"中",C32=9,"右",C32="","")</f>
+        <v/>
+      </c>
+      <c r="AL32" s="41" t="str" cm="1">
+        <f t="array" ref="AL32">_xlfn.IFS(D32=1,"投",D32=2,"捕",D32=3,"一",D32=4,"二",D32=5,"三",D32=6,"遊",D32=7,"左",D32=8,"中",D32=9,"右",D32="","")</f>
+        <v/>
+      </c>
+      <c r="AM32" s="41" t="str" cm="1">
+        <f t="array" ref="AM32">_xlfn.IFS(E32=1,"投",E32=2,"捕",E32=3,"一",E32=4,"二",E32=5,"三",E32=6,"遊",E32=7,"左",E32=8,"中",E32=9,"右",E32="","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:39" hidden="1">
+      <c r="A33" s="46"/>
+      <c r="F33" s="23"/>
+      <c r="AE33" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK33" s="41" t="str" cm="1">
+        <f t="array" ref="AK33">_xlfn.IFS(C33=1,"投",C33=2,"捕",C33=3,"一",C33=4,"二",C33=5,"三",C33=6,"遊",C33=7,"左",C33=8,"中",C33=9,"右",C33="","")</f>
+        <v/>
+      </c>
+      <c r="AL33" s="41" t="str" cm="1">
+        <f t="array" ref="AL33">_xlfn.IFS(D33=1,"投",D33=2,"捕",D33=3,"一",D33=4,"二",D33=5,"三",D33=6,"遊",D33=7,"左",D33=8,"中",D33=9,"右",D33="","")</f>
+        <v/>
+      </c>
+      <c r="AM33" s="41" t="str" cm="1">
+        <f t="array" ref="AM33">_xlfn.IFS(E33=1,"投",E33=2,"捕",E33=3,"一",E33=4,"二",E33=5,"三",E33=6,"遊",E33=7,"左",E33=8,"中",E33=9,"右",E33="","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:39" s="17" customFormat="1">
+      <c r="B34" s="16"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C1:E1048576">
@@ -9650,7 +11267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EAF725-ED36-49E0-B512-6B9617A89CF9}">
   <dimension ref="A1:AX34"/>
   <sheetViews>
@@ -9658,7 +11275,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
@@ -9696,15 +11313,15 @@
     <col min="45" max="50" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:50">
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:50" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:50" s="34" customFormat="1">
       <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>1</v>
@@ -9785,54 +11402,54 @@
         <v>40</v>
       </c>
       <c r="AC2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AE2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" s="34" t="s">
+      <c r="AF2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AG2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AH2" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44" t="s">
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44" t="s">
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44" t="s">
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="44"/>
+      <c r="AO2" s="48"/>
       <c r="AP2" s="34" t="s">
         <v>35</v>
       </c>
       <c r="AQ2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR2" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="AR2" s="34" t="s">
+      <c r="AS2" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="AS2" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-    </row>
-    <row r="3" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+    </row>
+    <row r="3" spans="1:50" s="15" customFormat="1">
       <c r="B3" s="15">
         <v>23</v>
       </c>
@@ -9945,7 +11562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" s="15" customFormat="1">
       <c r="B4" s="15">
         <v>24</v>
       </c>
@@ -10076,10 +11693,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AS4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT4" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="AT4" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="AU4" s="15" t="s">
         <v>22</v>
@@ -10088,10 +11705,10 @@
         <v>23</v>
       </c>
       <c r="AW4" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="15" customFormat="1">
       <c r="B5" s="15">
         <v>25</v>
       </c>
@@ -10253,15 +11870,15 @@
       </c>
       <c r="AP5"/>
       <c r="AS5" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT5" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="AT5" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" s="32" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:50" s="32" customFormat="1">
       <c r="B6" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="32">
         <f>SUM(C3:C5)</f>
@@ -10416,13 +12033,13 @@
         <v>0.32432432432432434</v>
       </c>
       <c r="AS6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU6" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="AT6" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU6" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="AV6" s="15" t="s">
         <v>22</v>
@@ -10431,15 +12048,15 @@
         <v>23</v>
       </c>
       <c r="AX6" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" s="34" customFormat="1" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" s="34" customFormat="1">
       <c r="A8" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>1</v>
@@ -10520,54 +12137,54 @@
         <v>40</v>
       </c>
       <c r="AC8" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD8" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AD8" s="34" t="s">
+      <c r="AE8" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AE8" s="34" t="s">
+      <c r="AF8" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AF8" s="34" t="s">
+      <c r="AG8" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" s="34" t="s">
+      <c r="AH8" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="AH8" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44" t="s">
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44" t="s">
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44" t="s">
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AO8" s="44"/>
+      <c r="AO8" s="48"/>
       <c r="AP8" s="34" t="s">
         <v>35</v>
       </c>
       <c r="AQ8" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR8" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="AR8" s="34" t="s">
+      <c r="AS8" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="AS8" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+    </row>
+    <row r="9" spans="1:50">
       <c r="B9">
         <v>23</v>
       </c>
@@ -10674,16 +12291,16 @@
         <v>0.5</v>
       </c>
       <c r="AS9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AT9" t="s">
         <v>23</v>
       </c>
       <c r="AU9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
       <c r="B10">
         <v>24</v>
       </c>
@@ -10814,19 +12431,19 @@
         <v>0.77</v>
       </c>
       <c r="AS10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT10" t="s">
         <v>117</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>118</v>
       </c>
       <c r="AU10" t="s">
         <v>23</v>
       </c>
       <c r="AV10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
       <c r="B11">
         <v>25</v>
       </c>
@@ -10987,9 +12604,9 @@
         <v>32%</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="32" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:50" s="32" customFormat="1">
       <c r="B12" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="32">
         <f t="shared" ref="C12:S12" si="2">SUM(C9:C11)</f>
@@ -11144,27 +12761,27 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="AS12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" t="s">
         <v>117</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>118</v>
       </c>
       <c r="AU12" t="s">
         <v>23</v>
       </c>
       <c r="AV12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="18" customHeight="1">
       <c r="AC13" s="31"/>
     </row>
-    <row r="14" spans="1:50" s="34" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:50" s="34" customFormat="1">
       <c r="A14" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>1</v>
@@ -11245,54 +12862,54 @@
         <v>40</v>
       </c>
       <c r="AC14" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD14" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" s="34" t="s">
+      <c r="AE14" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AE14" s="34" t="s">
+      <c r="AF14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AF14" s="34" t="s">
+      <c r="AG14" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AG14" s="34" t="s">
+      <c r="AH14" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="AH14" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44" t="s">
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44" t="s">
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44" t="s">
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AO14" s="44"/>
+      <c r="AO14" s="48"/>
       <c r="AP14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="AQ14" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR14" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="AR14" s="34" t="s">
+      <c r="AS14" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="AS14" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+    </row>
+    <row r="15" spans="1:50">
       <c r="B15">
         <v>23</v>
       </c>
@@ -11399,10 +13016,10 @@
         <v>0.13</v>
       </c>
       <c r="AS15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
       <c r="B16">
         <v>24</v>
       </c>
@@ -11533,13 +13150,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AS16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49">
       <c r="B17">
         <v>25</v>
       </c>
@@ -11700,9 +13317,9 @@
         <v>44%</v>
       </c>
     </row>
-    <row r="18" spans="1:49" s="32" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:49" s="32" customFormat="1">
       <c r="B18" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="32">
         <f t="shared" ref="C18:S18" si="5">SUM(C15:C17)</f>
@@ -11857,18 +13474,18 @@
         <v>0.42307692307692307</v>
       </c>
       <c r="AS18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" s="34" customFormat="1" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" s="34" customFormat="1">
       <c r="A20" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>1</v>
@@ -11949,54 +13566,54 @@
         <v>40</v>
       </c>
       <c r="AC20" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD20" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" s="34" t="s">
+      <c r="AE20" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AE20" s="34" t="s">
+      <c r="AF20" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AF20" s="34" t="s">
+      <c r="AG20" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AG20" s="34" t="s">
+      <c r="AH20" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="AH20" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44" t="s">
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44" t="s">
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44" t="s">
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AO20" s="44"/>
+      <c r="AO20" s="48"/>
       <c r="AP20" s="34" t="s">
         <v>35</v>
       </c>
       <c r="AQ20" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR20" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="AR20" s="34" t="s">
+      <c r="AS20" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="AS20" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+    </row>
+    <row r="21" spans="1:49">
       <c r="B21">
         <v>23</v>
       </c>
@@ -12103,16 +13720,16 @@
         <v>0.38</v>
       </c>
       <c r="AS21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AT21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AU21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:49">
       <c r="B22">
         <v>24</v>
       </c>
@@ -12243,13 +13860,13 @@
         <v>0.63</v>
       </c>
       <c r="AS22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AT22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:49">
       <c r="B23">
         <v>25</v>
       </c>
@@ -12410,9 +14027,9 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="24" spans="1:49" s="32" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:49" s="32" customFormat="1">
       <c r="B24" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="32">
         <f t="shared" ref="C24:S24" si="8">SUM(C21:C23)</f>
@@ -12567,93 +14184,93 @@
         <v>0.54054054054054057</v>
       </c>
       <c r="AS24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AT24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AU24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>125</v>
       </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>126</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>127</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>128</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>129</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>130</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>131</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>132</v>
-      </c>
-      <c r="M27" t="s">
-        <v>133</v>
       </c>
       <c r="N27" t="s">
         <v>45</v>
       </c>
       <c r="O27" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" t="s">
         <v>134</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>135</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>136</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>137</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>138</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>139</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>140</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>141</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>142</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>143</v>
       </c>
-      <c r="Y27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:49">
       <c r="B28">
         <v>24</v>
       </c>
@@ -12727,84 +14344,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
         <v>124</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>125</v>
       </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>126</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>127</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>128</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>129</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>130</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>131</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>132</v>
-      </c>
-      <c r="M30" t="s">
-        <v>133</v>
       </c>
       <c r="N30" t="s">
         <v>45</v>
       </c>
       <c r="O30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" t="s">
         <v>134</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>135</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>136</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>137</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>138</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>139</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>140</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>141</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>142</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>143</v>
       </c>
-      <c r="Y30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:49">
       <c r="B31">
         <v>23</v>
       </c>
@@ -12869,7 +14486,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:49">
       <c r="B32">
         <v>24</v>
       </c>
@@ -12943,14 +14560,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:18">
       <c r="B33">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:18">
       <c r="B34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34">
         <v>19</v>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2048BEC-EFD4-474A-A981-C82E0BB7461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD79B2B0-9EB1-41BD-9665-B964DC22A0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="5" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{9EFB6E90-EEF5-46CC-AD26-117E24D31187}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="183">
   <si>
     <t>打者</t>
   </si>
@@ -255,13 +255,6 @@
     <t>先</t>
     <rPh sb="0" eb="1">
       <t>セン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>埼玉</t>
-    <rPh sb="0" eb="2">
-      <t>サイタマ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -903,6 +896,37 @@
   </si>
   <si>
     <t>三</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(練)埼玉</t>
+    <rPh sb="1" eb="2">
+      <t>レン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイタマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(リ)生物資源</t>
+    <rPh sb="3" eb="7">
+      <t>セイブツシゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(リ)東京国際</t>
+    <rPh sb="3" eb="7">
+      <t>トウキョウコクサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(リ)生産工</t>
+    <rPh sb="3" eb="6">
+      <t>セイサンコウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1129,7 +1153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,17 +1289,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1690,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="23" customFormat="1" ht="15">
       <c r="A1" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="23" t="str">
         <f>打撃集計!B1</f>
@@ -2425,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="23">
         <f>打撃集計!C13</f>
@@ -2485,7 +2539,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="23">
         <f>打撃集計!C14</f>
@@ -2545,7 +2599,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="23">
         <f>打撃集計!C15</f>
@@ -2605,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="23">
         <f>打撃集計!C16</f>
@@ -2665,7 +2719,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="23">
         <f>打撃集計!C17</f>
@@ -2729,7 +2783,7 @@
       </c>
       <c r="C18" s="23">
         <f>打撃集計!C18</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="23">
         <f>打撃集計!D18</f>
@@ -4424,7 +4478,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="27">
         <f>打撃集計!C13</f>
@@ -4557,7 +4611,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="27">
         <f>打撃集計!C14</f>
@@ -4690,7 +4744,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="27">
         <f>打撃集計!C15</f>
@@ -4823,7 +4877,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="27">
         <f>打撃集計!C16</f>
@@ -4956,7 +5010,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="27">
         <f>打撃集計!C17</f>
@@ -5094,7 +5148,7 @@
       </c>
       <c r="B18" s="27">
         <f>打撃集計!C18</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="27">
         <f>打撃集計!D18</f>
@@ -5258,7 +5312,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="22" customFormat="1" ht="15">
       <c r="A1" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -5333,7 +5387,7 @@
         <v>38</v>
       </c>
       <c r="Z1" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA1" s="22" t="s">
         <v>39</v>
@@ -5365,7 +5419,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -5505,7 +5559,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -5645,7 +5699,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -5785,7 +5839,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -5925,7 +5979,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -6065,7 +6119,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6205,7 +6259,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6345,7 +6399,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -6485,7 +6539,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -6625,7 +6679,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -6765,7 +6819,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -6905,10 +6959,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13">
         <f>COUNTIF(元データ!F:F,B13)</f>
@@ -7045,10 +7099,10 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14">
         <f>COUNTIF(元データ!F:F,B14)</f>
@@ -7185,10 +7239,10 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15">
         <f>COUNTIF(元データ!F:F,B15)</f>
@@ -7325,10 +7379,10 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16">
         <f>COUNTIF(元データ!F:F,B16)</f>
@@ -7465,10 +7519,10 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17">
         <f>COUNTIF(元データ!F:F,B17)</f>
@@ -7609,7 +7663,7 @@
       </c>
       <c r="C18">
         <f>COUNTA(元データ!A:A)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:N18" si="17">SUM(D2:D12)</f>
@@ -7748,10 +7802,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23269E53-C5D2-4357-8D9A-B50AFBD8533B}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -7764,41 +7818,41 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>173</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>174</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A33">_xlfn.VSTACK(
+        <f t="array" ref="A2:A81">_xlfn.VSTACK(
 _xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""),_xlfn._xlws.FILTER(元データ!A:A,(元データ!A:A&lt;&gt;""),""))</f>
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:I33">_xlfn.VSTACK(
+        <f t="array" ref="B2:I81">_xlfn.VSTACK(
 _xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B2,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B3,""),
 _xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B4,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B5,""),
 _xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B6,""),_xlfn._xlws.FILTER(IF(元データ!AE:AL=0," ",元データ!AE:AL),元データ!AE:AE=打撃!B7,""),
@@ -7833,7 +7887,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B3" t="str">
         <v>安部滉</v>
@@ -7862,19 +7916,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="str">
-        <v>埼玉</v>
+        <v>(リ)生物資源</v>
       </c>
       <c r="B4" t="str">
-        <v>中井</v>
+        <v>安部滉</v>
       </c>
       <c r="C4" t="str">
-        <v>四球</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D4" t="str">
-        <v>遊ゴロ</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v>空振</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
         <v xml:space="preserve"> </v>
@@ -7883,21 +7937,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H4" s="27" t="str">
-        <v>右</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="str">
-        <v>埼玉</v>
+        <v>(リ)東京国際</v>
       </c>
       <c r="B5" t="str">
-        <v>中井</v>
+        <v>安部滉</v>
       </c>
       <c r="C5" t="str">
-        <v>空振</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D5" t="str">
         <v xml:space="preserve"> </v>
@@ -7912,21 +7966,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H5" s="27" t="str">
-        <v>右</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I5" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="str">
-        <v>埼玉</v>
+        <v>(リ)生産工</v>
       </c>
       <c r="B6" t="str">
-        <v>野場</v>
+        <v>安部滉</v>
       </c>
       <c r="C6" t="str">
-        <v>三邪飛</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D6" t="str">
         <v xml:space="preserve"> </v>
@@ -7941,27 +7995,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H6" s="27" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I6" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B7" t="str">
-        <v>野場</v>
+        <v>中井</v>
       </c>
       <c r="C7" t="str">
-        <v>一ゴロ</v>
+        <v>四球</v>
       </c>
       <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>遊ゴロ</v>
       </c>
       <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>空振</v>
       </c>
       <c r="F7" t="str">
         <v xml:space="preserve"> </v>
@@ -7970,27 +8024,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H7" s="27" t="str">
-        <v>一</v>
+        <v>右</v>
       </c>
       <c r="I7" s="27" t="str">
-        <v>二</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B8" t="str">
-        <v>池澤</v>
+        <v>中井</v>
       </c>
       <c r="C8" t="str">
-        <v xml:space="preserve"> </v>
+        <v>空振</v>
       </c>
       <c r="D8" t="str">
-        <v>四球</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
-        <v>右安</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F8" t="str">
         <v xml:space="preserve"> </v>
@@ -7999,7 +8053,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H8" s="27" t="str">
-        <v>D</v>
+        <v>右</v>
       </c>
       <c r="I8" s="27" t="str">
         <v/>
@@ -8007,13 +8061,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="str">
-        <v>埼玉</v>
+        <v>(リ)生物資源</v>
       </c>
       <c r="B9" t="str">
-        <v>池澤</v>
+        <v>中井</v>
       </c>
       <c r="C9" t="str">
-        <v>二ゴロ</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D9" t="str">
         <v xml:space="preserve"> </v>
@@ -8028,27 +8082,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H9" s="27" t="str">
-        <v>一</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I9" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="str">
-        <v>埼玉</v>
+        <v>(リ)東京国際</v>
       </c>
       <c r="B10" t="str">
-        <v>安部剛</v>
+        <v>中井</v>
       </c>
       <c r="C10" t="str">
-        <v>中二</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D10" t="str">
-        <v>中安</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E10" t="str">
-        <v>中飛</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F10" t="str">
         <v xml:space="preserve"> </v>
@@ -8057,24 +8111,24 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H10" s="27" t="str">
-        <v>二</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I10" s="27" t="str">
-        <v>一</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="str">
-        <v>埼玉</v>
+        <v>(リ)生産工</v>
       </c>
       <c r="B11" t="str">
-        <v>安部剛</v>
+        <v>中井</v>
       </c>
       <c r="C11" t="str">
-        <v>遊ゴロ</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D11" t="str">
-        <v>左安</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
         <v xml:space="preserve"> </v>
@@ -8086,53 +8140,53 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H11" s="27" t="str">
-        <v>捕</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I11" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B12" t="str">
-        <v>大鐘</v>
+        <v>野場</v>
       </c>
       <c r="C12" t="str">
-        <v>空振</v>
+        <v>三邪飛</v>
       </c>
       <c r="D12" t="str">
-        <v>空振</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="str">
-        <v>三直</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F12" t="str">
-        <v>一飛</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G12" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H12" s="27" t="str">
-        <v>投</v>
+        <v>D</v>
       </c>
       <c r="I12" s="27" t="str">
-        <v>二</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B13" t="str">
-        <v>大鐘</v>
+        <v>野場</v>
       </c>
       <c r="C13" t="str">
-        <v>遊失</v>
+        <v>一ゴロ</v>
       </c>
       <c r="D13" t="str">
-        <v>中二</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E13" t="str">
         <v xml:space="preserve"> </v>
@@ -8144,27 +8198,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H13" s="27" t="str">
+        <v>一</v>
+      </c>
+      <c r="I13" s="27" t="str">
         <v>二</v>
-      </c>
-      <c r="I13" s="27" t="str">
-        <v>投</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="str">
-        <v>埼玉</v>
+        <v>(リ)生物資源</v>
       </c>
       <c r="B14" t="str">
-        <v>北久保</v>
+        <v>野場</v>
       </c>
       <c r="C14" t="str">
-        <v>空振</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D14" t="str">
-        <v>一ゴロ</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E14" t="str">
-        <v>二失</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" t="str">
         <v xml:space="preserve"> </v>
@@ -8173,21 +8227,21 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H14" s="27" t="str">
-        <v>中</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I14" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="str">
-        <v>埼玉</v>
+        <v>(リ)東京国際</v>
       </c>
       <c r="B15" t="str">
-        <v>北久保</v>
+        <v>野場</v>
       </c>
       <c r="C15" t="str">
-        <v>遊ゴロ</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D15" t="str">
         <v xml:space="preserve"> </v>
@@ -8202,18 +8256,18 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H15" s="27" t="str">
-        <v>中</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I15" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="str">
-        <v>埼玉</v>
+        <v>(リ)生産工</v>
       </c>
       <c r="B16" t="str">
-        <v>萩原</v>
+        <v>野場</v>
       </c>
       <c r="C16" t="str">
         <v xml:space="preserve"> </v>
@@ -8231,27 +8285,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H16" s="27" t="str">
-        <v>捕</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I16" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B17" t="str">
-        <v>萩原</v>
+        <v>池澤</v>
       </c>
       <c r="C17" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>四球</v>
       </c>
       <c r="E17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>右安</v>
       </c>
       <c r="F17" t="str">
         <v xml:space="preserve"> </v>
@@ -8260,7 +8314,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H17" s="27" t="str">
-        <v/>
+        <v>D</v>
       </c>
       <c r="I17" s="27" t="str">
         <v/>
@@ -8268,45 +8322,45 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B18" t="str">
-        <v>岩本</v>
+        <v>池澤</v>
       </c>
       <c r="C18" t="str">
-        <v>左安</v>
+        <v>二ゴロ</v>
       </c>
       <c r="D18" t="str">
-        <v>逃振</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E18" t="str">
-        <v>逃振</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F18" t="str">
-        <v>一飛</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G18" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H18" s="27" t="str">
-        <v>三</v>
+        <v>一</v>
       </c>
       <c r="I18" s="27" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="str">
-        <v>埼玉</v>
+        <v>(リ)生物資源</v>
       </c>
       <c r="B19" t="str">
-        <v>岩本</v>
+        <v>池澤</v>
       </c>
       <c r="C19" t="str">
-        <v>左飛</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D19" t="str">
-        <v>四球</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E19" t="str">
         <v xml:space="preserve"> </v>
@@ -8318,27 +8372,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H19" s="27" t="str">
-        <v>三</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I19" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="str">
-        <v>埼玉</v>
+        <v>(リ)東京国際</v>
       </c>
       <c r="B20" t="str">
-        <v>上小城</v>
+        <v>池澤</v>
       </c>
       <c r="C20" t="str">
-        <v>空振</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D20" t="str">
-        <v>空振</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E20" t="str">
-        <v>右飛</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
         <v xml:space="preserve"> </v>
@@ -8347,24 +8401,24 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H20" s="27" t="str">
-        <v>左</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I20" s="27" t="str">
-        <v>投</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="str">
-        <v>埼玉</v>
+        <v>(リ)生産工</v>
       </c>
       <c r="B21" t="str">
-        <v>上小城</v>
+        <v>池澤</v>
       </c>
       <c r="C21" t="str">
-        <v>投ゴロ</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D21" t="str">
-        <v>遊ゴロ</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E21" t="str">
         <v xml:space="preserve"> </v>
@@ -8376,27 +8430,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H21" s="27" t="str">
-        <v>投</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I21" s="27" t="str">
-        <v>左</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B22" t="str">
-        <v>反町</v>
+        <v>安部剛</v>
       </c>
       <c r="C22" t="str">
+        <v>中二</v>
+      </c>
+      <c r="D22" t="str">
         <v>中安</v>
       </c>
-      <c r="D22" t="str">
-        <v>空振</v>
-      </c>
       <c r="E22" t="str">
-        <v>空振</v>
+        <v>中飛</v>
       </c>
       <c r="F22" t="str">
         <v xml:space="preserve"> </v>
@@ -8405,24 +8459,24 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H22" s="27" t="str">
-        <v>遊</v>
+        <v>二</v>
       </c>
       <c r="I22" s="27" t="str">
-        <v/>
+        <v>一</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B23" t="str">
-        <v>反町</v>
+        <v>安部剛</v>
       </c>
       <c r="C23" t="str">
-        <v>投ゴロ</v>
+        <v>遊ゴロ</v>
       </c>
       <c r="D23" t="str">
-        <v>四球</v>
+        <v>左安</v>
       </c>
       <c r="E23" t="str">
         <v xml:space="preserve"> </v>
@@ -8434,7 +8488,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H23" s="27" t="str">
-        <v>遊</v>
+        <v>捕</v>
       </c>
       <c r="I23" s="27" t="str">
         <v/>
@@ -8442,10 +8496,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="str">
-        <v>埼玉</v>
+        <v>(リ)生物資源</v>
       </c>
       <c r="B24" t="str">
-        <v>NAKAHATA</v>
+        <v>安部剛</v>
       </c>
       <c r="C24" t="str">
         <v xml:space="preserve"> </v>
@@ -8463,18 +8517,18 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H24" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I24" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="str">
-        <v>埼玉</v>
+        <v>(リ)東京国際</v>
       </c>
       <c r="B25" t="str">
-        <v>NAKAHATA</v>
+        <v>安部剛</v>
       </c>
       <c r="C25" t="str">
         <v xml:space="preserve"> </v>
@@ -8492,18 +8546,18 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H25" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I25" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="str">
-        <v>埼玉</v>
+        <v>(リ)生産工</v>
       </c>
       <c r="B26" t="str">
-        <v>HENRY</v>
+        <v>安部剛</v>
       </c>
       <c r="C26" t="str">
         <v xml:space="preserve"> </v>
@@ -8521,53 +8575,53 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H26" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I26" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B27" t="str">
-        <v>HENRY</v>
+        <v>大鐘</v>
       </c>
       <c r="C27" t="str">
-        <v xml:space="preserve"> </v>
+        <v>空振</v>
       </c>
       <c r="D27" t="str">
-        <v xml:space="preserve"> </v>
+        <v>空振</v>
       </c>
       <c r="E27" t="str">
-        <v xml:space="preserve"> </v>
+        <v>三直</v>
       </c>
       <c r="F27" t="str">
-        <v xml:space="preserve"> </v>
+        <v>一飛</v>
       </c>
       <c r="G27" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H27" s="27" t="str">
-        <v/>
+        <v>投</v>
       </c>
       <c r="I27" s="27" t="str">
-        <v/>
+        <v>二</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B28" t="str">
-        <v>加本</v>
+        <v>大鐘</v>
       </c>
       <c r="C28" t="str">
-        <v xml:space="preserve"> </v>
+        <v>遊失</v>
       </c>
       <c r="D28" t="str">
-        <v xml:space="preserve"> </v>
+        <v>中二</v>
       </c>
       <c r="E28" t="str">
         <v xml:space="preserve"> </v>
@@ -8579,18 +8633,18 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H28" s="27" t="str">
-        <v/>
+        <v>二</v>
       </c>
       <c r="I28" s="27" t="str">
-        <v/>
+        <v>投</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="str">
-        <v>埼玉</v>
+        <v>(リ)生物資源</v>
       </c>
       <c r="B29" t="str">
-        <v>加本</v>
+        <v>大鐘</v>
       </c>
       <c r="C29" t="str">
         <v xml:space="preserve"> </v>
@@ -8608,18 +8662,18 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H29" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I29" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="str">
-        <v>埼玉</v>
+        <v>(リ)東京国際</v>
       </c>
       <c r="B30" t="str">
-        <v>佐伯</v>
+        <v>大鐘</v>
       </c>
       <c r="C30" t="str">
         <v xml:space="preserve"> </v>
@@ -8637,18 +8691,18 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H30" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I30" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="str">
-        <v>埼玉</v>
+        <v>(リ)生産工</v>
       </c>
       <c r="B31" t="str">
-        <v>佐伯</v>
+        <v>大鐘</v>
       </c>
       <c r="C31" t="str">
         <v xml:space="preserve"> </v>
@@ -8666,27 +8720,27 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H31" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I31" s="27" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B32" t="str">
-        <v>新畑</v>
+        <v>北久保</v>
       </c>
       <c r="C32" t="str">
-        <v xml:space="preserve"> </v>
+        <v>空振</v>
       </c>
       <c r="D32" t="str">
-        <v xml:space="preserve"> </v>
+        <v>一ゴロ</v>
       </c>
       <c r="E32" t="str">
-        <v xml:space="preserve"> </v>
+        <v>二失</v>
       </c>
       <c r="F32" t="str">
         <v xml:space="preserve"> </v>
@@ -8695,7 +8749,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H32" s="27" t="str">
-        <v/>
+        <v>中</v>
       </c>
       <c r="I32" s="27" t="str">
         <v/>
@@ -8703,13 +8757,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="str">
-        <v>埼玉</v>
+        <v>(練)埼玉</v>
       </c>
       <c r="B33" t="str">
-        <v>新畑</v>
+        <v>北久保</v>
       </c>
       <c r="C33" t="str">
-        <v xml:space="preserve"> </v>
+        <v>遊ゴロ</v>
       </c>
       <c r="D33" t="str">
         <v xml:space="preserve"> </v>
@@ -8724,10 +8778,1402 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H33" s="27" t="str">
-        <v/>
+        <v>中</v>
       </c>
       <c r="I33" s="27" t="str">
         <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B34" t="str">
+        <v>北久保</v>
+      </c>
+      <c r="C34" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D34" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E34" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F34" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G34" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H34" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I34" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B35" t="str">
+        <v>北久保</v>
+      </c>
+      <c r="C35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H35" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I35" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B36" t="str">
+        <v>北久保</v>
+      </c>
+      <c r="C36" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D36" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E36" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F36" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G36" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H36" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I36" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B37" t="str">
+        <v>萩原</v>
+      </c>
+      <c r="C37" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D37" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E37" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F37" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G37" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H37" s="27" t="str">
+        <v>捕</v>
+      </c>
+      <c r="I37" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B38" t="str">
+        <v>萩原</v>
+      </c>
+      <c r="C38" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D38" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E38" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F38" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G38" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H38" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I38" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B39" t="str">
+        <v>萩原</v>
+      </c>
+      <c r="C39" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D39" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E39" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F39" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G39" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H39" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I39" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B40" t="str">
+        <v>萩原</v>
+      </c>
+      <c r="C40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H40" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I40" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B41" t="str">
+        <v>萩原</v>
+      </c>
+      <c r="C41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H41" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I41" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B42" t="str">
+        <v>岩本</v>
+      </c>
+      <c r="C42" t="str">
+        <v>左安</v>
+      </c>
+      <c r="D42" t="str">
+        <v>逃振</v>
+      </c>
+      <c r="E42" t="str">
+        <v>逃振</v>
+      </c>
+      <c r="F42" t="str">
+        <v>一飛</v>
+      </c>
+      <c r="G42" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H42" s="27" t="str">
+        <v>三</v>
+      </c>
+      <c r="I42" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B43" t="str">
+        <v>岩本</v>
+      </c>
+      <c r="C43" t="str">
+        <v>左飛</v>
+      </c>
+      <c r="D43" t="str">
+        <v>四球</v>
+      </c>
+      <c r="E43" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F43" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G43" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H43" s="27" t="str">
+        <v>三</v>
+      </c>
+      <c r="I43" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B44" t="str">
+        <v>岩本</v>
+      </c>
+      <c r="C44" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D44" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E44" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F44" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G44" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H44" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I44" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B45" t="str">
+        <v>岩本</v>
+      </c>
+      <c r="C45" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D45" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E45" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F45" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G45" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H45" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I45" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B46" t="str">
+        <v>岩本</v>
+      </c>
+      <c r="C46" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D46" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E46" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F46" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G46" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H46" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I46" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B47" t="str">
+        <v>上小城</v>
+      </c>
+      <c r="C47" t="str">
+        <v>空振</v>
+      </c>
+      <c r="D47" t="str">
+        <v>空振</v>
+      </c>
+      <c r="E47" t="str">
+        <v>右飛</v>
+      </c>
+      <c r="F47" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G47" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H47" s="27" t="str">
+        <v>左</v>
+      </c>
+      <c r="I47" s="27" t="str">
+        <v>投</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B48" t="str">
+        <v>上小城</v>
+      </c>
+      <c r="C48" t="str">
+        <v>投ゴロ</v>
+      </c>
+      <c r="D48" t="str">
+        <v>遊ゴロ</v>
+      </c>
+      <c r="E48" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F48" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G48" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H48" s="27" t="str">
+        <v>投</v>
+      </c>
+      <c r="I48" s="27" t="str">
+        <v>左</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B49" t="str">
+        <v>上小城</v>
+      </c>
+      <c r="C49" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D49" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E49" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F49" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G49" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H49" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I49" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B50" t="str">
+        <v>上小城</v>
+      </c>
+      <c r="C50" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D50" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E50" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F50" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G50" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H50" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I50" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B51" t="str">
+        <v>上小城</v>
+      </c>
+      <c r="C51" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D51" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E51" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F51" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G51" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H51" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I51" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B52" t="str">
+        <v>反町</v>
+      </c>
+      <c r="C52" t="str">
+        <v>中安</v>
+      </c>
+      <c r="D52" t="str">
+        <v>空振</v>
+      </c>
+      <c r="E52" t="str">
+        <v>空振</v>
+      </c>
+      <c r="F52" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G52" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H52" s="27" t="str">
+        <v>遊</v>
+      </c>
+      <c r="I52" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B53" t="str">
+        <v>反町</v>
+      </c>
+      <c r="C53" t="str">
+        <v>投ゴロ</v>
+      </c>
+      <c r="D53" t="str">
+        <v>四球</v>
+      </c>
+      <c r="E53" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F53" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G53" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H53" s="27" t="str">
+        <v>遊</v>
+      </c>
+      <c r="I53" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B54" t="str">
+        <v>反町</v>
+      </c>
+      <c r="C54" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D54" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E54" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F54" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G54" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H54" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I54" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B55" t="str">
+        <v>反町</v>
+      </c>
+      <c r="C55" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D55" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E55" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F55" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G55" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H55" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I55" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B56" t="str">
+        <v>反町</v>
+      </c>
+      <c r="C56" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D56" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E56" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F56" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G56" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H56" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I56" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B57" t="str">
+        <v>NAKAHATA</v>
+      </c>
+      <c r="C57" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D57" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E57" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F57" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G57" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H57" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I57" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B58" t="str">
+        <v>NAKAHATA</v>
+      </c>
+      <c r="C58" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D58" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E58" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F58" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G58" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H58" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I58" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B59" t="str">
+        <v>NAKAHATA</v>
+      </c>
+      <c r="C59" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D59" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E59" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F59" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G59" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H59" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I59" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B60" t="str">
+        <v>NAKAHATA</v>
+      </c>
+      <c r="C60" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D60" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E60" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F60" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G60" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H60" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I60" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B61" t="str">
+        <v>NAKAHATA</v>
+      </c>
+      <c r="C61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H61" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I61" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B62" t="str">
+        <v>HENRY</v>
+      </c>
+      <c r="C62" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D62" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E62" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F62" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G62" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H62" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I62" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B63" t="str">
+        <v>HENRY</v>
+      </c>
+      <c r="C63" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D63" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E63" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F63" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G63" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H63" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I63" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B64" t="str">
+        <v>HENRY</v>
+      </c>
+      <c r="C64" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D64" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E64" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F64" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G64" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H64" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I64" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B65" t="str">
+        <v>HENRY</v>
+      </c>
+      <c r="C65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H65" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I65" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B66" t="str">
+        <v>HENRY</v>
+      </c>
+      <c r="C66" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D66" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E66" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F66" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G66" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H66" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I66" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B67" t="str">
+        <v>加本</v>
+      </c>
+      <c r="C67" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D67" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E67" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F67" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G67" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H67" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I67" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B68" t="str">
+        <v>加本</v>
+      </c>
+      <c r="C68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H68" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I68" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B69" t="str">
+        <v>加本</v>
+      </c>
+      <c r="C69" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D69" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E69" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F69" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G69" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H69" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I69" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B70" t="str">
+        <v>加本</v>
+      </c>
+      <c r="C70" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D70" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E70" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F70" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G70" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H70" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I70" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B71" t="str">
+        <v>加本</v>
+      </c>
+      <c r="C71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H71" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I71" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B72" t="str">
+        <v>佐伯</v>
+      </c>
+      <c r="C72" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D72" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E72" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F72" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G72" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H72" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I72" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B73" t="str">
+        <v>佐伯</v>
+      </c>
+      <c r="C73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H73" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I73" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B74" t="str">
+        <v>佐伯</v>
+      </c>
+      <c r="C74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H74" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I74" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B75" t="str">
+        <v>佐伯</v>
+      </c>
+      <c r="C75" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D75" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E75" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F75" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G75" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H75" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I75" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B76" t="str">
+        <v>佐伯</v>
+      </c>
+      <c r="C76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H76" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I76" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B77" t="str">
+        <v>新畑</v>
+      </c>
+      <c r="C77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H77" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I77" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="str">
+        <v>(練)埼玉</v>
+      </c>
+      <c r="B78" t="str">
+        <v>新畑</v>
+      </c>
+      <c r="C78" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D78" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E78" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F78" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G78" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H78" s="27" t="str">
+        <v/>
+      </c>
+      <c r="I78" s="27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="str">
+        <v>(リ)生物資源</v>
+      </c>
+      <c r="B79" t="str">
+        <v>新畑</v>
+      </c>
+      <c r="C79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H79" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I79" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="str">
+        <v>(リ)東京国際</v>
+      </c>
+      <c r="B80" t="str">
+        <v>新畑</v>
+      </c>
+      <c r="C80" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D80" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E80" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F80" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G80" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H80" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I80" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="str">
+        <v>(リ)生産工</v>
+      </c>
+      <c r="B81" t="str">
+        <v>新畑</v>
+      </c>
+      <c r="C81" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D81" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E81" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F81" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G81" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H81" s="27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I81" s="27" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
@@ -8780,10 +10226,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484639AE-A73C-4A7B-B294-73DC7233D1D8}">
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="17.649999999999999"/>
@@ -8849,22 +10295,22 @@
         <v>52</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="T1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="X1" s="5" t="s">
         <v>35</v>
@@ -8876,7 +10322,7 @@
         <v>10</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB1" s="8" t="s">
         <v>55</v>
@@ -8891,27 +10337,27 @@
         <v>57</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="AK1" s="42"/>
       <c r="AL1" s="42"/>
       <c r="AM1" s="42"/>
     </row>
     <row r="2" spans="1:39" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A2" s="47" t="s">
-        <v>60</v>
+      <c r="A2" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -8923,7 +10369,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G27" si="0">COUNTA(AF2:AJ2)</f>
@@ -8997,22 +10443,22 @@
         <v>大鐘</v>
       </c>
       <c r="AF2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK2" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL2" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM2" s="41" t="str" cm="1">
         <f t="array" ref="AM2">_xlfn.IFS(E2=1,"投",E2=2,"捕",E2=3,"一",E2=4,"二",E2=5,"三",E2=6,"遊",E2=7,"左",E2=8,"中",E2=9,"右",E2="","",E2="D","D",E2="F","F")</f>
@@ -9020,7 +10466,7 @@
       </c>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="15">
         <v>2</v>
       </c>
@@ -9028,7 +10474,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -9105,19 +10551,19 @@
         <v>岩本</v>
       </c>
       <c r="AF3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK3" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM3" s="41" t="str" cm="1">
         <f t="array" ref="AM3">_xlfn.IFS(E3=1,"投",E3=2,"捕",E3=3,"一",E3=4,"二",E3=5,"三",E3=6,"遊",E3=7,"左",E3=8,"中",E3=9,"右",E3="","",E3="D","D",E3="F","F")</f>
@@ -9125,7 +10571,7 @@
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="15">
         <v>3</v>
       </c>
@@ -9133,7 +10579,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -9213,13 +10659,13 @@
         <v>反町</v>
       </c>
       <c r="AF4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4" s="41" t="str" cm="1">
         <f t="array" ref="AK4">_xlfn.IFS(C4=1,"投",C4=2,"捕",C4=3,"一",C4=4,"二",C4=5,"三",C4=6,"遊",C4=7,"左",C4=8,"中",C4=9,"右",C4="","",C4="D","D",C4="F","F")</f>
@@ -9235,7 +10681,7 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="15">
         <v>4</v>
       </c>
@@ -9246,7 +10692,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -9326,13 +10772,13 @@
         <v>安部剛</v>
       </c>
       <c r="AF5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK5" s="41" t="str" cm="1">
         <f t="array" ref="AK5">_xlfn.IFS(C5=1,"投",C5=2,"捕",C5=3,"一",C5=4,"二",C5=5,"三",C5=6,"遊",C5=7,"左",C5=8,"中",C5=9,"右",C5="","",C5="D","D",C5="F","F")</f>
@@ -9348,7 +10794,7 @@
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="15">
         <v>5</v>
       </c>
@@ -9359,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -9433,13 +10879,13 @@
         <v>上小城</v>
       </c>
       <c r="AF6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK6" s="41" t="str" cm="1">
         <f t="array" ref="AK6">_xlfn.IFS(C6=1,"投",C6=2,"捕",C6=3,"一",C6=4,"二",C6=5,"三",C6=6,"遊",C6=7,"左",C6=8,"中",C6=9,"右",C6="","",C6="D","D",C6="F","F")</f>
@@ -9455,7 +10901,7 @@
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="15">
         <v>6</v>
       </c>
@@ -9463,7 +10909,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -9540,13 +10986,13 @@
         <v>北久保</v>
       </c>
       <c r="AF7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK7" s="41" t="str" cm="1">
         <f t="array" ref="AK7">_xlfn.IFS(C7=1,"投",C7=2,"捕",C7=3,"一",C7=4,"二",C7=5,"三",C7=6,"遊",C7=7,"左",C7=8,"中",C7=9,"右",C7="","",C7="D","D",C7="F","F")</f>
@@ -9562,7 +11008,7 @@
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="15">
         <v>7</v>
       </c>
@@ -9570,7 +11016,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -9647,13 +11093,13 @@
         <v>中井</v>
       </c>
       <c r="AF8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK8" s="41" t="str" cm="1">
         <f t="array" ref="AK8">_xlfn.IFS(C8=1,"投",C8=2,"捕",C8=3,"一",C8=4,"二",C8=5,"三",C8=6,"遊",C8=7,"左",C8=8,"中",C8=9,"右",C8="","",C8="D","D",C8="F","F")</f>
@@ -9669,7 +11115,7 @@
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="15">
         <v>8</v>
       </c>
@@ -9680,7 +11126,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -9754,13 +11200,13 @@
         <v>安部滉</v>
       </c>
       <c r="AF9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK9" s="41" t="str" cm="1">
         <f t="array" ref="AK9">_xlfn.IFS(C9=1,"投",C9=2,"捕",C9=3,"一",C9=4,"二",C9=5,"三",C9=6,"遊",C9=7,"左",C9=8,"中",C9=9,"右",C9="","",C9="D","D",C9="F","F")</f>
@@ -9776,7 +11222,7 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="15">
         <v>9</v>
       </c>
@@ -9784,7 +11230,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -9852,7 +11298,7 @@
         <v>野場</v>
       </c>
       <c r="AF10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK10" s="41" t="str" cm="1">
         <f t="array" ref="AK10">_xlfn.IFS(C10=1,"投",C10=2,"捕",C10=3,"一",C10=4,"二",C10=5,"三",C10=6,"遊",C10=7,"左",C10=8,"中",C10=9,"右",C10="","",C10="D","D",C10="F","F")</f>
@@ -9868,12 +11314,12 @@
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -9947,10 +11393,10 @@
         <v>池澤</v>
       </c>
       <c r="AG11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK11" s="41" t="str" cm="1">
         <f t="array" ref="AK11">_xlfn.IFS(C11=1,"投",C11=2,"捕",C11=3,"一",C11=4,"二",C11=5,"三",C11=6,"遊",C11=7,"左",C11=8,"中",C11=9,"右",C11="","",C11="D","D",C11="F","F")</f>
@@ -9965,16 +11411,16 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:39" ht="18" thickBot="1">
+      <c r="A12" s="46"/>
       <c r="B12" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -10052,10 +11498,10 @@
       </c>
     </row>
     <row r="13" spans="1:39" hidden="1">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="F13" s="23"/>
       <c r="AE13" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK13" s="41" t="str" cm="1">
         <f t="array" ref="AK13">_xlfn.IFS(C13=1,"投",C13=2,"捕",C13=3,"一",C13=4,"二",C13=5,"三",C13=6,"遊",C13=7,"左",C13=8,"中",C13=9,"右",C13="","",C13="D","D",C13="F","F")</f>
@@ -10071,10 +11517,10 @@
       </c>
     </row>
     <row r="14" spans="1:39" hidden="1">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="F14" s="23"/>
       <c r="AE14" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK14" s="41" t="str" cm="1">
         <f t="array" ref="AK14">_xlfn.IFS(C14=1,"投",C14=2,"捕",C14=3,"一",C14=4,"二",C14=5,"三",C14=6,"遊",C14=7,"左",C14=8,"中",C14=9,"右",C14="","",C14="D","D",C14="F","F")</f>
@@ -10090,10 +11536,10 @@
       </c>
     </row>
     <row r="15" spans="1:39" hidden="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="F15" s="23"/>
       <c r="AE15" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK15" s="41" t="str" cm="1">
         <f t="array" ref="AK15">_xlfn.IFS(C15=1,"投",C15=2,"捕",C15=3,"一",C15=4,"二",C15=5,"三",C15=6,"遊",C15=7,"左",C15=8,"中",C15=9,"右",C15="","",C15="D","D",C15="F","F")</f>
@@ -10109,10 +11555,10 @@
       </c>
     </row>
     <row r="16" spans="1:39" hidden="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="F16" s="23"/>
       <c r="AE16" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK16" s="41" t="str" cm="1">
         <f t="array" ref="AK16">_xlfn.IFS(C16=1,"投",C16=2,"捕",C16=3,"一",C16=4,"二",C16=5,"三",C16=6,"遊",C16=7,"左",C16=8,"中",C16=9,"右",C16="","",C16="D","D",C16="F","F")</f>
@@ -10128,10 +11574,10 @@
       </c>
     </row>
     <row r="17" spans="1:39" hidden="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="F17" s="23"/>
       <c r="AE17" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK17" s="41" t="str" cm="1">
         <f t="array" ref="AK17">_xlfn.IFS(C17=1,"投",C17=2,"捕",C17=3,"一",C17=4,"二",C17=5,"三",C17=6,"遊",C17=7,"左",C17=8,"中",C17=9,"右",C17="","",C17="D","D",C17="F","F")</f>
@@ -10146,9 +11592,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" s="17" customFormat="1">
+    <row r="18" spans="1:39" s="17" customFormat="1" ht="17.649999999999999" customHeight="1" thickTop="1">
       <c r="A18" s="45" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="B18" s="16">
         <v>1</v>
@@ -10160,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" si="0"/>
@@ -10237,10 +11683,10 @@
         <v>大鐘</v>
       </c>
       <c r="AF18" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG18" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK18" s="43" t="str" cm="1">
         <f t="array" ref="AK18">_xlfn.IFS(C18=1,"投",C18=2,"捕",C18=3,"一",C18=4,"二",C18=5,"三",C18=6,"遊",C18=7,"左",C18=8,"中",C18=9,"右",C18="","",C18="D","D",C18="F","F")</f>
@@ -10256,7 +11702,7 @@
       </c>
     </row>
     <row r="19" spans="1:39">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="15">
         <v>2</v>
       </c>
@@ -10264,7 +11710,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -10287,19 +11733,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L27" si="18">COUNTIF(AF19:AJ19, "*三")</f>
+        <f>COUNTIF(AF19:AJ19, "*三")</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M27" si="19">COUNTIF(AF19:AJ19, "*本")</f>
+        <f t="shared" ref="M19:M27" si="18">COUNTIF(AF19:AJ19, "*本")</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N27" si="20">COUNTIF(AF19:AJ19, "四球")</f>
+        <f t="shared" ref="N19:N27" si="19">COUNTIF(AF19:AJ19, "四球")</f>
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O27" si="21">COUNTIF(AF19:AJ19, "死球")</f>
+        <f t="shared" ref="O19:O27" si="20">COUNTIF(AF19:AJ19, "死球")</f>
         <v>0</v>
       </c>
       <c r="Q19">
@@ -10318,19 +11764,19 @@
         <v>6</v>
       </c>
       <c r="X19">
-        <f t="shared" ref="X19:X27" si="22">COUNTIF(AF19:AJ19, "*失*")</f>
+        <f t="shared" ref="X19:X27" si="21">COUNTIF(AF19:AJ19, "*失*")</f>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f t="shared" ref="Y19:Y27" si="23">COUNTIF(AF19:AJ19, "*振*")</f>
+        <f t="shared" ref="Y19:Y27" si="22">COUNTIF(AF19:AJ19, "*振*")</f>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" ref="Z19:Z27" si="24">COUNTIF(AF19:AJ19, "*犠*")</f>
+        <f t="shared" ref="Z19:Z27" si="23">COUNTIF(AF19:AJ19, "*犠*")</f>
         <v>0</v>
       </c>
       <c r="AA19">
-        <f t="shared" ref="AA19:AA27" si="25">COUNTIF(AF19:AJ19, "*併*")</f>
+        <f t="shared" ref="AA19:AA27" si="24">COUNTIF(AF19:AJ19, "*併*")</f>
         <v>0</v>
       </c>
       <c r="AE19" t="str">
@@ -10338,10 +11784,10 @@
         <v>岩本</v>
       </c>
       <c r="AF19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK19" s="41" t="str" cm="1">
         <f t="array" ref="AK19">_xlfn.IFS(C19=1,"投",C19=2,"捕",C19=3,"一",C19=4,"二",C19=5,"三",C19=6,"遊",C19=7,"左",C19=8,"中",C19=9,"右",C19="","",C19="D","D",C19="F","F")</f>
@@ -10357,7 +11803,7 @@
       </c>
     </row>
     <row r="20" spans="1:39">
-      <c r="A20" s="45"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="15">
         <v>3</v>
       </c>
@@ -10365,7 +11811,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
@@ -10388,19 +11834,19 @@
         <v>0</v>
       </c>
       <c r="L20">
+        <f t="shared" ref="L20:L27" si="25">COUNTIF(AF20:AJ20, "*三")</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S20">
@@ -10413,19 +11859,19 @@
         <v>7</v>
       </c>
       <c r="X20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC20">
@@ -10439,10 +11885,10 @@
         <v>反町</v>
       </c>
       <c r="AF20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK20" s="41" t="str" cm="1">
         <f t="array" ref="AK20">_xlfn.IFS(C20=1,"投",C20=2,"捕",C20=3,"一",C20=4,"二",C20=5,"三",C20=6,"遊",C20=7,"左",C20=8,"中",C20=9,"右",C20="","",C20="D","D",C20="F","F")</f>
@@ -10458,7 +11904,7 @@
       </c>
     </row>
     <row r="21" spans="1:39">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="15">
         <v>4</v>
       </c>
@@ -10466,7 +11912,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -10489,19 +11935,19 @@
         <v>0</v>
       </c>
       <c r="L21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P21">
@@ -10517,19 +11963,19 @@
         <v>3</v>
       </c>
       <c r="X21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC21">
@@ -10540,10 +11986,10 @@
         <v>安部剛</v>
       </c>
       <c r="AF21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK21" s="41" t="str" cm="1">
         <f t="array" ref="AK21">_xlfn.IFS(C21=1,"投",C21=2,"捕",C21=3,"一",C21=4,"二",C21=5,"三",C21=6,"遊",C21=7,"左",C21=8,"中",C21=9,"右",C21="","",C21="D","D",C21="F","F")</f>
@@ -10559,7 +12005,7 @@
       </c>
     </row>
     <row r="22" spans="1:39">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="15">
         <v>5</v>
       </c>
@@ -10570,7 +12016,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
@@ -10593,19 +12039,19 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T22">
@@ -10621,19 +12067,19 @@
         <v>3</v>
       </c>
       <c r="X22">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC22">
@@ -10644,10 +12090,10 @@
         <v>上小城</v>
       </c>
       <c r="AF22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK22" s="41" t="str" cm="1">
         <f t="array" ref="AK22">_xlfn.IFS(C22=1,"投",C22=2,"捕",C22=3,"一",C22=4,"二",C22=5,"三",C22=6,"遊",C22=7,"左",C22=8,"中",C22=9,"右",C22="","",C22="D","D",C22="F","F")</f>
@@ -10663,7 +12109,7 @@
       </c>
     </row>
     <row r="23" spans="1:39">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="15">
         <v>6</v>
       </c>
@@ -10671,7 +12117,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
@@ -10694,38 +12140,38 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
+      <c r="Y23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB23">
@@ -10742,7 +12188,7 @@
         <v>北久保</v>
       </c>
       <c r="AF23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK23" s="41" t="str" cm="1">
         <f t="array" ref="AK23">_xlfn.IFS(C23=1,"投",C23=2,"捕",C23=3,"一",C23=4,"二",C23=5,"三",C23=6,"遊",C23=7,"左",C23=8,"中",C23=9,"右",C23="","",C23="D","D",C23="F","F")</f>
@@ -10758,7 +12204,7 @@
       </c>
     </row>
     <row r="24" spans="1:39">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="15">
         <v>7</v>
       </c>
@@ -10766,7 +12212,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -10789,19 +12235,19 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U24">
@@ -10814,19 +12260,19 @@
         <v>2</v>
       </c>
       <c r="X24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE24" t="str">
@@ -10834,7 +12280,7 @@
         <v>中井</v>
       </c>
       <c r="AF24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK24" s="41" t="str" cm="1">
         <f t="array" ref="AK24">_xlfn.IFS(C24=1,"投",C24=2,"捕",C24=3,"一",C24=4,"二",C24=5,"三",C24=6,"遊",C24=7,"左",C24=8,"中",C24=9,"右",C24="","",C24="D","D",C24="F","F")</f>
@@ -10850,7 +12296,7 @@
       </c>
     </row>
     <row r="25" spans="1:39">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="15">
         <v>8</v>
       </c>
@@ -10858,7 +12304,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
@@ -10881,35 +12327,35 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="X25">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AE25" t="str">
@@ -10930,12 +12376,12 @@
       </c>
     </row>
     <row r="26" spans="1:39">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
@@ -10958,35 +12404,35 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="X26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC26">
@@ -10997,7 +12443,7 @@
         <v>池澤</v>
       </c>
       <c r="AF26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK26" s="41" t="str" cm="1">
         <f t="array" ref="AK26">_xlfn.IFS(C26=1,"投",C26=2,"捕",C26=3,"一",C26=4,"二",C26=5,"三",C26=6,"遊",C26=7,"左",C26=8,"中",C26=9,"右",C26="","",C26="D","D",C26="F","F")</f>
@@ -11013,7 +12459,7 @@
       </c>
     </row>
     <row r="27" spans="1:39">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="15">
         <v>9</v>
       </c>
@@ -11024,7 +12470,7 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -11047,38 +12493,38 @@
         <v>0</v>
       </c>
       <c r="L27">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
+      <c r="Y27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AD27">
@@ -11089,7 +12535,7 @@
         <v>野場</v>
       </c>
       <c r="AF27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK27" s="41" t="str" cm="1">
         <f t="array" ref="AK27">_xlfn.IFS(C27=1,"投",C27=2,"捕",C27=3,"一",C27=4,"二",C27=5,"三",C27=6,"遊",C27=7,"左",C27=8,"中",C27=9,"右",C27="","",C27="D","D",C27="F","F")</f>
@@ -11104,10 +12550,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:39" hidden="1">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:39" ht="17.649999999999999" hidden="1" customHeight="1">
+      <c r="A28" s="46"/>
       <c r="AE28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK28" s="41" t="str" cm="1">
         <f t="array" ref="AK28">_xlfn.IFS(C28=1,"投",C28=2,"捕",C28=3,"一",C28=4,"二",C28=5,"三",C28=6,"遊",C28=7,"左",C28=8,"中",C28=9,"右",C28="","")</f>
@@ -11122,11 +12568,11 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:39" hidden="1">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:39" ht="17.649999999999999" hidden="1" customHeight="1">
+      <c r="A29" s="46"/>
       <c r="F29" s="23"/>
       <c r="AE29" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK29" s="41" t="str" cm="1">
         <f t="array" ref="AK29">_xlfn.IFS(C29=1,"投",C29=2,"捕",C29=3,"一",C29=4,"二",C29=5,"三",C29=6,"遊",C29=7,"左",C29=8,"中",C29=9,"右",C29="","")</f>
@@ -11141,11 +12587,11 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:39" hidden="1">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:39" ht="17.649999999999999" hidden="1" customHeight="1">
+      <c r="A30" s="46"/>
       <c r="F30" s="23"/>
       <c r="AE30" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK30" s="41" t="str" cm="1">
         <f t="array" ref="AK30">_xlfn.IFS(C30=1,"投",C30=2,"捕",C30=3,"一",C30=4,"二",C30=5,"三",C30=6,"遊",C30=7,"左",C30=8,"中",C30=9,"右",C30="","")</f>
@@ -11160,11 +12606,11 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" hidden="1">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:39" ht="17.649999999999999" hidden="1" customHeight="1">
+      <c r="A31" s="46"/>
       <c r="F31" s="23"/>
       <c r="AE31" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK31" s="41" t="str" cm="1">
         <f t="array" ref="AK31">_xlfn.IFS(C31=1,"投",C31=2,"捕",C31=3,"一",C31=4,"二",C31=5,"三",C31=6,"遊",C31=7,"左",C31=8,"中",C31=9,"右",C31="","")</f>
@@ -11179,11 +12625,11 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" hidden="1">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:39" ht="17.649999999999999" hidden="1" customHeight="1">
+      <c r="A32" s="46"/>
       <c r="F32" s="23"/>
       <c r="AE32" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK32" s="41" t="str" cm="1">
         <f t="array" ref="AK32">_xlfn.IFS(C32=1,"投",C32=2,"捕",C32=3,"一",C32=4,"二",C32=5,"三",C32=6,"遊",C32=7,"左",C32=8,"中",C32=9,"右",C32="","")</f>
@@ -11198,11 +12644,11 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:39" hidden="1">
+    <row r="33" spans="1:39" ht="17.649999999999999" hidden="1" customHeight="1">
       <c r="A33" s="46"/>
       <c r="F33" s="23"/>
       <c r="AE33" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK33" s="41" t="str" cm="1">
         <f t="array" ref="AK33">_xlfn.IFS(C33=1,"投",C33=2,"捕",C33=3,"一",C33=4,"二",C33=5,"三",C33=6,"遊",C33=7,"左",C33=8,"中",C33=9,"右",C33="","")</f>
@@ -11218,15 +12664,2002 @@
       </c>
     </row>
     <row r="34" spans="1:39" s="17" customFormat="1">
+      <c r="A34" s="48" t="s">
+        <v>180</v>
+      </c>
       <c r="B34" s="16"/>
+      <c r="AE34" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="AK34" s="43"/>
       <c r="AL34" s="43"/>
       <c r="AM34" s="43"/>
     </row>
+    <row r="35" spans="1:39">
+      <c r="A35" s="49"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="52"/>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" s="49"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="52"/>
+      <c r="AL36" s="52"/>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" s="49"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="50"/>
+      <c r="AE37" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="52"/>
+      <c r="AL37" s="52"/>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="49"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="50"/>
+      <c r="AK38" s="52"/>
+      <c r="AL38" s="52"/>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="49"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="50"/>
+      <c r="AD40" s="50"/>
+      <c r="AE40" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF40" s="50"/>
+      <c r="AG40" s="50"/>
+      <c r="AH40" s="50"/>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="A41" s="49"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="50"/>
+      <c r="AD41" s="50"/>
+      <c r="AE41" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF41" s="50"/>
+      <c r="AG41" s="50"/>
+      <c r="AH41" s="50"/>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="A42" s="49"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="50"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="A43" s="49"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="A44" s="49"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="50"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="A45" s="49"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="50"/>
+      <c r="AE45" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF45" s="50"/>
+      <c r="AG45" s="50"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="52"/>
+      <c r="AL45" s="52"/>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" s="49"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="50"/>
+      <c r="X46" s="50"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="50"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="52"/>
+      <c r="AL46" s="52"/>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="A47" s="49"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
+      <c r="W47" s="50"/>
+      <c r="X47" s="50"/>
+      <c r="Y47" s="50"/>
+      <c r="Z47" s="50"/>
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="50"/>
+      <c r="AD47" s="50"/>
+      <c r="AE47" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF47" s="50"/>
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="50"/>
+      <c r="AI47" s="50"/>
+      <c r="AJ47" s="50"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="A48" s="49"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="50"/>
+      <c r="X48" s="50"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="52"/>
+      <c r="AL48" s="52"/>
+    </row>
+    <row r="49" spans="1:38">
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF49" s="56"/>
+      <c r="AG49" s="56"/>
+      <c r="AH49" s="56"/>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="56"/>
+      <c r="AK49" s="58"/>
+      <c r="AL49" s="58"/>
+    </row>
+    <row r="50" spans="1:38">
+      <c r="A50" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="17"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="17"/>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="43"/>
+      <c r="AL50" s="43"/>
+    </row>
+    <row r="51" spans="1:38">
+      <c r="A51" s="49"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="52"/>
+      <c r="AL51" s="52"/>
+    </row>
+    <row r="52" spans="1:38">
+      <c r="A52" s="49"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="52"/>
+      <c r="AL52" s="52"/>
+    </row>
+    <row r="53" spans="1:38">
+      <c r="A53" s="49"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="50"/>
+      <c r="AD53" s="50"/>
+      <c r="AE53" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF53" s="50"/>
+      <c r="AG53" s="50"/>
+      <c r="AH53" s="50"/>
+      <c r="AI53" s="50"/>
+      <c r="AJ53" s="50"/>
+      <c r="AK53" s="52"/>
+      <c r="AL53" s="52"/>
+    </row>
+    <row r="54" spans="1:38">
+      <c r="A54" s="49"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="50"/>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="50"/>
+      <c r="AD54" s="50"/>
+      <c r="AE54" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF54" s="50"/>
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="50"/>
+      <c r="AI54" s="50"/>
+      <c r="AJ54" s="50"/>
+      <c r="AK54" s="52"/>
+      <c r="AL54" s="52"/>
+    </row>
+    <row r="55" spans="1:38">
+      <c r="A55" s="49"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="50"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="50"/>
+      <c r="AA55" s="50"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="50"/>
+      <c r="AD55" s="50"/>
+      <c r="AE55" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
+      <c r="AI55" s="50"/>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="52"/>
+      <c r="AL55" s="52"/>
+    </row>
+    <row r="56" spans="1:38">
+      <c r="A56" s="49"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="50"/>
+      <c r="X56" s="50"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="50"/>
+      <c r="AA56" s="50"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="50"/>
+      <c r="AD56" s="50"/>
+      <c r="AE56" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF56" s="50"/>
+      <c r="AG56" s="50"/>
+      <c r="AH56" s="50"/>
+      <c r="AI56" s="50"/>
+      <c r="AJ56" s="50"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+    </row>
+    <row r="57" spans="1:38">
+      <c r="A57" s="49"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50"/>
+      <c r="W57" s="50"/>
+      <c r="X57" s="50"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="50"/>
+      <c r="AA57" s="50"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="50"/>
+      <c r="AE57" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="50"/>
+      <c r="AJ57" s="50"/>
+      <c r="AK57" s="52"/>
+      <c r="AL57" s="52"/>
+    </row>
+    <row r="58" spans="1:38">
+      <c r="A58" s="49"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="50"/>
+      <c r="X58" s="50"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="50"/>
+      <c r="AA58" s="50"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
+      <c r="AD58" s="50"/>
+      <c r="AE58" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="50"/>
+      <c r="AI58" s="50"/>
+      <c r="AJ58" s="50"/>
+      <c r="AK58" s="52"/>
+      <c r="AL58" s="52"/>
+    </row>
+    <row r="59" spans="1:38">
+      <c r="A59" s="49"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="50"/>
+      <c r="U59" s="50"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="50"/>
+      <c r="X59" s="50"/>
+      <c r="Y59" s="50"/>
+      <c r="Z59" s="50"/>
+      <c r="AA59" s="50"/>
+      <c r="AB59" s="50"/>
+      <c r="AC59" s="50"/>
+      <c r="AD59" s="50"/>
+      <c r="AE59" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF59" s="50"/>
+      <c r="AG59" s="50"/>
+      <c r="AH59" s="50"/>
+      <c r="AI59" s="50"/>
+      <c r="AJ59" s="50"/>
+      <c r="AK59" s="52"/>
+      <c r="AL59" s="52"/>
+    </row>
+    <row r="60" spans="1:38">
+      <c r="A60" s="49"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
+      <c r="Z60" s="50"/>
+      <c r="AA60" s="50"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="50"/>
+      <c r="AD60" s="50"/>
+      <c r="AE60" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF60" s="50"/>
+      <c r="AG60" s="50"/>
+      <c r="AH60" s="50"/>
+      <c r="AI60" s="50"/>
+      <c r="AJ60" s="50"/>
+      <c r="AK60" s="52"/>
+      <c r="AL60" s="52"/>
+    </row>
+    <row r="61" spans="1:38">
+      <c r="A61" s="49"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="50"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="50"/>
+      <c r="Y61" s="50"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="50"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="50"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF61" s="50"/>
+      <c r="AG61" s="50"/>
+      <c r="AH61" s="50"/>
+      <c r="AI61" s="50"/>
+      <c r="AJ61" s="50"/>
+      <c r="AK61" s="52"/>
+      <c r="AL61" s="52"/>
+    </row>
+    <row r="62" spans="1:38">
+      <c r="A62" s="49"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50"/>
+      <c r="W62" s="50"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="50"/>
+      <c r="Z62" s="50"/>
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="50"/>
+      <c r="AC62" s="50"/>
+      <c r="AD62" s="50"/>
+      <c r="AE62" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF62" s="50"/>
+      <c r="AG62" s="50"/>
+      <c r="AH62" s="50"/>
+      <c r="AI62" s="50"/>
+      <c r="AJ62" s="50"/>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="52"/>
+    </row>
+    <row r="63" spans="1:38">
+      <c r="A63" s="49"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="50"/>
+      <c r="V63" s="50"/>
+      <c r="W63" s="50"/>
+      <c r="X63" s="50"/>
+      <c r="Y63" s="50"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="50"/>
+      <c r="AB63" s="50"/>
+      <c r="AC63" s="50"/>
+      <c r="AD63" s="50"/>
+      <c r="AE63" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF63" s="50"/>
+      <c r="AG63" s="50"/>
+      <c r="AH63" s="50"/>
+      <c r="AI63" s="50"/>
+      <c r="AJ63" s="50"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+    </row>
+    <row r="64" spans="1:38">
+      <c r="A64" s="49"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="50"/>
+      <c r="AC64" s="50"/>
+      <c r="AD64" s="50"/>
+      <c r="AE64" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF64" s="50"/>
+      <c r="AG64" s="50"/>
+      <c r="AH64" s="50"/>
+      <c r="AI64" s="50"/>
+      <c r="AJ64" s="50"/>
+      <c r="AK64" s="52"/>
+      <c r="AL64" s="52"/>
+    </row>
+    <row r="65" spans="1:38">
+      <c r="A65" s="54"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="56"/>
+      <c r="Q65" s="56"/>
+      <c r="R65" s="56"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
+      <c r="V65" s="56"/>
+      <c r="W65" s="56"/>
+      <c r="X65" s="56"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="56"/>
+      <c r="AA65" s="56"/>
+      <c r="AB65" s="56"/>
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF65" s="56"/>
+      <c r="AG65" s="56"/>
+      <c r="AH65" s="56"/>
+      <c r="AI65" s="56"/>
+      <c r="AJ65" s="56"/>
+      <c r="AK65" s="58"/>
+      <c r="AL65" s="58"/>
+    </row>
+    <row r="66" spans="1:38">
+      <c r="A66" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="17"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="43"/>
+      <c r="AL66" s="43"/>
+    </row>
+    <row r="67" spans="1:38">
+      <c r="A67" s="49"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="50"/>
+      <c r="V67" s="50"/>
+      <c r="W67" s="50"/>
+      <c r="X67" s="50"/>
+      <c r="Y67" s="50"/>
+      <c r="Z67" s="50"/>
+      <c r="AA67" s="50"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="50"/>
+      <c r="AD67" s="50"/>
+      <c r="AE67" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF67" s="50"/>
+      <c r="AG67" s="50"/>
+      <c r="AH67" s="50"/>
+      <c r="AI67" s="50"/>
+      <c r="AJ67" s="50"/>
+      <c r="AK67" s="52"/>
+      <c r="AL67" s="52"/>
+    </row>
+    <row r="68" spans="1:38">
+      <c r="A68" s="49"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="50"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="50"/>
+      <c r="AA68" s="50"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="50"/>
+      <c r="AD68" s="50"/>
+      <c r="AE68" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF68" s="50"/>
+      <c r="AG68" s="50"/>
+      <c r="AH68" s="50"/>
+      <c r="AI68" s="50"/>
+      <c r="AJ68" s="50"/>
+      <c r="AK68" s="52"/>
+      <c r="AL68" s="52"/>
+    </row>
+    <row r="69" spans="1:38">
+      <c r="A69" s="49"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50"/>
+      <c r="S69" s="50"/>
+      <c r="T69" s="50"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="50"/>
+      <c r="W69" s="50"/>
+      <c r="X69" s="50"/>
+      <c r="Y69" s="50"/>
+      <c r="Z69" s="50"/>
+      <c r="AA69" s="50"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="50"/>
+      <c r="AD69" s="50"/>
+      <c r="AE69" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="50"/>
+      <c r="AI69" s="50"/>
+      <c r="AJ69" s="50"/>
+      <c r="AK69" s="52"/>
+      <c r="AL69" s="52"/>
+    </row>
+    <row r="70" spans="1:38">
+      <c r="A70" s="49"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50"/>
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="50"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="50"/>
+      <c r="Y70" s="50"/>
+      <c r="Z70" s="50"/>
+      <c r="AA70" s="50"/>
+      <c r="AB70" s="50"/>
+      <c r="AC70" s="50"/>
+      <c r="AD70" s="50"/>
+      <c r="AE70" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="50"/>
+      <c r="AI70" s="50"/>
+      <c r="AJ70" s="50"/>
+      <c r="AK70" s="52"/>
+      <c r="AL70" s="52"/>
+    </row>
+    <row r="71" spans="1:38">
+      <c r="A71" s="49"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
+      <c r="Q71" s="50"/>
+      <c r="R71" s="50"/>
+      <c r="S71" s="50"/>
+      <c r="T71" s="50"/>
+      <c r="U71" s="50"/>
+      <c r="V71" s="50"/>
+      <c r="W71" s="50"/>
+      <c r="X71" s="50"/>
+      <c r="Y71" s="50"/>
+      <c r="Z71" s="50"/>
+      <c r="AA71" s="50"/>
+      <c r="AB71" s="50"/>
+      <c r="AC71" s="50"/>
+      <c r="AD71" s="50"/>
+      <c r="AE71" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF71" s="50"/>
+      <c r="AG71" s="50"/>
+      <c r="AH71" s="50"/>
+      <c r="AI71" s="50"/>
+      <c r="AJ71" s="50"/>
+      <c r="AK71" s="52"/>
+      <c r="AL71" s="52"/>
+    </row>
+    <row r="72" spans="1:38">
+      <c r="A72" s="49"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="50"/>
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
+      <c r="V72" s="50"/>
+      <c r="W72" s="50"/>
+      <c r="X72" s="50"/>
+      <c r="Y72" s="50"/>
+      <c r="Z72" s="50"/>
+      <c r="AA72" s="50"/>
+      <c r="AB72" s="50"/>
+      <c r="AC72" s="50"/>
+      <c r="AD72" s="50"/>
+      <c r="AE72" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF72" s="50"/>
+      <c r="AG72" s="50"/>
+      <c r="AH72" s="50"/>
+      <c r="AI72" s="50"/>
+      <c r="AJ72" s="50"/>
+      <c r="AK72" s="52"/>
+      <c r="AL72" s="52"/>
+    </row>
+    <row r="73" spans="1:38">
+      <c r="A73" s="49"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="50"/>
+      <c r="W73" s="50"/>
+      <c r="X73" s="50"/>
+      <c r="Y73" s="50"/>
+      <c r="Z73" s="50"/>
+      <c r="AA73" s="50"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
+      <c r="AI73" s="50"/>
+      <c r="AJ73" s="50"/>
+      <c r="AK73" s="52"/>
+      <c r="AL73" s="52"/>
+    </row>
+    <row r="74" spans="1:38">
+      <c r="A74" s="49"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="50"/>
+      <c r="R74" s="50"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="50"/>
+      <c r="V74" s="50"/>
+      <c r="W74" s="50"/>
+      <c r="X74" s="50"/>
+      <c r="Y74" s="50"/>
+      <c r="Z74" s="50"/>
+      <c r="AA74" s="50"/>
+      <c r="AB74" s="50"/>
+      <c r="AC74" s="50"/>
+      <c r="AD74" s="50"/>
+      <c r="AE74" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF74" s="50"/>
+      <c r="AG74" s="50"/>
+      <c r="AH74" s="50"/>
+      <c r="AI74" s="50"/>
+      <c r="AJ74" s="50"/>
+      <c r="AK74" s="52"/>
+      <c r="AL74" s="52"/>
+    </row>
+    <row r="75" spans="1:38">
+      <c r="A75" s="49"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="50"/>
+      <c r="V75" s="50"/>
+      <c r="W75" s="50"/>
+      <c r="X75" s="50"/>
+      <c r="Y75" s="50"/>
+      <c r="Z75" s="50"/>
+      <c r="AA75" s="50"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
+      <c r="AD75" s="50"/>
+      <c r="AE75" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF75" s="50"/>
+      <c r="AG75" s="50"/>
+      <c r="AH75" s="50"/>
+      <c r="AI75" s="50"/>
+      <c r="AJ75" s="50"/>
+      <c r="AK75" s="52"/>
+      <c r="AL75" s="52"/>
+    </row>
+    <row r="76" spans="1:38">
+      <c r="A76" s="49"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="50"/>
+      <c r="V76" s="50"/>
+      <c r="W76" s="50"/>
+      <c r="X76" s="50"/>
+      <c r="Y76" s="50"/>
+      <c r="Z76" s="50"/>
+      <c r="AA76" s="50"/>
+      <c r="AB76" s="50"/>
+      <c r="AC76" s="50"/>
+      <c r="AD76" s="50"/>
+      <c r="AE76" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF76" s="50"/>
+      <c r="AG76" s="50"/>
+      <c r="AH76" s="50"/>
+      <c r="AI76" s="50"/>
+      <c r="AJ76" s="50"/>
+      <c r="AK76" s="52"/>
+      <c r="AL76" s="52"/>
+    </row>
+    <row r="77" spans="1:38">
+      <c r="A77" s="49"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="50"/>
+      <c r="Q77" s="50"/>
+      <c r="R77" s="50"/>
+      <c r="S77" s="50"/>
+      <c r="T77" s="50"/>
+      <c r="U77" s="50"/>
+      <c r="V77" s="50"/>
+      <c r="W77" s="50"/>
+      <c r="X77" s="50"/>
+      <c r="Y77" s="50"/>
+      <c r="Z77" s="50"/>
+      <c r="AA77" s="50"/>
+      <c r="AB77" s="50"/>
+      <c r="AC77" s="50"/>
+      <c r="AD77" s="50"/>
+      <c r="AE77" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF77" s="50"/>
+      <c r="AG77" s="50"/>
+      <c r="AH77" s="50"/>
+      <c r="AI77" s="50"/>
+      <c r="AJ77" s="50"/>
+      <c r="AK77" s="52"/>
+      <c r="AL77" s="52"/>
+    </row>
+    <row r="78" spans="1:38">
+      <c r="A78" s="49"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
+      <c r="V78" s="50"/>
+      <c r="W78" s="50"/>
+      <c r="X78" s="50"/>
+      <c r="Y78" s="50"/>
+      <c r="Z78" s="50"/>
+      <c r="AA78" s="50"/>
+      <c r="AB78" s="50"/>
+      <c r="AC78" s="50"/>
+      <c r="AD78" s="50"/>
+      <c r="AE78" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF78" s="50"/>
+      <c r="AG78" s="50"/>
+      <c r="AH78" s="50"/>
+      <c r="AI78" s="50"/>
+      <c r="AJ78" s="50"/>
+      <c r="AK78" s="52"/>
+      <c r="AL78" s="52"/>
+    </row>
+    <row r="79" spans="1:38">
+      <c r="A79" s="49"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="50"/>
+      <c r="T79" s="50"/>
+      <c r="U79" s="50"/>
+      <c r="V79" s="50"/>
+      <c r="W79" s="50"/>
+      <c r="X79" s="50"/>
+      <c r="Y79" s="50"/>
+      <c r="Z79" s="50"/>
+      <c r="AA79" s="50"/>
+      <c r="AB79" s="50"/>
+      <c r="AC79" s="50"/>
+      <c r="AD79" s="50"/>
+      <c r="AE79" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF79" s="50"/>
+      <c r="AG79" s="50"/>
+      <c r="AH79" s="50"/>
+      <c r="AI79" s="50"/>
+      <c r="AJ79" s="50"/>
+      <c r="AK79" s="52"/>
+      <c r="AL79" s="52"/>
+    </row>
+    <row r="80" spans="1:38">
+      <c r="A80" s="49"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="50"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="50"/>
+      <c r="V80" s="50"/>
+      <c r="W80" s="50"/>
+      <c r="X80" s="50"/>
+      <c r="Y80" s="50"/>
+      <c r="Z80" s="50"/>
+      <c r="AA80" s="50"/>
+      <c r="AB80" s="50"/>
+      <c r="AC80" s="50"/>
+      <c r="AD80" s="50"/>
+      <c r="AE80" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF80" s="50"/>
+      <c r="AG80" s="50"/>
+      <c r="AH80" s="50"/>
+      <c r="AI80" s="50"/>
+      <c r="AJ80" s="50"/>
+      <c r="AK80" s="52"/>
+      <c r="AL80" s="52"/>
+    </row>
+    <row r="81" spans="1:38">
+      <c r="A81" s="54"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="58"/>
+      <c r="AL81" s="58"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A81"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C1:E1048576">
@@ -11321,7 +14754,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>1</v>
@@ -11402,52 +14835,52 @@
         <v>40</v>
       </c>
       <c r="AC2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AE2" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AE2" s="34" t="s">
+      <c r="AF2" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AG2" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AH2" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="AH2" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48" t="s">
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48" t="s">
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48" t="s">
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="48"/>
+      <c r="AO2" s="47"/>
       <c r="AP2" s="34" t="s">
         <v>35</v>
       </c>
       <c r="AQ2" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR2" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AR2" s="34" t="s">
+      <c r="AS2" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AS2" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
     </row>
     <row r="3" spans="1:50" s="15" customFormat="1">
       <c r="B3" s="15">
@@ -11693,10 +15126,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="AS4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT4" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="AT4" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="AU4" s="15" t="s">
         <v>22</v>
@@ -11705,7 +15138,7 @@
         <v>23</v>
       </c>
       <c r="AW4" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="15" customFormat="1">
@@ -11870,15 +15303,15 @@
       </c>
       <c r="AP5"/>
       <c r="AS5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT5" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="AT5" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="32" customFormat="1">
       <c r="B6" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="32">
         <f>SUM(C3:C5)</f>
@@ -12033,13 +15466,13 @@
         <v>0.32432432432432434</v>
       </c>
       <c r="AS6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU6" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="AT6" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU6" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="AV6" s="15" t="s">
         <v>22</v>
@@ -12048,15 +15481,15 @@
         <v>23</v>
       </c>
       <c r="AX6" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="34" customFormat="1">
       <c r="A8" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>1</v>
@@ -12137,52 +15570,52 @@
         <v>40</v>
       </c>
       <c r="AC8" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AD8" s="34" t="s">
+      <c r="AE8" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AE8" s="34" t="s">
+      <c r="AF8" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AF8" s="34" t="s">
+      <c r="AG8" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="34" t="s">
+      <c r="AH8" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="AH8" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48" t="s">
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48" t="s">
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48" t="s">
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AO8" s="48"/>
+      <c r="AO8" s="47"/>
       <c r="AP8" s="34" t="s">
         <v>35</v>
       </c>
       <c r="AQ8" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR8" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AR8" s="34" t="s">
+      <c r="AS8" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AS8" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="48"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="47"/>
     </row>
     <row r="9" spans="1:50">
       <c r="B9">
@@ -12291,13 +15724,13 @@
         <v>0.5</v>
       </c>
       <c r="AS9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AT9" t="s">
         <v>23</v>
       </c>
       <c r="AU9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -12431,16 +15864,16 @@
         <v>0.77</v>
       </c>
       <c r="AS10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT10" t="s">
         <v>116</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>117</v>
       </c>
       <c r="AU10" t="s">
         <v>23</v>
       </c>
       <c r="AV10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -12606,7 +16039,7 @@
     </row>
     <row r="12" spans="1:50" s="32" customFormat="1">
       <c r="B12" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="32">
         <f t="shared" ref="C12:S12" si="2">SUM(C9:C11)</f>
@@ -12761,16 +16194,16 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="AS12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT12" t="s">
         <v>116</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>117</v>
       </c>
       <c r="AU12" t="s">
         <v>23</v>
       </c>
       <c r="AV12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="18" customHeight="1">
@@ -12778,10 +16211,10 @@
     </row>
     <row r="14" spans="1:50" s="34" customFormat="1">
       <c r="A14" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>1</v>
@@ -12862,52 +16295,52 @@
         <v>40</v>
       </c>
       <c r="AC14" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD14" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AD14" s="34" t="s">
+      <c r="AE14" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AE14" s="34" t="s">
+      <c r="AF14" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AF14" s="34" t="s">
+      <c r="AG14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AG14" s="34" t="s">
+      <c r="AH14" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="AH14" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48" t="s">
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48" t="s">
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48" t="s">
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AO14" s="48"/>
+      <c r="AO14" s="47"/>
       <c r="AP14" s="34" t="s">
         <v>35</v>
       </c>
       <c r="AQ14" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR14" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AR14" s="34" t="s">
+      <c r="AS14" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AS14" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="47"/>
     </row>
     <row r="15" spans="1:50">
       <c r="B15">
@@ -13016,7 +16449,7 @@
         <v>0.13</v>
       </c>
       <c r="AS15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -13150,10 +16583,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AS16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -13319,7 +16752,7 @@
     </row>
     <row r="18" spans="1:49" s="32" customFormat="1">
       <c r="B18" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="32">
         <f t="shared" ref="C18:S18" si="5">SUM(C15:C17)</f>
@@ -13474,18 +16907,18 @@
         <v>0.42307692307692307</v>
       </c>
       <c r="AS18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:49" s="34" customFormat="1">
       <c r="A20" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>1</v>
@@ -13566,52 +16999,52 @@
         <v>40</v>
       </c>
       <c r="AC20" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD20" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AD20" s="34" t="s">
+      <c r="AE20" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" s="34" t="s">
+      <c r="AF20" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AF20" s="34" t="s">
+      <c r="AG20" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AG20" s="34" t="s">
+      <c r="AH20" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="AH20" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48" t="s">
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48" t="s">
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48" t="s">
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AO20" s="48"/>
+      <c r="AO20" s="47"/>
       <c r="AP20" s="34" t="s">
         <v>35</v>
       </c>
       <c r="AQ20" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR20" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AR20" s="34" t="s">
+      <c r="AS20" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AS20" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
     </row>
     <row r="21" spans="1:49">
       <c r="B21">
@@ -13720,10 +17153,10 @@
         <v>0.38</v>
       </c>
       <c r="AS21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU21" t="s">
         <v>23</v>
@@ -13860,7 +17293,7 @@
         <v>0.63</v>
       </c>
       <c r="AS22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT22" t="s">
         <v>23</v>
@@ -14029,7 +17462,7 @@
     </row>
     <row r="24" spans="1:49" s="32" customFormat="1">
       <c r="B24" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="32">
         <f t="shared" ref="C24:S24" si="8">SUM(C21:C23)</f>
@@ -14184,10 +17617,10 @@
         <v>0.54054054054054057</v>
       </c>
       <c r="AS24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU24" t="s">
         <v>23</v>
@@ -14198,76 +17631,76 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
         <v>123</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>124</v>
       </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>125</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>126</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>127</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>128</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>129</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>130</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>131</v>
-      </c>
-      <c r="M27" t="s">
-        <v>132</v>
       </c>
       <c r="N27" t="s">
         <v>45</v>
       </c>
       <c r="O27" t="s">
+        <v>132</v>
+      </c>
+      <c r="P27" t="s">
         <v>133</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>134</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>135</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>136</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>137</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>138</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>139</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>140</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>141</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>142</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:49">
@@ -14349,76 +17782,76 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>125</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>126</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>127</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>128</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>129</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>130</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>131</v>
-      </c>
-      <c r="M30" t="s">
-        <v>132</v>
       </c>
       <c r="N30" t="s">
         <v>45</v>
       </c>
       <c r="O30" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" t="s">
         <v>133</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>134</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>135</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>136</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>137</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>138</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>139</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>140</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>141</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>142</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:49">
@@ -14567,7 +18000,7 @@
     </row>
     <row r="34" spans="2:18">
       <c r="B34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>19</v>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA475D08-B913-45C8-BBE5-0BB6DEDF83DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB88F0E9-F26C-4BA8-B85D-C6F178F1DF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,126 +1262,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="179" formatCode="&quot;捕&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="&quot;一&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="&quot;二&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="&quot;三&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="183" formatCode="&quot;遊&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode="&quot;左&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="185" formatCode="&quot;中&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;右&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="187" formatCode="&quot;投&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="&quot;捕&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="&quot;一&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="&quot;二&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="&quot;三&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="183" formatCode="&quot;遊&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode="&quot;左&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="185" formatCode="&quot;中&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="186" formatCode="&quot;右&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="187" formatCode="&quot;投&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1699,11 +1590,11 @@
       </c>
       <c r="D2" s="1">
         <f>打撃集計!D2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <f>打撃集計!E2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <f>打撃集計!F2</f>
@@ -1723,7 +1614,7 @@
       </c>
       <c r="J2" s="1">
         <f>打撃集計!N2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
@@ -1771,11 +1662,11 @@
       </c>
       <c r="D3" s="1">
         <f>打撃集計!D3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <f>打撃集計!E3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <f>打撃集計!F3</f>
@@ -1795,7 +1686,7 @@
       </c>
       <c r="J3" s="1">
         <f>打撃集計!N3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
@@ -1803,11 +1694,11 @@
       </c>
       <c r="L3" s="4" t="str">
         <f>TEXT(打撃集計!P3,"0.000")</f>
-        <v>0.250</v>
+        <v>0.143</v>
       </c>
       <c r="M3" s="4" t="str">
         <f>TEXT(打撃集計!R3,"0.000")</f>
-        <v>0.250</v>
+        <v>0.143</v>
       </c>
       <c r="N3" s="1">
         <f>打撃集計!S3</f>
@@ -1843,11 +1734,11 @@
       </c>
       <c r="D4" s="1">
         <f>打撃集計!D4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <f>打撃集計!E4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <f>打撃集計!F4</f>
@@ -1867,7 +1758,7 @@
       </c>
       <c r="J4" s="1">
         <f>打撃集計!N4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="4" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
@@ -1987,11 +1878,11 @@
       </c>
       <c r="D6" s="1">
         <f>打撃集計!D6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
         <f>打撃集計!E6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <f>打撃集計!F6</f>
@@ -2015,15 +1906,15 @@
       </c>
       <c r="K6" s="4" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
-        <v>0.429</v>
+        <v>0.300</v>
       </c>
       <c r="L6" s="4" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
-        <v>0.429</v>
+        <v>0.300</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>TEXT(打撃集計!R6,"0.000")</f>
-        <v>1.000</v>
+        <v>0.700</v>
       </c>
       <c r="N6" s="1">
         <f>打撃集計!S6</f>
@@ -2059,15 +1950,15 @@
       </c>
       <c r="D7" s="1">
         <f>打撃集計!D7</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <f>打撃集計!E7</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <f>打撃集計!F7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <f>打撃集計!G7</f>
@@ -2087,15 +1978,15 @@
       </c>
       <c r="K7" s="4" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
-        <v>0.250</v>
+        <v>0.364</v>
       </c>
       <c r="L7" s="4" t="str">
         <f>TEXT(打撃集計!P7,"0.000")</f>
-        <v>0.250</v>
+        <v>0.364</v>
       </c>
       <c r="M7" s="4" t="str">
         <f>TEXT(打撃集計!R7,"0.000")</f>
-        <v>1.000</v>
+        <v>1.364</v>
       </c>
       <c r="N7" s="1">
         <f>打撃集計!S7</f>
@@ -2131,11 +2022,11 @@
       </c>
       <c r="D8" s="1">
         <f>打撃集計!D8</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <f>打撃集計!E8</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1">
         <f>打撃集計!F8</f>
@@ -2143,7 +2034,7 @@
       </c>
       <c r="G8" s="1">
         <f>打撃集計!G8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <f>打撃集計!J8</f>
@@ -2155,7 +2046,7 @@
       </c>
       <c r="J8" s="1">
         <f>打撃集計!N8</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8" s="4" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
@@ -2163,11 +2054,11 @@
       </c>
       <c r="L8" s="4" t="str">
         <f>TEXT(打撃集計!P8,"0.000")</f>
-        <v>0.000</v>
+        <v>0.100</v>
       </c>
       <c r="M8" s="4" t="str">
         <f>TEXT(打撃集計!R8,"0.000")</f>
-        <v>0.000</v>
+        <v>0.100</v>
       </c>
       <c r="N8" s="1">
         <f>打撃集計!S8</f>
@@ -2203,11 +2094,11 @@
       </c>
       <c r="D9" s="1">
         <f>打撃集計!D9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <f>打撃集計!E9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <f>打撃集計!F9</f>
@@ -2275,15 +2166,15 @@
       </c>
       <c r="D10" s="1">
         <f>打撃集計!D10</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <f>打撃集計!E10</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <f>打撃集計!F10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
         <f>打撃集計!G10</f>
@@ -2303,15 +2194,15 @@
       </c>
       <c r="K10" s="4" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
-        <v>0.143</v>
+        <v>0.200</v>
       </c>
       <c r="L10" s="4" t="str">
         <f>TEXT(打撃集計!P10,"0.000")</f>
-        <v>0.250</v>
+        <v>0.273</v>
       </c>
       <c r="M10" s="4" t="str">
         <f>TEXT(打撃集計!R10,"0.000")</f>
-        <v>0.393</v>
+        <v>0.473</v>
       </c>
       <c r="N10" s="1">
         <f>打撃集計!S10</f>
@@ -2419,11 +2310,11 @@
       </c>
       <c r="D12" s="1">
         <f>打撃集計!D12</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <f>打撃集計!E12</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
         <f>打撃集計!F12</f>
@@ -2431,7 +2322,7 @@
       </c>
       <c r="G12" s="1">
         <f>打撃集計!G12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <f>打撃集計!J12</f>
@@ -2447,15 +2338,15 @@
       </c>
       <c r="K12" s="4" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
-        <v>0.286</v>
+        <v>0.250</v>
       </c>
       <c r="L12" s="4" t="str">
         <f>TEXT(打撃集計!P12,"0.000")</f>
-        <v>0.375</v>
+        <v>0.455</v>
       </c>
       <c r="M12" s="4" t="str">
         <f>TEXT(打撃集計!R12,"0.000")</f>
-        <v>0.661</v>
+        <v>0.705</v>
       </c>
       <c r="N12" s="1">
         <f>打撃集計!S12</f>
@@ -2561,11 +2452,11 @@
       </c>
       <c r="D14" s="1">
         <f>打撃集計!D14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <f>打撃集計!E14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
         <f>打撃集計!F14</f>
@@ -2585,7 +2476,7 @@
       </c>
       <c r="J14" s="1">
         <f>打撃集計!N14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4" t="str">
         <f>TEXT(打撃集計!O14,"0.000")</f>
@@ -2593,11 +2484,11 @@
       </c>
       <c r="L14" s="4" t="str">
         <f>TEXT(打撃集計!P14,"0.000")</f>
-        <v>0.000</v>
+        <v>0.167</v>
       </c>
       <c r="M14" s="4" t="str">
         <f>TEXT(打撃集計!R14,"0.000")</f>
-        <v>0.000</v>
+        <v>0.167</v>
       </c>
       <c r="N14" s="1">
         <f>打撃集計!S14</f>
@@ -2845,19 +2736,19 @@
       </c>
       <c r="D18" s="1">
         <f>打撃集計!D18</f>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1">
         <f>打撃集計!E18</f>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1">
         <f>打撃集計!F18</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1">
         <f>打撃集計!G18</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1">
         <f>打撃集計!J18</f>
@@ -2869,19 +2760,19 @@
       </c>
       <c r="J18" s="1">
         <f>打撃集計!N18</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K18" s="4" t="str">
         <f>TEXT(打撃集計!O18,"0.000")</f>
-        <v>0.155</v>
+        <v>0.152</v>
       </c>
       <c r="L18" s="4" t="str">
         <f>TEXT(打撃集計!P18,"0.000")</f>
-        <v>0.210</v>
+        <v>0.221</v>
       </c>
       <c r="M18" s="4" t="str">
         <f>TEXT(打撃集計!R18,"0.000")</f>
-        <v>0.451</v>
+        <v>0.474</v>
       </c>
       <c r="N18" s="1">
         <f>打撃集計!S18</f>
@@ -30575,11 +30466,11 @@
       </c>
       <c r="C2" s="7">
         <f>打撃集計!D2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7">
         <f>打撃集計!E2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="7">
         <f>打撃集計!F2</f>
@@ -30651,7 +30542,7 @@
       </c>
       <c r="V2" s="7">
         <f>打撃集計!N2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" s="7">
         <f>打撃集計!AA2</f>
@@ -30659,27 +30550,27 @@
       </c>
       <c r="X2" s="7">
         <f>打撃集計!AB2</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" s="7" t="str">
         <f>TEXT(打撃集計!AC2,"0.0")</f>
-        <v>5.0</v>
+        <v>3.4</v>
       </c>
       <c r="Z2" s="6" t="str">
         <f>ROUND(打撃集計!AD2/$X2,2)*100 &amp; "%"</f>
-        <v>20%</v>
+        <v>18%</v>
       </c>
       <c r="AA2" s="6" t="str">
         <f>ROUND(打撃集計!AE2/$X2,2)*100 &amp; "%"</f>
-        <v>20%</v>
+        <v>18%</v>
       </c>
       <c r="AB2" s="6" t="str">
         <f>ROUND(打撃集計!AF2/$X2,2)*100 &amp; "%"</f>
-        <v>13%</v>
+        <v>12%</v>
       </c>
       <c r="AC2" s="6" t="str">
         <f>ROUND(打撃集計!AG2/$X2,2)*100 &amp; "%"</f>
-        <v>27%</v>
+        <v>24%</v>
       </c>
       <c r="AD2" s="7">
         <f>打撃集計!S2</f>
@@ -30709,11 +30600,11 @@
       </c>
       <c r="C3" s="7">
         <f>打撃集計!D3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7">
         <f>打撃集計!E3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7">
         <f>打撃集計!F3</f>
@@ -30749,7 +30640,7 @@
       </c>
       <c r="M3" s="7" t="str">
         <f>TEXT(打撃集計!P3,"0.000")</f>
-        <v>0.250</v>
+        <v>0.143</v>
       </c>
       <c r="N3" s="7" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
@@ -30757,7 +30648,7 @@
       </c>
       <c r="O3" s="7" t="str">
         <f>TEXT(打撃集計!R3,"0.000")</f>
-        <v>0.250</v>
+        <v>0.143</v>
       </c>
       <c r="P3" s="7">
         <f>打撃集計!W3</f>
@@ -30785,7 +30676,7 @@
       </c>
       <c r="V3" s="7">
         <f>打撃集計!N3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W3" s="7">
         <f>打撃集計!AA3</f>
@@ -30793,11 +30684,11 @@
       </c>
       <c r="X3" s="7">
         <f>打撃集計!AB3</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="7" t="str">
         <f>TEXT(打撃集計!AC3,"0.0")</f>
-        <v>7.7</v>
+        <v>4.3</v>
       </c>
       <c r="Z3" s="6" t="str">
         <f>ROUND(打撃集計!AD3/$X3,2)*100 &amp; "%"</f>
@@ -30805,15 +30696,15 @@
       </c>
       <c r="AA3" s="6" t="str">
         <f>ROUND(打撃集計!AE3/$X3,2)*100 &amp; "%"</f>
-        <v>22%</v>
+        <v>19%</v>
       </c>
       <c r="AB3" s="6" t="str">
         <f>ROUND(打撃集計!AF3/$X3,2)*100 &amp; "%"</f>
-        <v>35%</v>
+        <v>31%</v>
       </c>
       <c r="AC3" s="6" t="str">
         <f>ROUND(打撃集計!AG3/$X3,2)*100 &amp; "%"</f>
-        <v>26%</v>
+        <v>23%</v>
       </c>
       <c r="AD3" s="7">
         <f>打撃集計!S3</f>
@@ -30843,11 +30734,11 @@
       </c>
       <c r="C4" s="7">
         <f>打撃集計!D4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
         <f>打撃集計!E4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7">
         <f>打撃集計!F4</f>
@@ -30919,7 +30810,7 @@
       </c>
       <c r="V4" s="7">
         <f>打撃集計!N4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W4" s="7">
         <f>打撃集計!AA4</f>
@@ -30927,19 +30818,19 @@
       </c>
       <c r="X4" s="7">
         <f>打撃集計!AB4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="7" t="str">
         <f>TEXT(打撃集計!AC4,"0.0")</f>
-        <v>2.3</v>
+        <v>2.0</v>
       </c>
       <c r="Z4" s="6" t="str">
         <f>ROUND(打撃集計!AD4/$X4,2)*100 &amp; "%"</f>
-        <v>11%</v>
+        <v>10%</v>
       </c>
       <c r="AA4" s="6" t="str">
         <f>ROUND(打撃集計!AE4/$X4,2)*100 &amp; "%"</f>
-        <v>11%</v>
+        <v>10%</v>
       </c>
       <c r="AB4" s="6" t="str">
         <f>ROUND(打撃集計!AF4/$X4,2)*100 &amp; "%"</f>
@@ -30947,7 +30838,7 @@
       </c>
       <c r="AC4" s="6" t="str">
         <f>ROUND(打撃集計!AG4/$X4,2)*100 &amp; "%"</f>
-        <v>33%</v>
+        <v>30%</v>
       </c>
       <c r="AD4" s="7">
         <f>打撃集計!S4</f>
@@ -31111,11 +31002,11 @@
       </c>
       <c r="C6" s="7">
         <f>打撃集計!D6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
         <f>打撃集計!E6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7">
         <f>打撃集計!F6</f>
@@ -31147,19 +31038,19 @@
       </c>
       <c r="L6" s="7" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
-        <v>0.429</v>
+        <v>0.300</v>
       </c>
       <c r="M6" s="7" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
-        <v>0.429</v>
+        <v>0.300</v>
       </c>
       <c r="N6" s="7" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
-        <v>0.571</v>
+        <v>0.400</v>
       </c>
       <c r="O6" s="7" t="str">
         <f>TEXT(打撃集計!R6,"0.000")</f>
-        <v>1.000</v>
+        <v>0.700</v>
       </c>
       <c r="P6" s="7">
         <f>打撃集計!W6</f>
@@ -31195,15 +31086,15 @@
       </c>
       <c r="X6" s="7">
         <f>打撃集計!AB6</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="7" t="str">
         <f>TEXT(打撃集計!AC6,"0.0")</f>
-        <v>3.0</v>
+        <v>2.4</v>
       </c>
       <c r="Z6" s="6" t="str">
         <f>ROUND(打撃集計!AD6/$X6,2)*100 &amp; "%"</f>
-        <v>19%</v>
+        <v>17%</v>
       </c>
       <c r="AA6" s="6" t="str">
         <f>ROUND(打撃集計!AE6/$X6,2)*100 &amp; "%"</f>
@@ -31211,11 +31102,11 @@
       </c>
       <c r="AB6" s="6" t="str">
         <f>ROUND(打撃集計!AF6/$X6,2)*100 &amp; "%"</f>
-        <v>14%</v>
+        <v>13%</v>
       </c>
       <c r="AC6" s="6" t="str">
         <f>ROUND(打撃集計!AG6/$X6,2)*100 &amp; "%"</f>
-        <v>33%</v>
+        <v>29%</v>
       </c>
       <c r="AD6" s="7">
         <f>打撃集計!S6</f>
@@ -31245,15 +31136,15 @@
       </c>
       <c r="C7" s="7">
         <f>打撃集計!D7</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
         <f>打撃集計!E7</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7">
         <f>打撃集計!F7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="7">
         <f>打撃集計!G7</f>
@@ -31281,19 +31172,19 @@
       </c>
       <c r="L7" s="7" t="str">
         <f>TEXT(打撃集計!O7,"0.000")</f>
-        <v>0.250</v>
+        <v>0.364</v>
       </c>
       <c r="M7" s="7" t="str">
         <f>TEXT(打撃集計!P7,"0.000")</f>
-        <v>0.250</v>
+        <v>0.364</v>
       </c>
       <c r="N7" s="7" t="str">
         <f>TEXT(打撃集計!Q7,"0.000")</f>
-        <v>0.750</v>
+        <v>1.000</v>
       </c>
       <c r="O7" s="7" t="str">
         <f>TEXT(打撃集計!R7,"0.000")</f>
-        <v>1.000</v>
+        <v>1.364</v>
       </c>
       <c r="P7" s="7">
         <f>打撃集計!W7</f>
@@ -31301,11 +31192,11 @@
       </c>
       <c r="Q7" s="7">
         <f>打撃集計!X7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="7">
         <f>打撃集計!Y7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="7">
         <f>打撃集計!M7</f>
@@ -31313,7 +31204,7 @@
       </c>
       <c r="T7" s="7">
         <f>打撃集計!Z7</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U7" s="7">
         <f>打撃集計!AI7</f>
@@ -31329,11 +31220,11 @@
       </c>
       <c r="X7" s="7">
         <f>打撃集計!AB7</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="7" t="str">
         <f>TEXT(打撃集計!AC7,"0.0")</f>
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="Z7" s="6" t="str">
         <f>ROUND(打撃集計!AD7/$X7,2)*100 &amp; "%"</f>
@@ -31341,15 +31232,15 @@
       </c>
       <c r="AA7" s="6" t="str">
         <f>ROUND(打撃集計!AE7/$X7,2)*100 &amp; "%"</f>
-        <v>30%</v>
+        <v>28%</v>
       </c>
       <c r="AB7" s="6" t="str">
         <f>ROUND(打撃集計!AF7/$X7,2)*100 &amp; "%"</f>
-        <v>15%</v>
+        <v>14%</v>
       </c>
       <c r="AC7" s="6" t="str">
         <f>ROUND(打撃集計!AG7/$X7,2)*100 &amp; "%"</f>
-        <v>30%</v>
+        <v>28%</v>
       </c>
       <c r="AD7" s="7">
         <f>打撃集計!S7</f>
@@ -31379,11 +31270,11 @@
       </c>
       <c r="C8" s="7">
         <f>打撃集計!D8</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
         <f>打撃集計!E8</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7">
         <f>打撃集計!F8</f>
@@ -31391,7 +31282,7 @@
       </c>
       <c r="F8" s="7">
         <f>打撃集計!G8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="7">
         <f>打撃集計!H8</f>
@@ -31419,7 +31310,7 @@
       </c>
       <c r="M8" s="7" t="str">
         <f>TEXT(打撃集計!P8,"0.000")</f>
-        <v>0.000</v>
+        <v>0.100</v>
       </c>
       <c r="N8" s="7" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
@@ -31427,7 +31318,7 @@
       </c>
       <c r="O8" s="7" t="str">
         <f>TEXT(打撃集計!R8,"0.000")</f>
-        <v>0.000</v>
+        <v>0.100</v>
       </c>
       <c r="P8" s="7">
         <f>打撃集計!W8</f>
@@ -31455,7 +31346,7 @@
       </c>
       <c r="V8" s="7">
         <f>打撃集計!N8</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W8" s="7">
         <f>打撃集計!AA8</f>
@@ -31463,11 +31354,11 @@
       </c>
       <c r="X8" s="7">
         <f>打撃集計!AB8</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y8" s="7" t="str">
         <f>TEXT(打撃集計!AC8,"0.0")</f>
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Z8" s="6" t="str">
         <f>ROUND(打撃集計!AD8/$X8,2)*100 &amp; "%"</f>
@@ -31475,15 +31366,15 @@
       </c>
       <c r="AA8" s="6" t="str">
         <f>ROUND(打撃集計!AE8/$X8,2)*100 &amp; "%"</f>
-        <v>11%</v>
+        <v>10%</v>
       </c>
       <c r="AB8" s="6" t="str">
         <f>ROUND(打撃集計!AF8/$X8,2)*100 &amp; "%"</f>
-        <v>11%</v>
+        <v>10%</v>
       </c>
       <c r="AC8" s="6" t="str">
         <f>ROUND(打撃集計!AG8/$X8,2)*100 &amp; "%"</f>
-        <v>37%</v>
+        <v>33%</v>
       </c>
       <c r="AD8" s="7">
         <f>打撃集計!S8</f>
@@ -31513,11 +31404,11 @@
       </c>
       <c r="C9" s="7">
         <f>打撃集計!D9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
         <f>打撃集計!E9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
         <f>打撃集計!F9</f>
@@ -31597,7 +31488,7 @@
       </c>
       <c r="X9" s="7">
         <f>打撃集計!AB9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y9" s="7" t="str">
         <f>TEXT(打撃集計!AC9,"0.0")</f>
@@ -31647,15 +31538,15 @@
       </c>
       <c r="C10" s="7">
         <f>打撃集計!D10</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
         <f>打撃集計!E10</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7">
         <f>打撃集計!F10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
         <f>打撃集計!G10</f>
@@ -31683,23 +31574,23 @@
       </c>
       <c r="L10" s="7" t="str">
         <f>TEXT(打撃集計!O10,"0.000")</f>
-        <v>0.143</v>
+        <v>0.200</v>
       </c>
       <c r="M10" s="7" t="str">
         <f>TEXT(打撃集計!P10,"0.000")</f>
-        <v>0.250</v>
+        <v>0.273</v>
       </c>
       <c r="N10" s="7" t="str">
         <f>TEXT(打撃集計!Q10,"0.000")</f>
-        <v>0.143</v>
+        <v>0.200</v>
       </c>
       <c r="O10" s="7" t="str">
         <f>TEXT(打撃集計!R10,"0.000")</f>
-        <v>0.393</v>
+        <v>0.473</v>
       </c>
       <c r="P10" s="7">
         <f>打撃集計!W10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="7">
         <f>打撃集計!X10</f>
@@ -31715,7 +31606,7 @@
       </c>
       <c r="T10" s="7">
         <f>打撃集計!Z10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" s="7">
         <f>打撃集計!AI10</f>
@@ -31731,27 +31622,27 @@
       </c>
       <c r="X10" s="7">
         <f>打撃集計!AB10</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Y10" s="7" t="str">
         <f>TEXT(打撃集計!AC10,"0.0")</f>
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="Z10" s="6" t="str">
         <f>ROUND(打撃集計!AD10/$X10,2)*100 &amp; "%"</f>
-        <v>17%</v>
+        <v>15%</v>
       </c>
       <c r="AA10" s="6" t="str">
         <f>ROUND(打撃集計!AE10/$X10,2)*100 &amp; "%"</f>
-        <v>13%</v>
+        <v>12%</v>
       </c>
       <c r="AB10" s="6" t="str">
         <f>ROUND(打撃集計!AF10/$X10,2)*100 &amp; "%"</f>
-        <v>13%</v>
+        <v>12%</v>
       </c>
       <c r="AC10" s="6" t="str">
         <f>ROUND(打撃集計!AG10/$X10,2)*100 &amp; "%"</f>
-        <v>33%</v>
+        <v>30%</v>
       </c>
       <c r="AD10" s="7">
         <f>打撃集計!S10</f>
@@ -31915,11 +31806,11 @@
       </c>
       <c r="C12" s="7">
         <f>打撃集計!D12</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
         <f>打撃集計!E12</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <f>打撃集計!F12</f>
@@ -31927,7 +31818,7 @@
       </c>
       <c r="F12" s="7">
         <f>打撃集計!G12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="7">
         <f>打撃集計!H12</f>
@@ -31951,19 +31842,19 @@
       </c>
       <c r="L12" s="7" t="str">
         <f>TEXT(打撃集計!O12,"0.000")</f>
-        <v>0.286</v>
+        <v>0.250</v>
       </c>
       <c r="M12" s="7" t="str">
         <f>TEXT(打撃集計!P12,"0.000")</f>
-        <v>0.375</v>
+        <v>0.455</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>TEXT(打撃集計!Q12,"0.000")</f>
-        <v>0.286</v>
+        <v>0.250</v>
       </c>
       <c r="O12" s="7" t="str">
         <f>TEXT(打撃集計!R12,"0.000")</f>
-        <v>0.661</v>
+        <v>0.705</v>
       </c>
       <c r="P12" s="7">
         <f>打撃集計!W12</f>
@@ -31999,11 +31890,11 @@
       </c>
       <c r="X12" s="7">
         <f>打撃集計!AB12</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y12" s="7" t="str">
         <f>TEXT(打撃集計!AC12,"0.0")</f>
-        <v>4.4</v>
+        <v>4.0</v>
       </c>
       <c r="Z12" s="6" t="str">
         <f>ROUND(打撃集計!AD12/$X12,2)*100 &amp; "%"</f>
@@ -32011,7 +31902,7 @@
       </c>
       <c r="AA12" s="6" t="str">
         <f>ROUND(打撃集計!AE12/$X12,2)*100 &amp; "%"</f>
-        <v>10%</v>
+        <v>9%</v>
       </c>
       <c r="AB12" s="6" t="str">
         <f>ROUND(打撃集計!AF12/$X12,2)*100 &amp; "%"</f>
@@ -32019,7 +31910,7 @@
       </c>
       <c r="AC12" s="6" t="str">
         <f>ROUND(打撃集計!AG12/$X12,2)*100 &amp; "%"</f>
-        <v>39%</v>
+        <v>38%</v>
       </c>
       <c r="AD12" s="7">
         <f>打撃集計!S12</f>
@@ -32181,11 +32072,11 @@
       </c>
       <c r="C14" s="7">
         <f>打撃集計!D14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
         <f>打撃集計!E14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7">
         <f>打撃集計!F14</f>
@@ -32197,7 +32088,7 @@
       </c>
       <c r="G14" s="7">
         <f>打撃集計!H14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7">
         <f>打撃集計!I14</f>
@@ -32221,7 +32112,7 @@
       </c>
       <c r="M14" s="7" t="str">
         <f>TEXT(打撃集計!P14,"0.000")</f>
-        <v>0.000</v>
+        <v>0.167</v>
       </c>
       <c r="N14" s="7" t="str">
         <f>TEXT(打撃集計!Q14,"0.000")</f>
@@ -32229,7 +32120,7 @@
       </c>
       <c r="O14" s="7" t="str">
         <f>TEXT(打撃集計!R14,"0.000")</f>
-        <v>0.000</v>
+        <v>0.167</v>
       </c>
       <c r="P14" s="7">
         <f>打撃集計!W14</f>
@@ -32257,7 +32148,7 @@
       </c>
       <c r="V14" s="7">
         <f>打撃集計!N14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" s="7">
         <f>打撃集計!AA14</f>
@@ -32265,7 +32156,7 @@
       </c>
       <c r="X14" s="7">
         <f>打撃集計!AB14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="7" t="str">
         <f>TEXT(打撃集計!AC14,"0.0")</f>
@@ -32714,19 +32605,19 @@
       </c>
       <c r="C18" s="7">
         <f>打撃集計!D18</f>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D18" s="7">
         <f>打撃集計!E18</f>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E18" s="7">
         <f>打撃集計!F18</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7">
         <f>打撃集計!G18</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18" s="7">
         <f>打撃集計!H18</f>
@@ -32750,31 +32641,31 @@
       </c>
       <c r="L18" s="7" t="str">
         <f>TEXT(打撃集計!O18,"0.000")</f>
-        <v>0.155</v>
+        <v>0.152</v>
       </c>
       <c r="M18" s="7" t="str">
         <f>TEXT(打撃集計!P18,"0.000")</f>
-        <v>0.210</v>
+        <v>0.221</v>
       </c>
       <c r="N18" s="7" t="str">
         <f>TEXT(打撃集計!Q18,"0.000")</f>
-        <v>0.241</v>
+        <v>0.253</v>
       </c>
       <c r="O18" s="7" t="str">
         <f>TEXT(打撃集計!R18,"0.000")</f>
-        <v>0.451</v>
+        <v>0.474</v>
       </c>
       <c r="P18" s="7">
         <f>打撃集計!W18</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="7">
         <f>打撃集計!X18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" s="7">
         <f>打撃集計!Y18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="7">
         <f>打撃集計!M18</f>
@@ -32782,7 +32673,7 @@
       </c>
       <c r="T18" s="7">
         <f>打撃集計!Z18</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="U18" s="7">
         <f>打撃集計!AI18</f>
@@ -32790,7 +32681,7 @@
       </c>
       <c r="V18" s="7">
         <f>打撃集計!N18</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W18" s="7">
         <f>打撃集計!AA18</f>
@@ -32798,27 +32689,27 @@
       </c>
       <c r="X18" s="7">
         <f>打撃集計!AB18</f>
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y18" s="7" t="str">
         <f>TEXT(打撃集計!AC18,"0.0")</f>
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Z18" s="6" t="str">
         <f>ROUND(打撃集計!AD18/$X18,2)*100 &amp; "%"</f>
-        <v>10%</v>
+        <v>9%</v>
       </c>
       <c r="AA18" s="6" t="str">
         <f>ROUND(打撃集計!AE18/$X18,2)*100 &amp; "%"</f>
-        <v>14%</v>
+        <v>13%</v>
       </c>
       <c r="AB18" s="6" t="str">
         <f>ROUND(打撃集計!AF18/$X18,2)*100 &amp; "%"</f>
-        <v>16%</v>
+        <v>14%</v>
       </c>
       <c r="AC18" s="6" t="str">
         <f>ROUND(打撃集計!AG18/$X18,2)*100 &amp; "%"</f>
-        <v>33%</v>
+        <v>31%</v>
       </c>
       <c r="AD18" s="7">
         <f>打撃集計!S18</f>
@@ -33973,11 +33864,11 @@
       </c>
       <c r="D2" s="6">
         <f>SUMIF(元データ!F:F,B2,元データ!H:H)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6">
         <f>SUMIF(元データ!F:F,B2,元データ!H:H)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6">
         <f>SUMIF(元データ!F:F,B2,元データ!I:I)</f>
@@ -34013,7 +33904,7 @@
       </c>
       <c r="N2" s="6">
         <f>SUMIF(元データ!F:F,B2,元データ!Y:Y)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" ref="O2:O8" si="0">IFERROR(ROUND(F2/E2,3),"-")</f>
@@ -34069,11 +33960,11 @@
       </c>
       <c r="AB2" s="6">
         <f t="shared" ref="AB2:AB17" si="6">SUM(AD2:AG2)+E2+L2</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC2" s="6">
         <f t="shared" ref="AC2:AC8" si="7">IFERROR(ROUND(AB2/D2,2),"-")</f>
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="AD2" s="6">
         <f>SUMIF(元データ!F:F,B2,元データ!T:T)</f>
@@ -34113,11 +34004,11 @@
       </c>
       <c r="D3" s="6">
         <f>SUMIF(元データ!F:F,B3,元データ!H:H)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6">
         <f>SUMIF(元データ!F:F,B3,元データ!H:H)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6">
         <f>SUMIF(元データ!F:F,B3,元データ!I:I)</f>
@@ -34153,7 +34044,7 @@
       </c>
       <c r="N3" s="6">
         <f>SUMIF(元データ!F:F,B3,元データ!Y:Y)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="10">
         <f t="shared" si="0"/>
@@ -34161,7 +34052,7 @@
       </c>
       <c r="P3" s="6">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q3" s="6">
         <f t="shared" si="2"/>
@@ -34169,7 +34060,7 @@
       </c>
       <c r="R3" s="6">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="S3" s="6">
         <f>SUMIF(元データ!F:F,B3,元データ!AB:AB)</f>
@@ -34209,11 +34100,11 @@
       </c>
       <c r="AB3" s="6">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" s="6">
         <f t="shared" si="7"/>
-        <v>7.67</v>
+        <v>4.33</v>
       </c>
       <c r="AD3" s="6">
         <f>SUMIF(元データ!F:F,B3,元データ!T:T)</f>
@@ -34253,11 +34144,11 @@
       </c>
       <c r="D4" s="6">
         <f>SUMIF(元データ!F:F,B4,元データ!H:H)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <f>SUMIF(元データ!F:F,B4,元データ!H:H)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="6">
         <f>SUMIF(元データ!F:F,B4,元データ!I:I)</f>
@@ -34293,7 +34184,7 @@
       </c>
       <c r="N4" s="6">
         <f>SUMIF(元データ!F:F,B4,元データ!Y:Y)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="10">
         <f t="shared" si="0"/>
@@ -34349,11 +34240,11 @@
       </c>
       <c r="AB4" s="6">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC4" s="6">
         <f t="shared" si="7"/>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AD4" s="6">
         <f>SUMIF(元データ!F:F,B4,元データ!T:T)</f>
@@ -34533,11 +34424,11 @@
       </c>
       <c r="D6" s="6">
         <f>SUMIF(元データ!F:F,B6,元データ!H:H)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6">
         <f>SUMIF(元データ!F:F,B6,元データ!H:H)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6">
         <f>SUMIF(元データ!F:F,B6,元データ!I:I)</f>
@@ -34577,19 +34468,19 @@
       </c>
       <c r="O6" s="10">
         <f t="shared" si="0"/>
-        <v>0.42899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="1"/>
-        <v>0.42899999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="2"/>
-        <v>0.57099999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S6" s="6">
         <f>SUMIF(元データ!F:F,B6,元データ!AB:AB)</f>
@@ -34629,11 +34520,11 @@
       </c>
       <c r="AB6" s="6">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC6" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AD6" s="6">
         <f>SUMIF(元データ!F:F,B6,元データ!T:T)</f>
@@ -34673,15 +34564,15 @@
       </c>
       <c r="D7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!H:H)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!H:H)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!I:I)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!N:N)</f>
@@ -34717,19 +34608,19 @@
       </c>
       <c r="O7" s="10">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.3639999999999999</v>
       </c>
       <c r="S7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!AB:AB)</f>
@@ -34753,15 +34644,15 @@
       </c>
       <c r="X7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!K:K)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!L:L)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AA7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!AA:AA)</f>
@@ -34769,11 +34660,11 @@
       </c>
       <c r="AB7" s="6">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC7" s="6">
         <f t="shared" si="7"/>
-        <v>4.13</v>
+        <v>3.27</v>
       </c>
       <c r="AD7" s="6">
         <f>SUMIF(元データ!F:F,B7,元データ!T:T)</f>
@@ -34813,11 +34704,11 @@
       </c>
       <c r="D8" s="6">
         <f>SUMIF(元データ!F:F,B8,元データ!H:H)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6">
         <f>SUMIF(元データ!F:F,B8,元データ!H:H)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <f>SUMIF(元データ!F:F,B8,元データ!I:I)</f>
@@ -34825,7 +34716,7 @@
       </c>
       <c r="G8" s="6">
         <f>SUMIF(元データ!F:F,B8,元データ!N:N)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
         <f>SUMIF(元データ!F:F,B8,元データ!O:O)</f>
@@ -34853,7 +34744,7 @@
       </c>
       <c r="N8" s="6">
         <f>SUMIF(元データ!F:F,B8,元データ!Y:Y)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O8" s="10">
         <f t="shared" si="0"/>
@@ -34861,7 +34752,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="2"/>
@@ -34869,7 +34760,7 @@
       </c>
       <c r="R8" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S8" s="6">
         <f>SUMIF(元データ!F:F,B8,元データ!AB:AB)</f>
@@ -34909,11 +34800,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="7"/>
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AD8" s="6">
         <f>SUMIF(元データ!F:F,B8,元データ!T:T)</f>
@@ -34953,11 +34844,11 @@
       </c>
       <c r="D9" s="6">
         <f>SUMIF(元データ!F:F,B9,元データ!H:H)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6">
         <f>SUMIF(元データ!F:F,B9,元データ!H:H)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6">
         <f>SUMIF(元データ!F:F,B9,元データ!I:I)</f>
@@ -35049,7 +34940,7 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="6">
         <f>IFERROR(ROUND(AB9/D9,2),0)</f>
@@ -35093,15 +34984,15 @@
       </c>
       <c r="D10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!H:H)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!H:H)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!I:I)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!N:N)</f>
@@ -35137,19 +35028,19 @@
       </c>
       <c r="O10" s="10">
         <f t="shared" ref="O10:O12" si="8">IFERROR(ROUND(F10/E10,3),"-")</f>
-        <v>0.14299999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" ref="P10:P12" si="9">IFERROR(ROUND((G10+H10+F10)/(G10+H10+E10),3),"-")</f>
-        <v>0.25</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" ref="Q10:Q12" si="10">IFERROR(ROUND(Z10/E10,3),"-")</f>
-        <v>0.14299999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="3"/>
-        <v>0.39300000000000002</v>
+        <v>0.47300000000000003</v>
       </c>
       <c r="S10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!AB:AB)</f>
@@ -35169,7 +35060,7 @@
       </c>
       <c r="W10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!J:J)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!K:K)</f>
@@ -35181,7 +35072,7 @@
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!AA:AA)</f>
@@ -35189,11 +35080,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" ref="AC10:AC12" si="11">IFERROR(ROUND(AB10/D10,2),"-")</f>
-        <v>4.29</v>
+        <v>3.3</v>
       </c>
       <c r="AD10" s="6">
         <f>SUMIF(元データ!F:F,B10,元データ!T:T)</f>
@@ -35373,11 +35264,11 @@
       </c>
       <c r="D12" s="6">
         <f>SUMIF(元データ!F:F,B12,元データ!H:H)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="6">
         <f>SUMIF(元データ!F:F,B12,元データ!H:H)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="6">
         <f>SUMIF(元データ!F:F,B12,元データ!I:I)</f>
@@ -35385,7 +35276,7 @@
       </c>
       <c r="G12" s="6">
         <f>SUMIF(元データ!F:F,B12,元データ!N:N)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="6">
         <f>SUMIF(元データ!F:F,B12,元データ!O:O)</f>
@@ -35417,19 +35308,19 @@
       </c>
       <c r="O12" s="10">
         <f t="shared" si="8"/>
-        <v>0.28599999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="9"/>
-        <v>0.375</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="10"/>
-        <v>0.28599999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="3"/>
-        <v>0.66100000000000003</v>
+        <v>0.70500000000000007</v>
       </c>
       <c r="S12" s="6">
         <f>SUMIF(元データ!F:F,B12,元データ!AB:AB)</f>
@@ -35469,11 +35360,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="11"/>
-        <v>4.43</v>
+        <v>4</v>
       </c>
       <c r="AD12" s="6">
         <f>SUMIF(元データ!F:F,B12,元データ!T:T)</f>
@@ -35653,11 +35544,11 @@
       </c>
       <c r="D14" s="6">
         <f>SUMIF(元データ!F:F,B14,元データ!H:H)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6">
         <f>SUMIF(元データ!F:F,B14,元データ!H:H)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F14" s="6">
         <f>SUMIF(元データ!F:F,B14,元データ!I:I)</f>
@@ -35669,7 +35560,7 @@
       </c>
       <c r="H14" s="6">
         <f>SUMIF(元データ!F:F,B14,元データ!O:O)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="6">
         <f>SUMIF(元データ!F:F,B14,元データ!Q:Q)</f>
@@ -35693,7 +35584,7 @@
       </c>
       <c r="N14" s="6">
         <f>SUMIF(元データ!F:F,B14,元データ!Y:Y)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="10">
         <f t="shared" si="12"/>
@@ -35701,7 +35592,7 @@
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
@@ -35709,7 +35600,7 @@
       </c>
       <c r="R14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="S14" s="6">
         <f>SUMIF(元データ!F:F,B14,元データ!AB:AB)</f>
@@ -35749,7 +35640,7 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="16"/>
@@ -36210,19 +36101,19 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" ref="D18:N18" si="17">SUM(D2:D12)</f>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="17"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="17"/>
@@ -36250,23 +36141,23 @@
       </c>
       <c r="N18" s="6">
         <f t="shared" si="17"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O18" s="10">
         <f>IFERROR(ROUND(F18/E18,3),"-")</f>
-        <v>0.155</v>
+        <v>0.152</v>
       </c>
       <c r="P18" s="6">
         <f>IFERROR(ROUND((G18+H18+F18)/(G18+H18+E18),3),"-")</f>
-        <v>0.21</v>
+        <v>0.221</v>
       </c>
       <c r="Q18" s="6">
         <f>IFERROR(ROUND(Z18/E18,3),"-")</f>
-        <v>0.24099999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="3"/>
-        <v>0.45099999999999996</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="S18" s="6">
         <f t="shared" ref="S18:U18" si="18">SUM(S2:S12)</f>
@@ -36286,19 +36177,19 @@
       </c>
       <c r="W18" s="6">
         <f t="shared" ref="W18:AB18" si="19">SUM(W2:W12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="19"/>
@@ -36306,11 +36197,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="19"/>
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AC18" s="6">
         <f>IFERROR(ROUND(AB18/D18,2),"-")</f>
-        <v>3.81</v>
+        <v>3.06</v>
       </c>
       <c r="AD18" s="6">
         <f t="shared" ref="AD18:AI18" si="20">SUM(AD2:AD12)</f>
@@ -47849,8 +47740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -51427,15 +51318,42 @@
       <c r="F50" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
+      <c r="G50" s="6">
+        <f t="shared" ref="G50:G61" si="42">COUNTA(AF50:AJ50)</f>
+        <v>3</v>
+      </c>
+      <c r="H50" s="6">
+        <f t="shared" ref="H50:H61" si="43">G50-N50-O50-Z50</f>
+        <v>1</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" ref="I50:I61" si="44">SUM(J50:M50)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" ref="J50:J61" si="45">COUNTIF(AF50:AJ50, "*安*")</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" ref="K50:K61" si="46">COUNTIF(AF50:AJ50, "*二")</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" ref="L50:L61" si="47">COUNTIF(AF50:AJ50, "*三")</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" ref="M50:M61" si="48">COUNTIF(AF50:AJ50, "*本")</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" ref="N50:N61" si="49">COUNTIF(AF50:AJ50, "四球")</f>
+        <v>2</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" ref="O50:O61" si="50">COUNTIF(AF50:AJ50, "死球")</f>
+        <v>0</v>
+      </c>
       <c r="P50" s="46"/>
       <c r="Q50" s="46"/>
       <c r="R50" s="46"/>
@@ -51444,15 +51362,27 @@
       <c r="U50" s="46"/>
       <c r="V50" s="46"/>
       <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
+      <c r="X50" s="6">
+        <f t="shared" ref="X50:X61" si="51">COUNTIF(AF50:AJ50, "*失*")</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="6">
+        <f t="shared" ref="Y50:Y61" si="52">COUNTIF(AF50:AJ50, "*振*")</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="6">
+        <f t="shared" ref="Z50:Z61" si="53">COUNTIF(AF50:AJ50, "*犠*")</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="6">
+        <f t="shared" ref="AA50:AA61" si="54">COUNTIF(AF50:AJ50, "*併*")</f>
+        <v>0</v>
+      </c>
       <c r="AB50" s="46"/>
       <c r="AC50" s="46"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="48" t="str">
-        <f t="shared" ref="AE50:AE60" si="42">F50</f>
+        <f t="shared" ref="AE50:AE60" si="55">F50</f>
         <v>反町</v>
       </c>
       <c r="AF50" s="46" t="s">
@@ -51477,7 +51407,7 @@
       <c r="AM50" s="44"/>
     </row>
     <row r="51" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A51" s="76"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="43">
         <v>2</v>
       </c>
@@ -51487,8 +51417,60 @@
       <c r="F51" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="G51" s="6">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="X51" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="6">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Z51" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE51" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>HENRY</v>
       </c>
       <c r="AF51" s="65" t="s">
@@ -51511,7 +51493,7 @@
       <c r="AM51" s="44"/>
     </row>
     <row r="52" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A52" s="76"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="43">
         <v>3</v>
       </c>
@@ -51521,8 +51503,60 @@
       <c r="F52" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="G52" s="6">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="6">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="6">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE52" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>萩原</v>
       </c>
       <c r="AF52" s="65" t="s">
@@ -51545,7 +51579,7 @@
       <c r="AM52" s="44"/>
     </row>
     <row r="53" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A53" s="76"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="43">
         <v>4</v>
       </c>
@@ -51555,8 +51589,60 @@
       <c r="F53" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="G53" s="6">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="6">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE53" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>大鐘</v>
       </c>
       <c r="AF53" s="65" t="s">
@@ -51579,7 +51665,7 @@
       <c r="AM53" s="44"/>
     </row>
     <row r="54" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A54" s="76"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="43">
         <v>5</v>
       </c>
@@ -51589,8 +51675,60 @@
       <c r="F54" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="G54" s="6">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="6">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE54" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>安部剛</v>
       </c>
       <c r="AF54" s="65" t="s">
@@ -51613,7 +51751,7 @@
       <c r="AM54" s="44"/>
     </row>
     <row r="55" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A55" s="76"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="43">
         <v>6</v>
       </c>
@@ -51623,8 +51761,60 @@
       <c r="F55" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="G55" s="6">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="6">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="Z55" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE55" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>北久保</v>
       </c>
       <c r="AF55" s="65" t="s">
@@ -51647,7 +51837,7 @@
       <c r="AM55" s="44"/>
     </row>
     <row r="56" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A56" s="76"/>
+      <c r="A56" s="75"/>
       <c r="B56" s="43">
         <v>7</v>
       </c>
@@ -51657,8 +51847,60 @@
       <c r="F56" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="G56" s="6">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="6">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE56" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>岩本</v>
       </c>
       <c r="AF56" s="66" t="s">
@@ -51681,7 +51923,7 @@
       <c r="AM56" s="44"/>
     </row>
     <row r="57" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A57" s="76"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="43">
         <v>8</v>
       </c>
@@ -51691,8 +51933,60 @@
       <c r="F57" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="G57" s="6">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="H57" s="6">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="6">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Z57" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE57" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>中井</v>
       </c>
       <c r="AF57" s="65" t="s">
@@ -51715,7 +52009,7 @@
       <c r="AM57" s="44"/>
     </row>
     <row r="58" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A58" s="76"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="43">
         <v>9</v>
       </c>
@@ -51725,8 +52019,60 @@
       <c r="F58" s="65" t="s">
         <v>180</v>
       </c>
+      <c r="G58" s="6">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="H58" s="6">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="6">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Z58" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE58" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>安部滉</v>
       </c>
       <c r="AF58" s="66" t="s">
@@ -51746,7 +52092,7 @@
       <c r="AM58" s="44"/>
     </row>
     <row r="59" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A59" s="76"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="43">
         <v>9</v>
       </c>
@@ -51757,8 +52103,60 @@
       <c r="F59" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="G59" s="6">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X59" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="6">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Z59" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE59" s="6" t="str">
-        <f t="shared" ref="AE59" si="43">F59</f>
+        <f t="shared" ref="AE59" si="56">F59</f>
         <v>野場</v>
       </c>
       <c r="AH59" s="65" t="s">
@@ -51775,7 +52173,7 @@
       <c r="AM59" s="44"/>
     </row>
     <row r="60" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A60" s="76"/>
+      <c r="A60" s="75"/>
       <c r="B60" s="43" t="s">
         <v>179</v>
       </c>
@@ -51785,8 +52183,60 @@
       <c r="F60" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="G60" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="6">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE60" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>加本</v>
       </c>
       <c r="AK60" s="44" t="e">
@@ -51802,6 +52252,58 @@
     <row r="61" spans="1:39" ht="17.25" hidden="1" customHeight="1">
       <c r="B61" s="43"/>
       <c r="C61" s="6"/>
+      <c r="G61" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="6">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="6">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="6">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AE61" s="6" t="s">
         <v>60</v>
       </c>
@@ -58734,19 +59236,19 @@
       <c r="AG2" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="AH2" s="75" t="s">
+      <c r="AH2" s="76" t="s">
         <v>145</v>
       </c>
       <c r="AI2" s="72"/>
-      <c r="AJ2" s="75" t="s">
+      <c r="AJ2" s="76" t="s">
         <v>36</v>
       </c>
       <c r="AK2" s="72"/>
-      <c r="AL2" s="75" t="s">
+      <c r="AL2" s="76" t="s">
         <v>37</v>
       </c>
       <c r="AM2" s="72"/>
-      <c r="AN2" s="75" t="s">
+      <c r="AN2" s="76" t="s">
         <v>39</v>
       </c>
       <c r="AO2" s="72"/>
@@ -58759,7 +59261,7 @@
       <c r="AR2" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="AS2" s="75" t="s">
+      <c r="AS2" s="76" t="s">
         <v>148</v>
       </c>
       <c r="AT2" s="72"/>
@@ -59053,11 +59555,11 @@
       </c>
       <c r="D5" s="44">
         <f>打撃詳細!C6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="44">
         <f>打撃詳細!D6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" s="44">
         <f>打撃詳細!E6</f>
@@ -59117,19 +59619,19 @@
       </c>
       <c r="T5" s="44" t="str">
         <f>打撃詳細!L6</f>
-        <v>0.429</v>
+        <v>0.300</v>
       </c>
       <c r="U5" s="44" t="str">
         <f>打撃詳細!M6</f>
-        <v>0.429</v>
+        <v>0.300</v>
       </c>
       <c r="V5" s="44" t="str">
         <f>打撃詳細!N6</f>
-        <v>0.571</v>
+        <v>0.400</v>
       </c>
       <c r="W5" s="44" t="str">
         <f>打撃詳細!O6</f>
-        <v>1.000</v>
+        <v>0.700</v>
       </c>
       <c r="X5" s="44">
         <f>打撃詳細!AD6</f>
@@ -59149,19 +59651,19 @@
       </c>
       <c r="AB5" s="44">
         <f>打撃詳細!X6</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC5" s="44" t="str">
         <f>打撃詳細!Y6</f>
-        <v>3.0</v>
+        <v>2.4</v>
       </c>
       <c r="AD5" s="59">
         <f t="shared" ref="AD5:AD6" si="0">0.5*N5+0.72*O5+1.04*P5+1.44*Q5+0.34*(G5+H5)+0.18*I5-0.09*(E5-F5-R5)-0.098*R5-0.37*S5+0.04*M5</f>
-        <v>1.3599999999999999</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="AE5" s="59">
         <f t="shared" ref="AE5:AE6" si="1">V5-T5</f>
-        <v>0.14199999999999996</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="AF5" s="60" t="e">
         <f t="shared" ref="AF5:AF6" si="2">G5/R5</f>
@@ -59169,7 +59671,7 @@
       </c>
       <c r="AG5" s="60">
         <f t="shared" ref="AG5:AG6" si="3">((F5+G5+H5-S5)+2.4*(E5+G5+H5+M5)*((N5+O5*2+P5*3+Q5*4+0.24*(G5+H5)+0.62*I5+(0.5*M5)-0.03*R5)+3*(E5+G5+H5+M5))/(9*(E5+G5+H5+M5)))-0.9*(E5+G5+H5+M5)</f>
-        <v>3.366666666666668</v>
+        <v>3.0666666666666664</v>
       </c>
       <c r="AH5" s="43">
         <f>打撃集計!AF6</f>
@@ -59177,7 +59679,7 @@
       </c>
       <c r="AI5" s="44" t="str">
         <f>打撃詳細!AB6</f>
-        <v>14%</v>
+        <v>13%</v>
       </c>
       <c r="AJ5" s="6">
         <f>打撃集計!AD6</f>
@@ -59185,7 +59687,7 @@
       </c>
       <c r="AK5" s="44" t="str">
         <f>打撃詳細!Z6</f>
-        <v>19%</v>
+        <v>17%</v>
       </c>
       <c r="AL5" s="6">
         <f>打撃集計!AE6</f>
@@ -59201,7 +59703,7 @@
       </c>
       <c r="AO5" s="44" t="str">
         <f>打撃詳細!AC6</f>
-        <v>33%</v>
+        <v>29%</v>
       </c>
       <c r="AQ5" s="43"/>
       <c r="AR5" s="43"/>
@@ -59227,11 +59729,11 @@
       </c>
       <c r="D6" s="61">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E6" s="61">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F6" s="61">
         <f t="shared" si="4"/>
@@ -59291,19 +59793,19 @@
       </c>
       <c r="T6" s="10">
         <f>F6/E6</f>
-        <v>0.23636363636363636</v>
+        <v>0.22413793103448276</v>
       </c>
       <c r="U6" s="10">
         <f>(F6+G6+H6)/(E6+G6+H6)</f>
-        <v>0.46835443037974683</v>
+        <v>0.45121951219512196</v>
       </c>
       <c r="V6" s="10">
         <f>(N6+O6*2+P6*3+Q6*4)/E6</f>
-        <v>0.27272727272727271</v>
+        <v>0.25862068965517243</v>
       </c>
       <c r="W6" s="10">
         <f>U6+V6</f>
-        <v>0.7410817031070196</v>
+        <v>0.70984020185029439</v>
       </c>
       <c r="X6" s="61">
         <f t="shared" ref="X6:Z6" si="5">SUM(X3:X5)</f>
@@ -59323,19 +59825,19 @@
       </c>
       <c r="AB6" s="61">
         <f>SUM(AB3:AB5)</f>
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AC6" s="60">
         <f>AB6/D6</f>
-        <v>4.4625000000000004</v>
+        <v>4.3373493975903612</v>
       </c>
       <c r="AD6" s="59">
         <f t="shared" si="0"/>
-        <v>11.187999999999999</v>
+        <v>10.917999999999999</v>
       </c>
       <c r="AE6" s="59">
         <f t="shared" si="1"/>
-        <v>3.6363636363636348E-2</v>
+        <v>3.4482758620689669E-2</v>
       </c>
       <c r="AF6" s="60">
         <f t="shared" si="2"/>
@@ -59343,7 +59845,7 @@
       </c>
       <c r="AG6" s="60">
         <f t="shared" si="3"/>
-        <v>33.178666666666672</v>
+        <v>32.878666666666675</v>
       </c>
       <c r="AH6" s="61">
         <f>SUM(AH3:AH5)</f>
@@ -59499,19 +60001,19 @@
       <c r="AG8" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="AH8" s="75" t="s">
+      <c r="AH8" s="76" t="s">
         <v>145</v>
       </c>
       <c r="AI8" s="72"/>
-      <c r="AJ8" s="75" t="s">
+      <c r="AJ8" s="76" t="s">
         <v>36</v>
       </c>
       <c r="AK8" s="72"/>
-      <c r="AL8" s="75" t="s">
+      <c r="AL8" s="76" t="s">
         <v>37</v>
       </c>
       <c r="AM8" s="72"/>
-      <c r="AN8" s="75" t="s">
+      <c r="AN8" s="76" t="s">
         <v>39</v>
       </c>
       <c r="AO8" s="72"/>
@@ -59524,7 +60026,7 @@
       <c r="AR8" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="AS8" s="75" t="s">
+      <c r="AS8" s="76" t="s">
         <v>148</v>
       </c>
       <c r="AT8" s="72"/>
@@ -59802,15 +60304,15 @@
       </c>
       <c r="D11" s="44">
         <f>打撃詳細!C7</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" s="44">
         <f>打撃詳細!D7</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" s="44">
         <f>打撃詳細!E7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="44">
         <f>打撃詳細!F7</f>
@@ -59846,11 +60348,11 @@
       </c>
       <c r="O11" s="44">
         <f>打撃詳細!Q7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="44">
         <f>打撃詳細!R7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="44">
         <f>打撃詳細!S7</f>
@@ -59866,19 +60368,19 @@
       </c>
       <c r="T11" s="44" t="str">
         <f>打撃詳細!L7</f>
-        <v>0.250</v>
+        <v>0.364</v>
       </c>
       <c r="U11" s="44" t="str">
         <f>打撃詳細!M7</f>
-        <v>0.250</v>
+        <v>0.364</v>
       </c>
       <c r="V11" s="44" t="str">
         <f>打撃詳細!N7</f>
-        <v>0.750</v>
+        <v>1.000</v>
       </c>
       <c r="W11" s="44" t="str">
         <f>打撃詳細!O7</f>
-        <v>1.000</v>
+        <v>1.364</v>
       </c>
       <c r="X11" s="44">
         <f>打撃詳細!AD7</f>
@@ -59898,19 +60400,19 @@
       </c>
       <c r="AB11" s="44">
         <f>打撃詳細!X7</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC11" s="44" t="str">
         <f>打撃詳細!Y7</f>
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD11" s="59">
         <f t="shared" ref="AD11:AD12" si="7">0.5*N11+0.72*O11+1.04*P11+1.44*Q11+0.34*(G11+H11)+0.18*I11-0.09*(E11-F11-R11)-0.098*R11-0.37*S11+0.04*M11</f>
-        <v>1.5960000000000001</v>
+        <v>3.266</v>
       </c>
       <c r="AE11" s="59">
         <f t="shared" ref="AE11:AE12" si="8">V11-T11</f>
-        <v>0.5</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="AF11" s="60">
         <f t="shared" ref="AF11:AF12" si="9">G11/R11</f>
@@ -59918,7 +60420,7 @@
       </c>
       <c r="AG11" s="60">
         <f t="shared" ref="AG11:AG12" si="10">((F11+G11+H11-S11)+2.4*(E11+G11+H11+M11)*((N11+O11*2+P11*3+Q11*4+0.24*(G11+H11)+0.62*I11+(0.5*M11)-0.03*R11)+3*(E11+G11+H11+M11))/(9*(E11+G11+H11+M11)))-0.9*(E11+G11+H11+M11)</f>
-        <v>2.7759999999999989</v>
+        <v>5.809333333333333</v>
       </c>
       <c r="AH11" s="43">
         <f>打撃集計!AF7</f>
@@ -59926,7 +60428,7 @@
       </c>
       <c r="AI11" s="44" t="str">
         <f>打撃詳細!AB7</f>
-        <v>15%</v>
+        <v>14%</v>
       </c>
       <c r="AJ11" s="6">
         <f>打撃集計!AD7</f>
@@ -59942,7 +60444,7 @@
       </c>
       <c r="AM11" s="44" t="str">
         <f>打撃詳細!AA7</f>
-        <v>30%</v>
+        <v>28%</v>
       </c>
       <c r="AN11" s="6">
         <f>打撃集計!AG7</f>
@@ -59950,7 +60452,7 @@
       </c>
       <c r="AO11" s="44" t="str">
         <f>打撃詳細!AC7</f>
-        <v>30%</v>
+        <v>28%</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="17.25" customHeight="1">
@@ -59964,15 +60466,15 @@
       </c>
       <c r="D12" s="61">
         <f t="shared" si="11"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" s="61">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F12" s="61">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="61">
         <f t="shared" si="11"/>
@@ -60008,11 +60510,11 @@
       </c>
       <c r="O12" s="61">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P12" s="61">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="61">
         <f t="shared" si="11"/>
@@ -60028,19 +60530,19 @@
       </c>
       <c r="T12" s="10">
         <f>F12/E12</f>
-        <v>0.32098765432098764</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U12" s="10">
         <f>(F12+G12+H12)/(E12+G12+H12)</f>
-        <v>0.38202247191011235</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="V12" s="10">
         <f>(N12+O12*2+P12*3+Q12*4)/E12</f>
-        <v>0.5679012345679012</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="W12" s="10">
         <f>U12+V12</f>
-        <v>0.9499237064780135</v>
+        <v>0.99844720496894412</v>
       </c>
       <c r="X12" s="61">
         <f t="shared" ref="X12:Z12" si="12">SUM(X9:X11)</f>
@@ -60060,19 +60562,19 @@
       </c>
       <c r="AB12" s="61">
         <f>SUM(AB9:AB11)</f>
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AC12" s="60">
         <f>AB12/D12</f>
-        <v>3.2444444444444445</v>
+        <v>3.172043010752688</v>
       </c>
       <c r="AD12" s="59">
         <f t="shared" si="7"/>
-        <v>17.010000000000002</v>
+        <v>18.68</v>
       </c>
       <c r="AE12" s="59">
         <f t="shared" si="8"/>
-        <v>0.24691358024691357</v>
+        <v>0.27380952380952378</v>
       </c>
       <c r="AF12" s="60">
         <f t="shared" si="9"/>
@@ -60080,7 +60582,7 @@
       </c>
       <c r="AG12" s="60">
         <f t="shared" si="10"/>
-        <v>37.114666666666679</v>
+        <v>40.147999999999996</v>
       </c>
       <c r="AH12" s="61">
         <f>SUM(AH9:AH11)</f>
@@ -60112,7 +60614,7 @@
       </c>
       <c r="AR12" s="5">
         <f>(K12/(F12+G12+H12))</f>
-        <v>0.70588235294117652</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AS12" s="6" t="s">
         <v>116</v>
@@ -60233,19 +60735,19 @@
       <c r="AG14" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="AH14" s="75" t="s">
+      <c r="AH14" s="76" t="s">
         <v>145</v>
       </c>
       <c r="AI14" s="72"/>
-      <c r="AJ14" s="75" t="s">
+      <c r="AJ14" s="76" t="s">
         <v>36</v>
       </c>
       <c r="AK14" s="72"/>
-      <c r="AL14" s="75" t="s">
+      <c r="AL14" s="76" t="s">
         <v>37</v>
       </c>
       <c r="AM14" s="72"/>
-      <c r="AN14" s="75" t="s">
+      <c r="AN14" s="76" t="s">
         <v>39</v>
       </c>
       <c r="AO14" s="72"/>
@@ -60258,7 +60760,7 @@
       <c r="AR14" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="AS14" s="75" t="s">
+      <c r="AS14" s="76" t="s">
         <v>148</v>
       </c>
       <c r="AT14" s="72"/>
@@ -60524,11 +61026,11 @@
       </c>
       <c r="D17" s="44">
         <f>打撃詳細!C8</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="44">
         <f>打撃詳細!D8</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" s="44">
         <f>打撃詳細!E8</f>
@@ -60536,7 +61038,7 @@
       </c>
       <c r="G17" s="44">
         <f>打撃詳細!F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="44">
         <f>打撃詳細!G8</f>
@@ -60580,7 +61082,7 @@
       </c>
       <c r="R17" s="44">
         <f>打撃詳細!V8</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S17" s="44">
         <f>打撃詳細!W8</f>
@@ -60592,7 +61094,7 @@
       </c>
       <c r="U17" s="44" t="str">
         <f>打撃詳細!M8</f>
-        <v>0.000</v>
+        <v>0.100</v>
       </c>
       <c r="V17" s="44" t="str">
         <f>打撃詳細!N8</f>
@@ -60600,7 +61102,7 @@
       </c>
       <c r="W17" s="44" t="str">
         <f>打撃詳細!O8</f>
-        <v>0.000</v>
+        <v>0.100</v>
       </c>
       <c r="X17" s="44">
         <f>打撃詳細!AD8</f>
@@ -60620,15 +61122,15 @@
       </c>
       <c r="AB17" s="44">
         <f>打撃詳細!X8</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC17" s="44" t="str">
         <f>打撃詳細!Y8</f>
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AD17" s="59">
         <f t="shared" ref="AD17:AD18" si="14">0.5*N17+0.72*O17+1.04*P17+1.44*Q17+0.34*(G17+H17)+0.18*I17-0.09*(E17-F17-R17)-0.098*R17-0.37*S17+0.04*M17</f>
-        <v>-0.66200000000000003</v>
+        <v>-0.51800000000000002</v>
       </c>
       <c r="AE17" s="59">
         <f t="shared" ref="AE17:AE18" si="15">V17-T17</f>
@@ -60636,11 +61138,11 @@
       </c>
       <c r="AF17" s="60">
         <f t="shared" ref="AF17:AF18" si="16">G17/R17</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AG17" s="60">
         <f t="shared" ref="AG17:AG18" si="17">((F17+G17+H17-S17)+2.4*(E17+G17+H17+M17)*((N17+O17*2+P17*3+Q17*4+0.24*(G17+H17)+0.62*I17+(0.5*M17)-0.03*R17)+3*(E17+G17+H17+M17))/(9*(E17+G17+H17+M17)))-0.9*(E17+G17+H17+M17)</f>
-        <v>-0.73200000000000021</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="AH17" s="43">
         <f>打撃集計!AF8</f>
@@ -60648,7 +61150,7 @@
       </c>
       <c r="AI17" s="44" t="str">
         <f>打撃詳細!AB8</f>
-        <v>11%</v>
+        <v>10%</v>
       </c>
       <c r="AJ17" s="6">
         <f>打撃集計!AD8</f>
@@ -60664,7 +61166,7 @@
       </c>
       <c r="AM17" s="44" t="str">
         <f>打撃詳細!AA8</f>
-        <v>11%</v>
+        <v>10%</v>
       </c>
       <c r="AN17" s="6">
         <f>打撃集計!AG8</f>
@@ -60672,7 +61174,7 @@
       </c>
       <c r="AO17" s="44" t="str">
         <f>打撃詳細!AC8</f>
-        <v>37%</v>
+        <v>33%</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="17.25" customHeight="1">
@@ -60686,11 +61188,11 @@
       </c>
       <c r="D18" s="61">
         <f t="shared" si="18"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" s="61">
         <f t="shared" si="18"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" s="61">
         <f t="shared" si="18"/>
@@ -60698,7 +61200,7 @@
       </c>
       <c r="G18" s="61">
         <f t="shared" si="18"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" s="61">
         <f t="shared" si="18"/>
@@ -60742,7 +61244,7 @@
       </c>
       <c r="R18" s="61">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S18" s="61">
         <f t="shared" si="18"/>
@@ -60750,19 +61252,19 @@
       </c>
       <c r="T18" s="10">
         <f>F18/E18</f>
-        <v>0.2153846153846154</v>
+        <v>0.20895522388059701</v>
       </c>
       <c r="U18" s="10">
         <f>(F18+G18+H18)/(E18+G18+H18)</f>
-        <v>0.33766233766233766</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="V18" s="10">
         <f>(N18+O18*2+P18*3+Q18*4)/E18</f>
-        <v>0.27692307692307694</v>
+        <v>0.26865671641791045</v>
       </c>
       <c r="W18" s="10">
         <f>U18+V18</f>
-        <v>0.6145854145854146</v>
+        <v>0.60615671641791047</v>
       </c>
       <c r="X18" s="61">
         <f t="shared" ref="X18:Z18" si="19">SUM(X15:X17)</f>
@@ -60782,27 +61284,27 @@
       </c>
       <c r="AB18" s="61">
         <f>SUM(AB15:AB17)</f>
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AC18" s="60">
         <f>AB18/D18</f>
-        <v>3.4675324675324677</v>
+        <v>3.4050632911392404</v>
       </c>
       <c r="AD18" s="59">
         <f t="shared" si="14"/>
-        <v>8.1300000000000008</v>
+        <v>8.2740000000000009</v>
       </c>
       <c r="AE18" s="59">
         <f t="shared" si="15"/>
-        <v>6.1538461538461542E-2</v>
+        <v>5.9701492537313439E-2</v>
       </c>
       <c r="AF18" s="60">
         <f t="shared" si="16"/>
-        <v>0.73333333333333328</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="AG18" s="60">
         <f t="shared" si="17"/>
-        <v>23.401333333333326</v>
+        <v>24.149333333333345</v>
       </c>
       <c r="AH18" s="61">
         <f>SUM(AH15:AH17)</f>
@@ -60834,7 +61336,7 @@
       </c>
       <c r="AR18" s="5">
         <f>(K18/(F18+G18+H18))</f>
-        <v>0.42307692307692307</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="AS18" s="6" t="s">
         <v>150</v>
@@ -60950,19 +61452,19 @@
       <c r="AG20" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="AH20" s="75" t="s">
+      <c r="AH20" s="76" t="s">
         <v>145</v>
       </c>
       <c r="AI20" s="72"/>
-      <c r="AJ20" s="75" t="s">
+      <c r="AJ20" s="76" t="s">
         <v>36</v>
       </c>
       <c r="AK20" s="72"/>
-      <c r="AL20" s="75" t="s">
+      <c r="AL20" s="76" t="s">
         <v>37</v>
       </c>
       <c r="AM20" s="72"/>
-      <c r="AN20" s="75" t="s">
+      <c r="AN20" s="76" t="s">
         <v>39</v>
       </c>
       <c r="AO20" s="72"/>
@@ -60975,7 +61477,7 @@
       <c r="AR20" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="AS20" s="75" t="s">
+      <c r="AS20" s="76" t="s">
         <v>148</v>
       </c>
       <c r="AT20" s="72"/>
@@ -61247,11 +61749,11 @@
       </c>
       <c r="D23" s="44">
         <f>打撃詳細!C9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" s="44">
         <f>打撃詳細!D9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F23" s="44">
         <f>打撃詳細!E9</f>
@@ -61343,7 +61845,7 @@
       </c>
       <c r="AB23" s="44">
         <f>打撃詳細!X9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC23" s="44" t="str">
         <f>打撃詳細!Y9</f>
@@ -61351,7 +61853,7 @@
       </c>
       <c r="AD23" s="59">
         <f t="shared" ref="AD23:AD24" si="21">0.5*N23+0.72*O23+1.04*P23+1.44*Q23+0.34*(G23+H23)+0.18*I23-0.09*(E23-F23-R23)-0.098*R23-0.37*S23+0.04*M23</f>
-        <v>-0.29400000000000004</v>
+        <v>-0.56400000000000006</v>
       </c>
       <c r="AE23" s="59">
         <f t="shared" ref="AE23:AE24" si="22">V23-T23</f>
@@ -61363,7 +61865,7 @@
       </c>
       <c r="AG23" s="60">
         <f t="shared" ref="AG23:AG24" si="24">((F23+G23+H23-S23)+2.4*(E23+G23+H23+M23)*((N23+O23*2+P23*3+Q23*4+0.24*(G23+H23)+0.62*I23+(0.5*M23)-0.03*R23)+3*(E23+G23+H23+M23))/(9*(E23+G23+H23+M23)))-0.9*(E23+G23+H23+M23)</f>
-        <v>-0.32400000000000029</v>
+        <v>-0.62400000000000055</v>
       </c>
       <c r="AH23" s="43">
         <f>打撃集計!AF9</f>
@@ -61409,11 +61911,11 @@
       </c>
       <c r="D24" s="61">
         <f t="shared" si="25"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E24" s="61">
         <f t="shared" si="25"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F24" s="61">
         <f t="shared" si="25"/>
@@ -61473,19 +61975,19 @@
       </c>
       <c r="T24" s="10">
         <f>F24/E24</f>
-        <v>0.28378378378378377</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="U24" s="10">
         <f>(F24+G24+H24)/(E24+G24+H24)</f>
-        <v>0.41111111111111109</v>
+        <v>0.39784946236559138</v>
       </c>
       <c r="V24" s="10">
         <f>(N24+O24*2+P24*3+Q24*4)/E24</f>
-        <v>0.39189189189189189</v>
+        <v>0.37662337662337664</v>
       </c>
       <c r="W24" s="10">
         <f>U24+V24</f>
-        <v>0.80300300300300298</v>
+        <v>0.77447283898896802</v>
       </c>
       <c r="X24" s="61">
         <f t="shared" ref="X24:Z24" si="26">SUM(X21:X23)</f>
@@ -61505,19 +62007,19 @@
       </c>
       <c r="AB24" s="61">
         <f>SUM(AB21:AB23)</f>
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AC24" s="60">
         <f>AB24/D24</f>
-        <v>3.4615384615384617</v>
+        <v>3.3829787234042552</v>
       </c>
       <c r="AD24" s="59">
         <f t="shared" si="21"/>
-        <v>13.613999999999997</v>
+        <v>13.343999999999996</v>
       </c>
       <c r="AE24" s="59">
         <f t="shared" si="22"/>
-        <v>0.10810810810810811</v>
+        <v>0.10389610389610393</v>
       </c>
       <c r="AF24" s="60">
         <f t="shared" si="23"/>
@@ -61525,7 +62027,7 @@
       </c>
       <c r="AG24" s="60">
         <f t="shared" si="24"/>
-        <v>37.190666666666672</v>
+        <v>36.890666666666661</v>
       </c>
       <c r="AH24" s="61">
         <f>SUM(AH21:AH23)</f>
@@ -64910,11 +65412,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AS2:AW2"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AS8:AW8"/>
@@ -64930,6 +65427,11 @@
     <mergeCell ref="AL14:AM14"/>
     <mergeCell ref="AN14:AO14"/>
     <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AS2:AW2"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1FF23-8B17-4A75-8308-96AC67533193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D9A53-E178-47E6-A27E-846BEB2443F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="645" windowWidth="21600" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃詳細" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="232">
   <si>
     <t>NAKAHATA</t>
   </si>
@@ -1101,6 +1101,14 @@
     <t>池澤</t>
     <phoneticPr fontId="14"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
@@ -1939,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2106,11 +2114,11 @@
       </c>
       <c r="C2" s="4">
         <f>打撃集計!C2</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4">
         <f>打撃集計!D2</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4">
         <f>打撃集計!E2</f>
@@ -2146,7 +2154,7 @@
       </c>
       <c r="M2" s="4" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
-        <v>0.125</v>
+        <v>0.071</v>
       </c>
       <c r="N2" s="4" t="str">
         <f>TEXT(打撃集計!P2,"0.000")</f>
@@ -2154,7 +2162,7 @@
       </c>
       <c r="O2" s="4" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
-        <v>0.125</v>
+        <v>0.071</v>
       </c>
       <c r="P2" s="4">
         <f>打撃集計!V2</f>
@@ -2190,27 +2198,27 @@
       </c>
       <c r="X2" s="4">
         <f>打撃集計!AA2</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="4" t="str">
         <f>TEXT(打撃集計!AB2,"0.0")</f>
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="Z2" s="3" t="str">
         <f>ROUND(打撃集計!AC2/$X2,2)*100 &amp; "%"</f>
-        <v>19%</v>
+        <v>16%</v>
       </c>
       <c r="AA2" s="3" t="str">
         <f>ROUND(打撃集計!AD2/$X2,2)*100 &amp; "%"</f>
-        <v>16%</v>
+        <v>14%</v>
       </c>
       <c r="AB2" s="3" t="str">
         <f>ROUND(打撃集計!AE2/$X2,2)*100 &amp; "%"</f>
-        <v>16%</v>
+        <v>14%</v>
       </c>
       <c r="AC2" s="3" t="str">
         <f>ROUND(打撃集計!AF2/$X2,2)*100 &amp; "%"</f>
-        <v>30%</v>
+        <v>26%</v>
       </c>
       <c r="AD2" s="4">
         <f>打撃集計!R2</f>
@@ -2240,11 +2248,11 @@
       </c>
       <c r="C3" s="4">
         <f>打撃集計!C3</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <f>打撃集計!D3</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4">
         <f>打撃集計!E3</f>
@@ -2276,19 +2284,19 @@
       </c>
       <c r="L3" s="4" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
-        <v>0.300</v>
+        <v>0.200</v>
       </c>
       <c r="M3" s="4" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
-        <v>0.500</v>
+        <v>0.368</v>
       </c>
       <c r="N3" s="4" t="str">
         <f>TEXT(打撃集計!P3,"0.000")</f>
-        <v>0.300</v>
+        <v>0.200</v>
       </c>
       <c r="O3" s="4" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
-        <v>0.800</v>
+        <v>0.568</v>
       </c>
       <c r="P3" s="4">
         <f>打撃集計!V3</f>
@@ -2324,11 +2332,11 @@
       </c>
       <c r="X3" s="4">
         <f>打撃集計!AA3</f>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="4" t="str">
         <f>TEXT(打撃集計!AB3,"0.0")</f>
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="Z3" s="3" t="str">
         <f>ROUND(打撃集計!AC3/$X3,2)*100 &amp; "%"</f>
@@ -2336,15 +2344,15 @@
       </c>
       <c r="AA3" s="3" t="str">
         <f>ROUND(打撃集計!AD3/$X3,2)*100 &amp; "%"</f>
-        <v>17%</v>
+        <v>16%</v>
       </c>
       <c r="AB3" s="3" t="str">
         <f>ROUND(打撃集計!AE3/$X3,2)*100 &amp; "%"</f>
-        <v>17%</v>
+        <v>16%</v>
       </c>
       <c r="AC3" s="3" t="str">
         <f>ROUND(打撃集計!AF3/$X3,2)*100 &amp; "%"</f>
-        <v>43%</v>
+        <v>40%</v>
       </c>
       <c r="AD3" s="4">
         <f>打撃集計!R3</f>
@@ -2374,11 +2382,11 @@
       </c>
       <c r="C4" s="4">
         <f>打撃集計!C4</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4">
         <f>打撃集計!D4</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4">
         <f>打撃集計!E4</f>
@@ -2410,19 +2418,19 @@
       </c>
       <c r="L4" s="4" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
-        <v>0.167</v>
+        <v>0.091</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
-        <v>0.167</v>
+        <v>0.091</v>
       </c>
       <c r="N4" s="4" t="str">
         <f>TEXT(打撃集計!P4,"0.000")</f>
-        <v>0.333</v>
+        <v>0.182</v>
       </c>
       <c r="O4" s="4" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
-        <v>0.500</v>
+        <v>0.273</v>
       </c>
       <c r="P4" s="4">
         <f>打撃集計!V4</f>
@@ -2458,27 +2466,27 @@
       </c>
       <c r="X4" s="4">
         <f>打撃集計!AA4</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y4" s="4" t="str">
         <f>TEXT(打撃集計!AB4,"0.0")</f>
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="Z4" s="3" t="str">
         <f>ROUND(打撃集計!AC4/$X4,2)*100 &amp; "%"</f>
-        <v>7%</v>
+        <v>6%</v>
       </c>
       <c r="AA4" s="3" t="str">
         <f>ROUND(打撃集計!AD4/$X4,2)*100 &amp; "%"</f>
-        <v>23%</v>
+        <v>20%</v>
       </c>
       <c r="AB4" s="3" t="str">
         <f>ROUND(打撃集計!AE4/$X4,2)*100 &amp; "%"</f>
-        <v>17%</v>
+        <v>14%</v>
       </c>
       <c r="AC4" s="3" t="str">
         <f>ROUND(打撃集計!AF4/$X4,2)*100 &amp; "%"</f>
-        <v>30%</v>
+        <v>26%</v>
       </c>
       <c r="AD4" s="4">
         <f>打撃集計!R4</f>
@@ -2508,11 +2516,11 @@
       </c>
       <c r="C5" s="4">
         <f>打撃集計!C5</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
         <f>打撃集計!D5</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
         <f>打撃集計!E5</f>
@@ -2544,19 +2552,19 @@
       </c>
       <c r="L5" s="4" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
-        <v>0.500</v>
+        <v>0.143</v>
       </c>
       <c r="M5" s="4" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
-        <v>0.667</v>
+        <v>0.250</v>
       </c>
       <c r="N5" s="4" t="str">
         <f>TEXT(打撃集計!P5,"0.000")</f>
-        <v>0.500</v>
+        <v>0.143</v>
       </c>
       <c r="O5" s="4" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
-        <v>1.167</v>
+        <v>0.393</v>
       </c>
       <c r="P5" s="4">
         <f>打撃集計!V5</f>
@@ -2592,27 +2600,27 @@
       </c>
       <c r="X5" s="4">
         <f>打撃集計!AA5</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y5" s="4" t="str">
         <f>TEXT(打撃集計!AB5,"0.0")</f>
-        <v>3.7</v>
+        <v>2.0</v>
       </c>
       <c r="Z5" s="3" t="str">
         <f>ROUND(打撃集計!AC5/$X5,2)*100 &amp; "%"</f>
-        <v>9%</v>
+        <v>6%</v>
       </c>
       <c r="AA5" s="3" t="str">
         <f>ROUND(打撃集計!AD5/$X5,2)*100 &amp; "%"</f>
-        <v>9%</v>
+        <v>6%</v>
       </c>
       <c r="AB5" s="3" t="str">
         <f>ROUND(打撃集計!AE5/$X5,2)*100 &amp; "%"</f>
-        <v>9%</v>
+        <v>6%</v>
       </c>
       <c r="AC5" s="3" t="str">
         <f>ROUND(打撃集計!AF5/$X5,2)*100 &amp; "%"</f>
-        <v>55%</v>
+        <v>38%</v>
       </c>
       <c r="AD5" s="4">
         <f>打撃集計!R5</f>
@@ -2642,11 +2650,11 @@
       </c>
       <c r="C6" s="4">
         <f>打撃集計!C6</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
         <f>打撃集計!D6</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <f>打撃集計!E6</f>
@@ -2678,19 +2686,19 @@
       </c>
       <c r="L6" s="4" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
-        <v>0.467</v>
+        <v>0.368</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
-        <v>0.467</v>
+        <v>0.368</v>
       </c>
       <c r="N6" s="4" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
-        <v>0.800</v>
+        <v>0.632</v>
       </c>
       <c r="O6" s="4" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
-        <v>1.267</v>
+        <v>1.000</v>
       </c>
       <c r="P6" s="4">
         <f>打撃集計!V6</f>
@@ -2726,15 +2734,15 @@
       </c>
       <c r="X6" s="4">
         <f>打撃集計!AA6</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="4" t="str">
         <f>TEXT(打撃集計!AB6,"0.0")</f>
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f>ROUND(打撃集計!AC6/$X6,2)*100 &amp; "%"</f>
-        <v>19%</v>
+        <v>17%</v>
       </c>
       <c r="AA6" s="3" t="str">
         <f>ROUND(打撃集計!AD6/$X6,2)*100 &amp; "%"</f>
@@ -2742,11 +2750,11 @@
       </c>
       <c r="AB6" s="3" t="str">
         <f>ROUND(打撃集計!AE6/$X6,2)*100 &amp; "%"</f>
-        <v>16%</v>
+        <v>15%</v>
       </c>
       <c r="AC6" s="3" t="str">
         <f>ROUND(打撃集計!AF6/$X6,2)*100 &amp; "%"</f>
-        <v>30%</v>
+        <v>28%</v>
       </c>
       <c r="AD6" s="4">
         <f>打撃集計!R6</f>
@@ -2910,11 +2918,11 @@
       </c>
       <c r="C8" s="4">
         <f>打撃集計!C8</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <f>打撃集計!D8</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4">
         <f>打撃集計!E8</f>
@@ -2946,19 +2954,19 @@
       </c>
       <c r="L8" s="4" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
-        <v>0.214</v>
+        <v>0.158</v>
       </c>
       <c r="M8" s="4" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
-        <v>0.353</v>
+        <v>0.273</v>
       </c>
       <c r="N8" s="4" t="str">
         <f>TEXT(打撃集計!P8,"0.000")</f>
-        <v>0.357</v>
+        <v>0.263</v>
       </c>
       <c r="O8" s="4" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
-        <v>0.710</v>
+        <v>0.536</v>
       </c>
       <c r="P8" s="4">
         <f>打撃集計!V8</f>
@@ -2994,11 +3002,11 @@
       </c>
       <c r="X8" s="4">
         <f>打撃集計!AA8</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="4" t="str">
         <f>TEXT(打撃集計!AB8,"0.0")</f>
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f>ROUND(打撃集計!AC8/$X8,2)*100 &amp; "%"</f>
@@ -3014,7 +3022,7 @@
       </c>
       <c r="AC8" s="3" t="str">
         <f>ROUND(打撃集計!AF8/$X8,2)*100 &amp; "%"</f>
-        <v>41%</v>
+        <v>39%</v>
       </c>
       <c r="AD8" s="4">
         <f>打撃集計!R8</f>
@@ -3312,11 +3320,11 @@
       </c>
       <c r="C11" s="4">
         <f>打撃集計!C11</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4">
         <f>打撃集計!D11</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4">
         <f>打撃集計!E11</f>
@@ -3348,19 +3356,19 @@
       </c>
       <c r="L11" s="4" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
-        <v>0.364</v>
+        <v>0.267</v>
       </c>
       <c r="M11" s="4" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
-        <v>0.462</v>
+        <v>0.353</v>
       </c>
       <c r="N11" s="4" t="str">
         <f>TEXT(打撃集計!P11,"0.000")</f>
-        <v>0.636</v>
+        <v>0.467</v>
       </c>
       <c r="O11" s="4" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
-        <v>1.098</v>
+        <v>0.820</v>
       </c>
       <c r="P11" s="4">
         <f>打撃集計!V11</f>
@@ -3396,27 +3404,27 @@
       </c>
       <c r="X11" s="4">
         <f>打撃集計!AA11</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Y11" s="4" t="str">
         <f>TEXT(打撃集計!AB11,"0.0")</f>
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="Z11" s="3" t="str">
         <f>ROUND(打撃集計!AC11/$X11,2)*100 &amp; "%"</f>
-        <v>10%</v>
+        <v>9%</v>
       </c>
       <c r="AA11" s="3" t="str">
         <f>ROUND(打撃集計!AD11/$X11,2)*100 &amp; "%"</f>
-        <v>14%</v>
+        <v>13%</v>
       </c>
       <c r="AB11" s="3" t="str">
         <f>ROUND(打撃集計!AE11/$X11,2)*100 &amp; "%"</f>
-        <v>14%</v>
+        <v>13%</v>
       </c>
       <c r="AC11" s="3" t="str">
         <f>ROUND(打撃集計!AF11/$X11,2)*100 &amp; "%"</f>
-        <v>40%</v>
+        <v>37%</v>
       </c>
       <c r="AD11" s="4">
         <f>打撃集計!R11</f>
@@ -4241,15 +4249,15 @@
       </c>
       <c r="B18" s="4">
         <f>打撃集計!B18</f>
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4">
         <f>打撃集計!C18</f>
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D18" s="4">
         <f>打撃集計!D18</f>
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E18" s="4">
         <f>打撃集計!E18</f>
@@ -4281,19 +4289,19 @@
       </c>
       <c r="L18" s="4" t="str">
         <f>TEXT(打撃集計!N18,"0.000")</f>
-        <v>0.311</v>
+        <v>0.242</v>
       </c>
       <c r="M18" s="4" t="str">
         <f>TEXT(打撃集計!O18,"0.000")</f>
-        <v>0.427</v>
+        <v>0.345</v>
       </c>
       <c r="N18" s="4" t="str">
         <f>TEXT(打撃集計!P18,"0.000")</f>
-        <v>0.521</v>
+        <v>0.405</v>
       </c>
       <c r="O18" s="4" t="str">
         <f>TEXT(打撃集計!Q18,"0.000")</f>
-        <v>0.948</v>
+        <v>0.750</v>
       </c>
       <c r="P18" s="4">
         <f>打撃集計!V18</f>
@@ -4329,27 +4337,27 @@
       </c>
       <c r="X18" s="4">
         <f>打撃集計!AA18</f>
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="Y18" s="4" t="str">
         <f>TEXT(打撃集計!AB18,"0.0")</f>
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="Z18" s="3" t="str">
         <f>ROUND(打撃集計!AC18/$X18,2)*100 &amp; "%"</f>
-        <v>13%</v>
+        <v>12%</v>
       </c>
       <c r="AA18" s="3" t="str">
         <f>ROUND(打撃集計!AD18/$X18,2)*100 &amp; "%"</f>
-        <v>13%</v>
+        <v>12%</v>
       </c>
       <c r="AB18" s="3" t="str">
         <f>ROUND(打撃集計!AE18/$X18,2)*100 &amp; "%"</f>
-        <v>14%</v>
+        <v>13%</v>
       </c>
       <c r="AC18" s="3" t="str">
         <f>ROUND(打撃集計!AF18/$X18,2)*100 &amp; "%"</f>
-        <v>40%</v>
+        <v>38%</v>
       </c>
       <c r="AD18" s="4">
         <f>打撃集計!R18</f>
@@ -5362,7 +5370,7 @@
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -5500,11 +5508,11 @@
       </c>
       <c r="C2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!F:F)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!G:G)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!H:H)</f>
@@ -5548,7 +5556,7 @@
       </c>
       <c r="O2" s="3">
         <f t="shared" ref="O2:O8" si="1">IFERROR(ROUND((F2+G2+E2)/(F2+G2+D2),3),"-")</f>
-        <v>0.125</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" ref="P2:P8" si="2">IFERROR(ROUND(Y2/D2,3),"-")</f>
@@ -5556,7 +5564,7 @@
       </c>
       <c r="Q2" s="3">
         <f t="shared" ref="Q2:Q18" si="3">IFERROR(O2+P2,"-")</f>
-        <v>0.125</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="R2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!AA:AA)</f>
@@ -5596,11 +5604,11 @@
       </c>
       <c r="AA2" s="3">
         <f t="shared" ref="AA2:AA17" si="6">SUM(AC2:AF2)+D2+K2</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="3">
         <f t="shared" ref="AB2:AB8" si="7">IFERROR(ROUND(AA2/C2,2),"-")</f>
-        <v>4.63</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!S:S)</f>
@@ -5637,11 +5645,11 @@
       </c>
       <c r="C3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!F:F)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!G:G)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!H:H)</f>
@@ -5681,19 +5689,19 @@
       </c>
       <c r="N3" s="7">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="2"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.56800000000000006</v>
       </c>
       <c r="R3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!AA:AA)</f>
@@ -5733,11 +5741,11 @@
       </c>
       <c r="AA3" s="3">
         <f t="shared" si="6"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" si="7"/>
-        <v>4.1399999999999997</v>
+        <v>3.32</v>
       </c>
       <c r="AC3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!S:S)</f>
@@ -5774,11 +5782,11 @@
       </c>
       <c r="C4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!F:F)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!G:G)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!H:H)</f>
@@ -5818,19 +5826,19 @@
       </c>
       <c r="N4" s="7">
         <f t="shared" si="0"/>
-        <v>0.16700000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
-        <v>0.16700000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="2"/>
-        <v>0.33300000000000002</v>
+        <v>0.182</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="R4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!AA:AA)</f>
@@ -5870,11 +5878,11 @@
       </c>
       <c r="AA4" s="3">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="7"/>
-        <v>4.29</v>
+        <v>2.92</v>
       </c>
       <c r="AC4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!S:S)</f>
@@ -5911,11 +5919,11 @@
       </c>
       <c r="C5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!F:F)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!G:G)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!H:H)</f>
@@ -5955,19 +5963,19 @@
       </c>
       <c r="N5" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>0.66700000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>1.167</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="R5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!AA:AA)</f>
@@ -6007,11 +6015,11 @@
       </c>
       <c r="AA5" s="3">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" si="7"/>
-        <v>3.67</v>
+        <v>2</v>
       </c>
       <c r="AC5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!S:S)</f>
@@ -6048,11 +6056,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!F:F)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!G:G)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!H:H)</f>
@@ -6092,19 +6100,19 @@
       </c>
       <c r="N6" s="7">
         <f t="shared" si="0"/>
-        <v>0.46700000000000003</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>0.46700000000000003</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>1.2670000000000001</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!AA:AA)</f>
@@ -6144,11 +6152,11 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="7"/>
-        <v>2.87</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="AC6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!S:S)</f>
@@ -6322,11 +6330,11 @@
       </c>
       <c r="C8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!F:F)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!G:G)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!H:H)</f>
@@ -6366,19 +6374,19 @@
       </c>
       <c r="N8" s="7">
         <f t="shared" si="0"/>
-        <v>0.214</v>
+        <v>0.158</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>0.35299999999999998</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>0.35699999999999998</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>0.71</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="R8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!AA:AA)</f>
@@ -6418,11 +6426,11 @@
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="7"/>
-        <v>4.41</v>
+        <v>3.64</v>
       </c>
       <c r="AC8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!S:S)</f>
@@ -6733,11 +6741,11 @@
       </c>
       <c r="C11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!F:F)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!G:G)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!H:H)</f>
@@ -6777,19 +6785,19 @@
       </c>
       <c r="N11" s="7">
         <f t="shared" si="8"/>
-        <v>0.36399999999999999</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="9"/>
-        <v>0.46200000000000002</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="10"/>
-        <v>0.63600000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>1.0980000000000001</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="R11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!AA:AA)</f>
@@ -6829,11 +6837,11 @@
       </c>
       <c r="AA11" s="3">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" si="11"/>
-        <v>3.85</v>
+        <v>3.18</v>
       </c>
       <c r="AC11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!S:S)</f>
@@ -7687,16 +7695,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3">
-        <f>COUNTA(元データ!AD:AD)</f>
-        <v>99</v>
+        <f>(COUNTA(元データ!A:A)-1)/16</f>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ref="C18:M18" si="17">SUM(C2:C12)</f>
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="17"/>
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="17"/>
@@ -7736,19 +7744,19 @@
       </c>
       <c r="N18" s="7">
         <f>IFERROR(ROUND(E18/D18,3),"-")</f>
-        <v>0.311</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="O18" s="3">
         <f>IFERROR(ROUND((F18+G18+E18)/(F18+G18+D18),3),"-")</f>
-        <v>0.42699999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="P18" s="3">
         <f>IFERROR(ROUND(Y18/D18,3),"-")</f>
-        <v>0.52100000000000002</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>0.94799999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" ref="R18:T18" si="18">SUM(R2:R12)</f>
@@ -7788,11 +7796,11 @@
       </c>
       <c r="AA18" s="3">
         <f t="shared" si="19"/>
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="AB18" s="3">
         <f>IFERROR(ROUND(AA18/C18,2),"-")</f>
-        <v>4.03</v>
+        <v>3.46</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ref="AC18:AH18" si="20">SUM(AC2:AC12)</f>
@@ -8813,7 +8821,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8827,7 +8835,8 @@
     <col min="7" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
@@ -9271,6 +9280,92 @@
     <row r="6" spans="1:22">
       <c r="A6" s="3" t="s">
         <v>228</v>
+      </c>
+      <c r="B6">
+        <f>(COUNTA(元データ!A:A)-1)/16</f>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f>SUM(投元!E:E)
++QUOTIENT(SUM(投元!G:G),3)
++MOD(SUM(投元!G:G),3)/10</f>
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:N6" si="3">SUM(E2:E5)</f>
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>277</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>594</v>
+      </c>
+      <c r="O6" s="64">
+        <f>1-M6/N6</f>
+        <v>0.53367003367003374</v>
+      </c>
+      <c r="P6" s="67">
+        <f>(L6*21)/(SUM(投元!E:E)*3+SUM(投元!G:G)*3)</f>
+        <v>6.382352941176471</v>
+      </c>
+      <c r="Q6">
+        <f>(E6+H6)/(QUOTIENT(C6,1)+MOD(C6,1)/0.3)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R6" s="66">
+        <f>E6/(D6-H6-I6)</f>
+        <v>0.27642276422764228</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6" si="4">SUM(S2:S5)</f>
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6" si="5">SUM(T2:T5)</f>
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6" si="6">SUM(U2:U5)</f>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6" si="7">SUM(V2:V5)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -13977,11 +14072,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AK870"/>
+  <dimension ref="A1:AK868"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD88" sqref="AD88"/>
+      <selection pane="bottomLeft" activeCell="AI2" sqref="AI2:AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -13992,7 +14087,7 @@
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="29" width="3.42578125" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
@@ -14209,6 +14304,8 @@
       <c r="AH2" s="30" t="s">
         <v>83</v>
       </c>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="24" t="s">
@@ -14309,6 +14406,8 @@
       <c r="AH3" s="32" t="s">
         <v>83</v>
       </c>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
     </row>
     <row r="4" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="24" t="s">
@@ -14409,6 +14508,8 @@
       <c r="AG4" s="32" t="s">
         <v>81</v>
       </c>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
     </row>
     <row r="5" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="24" t="s">
@@ -14513,6 +14614,8 @@
         <v>89</v>
       </c>
       <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
     </row>
     <row r="6" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="24" t="s">
@@ -14611,6 +14714,8 @@
         <v>90</v>
       </c>
       <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
     </row>
     <row r="7" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="24" t="s">
@@ -14709,6 +14814,8 @@
         <v>92</v>
       </c>
       <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
     </row>
     <row r="8" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="24" t="s">
@@ -14807,6 +14914,8 @@
         <v>81</v>
       </c>
       <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
     </row>
     <row r="9" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="24" t="s">
@@ -14905,6 +15014,8 @@
         <v>81</v>
       </c>
       <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
     </row>
     <row r="10" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="24" t="s">
@@ -14987,6 +15098,8 @@
       <c r="AE10" s="32" t="s">
         <v>94</v>
       </c>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
     </row>
     <row r="11" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="24" t="s">
@@ -15077,6 +15190,8 @@
         <v>95</v>
       </c>
       <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
     </row>
     <row r="12" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="24" t="s">
@@ -15153,6 +15268,8 @@
         <f t="shared" si="13"/>
         <v>萩原</v>
       </c>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
     </row>
     <row r="13" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="24" t="s">
@@ -15164,6 +15281,8 @@
       <c r="AD13" s="37" t="s">
         <v>0</v>
       </c>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
     </row>
     <row r="14" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="24" t="s">
@@ -15175,6 +15294,8 @@
       <c r="AD14" s="37" t="s">
         <v>1</v>
       </c>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
     </row>
     <row r="15" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="24" t="s">
@@ -15186,6 +15307,8 @@
       <c r="AD15" s="37" t="s">
         <v>2</v>
       </c>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
     </row>
     <row r="16" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="24" t="s">
@@ -15197,6 +15320,8 @@
       <c r="AD16" s="37" t="s">
         <v>3</v>
       </c>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
     </row>
     <row r="17" spans="1:36" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="25" t="s">
@@ -15208,6 +15333,8 @@
       <c r="AD17" s="74" t="s">
         <v>4</v>
       </c>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
     </row>
     <row r="18" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="27" t="s">
@@ -15512,11 +15639,11 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="32">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H21" s="32">
         <f t="shared" si="16"/>
@@ -15587,6 +15714,18 @@
       <c r="AF21" s="32" t="s">
         <v>85</v>
       </c>
+      <c r="AG21" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH21" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI21" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ21" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="22" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="24" t="s">
@@ -15606,11 +15745,11 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="32">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22" s="32">
         <f t="shared" si="16"/>
@@ -15681,6 +15820,18 @@
       <c r="AF22" s="32" t="s">
         <v>93</v>
       </c>
+      <c r="AG22" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH22" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI22" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ22" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="23" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="24" t="s">
@@ -15697,11 +15848,11 @@
       </c>
       <c r="F23" s="32">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G23" s="32">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H23" s="32">
         <f t="shared" si="16"/>
@@ -15766,6 +15917,21 @@
       <c r="AE23" s="32" t="s">
         <v>93</v>
       </c>
+      <c r="AF23" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG23" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH23" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI23" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ23" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="24" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="24" t="s">
@@ -15782,11 +15948,11 @@
       </c>
       <c r="F24" s="32">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G24" s="32">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H24" s="32">
         <f t="shared" si="16"/>
@@ -15848,6 +16014,21 @@
       <c r="AE24" s="32" t="s">
         <v>81</v>
       </c>
+      <c r="AF24" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG24" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH24" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI24" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ24" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="25" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="24" t="s">
@@ -15864,11 +16045,11 @@
       </c>
       <c r="F25" s="32">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H25" s="32">
         <f t="shared" si="16"/>
@@ -15918,6 +16099,24 @@
         <f t="shared" si="27"/>
         <v>安部滉</v>
       </c>
+      <c r="AE25" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF25" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG25" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH25" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI25" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ25" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="26" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="24" t="s">
@@ -15934,11 +16133,11 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26" s="32">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H26" s="32">
         <f t="shared" si="16"/>
@@ -15994,6 +16193,21 @@
       <c r="AE26" s="32" t="s">
         <v>99</v>
       </c>
+      <c r="AF26" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG26" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH26" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI26" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ26" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="27" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="24" t="s">
@@ -16013,11 +16227,11 @@
       </c>
       <c r="F27" s="32">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G27" s="32">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H27" s="32">
         <f t="shared" si="16"/>
@@ -16076,53 +16290,194 @@
       <c r="AE27" s="32" t="s">
         <v>91</v>
       </c>
+      <c r="AF27" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG27" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH27" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI27" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ27" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="28" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="B28" s="38"/>
       <c r="C28" s="32"/>
       <c r="AD28" s="32" t="s">
         <v>46</v>
       </c>
+      <c r="AE28" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF28" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG28" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH28" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI28" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ28" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="29" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="B29" s="38"/>
       <c r="C29" s="32"/>
       <c r="E29" s="37"/>
       <c r="AD29" s="37" t="s">
         <v>0</v>
       </c>
+      <c r="AE29" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF29" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG29" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH29" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI29" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ29" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="30" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="B30" s="38"/>
       <c r="C30" s="32"/>
       <c r="E30" s="37"/>
       <c r="AD30" s="37" t="s">
         <v>1</v>
       </c>
+      <c r="AE30" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF30" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG30" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH30" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI30" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ30" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="31" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="B31" s="38"/>
       <c r="C31" s="32"/>
       <c r="E31" s="37"/>
       <c r="AD31" s="37" t="s">
         <v>2</v>
       </c>
+      <c r="AE31" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF31" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG31" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH31" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI31" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ31" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="32" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="B32" s="38"/>
       <c r="C32" s="32"/>
       <c r="E32" s="37"/>
       <c r="AD32" s="37" t="s">
         <v>3</v>
       </c>
+      <c r="AE32" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF32" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG32" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH32" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI32" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ32" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="33" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="B33" s="38"/>
       <c r="C33" s="32"/>
       <c r="E33" s="37"/>
       <c r="AD33" s="37" t="s">
         <v>4</v>
       </c>
+      <c r="AE33" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF33" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG33" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH33" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI33" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ33" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="34" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="27" t="s">
@@ -17221,6 +17576,9 @@
       </c>
     </row>
     <row r="46" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="B46" s="38"/>
       <c r="C46" s="32"/>
       <c r="AD46" s="37" t="s">
@@ -17228,6 +17586,9 @@
       </c>
     </row>
     <row r="47" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A47" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="B47" s="38"/>
       <c r="C47" s="32"/>
       <c r="AD47" s="37" t="s">
@@ -17235,6 +17596,9 @@
       </c>
     </row>
     <row r="48" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="B48" s="38"/>
       <c r="C48" s="32"/>
       <c r="AD48" s="37" t="s">
@@ -17242,6 +17606,9 @@
       </c>
     </row>
     <row r="49" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A49" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="B49" s="38"/>
       <c r="C49" s="32"/>
       <c r="AD49" s="37" t="s">
@@ -21076,7 +21443,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="15.4" hidden="1" customHeight="1">
+    <row r="95" spans="1:36" ht="15.4" customHeight="1">
       <c r="A95" s="24" t="s">
         <v>159</v>
       </c>
@@ -21146,7 +21513,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="17.25" hidden="1" customHeight="1">
+    <row r="96" spans="1:36" ht="17.25" customHeight="1">
       <c r="A96" s="24" t="s">
         <v>159</v>
       </c>
@@ -21260,7 +21627,7 @@
       <c r="AB97" s="29"/>
       <c r="AC97" s="29"/>
       <c r="AD97" s="39" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="AE97" s="29"/>
       <c r="AF97" s="29"/>
@@ -21269,93 +21636,17 @@
       <c r="AI97" s="29"/>
       <c r="AJ97" s="29"/>
     </row>
-    <row r="98" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A98" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="32"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="33"/>
-      <c r="P98" s="33"/>
-      <c r="Q98" s="33"/>
-      <c r="R98" s="33"/>
-      <c r="S98" s="33"/>
-      <c r="T98" s="33"/>
-      <c r="U98" s="33"/>
-      <c r="V98" s="33"/>
-      <c r="W98" s="32"/>
-      <c r="X98" s="32"/>
-      <c r="Y98" s="32"/>
-      <c r="Z98" s="32"/>
-      <c r="AA98" s="29"/>
-      <c r="AB98" s="29"/>
-      <c r="AC98" s="29"/>
-      <c r="AD98" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE98" s="29"/>
-      <c r="AF98" s="29"/>
-      <c r="AG98" s="29"/>
-      <c r="AH98" s="29"/>
-      <c r="AI98" s="29"/>
-      <c r="AJ98" s="29"/>
+    <row r="98" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B98" s="40"/>
+      <c r="C98" s="30"/>
     </row>
     <row r="99" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A99" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="38"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="32"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="32"/>
-      <c r="O99" s="33"/>
-      <c r="P99" s="33"/>
-      <c r="Q99" s="33"/>
-      <c r="R99" s="33"/>
-      <c r="S99" s="33"/>
-      <c r="T99" s="33"/>
-      <c r="U99" s="33"/>
-      <c r="V99" s="33"/>
-      <c r="W99" s="32"/>
-      <c r="X99" s="32"/>
-      <c r="Y99" s="32"/>
-      <c r="Z99" s="32"/>
-      <c r="AA99" s="29"/>
-      <c r="AB99" s="29"/>
-      <c r="AC99" s="29"/>
-      <c r="AD99" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE99" s="29"/>
-      <c r="AF99" s="29"/>
-      <c r="AG99" s="29"/>
-      <c r="AH99" s="29"/>
-      <c r="AI99" s="29"/>
-      <c r="AJ99" s="29"/>
-    </row>
-    <row r="100" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B100" s="40"/>
-      <c r="C100" s="30"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:36" ht="17.25" customHeight="1">
+      <c r="B100" s="10"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:36" ht="17.25" customHeight="1">
       <c r="B101" s="10"/>
@@ -24429,18 +24720,10 @@
       <c r="B868" s="10"/>
       <c r="C868" s="3"/>
     </row>
-    <row r="869" spans="2:3" ht="17.25" customHeight="1">
-      <c r="B869" s="10"/>
-      <c r="C869" s="3"/>
-    </row>
-    <row r="870" spans="2:3" ht="17.25" customHeight="1">
-      <c r="B870" s="10"/>
-      <c r="C870" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="14"/>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" sqref="D34:D45 D89 D87 C88 D84 C59:C83 C85:C86 C1:C33 C46:C57 C90:C870" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" sqref="D34:D45 D89 D87 C88 D84 C59:C83 C85:C86 C1:C33 C46:C57 C90:C868" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -24914,11 +25197,11 @@
       </c>
       <c r="D5" s="11">
         <f>打撃詳細!C6</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="11">
         <f>打撃詳細!D6</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="11">
         <f>打撃詳細!E6</f>
@@ -24978,19 +25261,19 @@
       </c>
       <c r="T5" s="11" t="str">
         <f>打撃詳細!L6</f>
-        <v>0.467</v>
+        <v>0.368</v>
       </c>
       <c r="U5" s="11" t="str">
         <f>打撃詳細!M6</f>
-        <v>0.467</v>
+        <v>0.368</v>
       </c>
       <c r="V5" s="11" t="str">
         <f>打撃詳細!N6</f>
-        <v>0.800</v>
+        <v>0.632</v>
       </c>
       <c r="W5" s="11" t="str">
         <f>打撃詳細!O6</f>
-        <v>1.267</v>
+        <v>1.000</v>
       </c>
       <c r="X5" s="11">
         <f>打撃詳細!AD6</f>
@@ -25010,19 +25293,19 @@
       </c>
       <c r="AB5" s="11">
         <f>打撃詳細!X6</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="11" t="str">
         <f>打撃詳細!Y6</f>
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AD5" s="18">
         <f t="shared" ref="AD5:AD6" si="0">0.5*N5+0.72*O5+1.04*P5+1.44*Q5+0.34*(G5+H5)+0.18*I5-0.09*(E5-F5-R5)-0.098*R5-0.37*S5+0.04*M5</f>
-        <v>4.16</v>
+        <v>3.8</v>
       </c>
       <c r="AE5" s="18">
         <f t="shared" ref="AE5:AE6" si="1">V5-T5</f>
-        <v>0.33300000000000002</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="AF5" s="19" t="e">
         <f t="shared" ref="AF5:AF6" si="2">G5/R5</f>
@@ -25030,7 +25313,7 @@
       </c>
       <c r="AG5" s="19">
         <f t="shared" ref="AG5:AG6" si="3">((F5+G5+H5-S5)+2.4*(E5+G5+H5+M5)*((N5+O5*2+P5*3+Q5*4+0.24*(G5+H5)+0.62*I5+(0.5*M5)-0.03*R5)+3*(E5+G5+H5+M5))/(9*(E5+G5+H5+M5)))-0.9*(E5+G5+H5+M5)</f>
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AH5" s="10">
         <f>打撃集計!AE6</f>
@@ -25038,7 +25321,7 @@
       </c>
       <c r="AI5" s="11" t="str">
         <f>打撃詳細!AB6</f>
-        <v>16%</v>
+        <v>15%</v>
       </c>
       <c r="AJ5" s="3">
         <f>打撃集計!AC6</f>
@@ -25046,7 +25329,7 @@
       </c>
       <c r="AK5" s="11" t="str">
         <f>打撃詳細!Z6</f>
-        <v>19%</v>
+        <v>17%</v>
       </c>
       <c r="AL5" s="3">
         <f>打撃集計!AD6</f>
@@ -25062,7 +25345,7 @@
       </c>
       <c r="AO5" s="11" t="str">
         <f>打撃詳細!AC6</f>
-        <v>30%</v>
+        <v>28%</v>
       </c>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
@@ -25088,11 +25371,11 @@
       </c>
       <c r="D6" s="20">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="4"/>
@@ -25152,19 +25435,19 @@
       </c>
       <c r="T6" s="7">
         <f>F6/E6</f>
-        <v>0.26984126984126983</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="U6" s="7">
         <f>(F6+G6+H6)/(E6+G6+H6)</f>
-        <v>0.47126436781609193</v>
+        <v>0.45054945054945056</v>
       </c>
       <c r="V6" s="7">
         <f>(N6+O6*2+P6*3+Q6*4)/E6</f>
-        <v>0.36507936507936506</v>
+        <v>0.34328358208955223</v>
       </c>
       <c r="W6" s="7">
         <f>U6+V6</f>
-        <v>0.83634373289545705</v>
+        <v>0.79383303263900284</v>
       </c>
       <c r="X6" s="20">
         <f t="shared" ref="X6:Z6" si="5">SUM(X3:X5)</f>
@@ -25184,19 +25467,19 @@
       </c>
       <c r="AB6" s="20">
         <f>SUM(AB3:AB5)</f>
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AC6" s="19">
         <f>AB6/D6</f>
-        <v>4.3068181818181817</v>
+        <v>4.1630434782608692</v>
       </c>
       <c r="AD6" s="18">
         <f t="shared" si="0"/>
-        <v>13.987999999999996</v>
+        <v>13.627999999999997</v>
       </c>
       <c r="AE6" s="18">
         <f t="shared" si="1"/>
-        <v>9.5238095238095233E-2</v>
+        <v>8.955223880597013E-2</v>
       </c>
       <c r="AF6" s="19">
         <f t="shared" si="2"/>
@@ -25204,7 +25487,7 @@
       </c>
       <c r="AG6" s="19">
         <f t="shared" si="3"/>
-        <v>38.512</v>
+        <v>38.111999999999995</v>
       </c>
       <c r="AH6" s="20">
         <f>SUM(AH3:AH5)</f>
@@ -26385,11 +26668,11 @@
       </c>
       <c r="D17" s="11">
         <f>打撃詳細!C8</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E17" s="11">
         <f>打撃詳細!D8</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F17" s="11">
         <f>打撃詳細!E8</f>
@@ -26449,19 +26732,19 @@
       </c>
       <c r="T17" s="11" t="str">
         <f>打撃詳細!L8</f>
-        <v>0.214</v>
+        <v>0.158</v>
       </c>
       <c r="U17" s="11" t="str">
         <f>打撃詳細!M8</f>
-        <v>0.353</v>
+        <v>0.273</v>
       </c>
       <c r="V17" s="11" t="str">
         <f>打撃詳細!N8</f>
-        <v>0.357</v>
+        <v>0.263</v>
       </c>
       <c r="W17" s="11" t="str">
         <f>打撃詳細!O8</f>
-        <v>0.710</v>
+        <v>0.536</v>
       </c>
       <c r="X17" s="11">
         <f>打撃詳細!AD8</f>
@@ -26481,19 +26764,19 @@
       </c>
       <c r="AB17" s="11">
         <f>打撃詳細!X8</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC17" s="11" t="str">
         <f>打撃詳細!Y8</f>
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD17" s="18">
         <f t="shared" ref="AD17:AD18" si="14">0.5*N17+0.72*O17+1.04*P17+1.44*Q17+0.34*(G17+H17)+0.18*I17-0.09*(E17-F17-R17)-0.098*R17-0.37*S17+0.04*M17</f>
-        <v>2.3740000000000001</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="AE17" s="18">
         <f t="shared" ref="AE17:AE18" si="15">V17-T17</f>
-        <v>0.14299999999999999</v>
+        <v>0.10500000000000001</v>
       </c>
       <c r="AF17" s="19">
         <f t="shared" ref="AF17:AF18" si="16">G17/R17</f>
@@ -26501,7 +26784,7 @@
       </c>
       <c r="AG17" s="19">
         <f t="shared" ref="AG17:AG18" si="17">((F17+G17+H17-S17)+2.4*(E17+G17+H17+M17)*((N17+O17*2+P17*3+Q17*4+0.24*(G17+H17)+0.62*I17+(0.5*M17)-0.03*R17)+3*(E17+G17+H17+M17))/(9*(E17+G17+H17+M17)))-0.9*(E17+G17+H17+M17)</f>
-        <v>6.0999999999999979</v>
+        <v>5.5999999999999979</v>
       </c>
       <c r="AH17" s="10">
         <f>打撃集計!AE8</f>
@@ -26533,7 +26816,7 @@
       </c>
       <c r="AO17" s="11" t="str">
         <f>打撃詳細!AC8</f>
-        <v>41%</v>
+        <v>39%</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="17.25" customHeight="1">
@@ -26547,11 +26830,11 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" si="18"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="18"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="18"/>
@@ -26611,19 +26894,19 @@
       </c>
       <c r="T18" s="7">
         <f>F18/E18</f>
-        <v>0.2361111111111111</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="U18" s="7">
         <f>(F18+G18+H18)/(E18+G18+H18)</f>
-        <v>0.36781609195402298</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="V18" s="7">
         <f>(N18+O18*2+P18*3+Q18*4)/E18</f>
-        <v>0.31944444444444442</v>
+        <v>0.29870129870129869</v>
       </c>
       <c r="W18" s="7">
         <f>U18+V18</f>
-        <v>0.6872605363984674</v>
+        <v>0.64652738565782042</v>
       </c>
       <c r="X18" s="20">
         <f t="shared" ref="X18:Z18" si="19">SUM(X15:X17)</f>
@@ -26643,19 +26926,19 @@
       </c>
       <c r="AB18" s="20">
         <f>SUM(AB15:AB17)</f>
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AC18" s="19">
         <f>AB18/D18</f>
-        <v>3.7126436781609193</v>
+        <v>3.5652173913043477</v>
       </c>
       <c r="AD18" s="18">
         <f t="shared" si="14"/>
-        <v>11.166</v>
+        <v>10.716000000000001</v>
       </c>
       <c r="AE18" s="18">
         <f t="shared" si="15"/>
-        <v>8.3333333333333315E-2</v>
+        <v>7.792207792207792E-2</v>
       </c>
       <c r="AF18" s="19">
         <f t="shared" si="16"/>
@@ -26663,7 +26946,7 @@
       </c>
       <c r="AG18" s="19">
         <f t="shared" si="17"/>
-        <v>30.233333333333334</v>
+        <v>29.73333333333332</v>
       </c>
       <c r="AH18" s="20">
         <f>SUM(AH15:AH17)</f>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D9A53-E178-47E6-A27E-846BEB2443F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EDA2E8-B49C-44E8-9E6D-9CB298A3753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="0" windowWidth="19095" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃詳細" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="231">
   <si>
     <t>NAKAHATA</t>
   </si>
@@ -1105,10 +1105,6 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="14"/>
   </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="14"/>
-  </si>
 </sst>
 </file>
 
@@ -2650,11 +2646,11 @@
       </c>
       <c r="C6" s="4">
         <f>打撃集計!C6</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <f>打撃集計!D6</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4">
         <f>打撃集計!E6</f>
@@ -2686,19 +2682,19 @@
       </c>
       <c r="L6" s="4" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="N6" s="4" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
-        <v>0.632</v>
+        <v>0.667</v>
       </c>
       <c r="O6" s="4" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
-        <v>1.000</v>
+        <v>1.056</v>
       </c>
       <c r="P6" s="4">
         <f>打撃集計!V6</f>
@@ -2734,11 +2730,11 @@
       </c>
       <c r="X6" s="4">
         <f>打撃集計!AA6</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="4" t="str">
         <f>TEXT(打撃集計!AB6,"0.0")</f>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f>ROUND(打撃集計!AC6/$X6,2)*100 &amp; "%"</f>
@@ -4253,11 +4249,11 @@
       </c>
       <c r="C18" s="4">
         <f>打撃集計!C18</f>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="4">
         <f>打撃集計!D18</f>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="4">
         <f>打撃集計!E18</f>
@@ -4289,19 +4285,19 @@
       </c>
       <c r="L18" s="4" t="str">
         <f>TEXT(打撃集計!N18,"0.000")</f>
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
       <c r="M18" s="4" t="str">
         <f>TEXT(打撃集計!O18,"0.000")</f>
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="N18" s="4" t="str">
         <f>TEXT(打撃集計!P18,"0.000")</f>
-        <v>0.405</v>
+        <v>0.408</v>
       </c>
       <c r="O18" s="4" t="str">
         <f>TEXT(打撃集計!Q18,"0.000")</f>
-        <v>0.750</v>
+        <v>0.755</v>
       </c>
       <c r="P18" s="4">
         <f>打撃集計!V18</f>
@@ -4337,7 +4333,7 @@
       </c>
       <c r="X18" s="4">
         <f>打撃集計!AA18</f>
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Y18" s="4" t="str">
         <f>TEXT(打撃集計!AB18,"0.0")</f>
@@ -6056,11 +6052,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!F:F)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!G:G)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!H:H)</f>
@@ -6100,19 +6096,19 @@
       </c>
       <c r="N6" s="7">
         <f t="shared" si="0"/>
-        <v>0.36799999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>0.36799999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>0.63200000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.056</v>
       </c>
       <c r="R6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!AA:AA)</f>
@@ -6152,11 +6148,11 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" si="6"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="7"/>
-        <v>2.4700000000000002</v>
+        <v>2.56</v>
       </c>
       <c r="AC6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!S:S)</f>
@@ -7700,11 +7696,11 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ref="C18:M18" si="17">SUM(C2:C12)</f>
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="17"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="17"/>
@@ -7744,19 +7740,19 @@
       </c>
       <c r="N18" s="7">
         <f>IFERROR(ROUND(E18/D18,3),"-")</f>
-        <v>0.24199999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="O18" s="3">
         <f>IFERROR(ROUND((F18+G18+E18)/(F18+G18+D18),3),"-")</f>
-        <v>0.34499999999999997</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="P18" s="3">
         <f>IFERROR(ROUND(Y18/D18,3),"-")</f>
-        <v>0.40500000000000003</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.75499999999999989</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" ref="R18:T18" si="18">SUM(R2:R12)</f>
@@ -7796,11 +7792,11 @@
       </c>
       <c r="AA18" s="3">
         <f t="shared" si="19"/>
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AB18" s="3">
         <f>IFERROR(ROUND(AA18/C18,2),"-")</f>
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ref="AC18:AH18" si="20">SUM(AC2:AC12)</f>
@@ -14074,9 +14070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK868"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI2" sqref="AI2:AJ17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -15639,11 +15635,11 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="32">
         <f t="shared" si="16"/>
@@ -15714,9 +15710,7 @@
       <c r="AF21" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="AG21" s="32" t="s">
-        <v>231</v>
-      </c>
+      <c r="AG21" s="32"/>
       <c r="AH21" s="32" t="s">
         <v>230</v>
       </c>
@@ -25197,11 +25191,11 @@
       </c>
       <c r="D5" s="11">
         <f>打撃詳細!C6</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="11">
         <f>打撃詳細!D6</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="11">
         <f>打撃詳細!E6</f>
@@ -25261,19 +25255,19 @@
       </c>
       <c r="T5" s="11" t="str">
         <f>打撃詳細!L6</f>
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="U5" s="11" t="str">
         <f>打撃詳細!M6</f>
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="V5" s="11" t="str">
         <f>打撃詳細!N6</f>
-        <v>0.632</v>
+        <v>0.667</v>
       </c>
       <c r="W5" s="11" t="str">
         <f>打撃詳細!O6</f>
-        <v>1.000</v>
+        <v>1.056</v>
       </c>
       <c r="X5" s="11">
         <f>打撃詳細!AD6</f>
@@ -25293,19 +25287,19 @@
       </c>
       <c r="AB5" s="11">
         <f>打撃詳細!X6</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC5" s="11" t="str">
         <f>打撃詳細!Y6</f>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD5" s="18">
         <f t="shared" ref="AD5:AD6" si="0">0.5*N5+0.72*O5+1.04*P5+1.44*Q5+0.34*(G5+H5)+0.18*I5-0.09*(E5-F5-R5)-0.098*R5-0.37*S5+0.04*M5</f>
-        <v>3.8</v>
+        <v>3.8899999999999997</v>
       </c>
       <c r="AE5" s="18">
         <f t="shared" ref="AE5:AE6" si="1">V5-T5</f>
-        <v>0.26400000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="AF5" s="19" t="e">
         <f t="shared" ref="AF5:AF6" si="2">G5/R5</f>
@@ -25313,7 +25307,7 @@
       </c>
       <c r="AG5" s="19">
         <f t="shared" ref="AG5:AG6" si="3">((F5+G5+H5-S5)+2.4*(E5+G5+H5+M5)*((N5+O5*2+P5*3+Q5*4+0.24*(G5+H5)+0.62*I5+(0.5*M5)-0.03*R5)+3*(E5+G5+H5+M5))/(9*(E5+G5+H5+M5)))-0.9*(E5+G5+H5+M5)</f>
-        <v>8.3000000000000007</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="AH5" s="10">
         <f>打撃集計!AE6</f>
@@ -25371,11 +25365,11 @@
       </c>
       <c r="D6" s="20">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="4"/>
@@ -25435,19 +25429,19 @@
       </c>
       <c r="T6" s="7">
         <f>F6/E6</f>
-        <v>0.2537313432835821</v>
+        <v>0.25757575757575757</v>
       </c>
       <c r="U6" s="7">
         <f>(F6+G6+H6)/(E6+G6+H6)</f>
-        <v>0.45054945054945056</v>
+        <v>0.45555555555555555</v>
       </c>
       <c r="V6" s="7">
         <f>(N6+O6*2+P6*3+Q6*4)/E6</f>
-        <v>0.34328358208955223</v>
+        <v>0.34848484848484851</v>
       </c>
       <c r="W6" s="7">
         <f>U6+V6</f>
-        <v>0.79383303263900284</v>
+        <v>0.80404040404040411</v>
       </c>
       <c r="X6" s="20">
         <f t="shared" ref="X6:Z6" si="5">SUM(X3:X5)</f>
@@ -25467,19 +25461,19 @@
       </c>
       <c r="AB6" s="20">
         <f>SUM(AB3:AB5)</f>
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC6" s="19">
         <f>AB6/D6</f>
-        <v>4.1630434782608692</v>
+        <v>4.197802197802198</v>
       </c>
       <c r="AD6" s="18">
         <f t="shared" si="0"/>
-        <v>13.627999999999997</v>
+        <v>13.717999999999996</v>
       </c>
       <c r="AE6" s="18">
         <f t="shared" si="1"/>
-        <v>8.955223880597013E-2</v>
+        <v>9.0909090909090939E-2</v>
       </c>
       <c r="AF6" s="19">
         <f t="shared" si="2"/>
@@ -25487,7 +25481,7 @@
       </c>
       <c r="AG6" s="19">
         <f t="shared" si="3"/>
-        <v>38.111999999999995</v>
+        <v>38.212000000000003</v>
       </c>
       <c r="AH6" s="20">
         <f>SUM(AH3:AH5)</f>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EDA2E8-B49C-44E8-9E6D-9CB298A3753A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BF5226-2162-4388-9470-2C021508FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="0" windowWidth="19095" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="1050" windowWidth="21600" windowHeight="12690" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃詳細" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="230">
   <si>
     <t>NAKAHATA</t>
   </si>
@@ -1101,10 +1101,6 @@
     <t>池澤</t>
     <phoneticPr fontId="14"/>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="14"/>
-  </si>
 </sst>
 </file>
 
@@ -1653,18 +1649,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1723,6 +1707,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2110,11 +2106,11 @@
       </c>
       <c r="C2" s="4">
         <f>打撃集計!C2</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
         <f>打撃集計!D2</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4">
         <f>打撃集計!E2</f>
@@ -2150,7 +2146,7 @@
       </c>
       <c r="M2" s="4" t="str">
         <f>TEXT(打撃集計!O2,"0.000")</f>
-        <v>0.071</v>
+        <v>0.125</v>
       </c>
       <c r="N2" s="4" t="str">
         <f>TEXT(打撃集計!P2,"0.000")</f>
@@ -2158,7 +2154,7 @@
       </c>
       <c r="O2" s="4" t="str">
         <f>TEXT(打撃集計!Q2,"0.000")</f>
-        <v>0.071</v>
+        <v>0.125</v>
       </c>
       <c r="P2" s="4">
         <f>打撃集計!V2</f>
@@ -2194,27 +2190,27 @@
       </c>
       <c r="X2" s="4">
         <f>打撃集計!AA2</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="4" t="str">
         <f>TEXT(打撃集計!AB2,"0.0")</f>
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" s="3" t="str">
         <f>ROUND(打撃集計!AC2/$X2,2)*100 &amp; "%"</f>
-        <v>16%</v>
+        <v>19%</v>
       </c>
       <c r="AA2" s="3" t="str">
         <f>ROUND(打撃集計!AD2/$X2,2)*100 &amp; "%"</f>
-        <v>14%</v>
+        <v>16%</v>
       </c>
       <c r="AB2" s="3" t="str">
         <f>ROUND(打撃集計!AE2/$X2,2)*100 &amp; "%"</f>
-        <v>14%</v>
+        <v>16%</v>
       </c>
       <c r="AC2" s="3" t="str">
         <f>ROUND(打撃集計!AF2/$X2,2)*100 &amp; "%"</f>
-        <v>26%</v>
+        <v>30%</v>
       </c>
       <c r="AD2" s="4">
         <f>打撃集計!R2</f>
@@ -2244,11 +2240,11 @@
       </c>
       <c r="C3" s="4">
         <f>打撃集計!C3</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <f>打撃集計!D3</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4">
         <f>打撃集計!E3</f>
@@ -2280,19 +2276,19 @@
       </c>
       <c r="L3" s="4" t="str">
         <f>TEXT(打撃集計!N3,"0.000")</f>
-        <v>0.200</v>
+        <v>0.300</v>
       </c>
       <c r="M3" s="4" t="str">
         <f>TEXT(打撃集計!O3,"0.000")</f>
-        <v>0.368</v>
+        <v>0.500</v>
       </c>
       <c r="N3" s="4" t="str">
         <f>TEXT(打撃集計!P3,"0.000")</f>
-        <v>0.200</v>
+        <v>0.300</v>
       </c>
       <c r="O3" s="4" t="str">
         <f>TEXT(打撃集計!Q3,"0.000")</f>
-        <v>0.568</v>
+        <v>0.800</v>
       </c>
       <c r="P3" s="4">
         <f>打撃集計!V3</f>
@@ -2328,11 +2324,11 @@
       </c>
       <c r="X3" s="4">
         <f>打撃集計!AA3</f>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="4" t="str">
         <f>TEXT(打撃集計!AB3,"0.0")</f>
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" s="3" t="str">
         <f>ROUND(打撃集計!AC3/$X3,2)*100 &amp; "%"</f>
@@ -2340,15 +2336,15 @@
       </c>
       <c r="AA3" s="3" t="str">
         <f>ROUND(打撃集計!AD3/$X3,2)*100 &amp; "%"</f>
-        <v>16%</v>
+        <v>17%</v>
       </c>
       <c r="AB3" s="3" t="str">
         <f>ROUND(打撃集計!AE3/$X3,2)*100 &amp; "%"</f>
-        <v>16%</v>
+        <v>17%</v>
       </c>
       <c r="AC3" s="3" t="str">
         <f>ROUND(打撃集計!AF3/$X3,2)*100 &amp; "%"</f>
-        <v>40%</v>
+        <v>43%</v>
       </c>
       <c r="AD3" s="4">
         <f>打撃集計!R3</f>
@@ -2378,11 +2374,11 @@
       </c>
       <c r="C4" s="4">
         <f>打撃集計!C4</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <f>打撃集計!D4</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <f>打撃集計!E4</f>
@@ -2414,19 +2410,19 @@
       </c>
       <c r="L4" s="4" t="str">
         <f>TEXT(打撃集計!N4,"0.000")</f>
-        <v>0.091</v>
+        <v>0.167</v>
       </c>
       <c r="M4" s="4" t="str">
         <f>TEXT(打撃集計!O4,"0.000")</f>
-        <v>0.091</v>
+        <v>0.167</v>
       </c>
       <c r="N4" s="4" t="str">
         <f>TEXT(打撃集計!P4,"0.000")</f>
-        <v>0.182</v>
+        <v>0.333</v>
       </c>
       <c r="O4" s="4" t="str">
         <f>TEXT(打撃集計!Q4,"0.000")</f>
-        <v>0.273</v>
+        <v>0.500</v>
       </c>
       <c r="P4" s="4">
         <f>打撃集計!V4</f>
@@ -2462,27 +2458,27 @@
       </c>
       <c r="X4" s="4">
         <f>打撃集計!AA4</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="4" t="str">
         <f>TEXT(打撃集計!AB4,"0.0")</f>
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="Z4" s="3" t="str">
         <f>ROUND(打撃集計!AC4/$X4,2)*100 &amp; "%"</f>
-        <v>6%</v>
+        <v>7%</v>
       </c>
       <c r="AA4" s="3" t="str">
         <f>ROUND(打撃集計!AD4/$X4,2)*100 &amp; "%"</f>
-        <v>20%</v>
+        <v>23%</v>
       </c>
       <c r="AB4" s="3" t="str">
         <f>ROUND(打撃集計!AE4/$X4,2)*100 &amp; "%"</f>
-        <v>14%</v>
+        <v>17%</v>
       </c>
       <c r="AC4" s="3" t="str">
         <f>ROUND(打撃集計!AF4/$X4,2)*100 &amp; "%"</f>
-        <v>26%</v>
+        <v>30%</v>
       </c>
       <c r="AD4" s="4">
         <f>打撃集計!R4</f>
@@ -2512,11 +2508,11 @@
       </c>
       <c r="C5" s="4">
         <f>打撃集計!C5</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
         <f>打撃集計!D5</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
         <f>打撃集計!E5</f>
@@ -2548,19 +2544,19 @@
       </c>
       <c r="L5" s="4" t="str">
         <f>TEXT(打撃集計!N5,"0.000")</f>
-        <v>0.143</v>
+        <v>0.500</v>
       </c>
       <c r="M5" s="4" t="str">
         <f>TEXT(打撃集計!O5,"0.000")</f>
-        <v>0.250</v>
+        <v>0.667</v>
       </c>
       <c r="N5" s="4" t="str">
         <f>TEXT(打撃集計!P5,"0.000")</f>
-        <v>0.143</v>
+        <v>0.500</v>
       </c>
       <c r="O5" s="4" t="str">
         <f>TEXT(打撃集計!Q5,"0.000")</f>
-        <v>0.393</v>
+        <v>1.167</v>
       </c>
       <c r="P5" s="4">
         <f>打撃集計!V5</f>
@@ -2596,27 +2592,27 @@
       </c>
       <c r="X5" s="4">
         <f>打撃集計!AA5</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="4" t="str">
         <f>TEXT(打撃集計!AB5,"0.0")</f>
-        <v>2.0</v>
+        <v>3.7</v>
       </c>
       <c r="Z5" s="3" t="str">
         <f>ROUND(打撃集計!AC5/$X5,2)*100 &amp; "%"</f>
-        <v>6%</v>
+        <v>9%</v>
       </c>
       <c r="AA5" s="3" t="str">
         <f>ROUND(打撃集計!AD5/$X5,2)*100 &amp; "%"</f>
-        <v>6%</v>
+        <v>9%</v>
       </c>
       <c r="AB5" s="3" t="str">
         <f>ROUND(打撃集計!AE5/$X5,2)*100 &amp; "%"</f>
-        <v>6%</v>
+        <v>9%</v>
       </c>
       <c r="AC5" s="3" t="str">
         <f>ROUND(打撃集計!AF5/$X5,2)*100 &amp; "%"</f>
-        <v>38%</v>
+        <v>55%</v>
       </c>
       <c r="AD5" s="4">
         <f>打撃集計!R5</f>
@@ -2646,11 +2642,11 @@
       </c>
       <c r="C6" s="4">
         <f>打撃集計!C6</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <f>打撃集計!D6</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4">
         <f>打撃集計!E6</f>
@@ -2682,19 +2678,19 @@
       </c>
       <c r="L6" s="4" t="str">
         <f>TEXT(打撃集計!N6,"0.000")</f>
-        <v>0.389</v>
+        <v>0.467</v>
       </c>
       <c r="M6" s="4" t="str">
         <f>TEXT(打撃集計!O6,"0.000")</f>
-        <v>0.389</v>
+        <v>0.467</v>
       </c>
       <c r="N6" s="4" t="str">
         <f>TEXT(打撃集計!P6,"0.000")</f>
-        <v>0.667</v>
+        <v>0.800</v>
       </c>
       <c r="O6" s="4" t="str">
         <f>TEXT(打撃集計!Q6,"0.000")</f>
-        <v>1.056</v>
+        <v>1.267</v>
       </c>
       <c r="P6" s="4">
         <f>打撃集計!V6</f>
@@ -2730,15 +2726,15 @@
       </c>
       <c r="X6" s="4">
         <f>打撃集計!AA6</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y6" s="4" t="str">
         <f>TEXT(打撃集計!AB6,"0.0")</f>
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Z6" s="3" t="str">
         <f>ROUND(打撃集計!AC6/$X6,2)*100 &amp; "%"</f>
-        <v>17%</v>
+        <v>19%</v>
       </c>
       <c r="AA6" s="3" t="str">
         <f>ROUND(打撃集計!AD6/$X6,2)*100 &amp; "%"</f>
@@ -2746,11 +2742,11 @@
       </c>
       <c r="AB6" s="3" t="str">
         <f>ROUND(打撃集計!AE6/$X6,2)*100 &amp; "%"</f>
-        <v>15%</v>
+        <v>16%</v>
       </c>
       <c r="AC6" s="3" t="str">
         <f>ROUND(打撃集計!AF6/$X6,2)*100 &amp; "%"</f>
-        <v>28%</v>
+        <v>30%</v>
       </c>
       <c r="AD6" s="4">
         <f>打撃集計!R6</f>
@@ -2914,11 +2910,11 @@
       </c>
       <c r="C8" s="4">
         <f>打撃集計!C8</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
         <f>打撃集計!D8</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4">
         <f>打撃集計!E8</f>
@@ -2950,19 +2946,19 @@
       </c>
       <c r="L8" s="4" t="str">
         <f>TEXT(打撃集計!N8,"0.000")</f>
-        <v>0.158</v>
+        <v>0.214</v>
       </c>
       <c r="M8" s="4" t="str">
         <f>TEXT(打撃集計!O8,"0.000")</f>
-        <v>0.273</v>
+        <v>0.353</v>
       </c>
       <c r="N8" s="4" t="str">
         <f>TEXT(打撃集計!P8,"0.000")</f>
-        <v>0.263</v>
+        <v>0.357</v>
       </c>
       <c r="O8" s="4" t="str">
         <f>TEXT(打撃集計!Q8,"0.000")</f>
-        <v>0.536</v>
+        <v>0.710</v>
       </c>
       <c r="P8" s="4">
         <f>打撃集計!V8</f>
@@ -2998,11 +2994,11 @@
       </c>
       <c r="X8" s="4">
         <f>打撃集計!AA8</f>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y8" s="4" t="str">
         <f>TEXT(打撃集計!AB8,"0.0")</f>
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z8" s="3" t="str">
         <f>ROUND(打撃集計!AC8/$X8,2)*100 &amp; "%"</f>
@@ -3018,7 +3014,7 @@
       </c>
       <c r="AC8" s="3" t="str">
         <f>ROUND(打撃集計!AF8/$X8,2)*100 &amp; "%"</f>
-        <v>39%</v>
+        <v>41%</v>
       </c>
       <c r="AD8" s="4">
         <f>打撃集計!R8</f>
@@ -3316,11 +3312,11 @@
       </c>
       <c r="C11" s="4">
         <f>打撃集計!C11</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4">
         <f>打撃集計!D11</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4">
         <f>打撃集計!E11</f>
@@ -3352,19 +3348,19 @@
       </c>
       <c r="L11" s="4" t="str">
         <f>TEXT(打撃集計!N11,"0.000")</f>
-        <v>0.267</v>
+        <v>0.364</v>
       </c>
       <c r="M11" s="4" t="str">
         <f>TEXT(打撃集計!O11,"0.000")</f>
-        <v>0.353</v>
+        <v>0.462</v>
       </c>
       <c r="N11" s="4" t="str">
         <f>TEXT(打撃集計!P11,"0.000")</f>
-        <v>0.467</v>
+        <v>0.636</v>
       </c>
       <c r="O11" s="4" t="str">
         <f>TEXT(打撃集計!Q11,"0.000")</f>
-        <v>0.820</v>
+        <v>1.098</v>
       </c>
       <c r="P11" s="4">
         <f>打撃集計!V11</f>
@@ -3400,27 +3396,27 @@
       </c>
       <c r="X11" s="4">
         <f>打撃集計!AA11</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Y11" s="4" t="str">
         <f>TEXT(打撃集計!AB11,"0.0")</f>
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="Z11" s="3" t="str">
         <f>ROUND(打撃集計!AC11/$X11,2)*100 &amp; "%"</f>
-        <v>9%</v>
+        <v>10%</v>
       </c>
       <c r="AA11" s="3" t="str">
         <f>ROUND(打撃集計!AD11/$X11,2)*100 &amp; "%"</f>
-        <v>13%</v>
+        <v>14%</v>
       </c>
       <c r="AB11" s="3" t="str">
         <f>ROUND(打撃集計!AE11/$X11,2)*100 &amp; "%"</f>
-        <v>13%</v>
+        <v>14%</v>
       </c>
       <c r="AC11" s="3" t="str">
         <f>ROUND(打撃集計!AF11/$X11,2)*100 &amp; "%"</f>
-        <v>37%</v>
+        <v>40%</v>
       </c>
       <c r="AD11" s="4">
         <f>打撃集計!R11</f>
@@ -4249,11 +4245,11 @@
       </c>
       <c r="C18" s="4">
         <f>打撃集計!C18</f>
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D18" s="4">
         <f>打撃集計!D18</f>
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="E18" s="4">
         <f>打撃集計!E18</f>
@@ -4285,19 +4281,19 @@
       </c>
       <c r="L18" s="4" t="str">
         <f>TEXT(打撃集計!N18,"0.000")</f>
-        <v>0.243</v>
+        <v>0.311</v>
       </c>
       <c r="M18" s="4" t="str">
         <f>TEXT(打撃集計!O18,"0.000")</f>
-        <v>0.347</v>
+        <v>0.427</v>
       </c>
       <c r="N18" s="4" t="str">
         <f>TEXT(打撃集計!P18,"0.000")</f>
-        <v>0.408</v>
+        <v>0.521</v>
       </c>
       <c r="O18" s="4" t="str">
         <f>TEXT(打撃集計!Q18,"0.000")</f>
-        <v>0.755</v>
+        <v>0.948</v>
       </c>
       <c r="P18" s="4">
         <f>打撃集計!V18</f>
@@ -4333,27 +4329,27 @@
       </c>
       <c r="X18" s="4">
         <f>打撃集計!AA18</f>
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="Y18" s="4" t="str">
         <f>TEXT(打撃集計!AB18,"0.0")</f>
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="Z18" s="3" t="str">
         <f>ROUND(打撃集計!AC18/$X18,2)*100 &amp; "%"</f>
-        <v>12%</v>
+        <v>13%</v>
       </c>
       <c r="AA18" s="3" t="str">
         <f>ROUND(打撃集計!AD18/$X18,2)*100 &amp; "%"</f>
-        <v>12%</v>
+        <v>13%</v>
       </c>
       <c r="AB18" s="3" t="str">
         <f>ROUND(打撃集計!AE18/$X18,2)*100 &amp; "%"</f>
-        <v>13%</v>
+        <v>14%</v>
       </c>
       <c r="AC18" s="3" t="str">
         <f>ROUND(打撃集計!AF18/$X18,2)*100 &amp; "%"</f>
-        <v>38%</v>
+        <v>40%</v>
       </c>
       <c r="AD18" s="4">
         <f>打撃集計!R18</f>
@@ -5504,11 +5500,11 @@
       </c>
       <c r="C2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!F:F)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!G:G)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!H:H)</f>
@@ -5552,7 +5548,7 @@
       </c>
       <c r="O2" s="3">
         <f t="shared" ref="O2:O8" si="1">IFERROR(ROUND((F2+G2+E2)/(F2+G2+D2),3),"-")</f>
-        <v>7.0999999999999994E-2</v>
+        <v>0.125</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" ref="P2:P8" si="2">IFERROR(ROUND(Y2/D2,3),"-")</f>
@@ -5560,7 +5556,7 @@
       </c>
       <c r="Q2" s="3">
         <f t="shared" ref="Q2:Q18" si="3">IFERROR(O2+P2,"-")</f>
-        <v>7.0999999999999994E-2</v>
+        <v>0.125</v>
       </c>
       <c r="R2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!AA:AA)</f>
@@ -5600,11 +5596,11 @@
       </c>
       <c r="AA2" s="3">
         <f t="shared" ref="AA2:AA17" si="6">SUM(AC2:AF2)+D2+K2</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="3">
         <f t="shared" ref="AB2:AB8" si="7">IFERROR(ROUND(AA2/C2,2),"-")</f>
-        <v>3.07</v>
+        <v>4.63</v>
       </c>
       <c r="AC2" s="3">
         <f>SUMIF(元データ!E:E,A2,元データ!S:S)</f>
@@ -5641,11 +5637,11 @@
       </c>
       <c r="C3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!F:F)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!G:G)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!H:H)</f>
@@ -5685,19 +5681,19 @@
       </c>
       <c r="N3" s="7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" si="1"/>
-        <v>0.36799999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="3"/>
-        <v>0.56800000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="R3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!AA:AA)</f>
@@ -5737,11 +5733,11 @@
       </c>
       <c r="AA3" s="3">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="3">
         <f t="shared" si="7"/>
-        <v>3.32</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="AC3" s="3">
         <f>SUMIF(元データ!E:E,A3,元データ!S:S)</f>
@@ -5778,11 +5774,11 @@
       </c>
       <c r="C4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!F:F)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!G:G)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!H:H)</f>
@@ -5822,19 +5818,19 @@
       </c>
       <c r="N4" s="7">
         <f t="shared" si="0"/>
-        <v>9.0999999999999998E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="1"/>
-        <v>9.0999999999999998E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="2"/>
-        <v>0.182</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="3"/>
-        <v>0.27300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!AA:AA)</f>
@@ -5874,11 +5870,11 @@
       </c>
       <c r="AA4" s="3">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="7"/>
-        <v>2.92</v>
+        <v>4.29</v>
       </c>
       <c r="AC4" s="3">
         <f>SUMIF(元データ!E:E,A4,元データ!S:S)</f>
@@ -5915,11 +5911,11 @@
       </c>
       <c r="C5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!F:F)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!G:G)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!H:H)</f>
@@ -5959,19 +5955,19 @@
       </c>
       <c r="N5" s="7">
         <f t="shared" si="0"/>
-        <v>0.14299999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="2"/>
-        <v>0.14299999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>0.39300000000000002</v>
+        <v>1.167</v>
       </c>
       <c r="R5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!AA:AA)</f>
@@ -6011,11 +6007,11 @@
       </c>
       <c r="AA5" s="3">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3.67</v>
       </c>
       <c r="AC5" s="3">
         <f>SUMIF(元データ!E:E,A5,元データ!S:S)</f>
@@ -6052,11 +6048,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!F:F)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!G:G)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!H:H)</f>
@@ -6096,19 +6092,19 @@
       </c>
       <c r="N6" s="7">
         <f t="shared" si="0"/>
-        <v>0.38900000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>0.38900000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="2"/>
-        <v>0.66700000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>1.056</v>
+        <v>1.2670000000000001</v>
       </c>
       <c r="R6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!AA:AA)</f>
@@ -6148,11 +6144,11 @@
       </c>
       <c r="AA6" s="3">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="7"/>
-        <v>2.56</v>
+        <v>2.87</v>
       </c>
       <c r="AC6" s="3">
         <f>SUMIF(元データ!E:E,A6,元データ!S:S)</f>
@@ -6326,11 +6322,11 @@
       </c>
       <c r="C8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!F:F)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!G:G)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!H:H)</f>
@@ -6370,19 +6366,19 @@
       </c>
       <c r="N8" s="7">
         <f t="shared" si="0"/>
-        <v>0.158</v>
+        <v>0.214</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>0.27300000000000002</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
-        <v>0.26300000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>0.53600000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="R8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!AA:AA)</f>
@@ -6422,11 +6418,11 @@
       </c>
       <c r="AA8" s="3">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="7"/>
-        <v>3.64</v>
+        <v>4.41</v>
       </c>
       <c r="AC8" s="3">
         <f>SUMIF(元データ!E:E,A8,元データ!S:S)</f>
@@ -6737,11 +6733,11 @@
       </c>
       <c r="C11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!F:F)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!G:G)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!H:H)</f>
@@ -6781,19 +6777,19 @@
       </c>
       <c r="N11" s="7">
         <f t="shared" si="8"/>
-        <v>0.26700000000000002</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="9"/>
-        <v>0.35299999999999998</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="10"/>
-        <v>0.46700000000000003</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>0.82000000000000006</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="R11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!AA:AA)</f>
@@ -6833,11 +6829,11 @@
       </c>
       <c r="AA11" s="3">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AB11" s="3">
         <f t="shared" si="11"/>
-        <v>3.18</v>
+        <v>3.85</v>
       </c>
       <c r="AC11" s="3">
         <f>SUMIF(元データ!E:E,A11,元データ!S:S)</f>
@@ -7696,11 +7692,11 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ref="C18:M18" si="17">SUM(C2:C12)</f>
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="17"/>
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="17"/>
@@ -7740,19 +7736,19 @@
       </c>
       <c r="N18" s="7">
         <f>IFERROR(ROUND(E18/D18,3),"-")</f>
-        <v>0.24299999999999999</v>
+        <v>0.311</v>
       </c>
       <c r="O18" s="3">
         <f>IFERROR(ROUND((F18+G18+E18)/(F18+G18+D18),3),"-")</f>
-        <v>0.34699999999999998</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="P18" s="3">
         <f>IFERROR(ROUND(Y18/D18,3),"-")</f>
-        <v>0.40799999999999997</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>0.75499999999999989</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" ref="R18:T18" si="18">SUM(R2:R12)</f>
@@ -7792,11 +7788,11 @@
       </c>
       <c r="AA18" s="3">
         <f t="shared" si="19"/>
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="AB18" s="3">
         <f>IFERROR(ROUND(AA18/C18,2),"-")</f>
-        <v>3.47</v>
+        <v>4.03</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ref="AC18:AH18" si="20">SUM(AC2:AC12)</f>
@@ -9391,11 +9387,11 @@
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
       <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
@@ -14071,8 +14067,8 @@
   <dimension ref="A1:AK868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG23" sqref="AG23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE28" sqref="AE28:AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -14094,109 +14090,109 @@
       <c r="A1" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="80" t="s">
+      <c r="N1" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="P1" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="Q1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="82" t="s">
+      <c r="R1" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="82" t="s">
+      <c r="U1" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="84" t="s">
+      <c r="V1" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="W1" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="X1" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="85" t="s">
+      <c r="Y1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="86" t="s">
+      <c r="Z1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="82" t="s">
+      <c r="AA1" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="87" t="s">
+      <c r="AB1" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="87" t="s">
+      <c r="AC1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="76" t="s">
+      <c r="AD1" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="88" t="s">
+      <c r="AE1" s="84" t="s">
         <v>195</v>
       </c>
-      <c r="AF1" s="76" t="s">
+      <c r="AF1" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="AG1" s="76" t="s">
+      <c r="AG1" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="AH1" s="76" t="s">
+      <c r="AH1" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="AI1" s="76" t="s">
+      <c r="AI1" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="AJ1" s="76" t="s">
+      <c r="AJ1" s="72" t="s">
         <v>200</v>
       </c>
       <c r="AK1" s="32"/>
@@ -14222,35 +14218,35 @@
         <v>4</v>
       </c>
       <c r="G2" s="30">
-        <f t="shared" ref="G2:G12" si="1">F2-M2-N2-Y2</f>
+        <f>F2-M2-N2-Y2</f>
         <v>4</v>
       </c>
       <c r="H2" s="30">
-        <f t="shared" ref="H2:H12" si="2">SUM(I2:L2)</f>
+        <f t="shared" ref="H2:H12" si="1">SUM(I2:L2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="30">
-        <f t="shared" ref="I2:I12" si="3">COUNTIF(AE2:AJ2, "*安*")</f>
+        <f t="shared" ref="I2:I12" si="2">COUNTIF(AE2:AJ2, "*安*")</f>
         <v>0</v>
       </c>
       <c r="J2" s="30">
-        <f t="shared" ref="J2:J12" si="4">COUNTIF(AE2:AJ2, "*二")</f>
+        <f t="shared" ref="J2:J12" si="3">COUNTIF(AE2:AJ2, "*二")</f>
         <v>0</v>
       </c>
       <c r="K2" s="30">
-        <f t="shared" ref="K2:K12" si="5">COUNTIF(AE2:AJ2, "*三")</f>
+        <f t="shared" ref="K2:K12" si="4">COUNTIF(AE2:AJ2, "*三")</f>
         <v>0</v>
       </c>
       <c r="L2" s="30">
-        <f t="shared" ref="L2:L12" si="6">COUNTIF(AE2:AJ2, "*本")</f>
+        <f t="shared" ref="L2:L12" si="5">COUNTIF(AE2:AJ2, "*本")</f>
         <v>0</v>
       </c>
       <c r="M2" s="30">
-        <f t="shared" ref="M2:M12" si="7">COUNTIF(AE2:AJ2, "四球")</f>
+        <f t="shared" ref="M2:M12" si="6">COUNTIF(AE2:AJ2, "四球")</f>
         <v>0</v>
       </c>
       <c r="N2" s="30">
-        <f t="shared" ref="N2:N12" si="8">COUNTIF(AE2:AJ2, "死球")</f>
+        <f t="shared" ref="N2:N12" si="7">COUNTIF(AE2:AJ2, "死球")</f>
         <v>0</v>
       </c>
       <c r="T2" s="30">
@@ -14263,19 +14259,19 @@
         <v>7</v>
       </c>
       <c r="W2" s="30">
-        <f t="shared" ref="W2:W12" si="9">COUNTIF(AE2:AJ2, "*失*")</f>
+        <f t="shared" ref="W2:W12" si="8">COUNTIF(AE2:AJ2, "*失*")</f>
         <v>0</v>
       </c>
       <c r="X2" s="30">
-        <f t="shared" ref="X2:X12" si="10">COUNTIF(AE2:AJ2, "*振*")</f>
+        <f t="shared" ref="X2:X12" si="9">COUNTIF(AE2:AJ2, "*振*")</f>
         <v>2</v>
       </c>
       <c r="Y2" s="30">
-        <f t="shared" ref="Y2:Y12" si="11">COUNTIF(AE2:AJ2, "*犠*")</f>
+        <f t="shared" ref="Y2:Y12" si="10">COUNTIF(AE2:AJ2, "*犠*")</f>
         <v>0</v>
       </c>
       <c r="Z2" s="30">
-        <f t="shared" ref="Z2:Z12" si="12">COUNTIF(AE2:AJ2, "*併*")</f>
+        <f t="shared" ref="Z2:Z12" si="11">COUNTIF(AE2:AJ2, "*併*")</f>
         <v>0</v>
       </c>
       <c r="AB2" s="30">
@@ -14285,7 +14281,7 @@
         <v>4</v>
       </c>
       <c r="AD2" s="30" t="str">
-        <f t="shared" ref="AD2:AD12" si="13">E2</f>
+        <f t="shared" ref="AD2:AD12" si="12">E2</f>
         <v>大鐘</v>
       </c>
       <c r="AE2" s="30" t="s">
@@ -14321,35 +14317,35 @@
         <v>4</v>
       </c>
       <c r="G3" s="32">
+        <f t="shared" ref="G2:G12" si="13">F3-M3-N3-Y3</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="32">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H3" s="32">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I3" s="32">
+      <c r="J3" s="32">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="32">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K3" s="32">
+      <c r="L3" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L3" s="32">
+      <c r="M3" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M3" s="32">
+      <c r="N3" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q3" s="32">
@@ -14368,26 +14364,26 @@
         <v>4</v>
       </c>
       <c r="W3" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="32">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Y3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="32">
+      <c r="AB3" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="32" t="str">
-        <f t="shared" si="13"/>
         <v>岩本</v>
       </c>
       <c r="AE3" s="32" t="s">
@@ -14423,35 +14419,35 @@
         <v>3</v>
       </c>
       <c r="G4" s="32">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H4" s="32">
+        <v>1</v>
+      </c>
+      <c r="I4" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I4" s="32">
+      <c r="J4" s="32">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="32">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K4" s="32">
+      <c r="L4" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L4" s="32">
+      <c r="M4" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M4" s="32">
+      <c r="N4" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q4" s="32">
@@ -14470,19 +14466,19 @@
         <v>5</v>
       </c>
       <c r="W4" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="32">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Y4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="32">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB4" s="32">
@@ -14492,7 +14488,7 @@
         <v>5</v>
       </c>
       <c r="AD4" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>反町</v>
       </c>
       <c r="AE4" s="32" t="s">
@@ -14528,35 +14524,35 @@
         <v>3</v>
       </c>
       <c r="G5" s="32">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H5" s="32">
+        <v>2</v>
+      </c>
+      <c r="I5" s="32">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I5" s="32">
+        <v>1</v>
+      </c>
+      <c r="J5" s="32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J5" s="32">
+      <c r="K5" s="32">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L5" s="32">
+      <c r="M5" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M5" s="32">
+      <c r="N5" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O5" s="32">
@@ -14575,29 +14571,29 @@
         <v>4</v>
       </c>
       <c r="W5" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X5" s="32">
+      <c r="Y5" s="32">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Z5" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="AB5" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="32" t="str">
-        <f t="shared" si="13"/>
         <v>安部剛</v>
       </c>
       <c r="AE5" s="32" t="s">
@@ -14634,35 +14630,35 @@
         <v>3</v>
       </c>
       <c r="G6" s="32">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="32">
+      <c r="J6" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="32">
+      <c r="K6" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K6" s="32">
+      <c r="L6" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L6" s="32">
+      <c r="M6" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M6" s="32">
+      <c r="N6" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S6" s="32">
@@ -14678,26 +14674,26 @@
         <v>6</v>
       </c>
       <c r="W6" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="32">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="32">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Y6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="AB6" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="32" t="str">
-        <f t="shared" si="13"/>
         <v>上小城</v>
       </c>
       <c r="AE6" s="32" t="s">
@@ -14731,35 +14727,35 @@
         <v>3</v>
       </c>
       <c r="G7" s="32">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="32">
+      <c r="J7" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="32">
+      <c r="K7" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K7" s="32">
+      <c r="L7" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="32">
+      <c r="M7" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M7" s="32">
+      <c r="N7" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R7" s="32">
@@ -14778,26 +14774,26 @@
         <v>6</v>
       </c>
       <c r="W7" s="32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="32">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="X7" s="32">
+      <c r="Y7" s="32">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Y7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="32">
+      <c r="AB7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="32" t="str">
-        <f t="shared" si="13"/>
         <v>北久保</v>
       </c>
       <c r="AE7" s="32" t="s">
@@ -14831,35 +14827,35 @@
         <v>3</v>
       </c>
       <c r="G8" s="32">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="32">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="32">
+      <c r="J8" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="32">
+      <c r="K8" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K8" s="32">
+      <c r="L8" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="32">
+      <c r="M8" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="32">
+        <v>1</v>
+      </c>
+      <c r="N8" s="32">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R8" s="32">
@@ -14878,26 +14874,26 @@
         <v>4</v>
       </c>
       <c r="W8" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="32">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Y8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="32">
+      <c r="AB8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="32" t="str">
-        <f t="shared" si="13"/>
         <v>中井</v>
       </c>
       <c r="AE8" s="32" t="s">
@@ -14934,35 +14930,35 @@
         <v>3</v>
       </c>
       <c r="G9" s="32">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="32">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="32">
+      <c r="J9" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="32">
+      <c r="K9" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K9" s="32">
+      <c r="L9" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="32">
+      <c r="M9" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M9" s="32">
+      <c r="N9" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S9" s="32">
@@ -14978,26 +14974,26 @@
         <v>4</v>
       </c>
       <c r="W9" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="32">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="32">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Y9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="32">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB9" s="32">
         <v>8</v>
       </c>
       <c r="AD9" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>安部滉</v>
       </c>
       <c r="AE9" s="32" t="s">
@@ -15031,35 +15027,35 @@
         <v>1</v>
       </c>
       <c r="G10" s="32">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="32">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="32">
+      <c r="J10" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="32">
+      <c r="K10" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K10" s="32">
+      <c r="L10" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L10" s="32">
+      <c r="M10" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M10" s="32">
+      <c r="N10" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S10" s="32">
@@ -15072,23 +15068,23 @@
         <v>2</v>
       </c>
       <c r="W10" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X10" s="32">
+      <c r="Y10" s="32">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Z10" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="AD10" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="32" t="str">
-        <f t="shared" si="13"/>
         <v>野場</v>
       </c>
       <c r="AE10" s="32" t="s">
@@ -15113,35 +15109,35 @@
         <v>2</v>
       </c>
       <c r="G11" s="32">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="32">
+      <c r="I11" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I11" s="32">
+      <c r="J11" s="32">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="32">
+        <v>0</v>
+      </c>
+      <c r="K11" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="32">
+      <c r="L11" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="32">
+      <c r="M11" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="32">
+        <v>1</v>
+      </c>
+      <c r="N11" s="32">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="32">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R11" s="32">
@@ -15160,23 +15156,23 @@
         <v>6</v>
       </c>
       <c r="W11" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X11" s="32">
+      <c r="Y11" s="32">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Z11" s="32">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="32">
+      <c r="AD11" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="32" t="str">
-        <f t="shared" si="13"/>
         <v>池澤</v>
       </c>
       <c r="AF11" s="32" t="s">
@@ -15207,51 +15203,51 @@
         <v>0</v>
       </c>
       <c r="G12" s="32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="32">
+      <c r="I12" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="32">
+      <c r="J12" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="32">
+      <c r="K12" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="32">
+      <c r="L12" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="32">
+      <c r="M12" s="32">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M12" s="32">
+      <c r="N12" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N12" s="32">
+      <c r="W12" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W12" s="32">
+      <c r="X12" s="32">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X12" s="32">
+      <c r="Y12" s="32">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Z12" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="32">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB12" s="32">
@@ -15261,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="AD12" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>萩原</v>
       </c>
       <c r="AI12" s="32"/>
@@ -15323,10 +15319,10 @@
       <c r="A17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="34"/>
-      <c r="E17" s="74"/>
-      <c r="AD17" s="74" t="s">
+      <c r="E17" s="70"/>
+      <c r="AD17" s="70" t="s">
         <v>4</v>
       </c>
       <c r="AI17" s="32"/>
@@ -15635,11 +15631,11 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="32">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="32">
         <f t="shared" si="16"/>
@@ -15711,15 +15707,9 @@
         <v>85</v>
       </c>
       <c r="AG21" s="32"/>
-      <c r="AH21" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI21" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ21" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
     </row>
     <row r="22" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="24" t="s">
@@ -15739,11 +15729,11 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H22" s="32">
         <f t="shared" si="16"/>
@@ -15814,18 +15804,10 @@
       <c r="AF22" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AG22" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH22" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI22" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ22" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
     </row>
     <row r="23" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="24" t="s">
@@ -15842,11 +15824,11 @@
       </c>
       <c r="F23" s="32">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G23" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23" s="32">
         <f t="shared" si="16"/>
@@ -15911,21 +15893,11 @@
       <c r="AE23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="AF23" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG23" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH23" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI23" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ23" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
     </row>
     <row r="24" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="24" t="s">
@@ -15942,11 +15914,11 @@
       </c>
       <c r="F24" s="32">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H24" s="32">
         <f t="shared" si="16"/>
@@ -16008,21 +15980,11 @@
       <c r="AE24" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AF24" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG24" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH24" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI24" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ24" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
     </row>
     <row r="25" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="24" t="s">
@@ -16039,11 +16001,11 @@
       </c>
       <c r="F25" s="32">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G25" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H25" s="32">
         <f t="shared" si="16"/>
@@ -16093,24 +16055,12 @@
         <f t="shared" si="27"/>
         <v>安部滉</v>
       </c>
-      <c r="AE25" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF25" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG25" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH25" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI25" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ25" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
     </row>
     <row r="26" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="24" t="s">
@@ -16127,11 +16077,11 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G26" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H26" s="32">
         <f t="shared" si="16"/>
@@ -16187,21 +16137,11 @@
       <c r="AE26" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AF26" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG26" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH26" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI26" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ26" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
     </row>
     <row r="27" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="24" t="s">
@@ -16221,11 +16161,11 @@
       </c>
       <c r="F27" s="32">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G27" s="32">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H27" s="32">
         <f t="shared" si="16"/>
@@ -16284,21 +16224,11 @@
       <c r="AE27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="AF27" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG27" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH27" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI27" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ27" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
     </row>
     <row r="28" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="24" t="s">
@@ -16309,24 +16239,12 @@
       <c r="AD28" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AE28" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF28" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG28" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH28" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI28" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ28" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
     </row>
     <row r="29" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="24" t="s">
@@ -16338,24 +16256,12 @@
       <c r="AD29" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AE29" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF29" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG29" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH29" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI29" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ29" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
     </row>
     <row r="30" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="24" t="s">
@@ -16367,24 +16273,12 @@
       <c r="AD30" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AE30" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF30" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG30" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH30" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI30" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ30" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
     </row>
     <row r="31" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="24" t="s">
@@ -16396,24 +16290,12 @@
       <c r="AD31" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AE31" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF31" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG31" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH31" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI31" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ31" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
     </row>
     <row r="32" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="24" t="s">
@@ -16425,24 +16307,12 @@
       <c r="AD32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AE32" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF32" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG32" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH32" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI32" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ32" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
     </row>
     <row r="33" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="24" t="s">
@@ -16454,24 +16324,12 @@
       <c r="AD33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AE33" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF33" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG33" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH33" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI33" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ33" s="32" t="s">
-        <v>230</v>
-      </c>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
     </row>
     <row r="34" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="27" t="s">
@@ -16672,10 +16530,10 @@
       <c r="AF35" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AG35" s="89" t="s">
+      <c r="AG35" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="AH35" s="89"/>
+      <c r="AH35" s="85"/>
     </row>
     <row r="36" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="24" t="s">
@@ -17399,7 +17257,7 @@
       <c r="AE43" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AF43" s="89" t="s">
+      <c r="AF43" s="85" t="s">
         <v>144</v>
       </c>
     </row>
@@ -17794,16 +17652,16 @@
         <f t="shared" si="55"/>
         <v>HENRY</v>
       </c>
-      <c r="AE51" s="90" t="s">
+      <c r="AE51" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="AF51" s="90" t="s">
+      <c r="AF51" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="AG51" s="90" t="s">
+      <c r="AG51" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="AH51" s="90"/>
+      <c r="AH51" s="86"/>
     </row>
     <row r="52" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A52" s="24" t="s">
@@ -17892,16 +17750,16 @@
         <f t="shared" si="55"/>
         <v>萩原</v>
       </c>
-      <c r="AE52" s="90" t="s">
+      <c r="AE52" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="AF52" s="90" t="s">
+      <c r="AF52" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="AG52" s="90" t="s">
+      <c r="AG52" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="AH52" s="90"/>
+      <c r="AH52" s="86"/>
     </row>
     <row r="53" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="24" t="s">
@@ -17996,16 +17854,16 @@
         <f t="shared" si="55"/>
         <v>大鐘</v>
       </c>
-      <c r="AE53" s="90" t="s">
+      <c r="AE53" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="AF53" s="90" t="s">
+      <c r="AF53" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="AG53" s="90" t="s">
+      <c r="AG53" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AH53" s="90"/>
+      <c r="AH53" s="86"/>
     </row>
     <row r="54" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A54" s="24" t="s">
@@ -18088,16 +17946,16 @@
         <f t="shared" si="55"/>
         <v>安部剛</v>
       </c>
-      <c r="AE54" s="90" t="s">
+      <c r="AE54" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="AF54" s="91" t="s">
+      <c r="AF54" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="AG54" s="90" t="s">
+      <c r="AG54" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="AH54" s="90"/>
+      <c r="AH54" s="86"/>
     </row>
     <row r="55" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="24" t="s">
@@ -18189,16 +18047,16 @@
         <f t="shared" si="55"/>
         <v>北久保</v>
       </c>
-      <c r="AE55" s="90" t="s">
+      <c r="AE55" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="AF55" s="90" t="s">
+      <c r="AF55" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="AG55" s="90" t="s">
+      <c r="AG55" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="AH55" s="90"/>
+      <c r="AH55" s="86"/>
     </row>
     <row r="56" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A56" s="24" t="s">
@@ -18287,16 +18145,16 @@
         <f t="shared" si="55"/>
         <v>岩本</v>
       </c>
-      <c r="AE56" s="91" t="s">
+      <c r="AE56" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="AF56" s="90" t="s">
+      <c r="AF56" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="AG56" s="90" t="s">
+      <c r="AG56" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="AH56" s="90"/>
+      <c r="AH56" s="86"/>
     </row>
     <row r="57" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A57" s="24" t="s">
@@ -18382,16 +18240,16 @@
         <f t="shared" si="55"/>
         <v>中井</v>
       </c>
-      <c r="AE57" s="90" t="s">
+      <c r="AE57" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="AF57" s="90" t="s">
+      <c r="AF57" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="AG57" s="90" t="s">
+      <c r="AG57" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="AH57" s="90"/>
+      <c r="AH57" s="86"/>
     </row>
     <row r="58" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A58" s="24" t="s">
@@ -18403,7 +18261,7 @@
       <c r="C58" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="86" t="s">
         <v>147</v>
       </c>
       <c r="F58" s="32">
@@ -18477,10 +18335,10 @@
         <f t="shared" si="55"/>
         <v>安部滉</v>
       </c>
-      <c r="AE58" s="91" t="s">
+      <c r="AE58" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="AF58" s="90" t="s">
+      <c r="AF58" s="86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -18563,10 +18421,10 @@
         <f t="shared" ref="AD59" si="56">E59</f>
         <v>野場</v>
       </c>
-      <c r="AG59" s="90" t="s">
+      <c r="AG59" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="AH59" s="90"/>
+      <c r="AH59" s="86"/>
     </row>
     <row r="60" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A60" s="24" t="s">
@@ -18912,7 +18770,7 @@
       <c r="C67" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="E67" s="90" t="s">
+      <c r="E67" s="86" t="s">
         <v>175</v>
       </c>
       <c r="F67" s="32">
@@ -18989,16 +18847,16 @@
         <f t="shared" si="70"/>
         <v>安部剛</v>
       </c>
-      <c r="AE67" s="90" t="s">
+      <c r="AE67" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="AF67" s="90" t="s">
+      <c r="AF67" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="AG67" s="90" t="s">
+      <c r="AG67" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="AH67" s="90" t="s">
+      <c r="AH67" s="86" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19010,7 +18868,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="32"/>
-      <c r="D68" s="90" t="s">
+      <c r="D68" s="86" t="s">
         <v>163</v>
       </c>
       <c r="E68" s="32" t="s">
@@ -19081,10 +18939,10 @@
         <f t="shared" si="70"/>
         <v>萩原</v>
       </c>
-      <c r="AI68" s="90" t="s">
+      <c r="AI68" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="AJ68" s="90" t="s">
+      <c r="AJ68" s="86" t="s">
         <v>157</v>
       </c>
     </row>
@@ -19169,22 +19027,22 @@
         <f t="shared" si="70"/>
         <v>HENRY</v>
       </c>
-      <c r="AE69" s="90" t="s">
+      <c r="AE69" s="86" t="s">
         <v>189</v>
       </c>
       <c r="AF69" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="AG69" s="90" t="s">
+      <c r="AG69" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="AH69" s="90" t="s">
+      <c r="AH69" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="AI69" s="90" t="s">
+      <c r="AI69" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="AJ69" s="90" t="s">
+      <c r="AJ69" s="86" t="s">
         <v>189</v>
       </c>
     </row>
@@ -19198,7 +19056,7 @@
       <c r="C70" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="90" t="s">
+      <c r="E70" s="86" t="s">
         <v>178</v>
       </c>
       <c r="F70" s="32">
@@ -19278,22 +19136,22 @@
         <f t="shared" si="70"/>
         <v>大鐘</v>
       </c>
-      <c r="AE70" s="90" t="s">
+      <c r="AE70" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="AF70" s="90" t="s">
+      <c r="AF70" s="86" t="s">
         <v>192</v>
       </c>
       <c r="AG70" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="AH70" s="90" t="s">
+      <c r="AH70" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="AI70" s="90" t="s">
+      <c r="AI70" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="AJ70" s="90" t="s">
+      <c r="AJ70" s="86" t="s">
         <v>201</v>
       </c>
     </row>
@@ -19307,7 +19165,7 @@
       <c r="C71" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="E71" s="90" t="s">
+      <c r="E71" s="86" t="s">
         <v>179</v>
       </c>
       <c r="F71" s="32">
@@ -19387,22 +19245,22 @@
         <f t="shared" si="70"/>
         <v>岩本</v>
       </c>
-      <c r="AE71" s="90" t="s">
+      <c r="AE71" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="AF71" s="90" t="s">
+      <c r="AF71" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AG71" s="90" t="s">
+      <c r="AG71" s="86" t="s">
         <v>153</v>
       </c>
       <c r="AH71" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="AI71" s="90" t="s">
+      <c r="AI71" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="AJ71" s="90" t="s">
+      <c r="AJ71" s="86" t="s">
         <v>208</v>
       </c>
     </row>
@@ -19416,7 +19274,7 @@
       <c r="C72" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="90" t="s">
+      <c r="E72" s="86" t="s">
         <v>180</v>
       </c>
       <c r="F72" s="32">
@@ -19493,22 +19351,22 @@
         <f t="shared" si="70"/>
         <v>上小城</v>
       </c>
-      <c r="AE72" s="90" t="s">
+      <c r="AE72" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="AF72" s="90" t="s">
+      <c r="AF72" s="86" t="s">
         <v>209</v>
       </c>
       <c r="AG72" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="AH72" s="90" t="s">
+      <c r="AH72" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="AI72" s="90" t="s">
+      <c r="AI72" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="AJ72" s="90" t="s">
+      <c r="AJ72" s="86" t="s">
         <v>158</v>
       </c>
     </row>
@@ -19522,7 +19380,7 @@
       <c r="C73" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="E73" s="90" t="s">
+      <c r="E73" s="86" t="s">
         <v>181</v>
       </c>
       <c r="F73" s="32">
@@ -19605,19 +19463,19 @@
         <f t="shared" si="70"/>
         <v>北久保</v>
       </c>
-      <c r="AE73" s="90" t="s">
+      <c r="AE73" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="AF73" s="90" t="s">
+      <c r="AF73" s="86" t="s">
         <v>156</v>
       </c>
       <c r="AG73" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AI73" s="90" t="s">
+      <c r="AI73" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="AJ73" s="90" t="s">
+      <c r="AJ73" s="86" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19632,7 +19490,7 @@
       <c r="D74" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="90" t="s">
+      <c r="E74" s="86" t="s">
         <v>182</v>
       </c>
       <c r="F74" s="32">
@@ -19717,7 +19575,7 @@
       <c r="C75" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="E75" s="90" t="s">
+      <c r="E75" s="86" t="s">
         <v>183</v>
       </c>
       <c r="F75" s="32">
@@ -19794,19 +19652,19 @@
         <f t="shared" si="70"/>
         <v>中井</v>
       </c>
-      <c r="AE75" s="90" t="s">
+      <c r="AE75" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="AF75" s="90" t="s">
+      <c r="AF75" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="AG75" s="90" t="s">
+      <c r="AG75" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="AH75" s="90" t="s">
+      <c r="AH75" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="AI75" s="90" t="s">
+      <c r="AI75" s="86" t="s">
         <v>157</v>
       </c>
       <c r="AJ75" s="32" t="s">
@@ -19823,7 +19681,7 @@
       <c r="C76" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E76" s="90" t="s">
+      <c r="E76" s="86" t="s">
         <v>184</v>
       </c>
       <c r="F76" s="32">
@@ -19900,19 +19758,19 @@
         <f t="shared" si="70"/>
         <v>佐伯</v>
       </c>
-      <c r="AE76" s="90" t="s">
+      <c r="AE76" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="AF76" s="90" t="s">
+      <c r="AF76" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="AG76" s="90" t="s">
+      <c r="AG76" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="AH76" s="90" t="s">
+      <c r="AH76" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="AI76" s="90" t="s">
+      <c r="AI76" s="86" t="s">
         <v>157</v>
       </c>
     </row>
@@ -19926,7 +19784,7 @@
       <c r="C77" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="90" t="s">
+      <c r="E77" s="86" t="s">
         <v>185</v>
       </c>
       <c r="F77" s="32">
@@ -19994,10 +19852,10 @@
         <v>146</v>
       </c>
       <c r="C78" s="32"/>
-      <c r="D78" s="90" t="s">
+      <c r="D78" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="E78" s="90" t="s">
+      <c r="E78" s="86" t="s">
         <v>186</v>
       </c>
       <c r="F78" s="32">
@@ -20199,10 +20057,10 @@
       <c r="A81" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="73"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
@@ -20216,18 +20074,18 @@
       <c r="X81" s="34"/>
       <c r="Y81" s="34"/>
       <c r="Z81" s="34"/>
-      <c r="AA81" s="92"/>
-      <c r="AB81" s="92"/>
-      <c r="AC81" s="92"/>
-      <c r="AD81" s="74" t="s">
+      <c r="AA81" s="88"/>
+      <c r="AB81" s="88"/>
+      <c r="AC81" s="88"/>
+      <c r="AD81" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="AE81" s="92"/>
-      <c r="AF81" s="92"/>
-      <c r="AG81" s="92"/>
-      <c r="AH81" s="92"/>
-      <c r="AI81" s="92"/>
-      <c r="AJ81" s="92"/>
+      <c r="AE81" s="88"/>
+      <c r="AF81" s="88"/>
+      <c r="AG81" s="88"/>
+      <c r="AH81" s="88"/>
+      <c r="AI81" s="88"/>
+      <c r="AJ81" s="88"/>
     </row>
     <row r="82" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
       <c r="A82" s="24" t="s">
@@ -24872,22 +24730,22 @@
       <c r="AG2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" s="71" t="s">
+      <c r="AH2" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="71" t="s">
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="71" t="s">
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="71" t="s">
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="72"/>
+      <c r="AO2" s="92"/>
       <c r="AP2" s="12" t="s">
         <v>77</v>
       </c>
@@ -24897,13 +24755,13 @@
       <c r="AR2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AS2" s="71" t="s">
+      <c r="AS2" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
       <c r="AX2" s="12"/>
     </row>
     <row r="3" spans="1:50" ht="17.25" customHeight="1">
@@ -25191,11 +25049,11 @@
       </c>
       <c r="D5" s="11">
         <f>打撃詳細!C6</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="11">
         <f>打撃詳細!D6</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="11">
         <f>打撃詳細!E6</f>
@@ -25255,19 +25113,19 @@
       </c>
       <c r="T5" s="11" t="str">
         <f>打撃詳細!L6</f>
-        <v>0.389</v>
+        <v>0.467</v>
       </c>
       <c r="U5" s="11" t="str">
         <f>打撃詳細!M6</f>
-        <v>0.389</v>
+        <v>0.467</v>
       </c>
       <c r="V5" s="11" t="str">
         <f>打撃詳細!N6</f>
-        <v>0.667</v>
+        <v>0.800</v>
       </c>
       <c r="W5" s="11" t="str">
         <f>打撃詳細!O6</f>
-        <v>1.056</v>
+        <v>1.267</v>
       </c>
       <c r="X5" s="11">
         <f>打撃詳細!AD6</f>
@@ -25287,19 +25145,19 @@
       </c>
       <c r="AB5" s="11">
         <f>打撃詳細!X6</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AC5" s="11" t="str">
         <f>打撃詳細!Y6</f>
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD5" s="18">
         <f t="shared" ref="AD5:AD6" si="0">0.5*N5+0.72*O5+1.04*P5+1.44*Q5+0.34*(G5+H5)+0.18*I5-0.09*(E5-F5-R5)-0.098*R5-0.37*S5+0.04*M5</f>
-        <v>3.8899999999999997</v>
+        <v>4.16</v>
       </c>
       <c r="AE5" s="18">
         <f t="shared" ref="AE5:AE6" si="1">V5-T5</f>
-        <v>0.27800000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AF5" s="19" t="e">
         <f t="shared" ref="AF5:AF6" si="2">G5/R5</f>
@@ -25307,7 +25165,7 @@
       </c>
       <c r="AG5" s="19">
         <f t="shared" ref="AG5:AG6" si="3">((F5+G5+H5-S5)+2.4*(E5+G5+H5+M5)*((N5+O5*2+P5*3+Q5*4+0.24*(G5+H5)+0.62*I5+(0.5*M5)-0.03*R5)+3*(E5+G5+H5+M5))/(9*(E5+G5+H5+M5)))-0.9*(E5+G5+H5+M5)</f>
-        <v>8.3999999999999986</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AH5" s="10">
         <f>打撃集計!AE6</f>
@@ -25315,7 +25173,7 @@
       </c>
       <c r="AI5" s="11" t="str">
         <f>打撃詳細!AB6</f>
-        <v>15%</v>
+        <v>16%</v>
       </c>
       <c r="AJ5" s="3">
         <f>打撃集計!AC6</f>
@@ -25323,7 +25181,7 @@
       </c>
       <c r="AK5" s="11" t="str">
         <f>打撃詳細!Z6</f>
-        <v>17%</v>
+        <v>19%</v>
       </c>
       <c r="AL5" s="3">
         <f>打撃集計!AD6</f>
@@ -25339,7 +25197,7 @@
       </c>
       <c r="AO5" s="11" t="str">
         <f>打撃詳細!AC6</f>
-        <v>28%</v>
+        <v>30%</v>
       </c>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="10"/>
@@ -25365,11 +25223,11 @@
       </c>
       <c r="D6" s="20">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="4"/>
@@ -25429,19 +25287,19 @@
       </c>
       <c r="T6" s="7">
         <f>F6/E6</f>
-        <v>0.25757575757575757</v>
+        <v>0.26984126984126983</v>
       </c>
       <c r="U6" s="7">
         <f>(F6+G6+H6)/(E6+G6+H6)</f>
-        <v>0.45555555555555555</v>
+        <v>0.47126436781609193</v>
       </c>
       <c r="V6" s="7">
         <f>(N6+O6*2+P6*3+Q6*4)/E6</f>
-        <v>0.34848484848484851</v>
+        <v>0.36507936507936506</v>
       </c>
       <c r="W6" s="7">
         <f>U6+V6</f>
-        <v>0.80404040404040411</v>
+        <v>0.83634373289545705</v>
       </c>
       <c r="X6" s="20">
         <f t="shared" ref="X6:Z6" si="5">SUM(X3:X5)</f>
@@ -25461,19 +25319,19 @@
       </c>
       <c r="AB6" s="20">
         <f>SUM(AB3:AB5)</f>
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AC6" s="19">
         <f>AB6/D6</f>
-        <v>4.197802197802198</v>
+        <v>4.3068181818181817</v>
       </c>
       <c r="AD6" s="18">
         <f t="shared" si="0"/>
-        <v>13.717999999999996</v>
+        <v>13.987999999999996</v>
       </c>
       <c r="AE6" s="18">
         <f t="shared" si="1"/>
-        <v>9.0909090909090939E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="AF6" s="19">
         <f t="shared" si="2"/>
@@ -25481,7 +25339,7 @@
       </c>
       <c r="AG6" s="19">
         <f t="shared" si="3"/>
-        <v>38.212000000000003</v>
+        <v>38.512</v>
       </c>
       <c r="AH6" s="20">
         <f>SUM(AH3:AH5)</f>
@@ -25637,22 +25495,22 @@
       <c r="AG8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AH8" s="71" t="s">
+      <c r="AH8" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="71" t="s">
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="71" t="s">
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="71" t="s">
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AO8" s="72"/>
+      <c r="AO8" s="92"/>
       <c r="AP8" s="12" t="s">
         <v>77</v>
       </c>
@@ -25662,13 +25520,13 @@
       <c r="AR8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AS8" s="71" t="s">
+      <c r="AS8" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
       <c r="AX8" s="12"/>
     </row>
     <row r="9" spans="1:50" ht="17.25" customHeight="1">
@@ -26371,22 +26229,22 @@
       <c r="AG14" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AH14" s="71" t="s">
+      <c r="AH14" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="71" t="s">
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="71" t="s">
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="71" t="s">
+      <c r="AM14" s="92"/>
+      <c r="AN14" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AO14" s="72"/>
+      <c r="AO14" s="92"/>
       <c r="AP14" s="12" t="s">
         <v>77</v>
       </c>
@@ -26396,13 +26254,13 @@
       <c r="AR14" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AS14" s="71" t="s">
+      <c r="AS14" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
+      <c r="AT14" s="92"/>
+      <c r="AU14" s="92"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="92"/>
       <c r="AX14" s="12"/>
     </row>
     <row r="15" spans="1:50" ht="17.25" customHeight="1">
@@ -26662,11 +26520,11 @@
       </c>
       <c r="D17" s="11">
         <f>打撃詳細!C8</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E17" s="11">
         <f>打撃詳細!D8</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" s="11">
         <f>打撃詳細!E8</f>
@@ -26726,19 +26584,19 @@
       </c>
       <c r="T17" s="11" t="str">
         <f>打撃詳細!L8</f>
-        <v>0.158</v>
+        <v>0.214</v>
       </c>
       <c r="U17" s="11" t="str">
         <f>打撃詳細!M8</f>
-        <v>0.273</v>
+        <v>0.353</v>
       </c>
       <c r="V17" s="11" t="str">
         <f>打撃詳細!N8</f>
-        <v>0.263</v>
+        <v>0.357</v>
       </c>
       <c r="W17" s="11" t="str">
         <f>打撃詳細!O8</f>
-        <v>0.536</v>
+        <v>0.710</v>
       </c>
       <c r="X17" s="11">
         <f>打撃詳細!AD8</f>
@@ -26758,19 +26616,19 @@
       </c>
       <c r="AB17" s="11">
         <f>打撃詳細!X8</f>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC17" s="11" t="str">
         <f>打撃詳細!Y8</f>
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD17" s="18">
         <f t="shared" ref="AD17:AD18" si="14">0.5*N17+0.72*O17+1.04*P17+1.44*Q17+0.34*(G17+H17)+0.18*I17-0.09*(E17-F17-R17)-0.098*R17-0.37*S17+0.04*M17</f>
-        <v>1.9239999999999999</v>
+        <v>2.3740000000000001</v>
       </c>
       <c r="AE17" s="18">
         <f t="shared" ref="AE17:AE18" si="15">V17-T17</f>
-        <v>0.10500000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="AF17" s="19">
         <f t="shared" ref="AF17:AF18" si="16">G17/R17</f>
@@ -26778,7 +26636,7 @@
       </c>
       <c r="AG17" s="19">
         <f t="shared" ref="AG17:AG18" si="17">((F17+G17+H17-S17)+2.4*(E17+G17+H17+M17)*((N17+O17*2+P17*3+Q17*4+0.24*(G17+H17)+0.62*I17+(0.5*M17)-0.03*R17)+3*(E17+G17+H17+M17))/(9*(E17+G17+H17+M17)))-0.9*(E17+G17+H17+M17)</f>
-        <v>5.5999999999999979</v>
+        <v>6.0999999999999979</v>
       </c>
       <c r="AH17" s="10">
         <f>打撃集計!AE8</f>
@@ -26810,7 +26668,7 @@
       </c>
       <c r="AO17" s="11" t="str">
         <f>打撃詳細!AC8</f>
-        <v>39%</v>
+        <v>41%</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="17.25" customHeight="1">
@@ -26824,11 +26682,11 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" si="18"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="18"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="18"/>
@@ -26888,19 +26746,19 @@
       </c>
       <c r="T18" s="7">
         <f>F18/E18</f>
-        <v>0.22077922077922077</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="U18" s="7">
         <f>(F18+G18+H18)/(E18+G18+H18)</f>
-        <v>0.34782608695652173</v>
+        <v>0.36781609195402298</v>
       </c>
       <c r="V18" s="7">
         <f>(N18+O18*2+P18*3+Q18*4)/E18</f>
-        <v>0.29870129870129869</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="W18" s="7">
         <f>U18+V18</f>
-        <v>0.64652738565782042</v>
+        <v>0.6872605363984674</v>
       </c>
       <c r="X18" s="20">
         <f t="shared" ref="X18:Z18" si="19">SUM(X15:X17)</f>
@@ -26920,19 +26778,19 @@
       </c>
       <c r="AB18" s="20">
         <f>SUM(AB15:AB17)</f>
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AC18" s="19">
         <f>AB18/D18</f>
-        <v>3.5652173913043477</v>
+        <v>3.7126436781609193</v>
       </c>
       <c r="AD18" s="18">
         <f t="shared" si="14"/>
-        <v>10.716000000000001</v>
+        <v>11.166</v>
       </c>
       <c r="AE18" s="18">
         <f t="shared" si="15"/>
-        <v>7.792207792207792E-2</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="AF18" s="19">
         <f t="shared" si="16"/>
@@ -26940,7 +26798,7 @@
       </c>
       <c r="AG18" s="19">
         <f t="shared" si="17"/>
-        <v>29.73333333333332</v>
+        <v>30.233333333333334</v>
       </c>
       <c r="AH18" s="20">
         <f>SUM(AH15:AH17)</f>
@@ -27088,22 +26946,22 @@
       <c r="AG20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AH20" s="71" t="s">
+      <c r="AH20" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="71" t="s">
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="71" t="s">
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="71" t="s">
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AO20" s="72"/>
+      <c r="AO20" s="92"/>
       <c r="AP20" s="12" t="s">
         <v>77</v>
       </c>
@@ -27113,13 +26971,13 @@
       <c r="AR20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AS20" s="71" t="s">
+      <c r="AS20" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="92"/>
       <c r="AX20" s="12"/>
     </row>
     <row r="21" spans="1:50" ht="17.25" customHeight="1">
@@ -31048,11 +30906,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AS2:AW2"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AS8:AW8"/>
@@ -31068,6 +30921,11 @@
     <mergeCell ref="AL14:AM14"/>
     <mergeCell ref="AN14:AO14"/>
     <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AS2:AW2"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F0120C-05E2-4516-9030-17915C6851CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135AF721-6E24-4CDB-AA1B-7BE9A7FE3072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="打撃詳細" sheetId="2" r:id="rId1"/>
@@ -2611,6 +2611,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2630,15 +2639,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2860,7 +2860,7 @@
   <dimension ref="A1:AG1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -6414,8 +6414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -10623,11 +10623,11 @@
       <c r="P1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:19" ht="16.5">
       <c r="A2" s="51" t="s">
@@ -15022,9 +15022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK836"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC164" sqref="AC164"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -15152,12 +15152,12 @@
       <c r="AJ1" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="AK1" s="126" t="s">
+      <c r="AK1" s="119" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="28" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="121">
+      <c r="A2" s="124">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -15258,7 +15258,7 @@
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="122"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="24" t="s">
         <v>80</v>
       </c>
@@ -15357,7 +15357,7 @@
       <c r="AJ3" s="32"/>
     </row>
     <row r="4" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="122"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="24" t="s">
         <v>80</v>
       </c>
@@ -15456,7 +15456,7 @@
       <c r="AJ4" s="32"/>
     </row>
     <row r="5" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="122"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="24" t="s">
         <v>80</v>
       </c>
@@ -15559,7 +15559,7 @@
       <c r="AJ5" s="32"/>
     </row>
     <row r="6" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A6" s="122"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="24" t="s">
         <v>80</v>
       </c>
@@ -15656,7 +15656,7 @@
       <c r="AJ6" s="32"/>
     </row>
     <row r="7" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="24" t="s">
         <v>80</v>
       </c>
@@ -15753,7 +15753,7 @@
       <c r="AJ7" s="32"/>
     </row>
     <row r="8" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="24" t="s">
         <v>80</v>
       </c>
@@ -15850,7 +15850,7 @@
       <c r="AJ8" s="32"/>
     </row>
     <row r="9" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="122"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="24" t="s">
         <v>80</v>
       </c>
@@ -15947,7 +15947,7 @@
       <c r="AJ9" s="32"/>
     </row>
     <row r="10" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="122"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="24" t="s">
         <v>80</v>
       </c>
@@ -16028,7 +16028,7 @@
       <c r="AJ10" s="32"/>
     </row>
     <row r="11" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="122"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="24" t="s">
         <v>80</v>
       </c>
@@ -16117,7 +16117,7 @@
       <c r="AJ11" s="32"/>
     </row>
     <row r="12" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="24" t="s">
         <v>80</v>
       </c>
@@ -16192,7 +16192,7 @@
       <c r="AJ12" s="32"/>
     </row>
     <row r="13" spans="1:37" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A13" s="121">
+      <c r="A13" s="124">
         <v>2</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -16297,7 +16297,7 @@
       <c r="AJ13" s="31"/>
     </row>
     <row r="14" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A14" s="122"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="24" t="s">
         <v>80</v>
       </c>
@@ -16385,7 +16385,7 @@
       </c>
     </row>
     <row r="15" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="122"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="24" t="s">
         <v>80</v>
       </c>
@@ -16473,7 +16473,7 @@
       </c>
     </row>
     <row r="16" spans="1:37" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="24" t="s">
         <v>80</v>
       </c>
@@ -16565,7 +16565,7 @@
       <c r="AJ16" s="32"/>
     </row>
     <row r="17" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="24" t="s">
         <v>80</v>
       </c>
@@ -16660,7 +16660,7 @@
       <c r="AJ17" s="32"/>
     </row>
     <row r="18" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="24" t="s">
         <v>80</v>
       </c>
@@ -16747,7 +16747,7 @@
       <c r="AJ18" s="32"/>
     </row>
     <row r="19" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="122"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="24" t="s">
         <v>80</v>
       </c>
@@ -16831,7 +16831,7 @@
       <c r="AJ19" s="32"/>
     </row>
     <row r="20" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A20" s="122"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="24" t="s">
         <v>80</v>
       </c>
@@ -16904,7 +16904,7 @@
       <c r="AJ20" s="32"/>
     </row>
     <row r="21" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="24" t="s">
         <v>80</v>
       </c>
@@ -16982,7 +16982,7 @@
       <c r="AJ21" s="32"/>
     </row>
     <row r="22" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A22" s="123"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="24" t="s">
         <v>80</v>
       </c>
@@ -17066,7 +17066,7 @@
       <c r="AJ22" s="32"/>
     </row>
     <row r="23" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A23" s="121">
+      <c r="A23" s="124">
         <v>3</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -17173,7 +17173,7 @@
       <c r="AJ23" s="31"/>
     </row>
     <row r="24" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="122"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="24" t="s">
         <v>100</v>
       </c>
@@ -17266,7 +17266,7 @@
       <c r="AH24" s="85"/>
     </row>
     <row r="25" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="122"/>
+      <c r="A25" s="125"/>
       <c r="B25" s="24" t="s">
         <v>100</v>
       </c>
@@ -17362,7 +17362,7 @@
       <c r="AH25" s="32"/>
     </row>
     <row r="26" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="122"/>
+      <c r="A26" s="125"/>
       <c r="B26" s="24" t="s">
         <v>100</v>
       </c>
@@ -17451,7 +17451,7 @@
       </c>
     </row>
     <row r="27" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="122"/>
+      <c r="A27" s="125"/>
       <c r="B27" s="24" t="s">
         <v>100</v>
       </c>
@@ -17526,7 +17526,7 @@
       <c r="AH27" s="32"/>
     </row>
     <row r="28" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A28" s="122"/>
+      <c r="A28" s="125"/>
       <c r="B28" s="24" t="s">
         <v>100</v>
       </c>
@@ -17617,7 +17617,7 @@
       </c>
     </row>
     <row r="29" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="122"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="24" t="s">
         <v>100</v>
       </c>
@@ -17700,7 +17700,7 @@
       <c r="AH29" s="32"/>
     </row>
     <row r="30" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="122"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="24" t="s">
         <v>100</v>
       </c>
@@ -17793,7 +17793,7 @@
       <c r="AH30" s="32"/>
     </row>
     <row r="31" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="122"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="24" t="s">
         <v>100</v>
       </c>
@@ -17879,7 +17879,7 @@
       </c>
     </row>
     <row r="32" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="122"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="24" t="s">
         <v>100</v>
       </c>
@@ -17965,7 +17965,7 @@
       </c>
     </row>
     <row r="33" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="122"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="24" t="s">
         <v>100</v>
       </c>
@@ -18054,7 +18054,7 @@
       </c>
     </row>
     <row r="34" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A34" s="123"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="24" t="s">
         <v>100</v>
       </c>
@@ -18123,7 +18123,7 @@
       </c>
     </row>
     <row r="35" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="121">
+      <c r="A35" s="124">
         <v>4</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -18226,7 +18226,7 @@
       <c r="AJ35" s="31"/>
     </row>
     <row r="36" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="122"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="24" t="s">
         <v>104</v>
       </c>
@@ -18315,7 +18315,7 @@
       <c r="AH36" s="86"/>
     </row>
     <row r="37" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="122"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="24" t="s">
         <v>104</v>
       </c>
@@ -18410,7 +18410,7 @@
       <c r="AH37" s="86"/>
     </row>
     <row r="38" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="122"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="24" t="s">
         <v>104</v>
       </c>
@@ -18511,7 +18511,7 @@
       <c r="AH38" s="86"/>
     </row>
     <row r="39" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="122"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="24" t="s">
         <v>104</v>
       </c>
@@ -18600,7 +18600,7 @@
       <c r="AH39" s="86"/>
     </row>
     <row r="40" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="122"/>
+      <c r="A40" s="125"/>
       <c r="B40" s="24" t="s">
         <v>104</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="AH40" s="86"/>
     </row>
     <row r="41" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="122"/>
+      <c r="A41" s="125"/>
       <c r="B41" s="24" t="s">
         <v>104</v>
       </c>
@@ -18793,7 +18793,7 @@
       <c r="AH41" s="86"/>
     </row>
     <row r="42" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A42" s="122"/>
+      <c r="A42" s="125"/>
       <c r="B42" s="24" t="s">
         <v>104</v>
       </c>
@@ -18885,7 +18885,7 @@
       <c r="AH42" s="86"/>
     </row>
     <row r="43" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="122"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="24" t="s">
         <v>104</v>
       </c>
@@ -18973,7 +18973,7 @@
       </c>
     </row>
     <row r="44" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="122"/>
+      <c r="A44" s="125"/>
       <c r="B44" s="24" t="s">
         <v>104</v>
       </c>
@@ -19051,7 +19051,7 @@
       <c r="AH44" s="86"/>
     </row>
     <row r="45" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A45" s="123"/>
+      <c r="A45" s="126"/>
       <c r="B45" s="24" t="s">
         <v>104</v>
       </c>
@@ -19124,7 +19124,7 @@
       </c>
     </row>
     <row r="46" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="121">
+      <c r="A46" s="124">
         <v>5</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -19235,7 +19235,7 @@
       </c>
     </row>
     <row r="47" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A47" s="122"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="24" t="s">
         <v>105</v>
       </c>
@@ -19332,7 +19332,7 @@
       </c>
     </row>
     <row r="48" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A48" s="122"/>
+      <c r="A48" s="125"/>
       <c r="B48" s="24" t="s">
         <v>105</v>
       </c>
@@ -19412,7 +19412,7 @@
       </c>
     </row>
     <row r="49" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A49" s="122"/>
+      <c r="A49" s="125"/>
       <c r="B49" s="24" t="s">
         <v>105</v>
       </c>
@@ -19509,7 +19509,7 @@
       </c>
     </row>
     <row r="50" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A50" s="122"/>
+      <c r="A50" s="125"/>
       <c r="B50" s="24" t="s">
         <v>105</v>
       </c>
@@ -19615,7 +19615,7 @@
       </c>
     </row>
     <row r="51" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A51" s="122"/>
+      <c r="A51" s="125"/>
       <c r="B51" s="24" t="s">
         <v>105</v>
       </c>
@@ -19721,7 +19721,7 @@
       </c>
     </row>
     <row r="52" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A52" s="122"/>
+      <c r="A52" s="125"/>
       <c r="B52" s="24" t="s">
         <v>105</v>
       </c>
@@ -19824,7 +19824,7 @@
       </c>
     </row>
     <row r="53" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="122"/>
+      <c r="A53" s="125"/>
       <c r="B53" s="24" t="s">
         <v>105</v>
       </c>
@@ -19930,7 +19930,7 @@
       </c>
     </row>
     <row r="54" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A54" s="122"/>
+      <c r="A54" s="125"/>
       <c r="B54" s="24" t="s">
         <v>105</v>
       </c>
@@ -20010,7 +20010,7 @@
       </c>
     </row>
     <row r="55" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A55" s="122"/>
+      <c r="A55" s="125"/>
       <c r="B55" s="24" t="s">
         <v>105</v>
       </c>
@@ -20113,7 +20113,7 @@
       </c>
     </row>
     <row r="56" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="122"/>
+      <c r="A56" s="125"/>
       <c r="B56" s="24" t="s">
         <v>105</v>
       </c>
@@ -20213,7 +20213,7 @@
       </c>
     </row>
     <row r="57" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A57" s="122"/>
+      <c r="A57" s="125"/>
       <c r="B57" s="24" t="s">
         <v>105</v>
       </c>
@@ -20280,7 +20280,7 @@
       </c>
     </row>
     <row r="58" spans="1:36" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A58" s="122"/>
+      <c r="A58" s="125"/>
       <c r="B58" s="24" t="s">
         <v>105</v>
       </c>
@@ -20348,7 +20348,7 @@
       </c>
     </row>
     <row r="59" spans="1:36" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A59" s="121">
+      <c r="A59" s="124">
         <v>6</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -20455,7 +20455,7 @@
       <c r="AJ59" s="31"/>
     </row>
     <row r="60" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A60" s="122"/>
+      <c r="A60" s="125"/>
       <c r="B60" s="24" t="s">
         <v>158</v>
       </c>
@@ -20544,7 +20544,7 @@
       </c>
     </row>
     <row r="61" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A61" s="122"/>
+      <c r="A61" s="125"/>
       <c r="B61" s="24" t="s">
         <v>158</v>
       </c>
@@ -20630,7 +20630,7 @@
       </c>
     </row>
     <row r="62" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A62" s="122"/>
+      <c r="A62" s="125"/>
       <c r="B62" s="24" t="s">
         <v>158</v>
       </c>
@@ -20727,7 +20727,7 @@
       </c>
     </row>
     <row r="63" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A63" s="122"/>
+      <c r="A63" s="125"/>
       <c r="B63" s="24" t="s">
         <v>158</v>
       </c>
@@ -20809,7 +20809,7 @@
       </c>
     </row>
     <row r="64" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A64" s="122"/>
+      <c r="A64" s="125"/>
       <c r="B64" s="24" t="s">
         <v>158</v>
       </c>
@@ -20893,7 +20893,7 @@
       </c>
     </row>
     <row r="65" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A65" s="122"/>
+      <c r="A65" s="125"/>
       <c r="B65" s="24" t="s">
         <v>158</v>
       </c>
@@ -20971,7 +20971,7 @@
       </c>
     </row>
     <row r="66" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A66" s="122"/>
+      <c r="A66" s="125"/>
       <c r="B66" s="24" t="s">
         <v>158</v>
       </c>
@@ -21058,7 +21058,7 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A67" s="122"/>
+      <c r="A67" s="125"/>
       <c r="B67" s="24" t="s">
         <v>158</v>
       </c>
@@ -21140,7 +21140,7 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A68" s="122"/>
+      <c r="A68" s="125"/>
       <c r="B68" s="24" t="s">
         <v>158</v>
       </c>
@@ -21220,7 +21220,7 @@
       </c>
     </row>
     <row r="69" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A69" s="122"/>
+      <c r="A69" s="125"/>
       <c r="B69" s="24" t="s">
         <v>158</v>
       </c>
@@ -21317,7 +21317,7 @@
       </c>
     </row>
     <row r="70" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A70" s="122"/>
+      <c r="A70" s="125"/>
       <c r="B70" s="24" t="s">
         <v>158</v>
       </c>
@@ -21409,7 +21409,7 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A71" s="123"/>
+      <c r="A71" s="126"/>
       <c r="B71" s="24" t="s">
         <v>158</v>
       </c>
@@ -21507,7 +21507,7 @@
       </c>
     </row>
     <row r="72" spans="1:34" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A72" s="121">
+      <c r="A72" s="124">
         <v>7</v>
       </c>
       <c r="B72" s="27" t="s">
@@ -21614,7 +21614,7 @@
       </c>
     </row>
     <row r="73" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A73" s="122"/>
+      <c r="A73" s="125"/>
       <c r="B73" s="24" t="s">
         <v>240</v>
       </c>
@@ -21718,7 +21718,7 @@
       </c>
     </row>
     <row r="74" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A74" s="122"/>
+      <c r="A74" s="125"/>
       <c r="B74" s="24" t="s">
         <v>240</v>
       </c>
@@ -21820,7 +21820,7 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A75" s="122"/>
+      <c r="A75" s="125"/>
       <c r="B75" s="24" t="s">
         <v>240</v>
       </c>
@@ -21915,7 +21915,7 @@
       </c>
     </row>
     <row r="76" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A76" s="122"/>
+      <c r="A76" s="125"/>
       <c r="B76" s="24" t="s">
         <v>240</v>
       </c>
@@ -22004,7 +22004,7 @@
       </c>
     </row>
     <row r="77" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A77" s="122"/>
+      <c r="A77" s="125"/>
       <c r="B77" s="24" t="s">
         <v>240</v>
       </c>
@@ -22096,7 +22096,7 @@
       </c>
     </row>
     <row r="78" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A78" s="122"/>
+      <c r="A78" s="125"/>
       <c r="B78" s="24" t="s">
         <v>240</v>
       </c>
@@ -22184,7 +22184,7 @@
       </c>
     </row>
     <row r="79" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A79" s="122"/>
+      <c r="A79" s="125"/>
       <c r="B79" s="24" t="s">
         <v>240</v>
       </c>
@@ -22268,7 +22268,7 @@
       </c>
     </row>
     <row r="80" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A80" s="122"/>
+      <c r="A80" s="125"/>
       <c r="B80" s="24" t="s">
         <v>240</v>
       </c>
@@ -22354,7 +22354,7 @@
       </c>
     </row>
     <row r="81" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A81" s="122"/>
+      <c r="A81" s="125"/>
       <c r="B81" s="24" t="s">
         <v>240</v>
       </c>
@@ -22430,7 +22430,7 @@
       </c>
     </row>
     <row r="82" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A82" s="123"/>
+      <c r="A82" s="126"/>
       <c r="B82" s="24" t="s">
         <v>240</v>
       </c>
@@ -22509,7 +22509,7 @@
       </c>
     </row>
     <row r="83" spans="1:34" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A83" s="121">
+      <c r="A83" s="124">
         <v>8</v>
       </c>
       <c r="B83" s="30" t="s">
@@ -22608,7 +22608,7 @@
       </c>
     </row>
     <row r="84" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A84" s="122"/>
+      <c r="A84" s="125"/>
       <c r="B84" t="s">
         <v>243</v>
       </c>
@@ -22702,7 +22702,7 @@
       </c>
     </row>
     <row r="85" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A85" s="122"/>
+      <c r="A85" s="125"/>
       <c r="B85" t="s">
         <v>243</v>
       </c>
@@ -22790,7 +22790,7 @@
       </c>
     </row>
     <row r="86" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A86" s="122"/>
+      <c r="A86" s="125"/>
       <c r="B86" t="s">
         <v>243</v>
       </c>
@@ -22890,7 +22890,7 @@
       </c>
     </row>
     <row r="87" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A87" s="122"/>
+      <c r="A87" s="125"/>
       <c r="B87" t="s">
         <v>243</v>
       </c>
@@ -22975,7 +22975,7 @@
       </c>
     </row>
     <row r="88" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A88" s="122"/>
+      <c r="A88" s="125"/>
       <c r="B88" t="s">
         <v>243</v>
       </c>
@@ -23057,7 +23057,7 @@
       </c>
     </row>
     <row r="89" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A89" s="122"/>
+      <c r="A89" s="125"/>
       <c r="B89" t="s">
         <v>243</v>
       </c>
@@ -23145,7 +23145,7 @@
       </c>
     </row>
     <row r="90" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A90" s="122"/>
+      <c r="A90" s="125"/>
       <c r="B90" t="s">
         <v>243</v>
       </c>
@@ -23236,7 +23236,7 @@
       </c>
     </row>
     <row r="91" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A91" s="123"/>
+      <c r="A91" s="126"/>
       <c r="B91" t="s">
         <v>243</v>
       </c>
@@ -23318,7 +23318,7 @@
       </c>
     </row>
     <row r="92" spans="1:34" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A92" s="121">
+      <c r="A92" s="124">
         <v>9</v>
       </c>
       <c r="B92" s="30" t="s">
@@ -23410,7 +23410,7 @@
       </c>
     </row>
     <row r="93" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A93" s="122"/>
+      <c r="A93" s="125"/>
       <c r="B93" t="s">
         <v>249</v>
       </c>
@@ -23497,7 +23497,7 @@
       </c>
     </row>
     <row r="94" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A94" s="122"/>
+      <c r="A94" s="125"/>
       <c r="B94" t="s">
         <v>249</v>
       </c>
@@ -23587,7 +23587,7 @@
       </c>
     </row>
     <row r="95" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A95" s="122"/>
+      <c r="A95" s="125"/>
       <c r="B95" t="s">
         <v>249</v>
       </c>
@@ -23671,7 +23671,7 @@
       </c>
     </row>
     <row r="96" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A96" s="122"/>
+      <c r="A96" s="125"/>
       <c r="B96" t="s">
         <v>249</v>
       </c>
@@ -23755,7 +23755,7 @@
       </c>
     </row>
     <row r="97" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A97" s="122"/>
+      <c r="A97" s="125"/>
       <c r="B97" t="s">
         <v>249</v>
       </c>
@@ -23840,7 +23840,7 @@
       </c>
     </row>
     <row r="98" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A98" s="122"/>
+      <c r="A98" s="125"/>
       <c r="B98" t="s">
         <v>249</v>
       </c>
@@ -23925,7 +23925,7 @@
       </c>
     </row>
     <row r="99" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A99" s="122"/>
+      <c r="A99" s="125"/>
       <c r="B99" t="s">
         <v>249</v>
       </c>
@@ -24009,7 +24009,7 @@
       </c>
     </row>
     <row r="100" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A100" s="122"/>
+      <c r="A100" s="125"/>
       <c r="B100" t="s">
         <v>249</v>
       </c>
@@ -24095,7 +24095,7 @@
       </c>
     </row>
     <row r="101" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A101" s="122"/>
+      <c r="A101" s="125"/>
       <c r="B101" t="s">
         <v>249</v>
       </c>
@@ -24170,7 +24170,7 @@
       </c>
     </row>
     <row r="102" spans="1:33" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A102" s="123"/>
+      <c r="A102" s="126"/>
       <c r="B102" s="35" t="s">
         <v>249</v>
       </c>
@@ -24236,7 +24236,7 @@
       </c>
     </row>
     <row r="103" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A103" s="121">
+      <c r="A103" s="124">
         <v>10</v>
       </c>
       <c r="B103" s="30" t="s">
@@ -24316,7 +24316,7 @@
       </c>
     </row>
     <row r="104" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A104" s="122"/>
+      <c r="A104" s="125"/>
       <c r="B104" s="3" t="s">
         <v>260</v>
       </c>
@@ -24392,7 +24392,7 @@
       </c>
     </row>
     <row r="105" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A105" s="122"/>
+      <c r="A105" s="125"/>
       <c r="B105" s="3" t="s">
         <v>260</v>
       </c>
@@ -24476,7 +24476,7 @@
       </c>
     </row>
     <row r="106" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A106" s="122"/>
+      <c r="A106" s="125"/>
       <c r="B106" s="3" t="s">
         <v>260</v>
       </c>
@@ -24557,7 +24557,7 @@
       </c>
     </row>
     <row r="107" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A107" s="122"/>
+      <c r="A107" s="125"/>
       <c r="B107" s="3" t="s">
         <v>260</v>
       </c>
@@ -24630,7 +24630,7 @@
       </c>
     </row>
     <row r="108" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A108" s="122"/>
+      <c r="A108" s="125"/>
       <c r="B108" s="3" t="s">
         <v>260</v>
       </c>
@@ -24711,7 +24711,7 @@
       </c>
     </row>
     <row r="109" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A109" s="122"/>
+      <c r="A109" s="125"/>
       <c r="B109" s="3" t="s">
         <v>260</v>
       </c>
@@ -24786,7 +24786,7 @@
       </c>
     </row>
     <row r="110" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A110" s="122"/>
+      <c r="A110" s="125"/>
       <c r="B110" s="3" t="s">
         <v>260</v>
       </c>
@@ -24868,7 +24868,7 @@
       </c>
     </row>
     <row r="111" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A111" s="122"/>
+      <c r="A111" s="125"/>
       <c r="B111" s="3" t="s">
         <v>260</v>
       </c>
@@ -24946,7 +24946,7 @@
       </c>
     </row>
     <row r="112" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A112" s="122"/>
+      <c r="A112" s="125"/>
       <c r="B112" s="3" t="s">
         <v>260</v>
       </c>
@@ -24954,7 +24954,7 @@
       <c r="D112" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" s="36" t="s">
         <v>147</v>
       </c>
       <c r="G112" s="32">
@@ -25022,7 +25022,7 @@
       </c>
     </row>
     <row r="113" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A113" s="122"/>
+      <c r="A113" s="125"/>
       <c r="B113" s="3" t="s">
         <v>260</v>
       </c>
@@ -25100,7 +25100,7 @@
       </c>
     </row>
     <row r="114" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A114" s="122"/>
+      <c r="A114" s="125"/>
       <c r="B114" s="3" t="s">
         <v>260</v>
       </c>
@@ -25178,7 +25178,7 @@
       </c>
     </row>
     <row r="115" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A115" s="122"/>
+      <c r="A115" s="125"/>
       <c r="B115" s="3" t="s">
         <v>260</v>
       </c>
@@ -25253,7 +25253,7 @@
       </c>
     </row>
     <row r="116" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A116" s="122"/>
+      <c r="A116" s="125"/>
       <c r="B116" s="34" t="s">
         <v>260</v>
       </c>
@@ -25332,7 +25332,7 @@
       </c>
     </row>
     <row r="117" spans="1:37" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A117" s="121">
+      <c r="A117" s="124">
         <v>11</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -25415,7 +25415,7 @@
       </c>
     </row>
     <row r="118" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A118" s="122"/>
+      <c r="A118" s="125"/>
       <c r="B118" s="3" t="s">
         <v>264</v>
       </c>
@@ -25496,7 +25496,7 @@
       </c>
     </row>
     <row r="119" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A119" s="122"/>
+      <c r="A119" s="125"/>
       <c r="B119" s="3" t="s">
         <v>264</v>
       </c>
@@ -25577,7 +25577,7 @@
       </c>
     </row>
     <row r="120" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A120" s="122"/>
+      <c r="A120" s="125"/>
       <c r="B120" s="3" t="s">
         <v>264</v>
       </c>
@@ -25655,7 +25655,7 @@
       </c>
     </row>
     <row r="121" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A121" s="122"/>
+      <c r="A121" s="125"/>
       <c r="B121" s="3" t="s">
         <v>264</v>
       </c>
@@ -25733,7 +25733,7 @@
       </c>
     </row>
     <row r="122" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A122" s="122"/>
+      <c r="A122" s="125"/>
       <c r="B122" s="3" t="s">
         <v>264</v>
       </c>
@@ -25811,7 +25811,7 @@
       </c>
     </row>
     <row r="123" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A123" s="122"/>
+      <c r="A123" s="125"/>
       <c r="B123" s="3" t="s">
         <v>264</v>
       </c>
@@ -25889,7 +25889,7 @@
       </c>
     </row>
     <row r="124" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A124" s="122"/>
+      <c r="A124" s="125"/>
       <c r="B124" s="3" t="s">
         <v>264</v>
       </c>
@@ -25967,7 +25967,7 @@
       </c>
     </row>
     <row r="125" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A125" s="122"/>
+      <c r="A125" s="125"/>
       <c r="B125" s="3" t="s">
         <v>264</v>
       </c>
@@ -26045,7 +26045,7 @@
       </c>
     </row>
     <row r="126" spans="1:37" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A126" s="123"/>
+      <c r="A126" s="126"/>
       <c r="B126" s="34" t="s">
         <v>264</v>
       </c>
@@ -26120,7 +26120,7 @@
       </c>
     </row>
     <row r="127" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A127" s="121">
+      <c r="A127" s="124">
         <v>12</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -26225,7 +26225,7 @@
       </c>
     </row>
     <row r="128" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A128" s="122"/>
+      <c r="A128" s="125"/>
       <c r="B128" t="s">
         <v>270</v>
       </c>
@@ -26319,7 +26319,7 @@
       </c>
     </row>
     <row r="129" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A129" s="122"/>
+      <c r="A129" s="125"/>
       <c r="B129" t="s">
         <v>270</v>
       </c>
@@ -26434,7 +26434,7 @@
       </c>
     </row>
     <row r="130" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A130" s="122"/>
+      <c r="A130" s="125"/>
       <c r="B130" t="s">
         <v>270</v>
       </c>
@@ -26537,7 +26537,7 @@
       </c>
     </row>
     <row r="131" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A131" s="122"/>
+      <c r="A131" s="125"/>
       <c r="B131" t="s">
         <v>270</v>
       </c>
@@ -26625,7 +26625,7 @@
       </c>
     </row>
     <row r="132" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A132" s="122"/>
+      <c r="A132" s="125"/>
       <c r="B132" t="s">
         <v>270</v>
       </c>
@@ -26716,7 +26716,7 @@
       </c>
     </row>
     <row r="133" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A133" s="122"/>
+      <c r="A133" s="125"/>
       <c r="B133" t="s">
         <v>270</v>
       </c>
@@ -26810,7 +26810,7 @@
       </c>
     </row>
     <row r="134" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A134" s="122"/>
+      <c r="A134" s="125"/>
       <c r="B134" s="3" t="s">
         <v>270</v>
       </c>
@@ -26904,7 +26904,7 @@
       </c>
     </row>
     <row r="135" spans="1:37" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A135" s="123"/>
+      <c r="A135" s="126"/>
       <c r="B135" s="35" t="s">
         <v>270</v>
       </c>
@@ -26995,7 +26995,7 @@
       </c>
     </row>
     <row r="136" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A136" s="121">
+      <c r="A136" s="124">
         <v>13</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -27097,7 +27097,7 @@
       </c>
     </row>
     <row r="137" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A137" s="122"/>
+      <c r="A137" s="125"/>
       <c r="B137" t="s">
         <v>279</v>
       </c>
@@ -27203,7 +27203,7 @@
       </c>
     </row>
     <row r="138" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A138" s="122"/>
+      <c r="A138" s="125"/>
       <c r="B138" t="s">
         <v>279</v>
       </c>
@@ -27312,7 +27312,7 @@
       </c>
     </row>
     <row r="139" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A139" s="122"/>
+      <c r="A139" s="125"/>
       <c r="B139" t="s">
         <v>279</v>
       </c>
@@ -27409,7 +27409,7 @@
       </c>
     </row>
     <row r="140" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A140" s="122"/>
+      <c r="A140" s="125"/>
       <c r="B140" t="s">
         <v>279</v>
       </c>
@@ -27512,7 +27512,7 @@
       </c>
     </row>
     <row r="141" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A141" s="122"/>
+      <c r="A141" s="125"/>
       <c r="B141" t="s">
         <v>279</v>
       </c>
@@ -27618,7 +27618,7 @@
       </c>
     </row>
     <row r="142" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A142" s="122"/>
+      <c r="A142" s="125"/>
       <c r="B142" t="s">
         <v>279</v>
       </c>
@@ -27727,7 +27727,7 @@
       </c>
     </row>
     <row r="143" spans="1:37" ht="17.25" customHeight="1">
-      <c r="A143" s="122"/>
+      <c r="A143" s="125"/>
       <c r="B143" t="s">
         <v>279</v>
       </c>
@@ -27827,7 +27827,7 @@
       </c>
     </row>
     <row r="144" spans="1:37" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A144" s="122"/>
+      <c r="A144" s="125"/>
       <c r="B144" s="35" t="s">
         <v>279</v>
       </c>
@@ -27927,7 +27927,7 @@
       </c>
     </row>
     <row r="145" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A145" s="121">
+      <c r="A145" s="124">
         <v>14</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -28029,7 +28029,7 @@
       </c>
     </row>
     <row r="146" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A146" s="122"/>
+      <c r="A146" s="125"/>
       <c r="B146" t="s">
         <v>289</v>
       </c>
@@ -28129,7 +28129,7 @@
       </c>
     </row>
     <row r="147" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A147" s="122"/>
+      <c r="A147" s="125"/>
       <c r="B147" t="s">
         <v>289</v>
       </c>
@@ -28220,7 +28220,7 @@
       </c>
     </row>
     <row r="148" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A148" s="122"/>
+      <c r="A148" s="125"/>
       <c r="B148" t="s">
         <v>289</v>
       </c>
@@ -28314,7 +28314,7 @@
       </c>
     </row>
     <row r="149" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A149" s="122"/>
+      <c r="A149" s="125"/>
       <c r="B149" t="s">
         <v>289</v>
       </c>
@@ -28408,7 +28408,7 @@
       </c>
     </row>
     <row r="150" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A150" s="122"/>
+      <c r="A150" s="125"/>
       <c r="B150" t="s">
         <v>289</v>
       </c>
@@ -28502,7 +28502,7 @@
       </c>
     </row>
     <row r="151" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A151" s="122"/>
+      <c r="A151" s="125"/>
       <c r="B151" t="s">
         <v>289</v>
       </c>
@@ -28596,7 +28596,7 @@
       </c>
     </row>
     <row r="152" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A152" s="122"/>
+      <c r="A152" s="125"/>
       <c r="B152" t="s">
         <v>289</v>
       </c>
@@ -28684,7 +28684,7 @@
       </c>
     </row>
     <row r="153" spans="1:34" s="33" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A153" s="122"/>
+      <c r="A153" s="125"/>
       <c r="B153" s="33" t="s">
         <v>289</v>
       </c>
@@ -28775,7 +28775,7 @@
       </c>
     </row>
     <row r="154" spans="1:34" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A154" s="121">
+      <c r="A154" s="124">
         <v>15</v>
       </c>
       <c r="B154" s="30" t="s">
@@ -28865,7 +28865,7 @@
       </c>
     </row>
     <row r="155" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A155" s="122"/>
+      <c r="A155" s="125"/>
       <c r="B155" t="s">
         <v>289</v>
       </c>
@@ -28953,7 +28953,7 @@
       </c>
     </row>
     <row r="156" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A156" s="122"/>
+      <c r="A156" s="125"/>
       <c r="B156" t="s">
         <v>289</v>
       </c>
@@ -29041,7 +29041,7 @@
       </c>
     </row>
     <row r="157" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A157" s="122"/>
+      <c r="A157" s="125"/>
       <c r="B157" t="s">
         <v>289</v>
       </c>
@@ -29129,7 +29129,7 @@
       </c>
     </row>
     <row r="158" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A158" s="122"/>
+      <c r="A158" s="125"/>
       <c r="B158" t="s">
         <v>289</v>
       </c>
@@ -29214,7 +29214,7 @@
       </c>
     </row>
     <row r="159" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A159" s="122"/>
+      <c r="A159" s="125"/>
       <c r="B159" t="s">
         <v>289</v>
       </c>
@@ -29296,14 +29296,14 @@
       </c>
     </row>
     <row r="160" spans="1:34" ht="17.25" customHeight="1">
-      <c r="A160" s="122"/>
+      <c r="A160" s="125"/>
       <c r="B160" t="s">
         <v>289</v>
       </c>
       <c r="C160" s="10">
         <v>7</v>
       </c>
-      <c r="D160" s="127" t="s">
+      <c r="D160" s="120" t="s">
         <v>163</v>
       </c>
       <c r="F160" t="s">
@@ -29387,7 +29387,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" ht="17.25" customHeight="1">
-      <c r="A161" s="122"/>
+      <c r="A161" s="125"/>
       <c r="B161" t="s">
         <v>289</v>
       </c>
@@ -29478,7 +29478,7 @@
       </c>
     </row>
     <row r="162" spans="1:32" ht="17.25" customHeight="1">
-      <c r="A162" s="122"/>
+      <c r="A162" s="125"/>
       <c r="B162" s="33" t="s">
         <v>289</v>
       </c>
@@ -29488,7 +29488,7 @@
       <c r="D162" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F162" s="128" t="s">
+      <c r="F162" s="121" t="s">
         <v>294</v>
       </c>
       <c r="G162" s="32">
@@ -29575,7 +29575,7 @@
       <c r="D163" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F163" s="128" t="s">
+      <c r="F163" s="121" t="s">
         <v>296</v>
       </c>
       <c r="G163" s="32">
@@ -32341,21 +32341,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A46:A58"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A103:A116"/>
+    <mergeCell ref="A72:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A92:A102"/>
+    <mergeCell ref="A59:A71"/>
     <mergeCell ref="A136:A144"/>
     <mergeCell ref="A145:A153"/>
     <mergeCell ref="A154:A162"/>
     <mergeCell ref="A127:A135"/>
     <mergeCell ref="A117:A126"/>
-    <mergeCell ref="A103:A116"/>
-    <mergeCell ref="A72:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A102"/>
-    <mergeCell ref="A59:A71"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A46:A58"/>
-    <mergeCell ref="A35:A45"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <dataValidations count="1">
@@ -32515,22 +32515,22 @@
       <c r="AG2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AH2" s="124" t="s">
+      <c r="AH2" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="124" t="s">
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="124" t="s">
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="124" t="s">
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="125"/>
+      <c r="AO2" s="128"/>
       <c r="AP2" s="12" t="s">
         <v>77</v>
       </c>
@@ -32540,13 +32540,13 @@
       <c r="AR2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AS2" s="124" t="s">
+      <c r="AS2" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="128"/>
       <c r="AX2" s="12"/>
     </row>
     <row r="3" spans="1:51" ht="17.25" customHeight="1">
@@ -33288,22 +33288,22 @@
       <c r="AG8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AH8" s="124" t="s">
+      <c r="AH8" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="AI8" s="125"/>
-      <c r="AJ8" s="124" t="s">
+      <c r="AI8" s="128"/>
+      <c r="AJ8" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="AK8" s="125"/>
-      <c r="AL8" s="124" t="s">
+      <c r="AK8" s="128"/>
+      <c r="AL8" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="AM8" s="125"/>
-      <c r="AN8" s="124" t="s">
+      <c r="AM8" s="128"/>
+      <c r="AN8" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="AO8" s="125"/>
+      <c r="AO8" s="128"/>
       <c r="AP8" s="12" t="s">
         <v>77</v>
       </c>
@@ -33313,13 +33313,13 @@
       <c r="AR8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AS8" s="124" t="s">
+      <c r="AS8" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="AT8" s="125"/>
-      <c r="AU8" s="125"/>
-      <c r="AV8" s="125"/>
-      <c r="AW8" s="125"/>
+      <c r="AT8" s="128"/>
+      <c r="AU8" s="128"/>
+      <c r="AV8" s="128"/>
+      <c r="AW8" s="128"/>
       <c r="AX8" s="12"/>
     </row>
     <row r="9" spans="1:51" ht="17.25" customHeight="1">
@@ -34033,22 +34033,22 @@
       <c r="AG14" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AH14" s="124" t="s">
+      <c r="AH14" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="124" t="s">
+      <c r="AI14" s="128"/>
+      <c r="AJ14" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="AK14" s="125"/>
-      <c r="AL14" s="124" t="s">
+      <c r="AK14" s="128"/>
+      <c r="AL14" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="AM14" s="125"/>
-      <c r="AN14" s="124" t="s">
+      <c r="AM14" s="128"/>
+      <c r="AN14" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="AO14" s="125"/>
+      <c r="AO14" s="128"/>
       <c r="AP14" s="12" t="s">
         <v>77</v>
       </c>
@@ -34058,13 +34058,13 @@
       <c r="AR14" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AS14" s="124" t="s">
+      <c r="AS14" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="AT14" s="125"/>
-      <c r="AU14" s="125"/>
-      <c r="AV14" s="125"/>
-      <c r="AW14" s="125"/>
+      <c r="AT14" s="128"/>
+      <c r="AU14" s="128"/>
+      <c r="AV14" s="128"/>
+      <c r="AW14" s="128"/>
       <c r="AX14" s="12"/>
     </row>
     <row r="15" spans="1:51" ht="17.25" customHeight="1">
@@ -34756,22 +34756,22 @@
       <c r="AG20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AH20" s="124" t="s">
+      <c r="AH20" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="AI20" s="125"/>
-      <c r="AJ20" s="124" t="s">
+      <c r="AI20" s="128"/>
+      <c r="AJ20" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="AK20" s="125"/>
-      <c r="AL20" s="124" t="s">
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="AM20" s="125"/>
-      <c r="AN20" s="124" t="s">
+      <c r="AM20" s="128"/>
+      <c r="AN20" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="AO20" s="125"/>
+      <c r="AO20" s="128"/>
       <c r="AP20" s="12" t="s">
         <v>77</v>
       </c>
@@ -34781,13 +34781,13 @@
       <c r="AR20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AS20" s="124" t="s">
+      <c r="AS20" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="AT20" s="125"/>
-      <c r="AU20" s="125"/>
-      <c r="AV20" s="125"/>
-      <c r="AW20" s="125"/>
+      <c r="AT20" s="128"/>
+      <c r="AU20" s="128"/>
+      <c r="AV20" s="128"/>
+      <c r="AW20" s="128"/>
       <c r="AX20" s="12"/>
     </row>
     <row r="21" spans="1:50" ht="17.25" customHeight="1">
@@ -38719,11 +38719,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AS2:AW2"/>
     <mergeCell ref="AH8:AI8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AS8:AW8"/>
@@ -38739,6 +38734,11 @@
     <mergeCell ref="AL14:AM14"/>
     <mergeCell ref="AN14:AO14"/>
     <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AS2:AW2"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/成績表.xlsx
+++ b/成績表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\成績公開\25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135AF721-6E24-4CDB-AA1B-7BE9A7FE3072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB7812-6625-4121-8D8F-1D9B023942C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15023,8 +15023,8 @@
   <dimension ref="A1:AK836"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
